--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
@@ -427,7 +427,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="42" x14ac:knownFonts="1">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1559,6 +1559,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1577,15 +1694,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1613,114 +1721,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1748,66 +1748,162 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1825,102 +1921,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2837,42 +2837,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="13"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -2883,7 +2883,7 @@
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2892,7 +2892,7 @@
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1">
+    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
@@ -2904,7 +2904,7 @@
       <c r="K25" s="87"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2913,7 +2913,7 @@
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -2922,7 +2922,7 @@
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F28" s="16"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -2931,7 +2931,7 @@
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1">
+    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="37"/>
@@ -2939,7 +2939,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F30" s="14"/>
       <c r="G30" s="17"/>
       <c r="H30" s="14"/>
@@ -2948,7 +2948,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="F31" s="14"/>
       <c r="G31" s="17"/>
       <c r="H31" s="14"/>
@@ -2957,7 +2957,7 @@
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75">
+    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F32" s="14"/>
       <c r="G32" s="17"/>
       <c r="H32" s="14"/>
@@ -2968,7 +2968,7 @@
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75">
+    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="37"/>
@@ -2980,7 +2980,7 @@
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75">
+    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
       <c r="F34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="37"/>
@@ -2997,515 +2997,515 @@
       <c r="R34" s="91"/>
       <c r="S34" s="91"/>
     </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1">
+    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
       <c r="Q35" s="91"/>
       <c r="R35" s="91"/>
       <c r="S35" s="91"/>
     </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O36" s="92"/>
       <c r="P36" s="91"/>
       <c r="Q36" s="92"/>
       <c r="R36" s="91"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O37" s="88"/>
       <c r="P37" s="89"/>
       <c r="Q37" s="88"/>
       <c r="R37" s="89"/>
       <c r="S37" s="88"/>
     </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O38" s="89"/>
       <c r="P38" s="89"/>
       <c r="Q38" s="89"/>
       <c r="R38" s="89"/>
       <c r="S38" s="89"/>
     </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="O39" s="89"/>
       <c r="P39" s="89"/>
       <c r="Q39" s="89"/>
       <c r="R39" s="89"/>
       <c r="S39" s="89"/>
     </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
-    <row r="49" ht="13.5" customHeight="1"/>
-    <row r="50" ht="13.5" customHeight="1"/>
-    <row r="51" ht="13.5" customHeight="1"/>
-    <row r="52" ht="13.5" customHeight="1"/>
-    <row r="53" ht="13.5" customHeight="1"/>
-    <row r="54" ht="13.5" customHeight="1"/>
-    <row r="55" ht="13.5" customHeight="1"/>
-    <row r="56" ht="13.5" customHeight="1"/>
-    <row r="57" ht="13.5" customHeight="1"/>
-    <row r="58" ht="13.5" customHeight="1"/>
-    <row r="59" ht="13.5" customHeight="1"/>
-    <row r="60" ht="13.5" customHeight="1"/>
-    <row r="61" ht="13.5" customHeight="1"/>
-    <row r="62" ht="13.5" customHeight="1"/>
-    <row r="63" ht="13.5" customHeight="1"/>
-    <row r="64" ht="13.5" customHeight="1"/>
-    <row r="65" ht="13.5" customHeight="1"/>
-    <row r="66" ht="13.5" customHeight="1"/>
-    <row r="67" ht="13.5" customHeight="1"/>
-    <row r="68" ht="13.5" customHeight="1"/>
-    <row r="69" ht="13.5" customHeight="1"/>
-    <row r="70" ht="13.5" customHeight="1"/>
-    <row r="71" ht="13.5" customHeight="1"/>
-    <row r="72" ht="13.5" customHeight="1"/>
-    <row r="73" ht="13.5" customHeight="1"/>
-    <row r="74" ht="13.5" customHeight="1"/>
-    <row r="75" ht="13.5" customHeight="1"/>
-    <row r="76" ht="13.5" customHeight="1"/>
-    <row r="77" ht="13.5" customHeight="1"/>
-    <row r="78" ht="13.5" customHeight="1"/>
-    <row r="79" ht="13.5" customHeight="1"/>
-    <row r="80" ht="13.5" customHeight="1"/>
-    <row r="81" ht="13.5" customHeight="1"/>
-    <row r="82" ht="13.5" customHeight="1"/>
-    <row r="83" ht="13.5" customHeight="1"/>
-    <row r="84" ht="13.5" customHeight="1"/>
-    <row r="85" ht="13.5" customHeight="1"/>
-    <row r="86" ht="13.5" customHeight="1"/>
-    <row r="87" ht="13.5" customHeight="1"/>
-    <row r="88" ht="13.5" customHeight="1"/>
-    <row r="89" ht="13.5" customHeight="1"/>
-    <row r="90" ht="13.5" customHeight="1"/>
-    <row r="91" ht="13.5" customHeight="1"/>
-    <row r="92" ht="13.5" customHeight="1"/>
-    <row r="93" ht="13.5" customHeight="1"/>
-    <row r="94" ht="13.5" customHeight="1"/>
-    <row r="95" ht="13.5" customHeight="1"/>
-    <row r="96" ht="13.5" customHeight="1"/>
-    <row r="97" ht="13.5" customHeight="1"/>
-    <row r="98" ht="13.5" customHeight="1"/>
-    <row r="99" ht="13.5" customHeight="1"/>
-    <row r="100" ht="13.5" customHeight="1"/>
-    <row r="101" ht="13.5" customHeight="1"/>
-    <row r="102" ht="13.5" customHeight="1"/>
-    <row r="103" ht="13.5" customHeight="1"/>
-    <row r="104" ht="13.5" customHeight="1"/>
-    <row r="105" ht="13.5" customHeight="1"/>
-    <row r="106" ht="13.5" customHeight="1"/>
-    <row r="107" ht="13.5" customHeight="1"/>
-    <row r="108" ht="13.5" customHeight="1"/>
-    <row r="109" ht="13.5" customHeight="1"/>
-    <row r="110" ht="13.5" customHeight="1"/>
-    <row r="111" ht="13.5" customHeight="1"/>
-    <row r="112" ht="13.5" customHeight="1"/>
-    <row r="113" ht="13.5" customHeight="1"/>
-    <row r="114" ht="13.5" customHeight="1"/>
-    <row r="115" ht="13.5" customHeight="1"/>
-    <row r="116" ht="13.5" customHeight="1"/>
-    <row r="117" ht="13.5" customHeight="1"/>
-    <row r="118" ht="13.5" customHeight="1"/>
-    <row r="119" ht="13.5" customHeight="1"/>
-    <row r="120" ht="13.5" customHeight="1"/>
-    <row r="121" ht="13.5" customHeight="1"/>
-    <row r="122" ht="13.5" customHeight="1"/>
-    <row r="123" ht="13.5" customHeight="1"/>
-    <row r="124" ht="13.5" customHeight="1"/>
-    <row r="125" ht="13.5" customHeight="1"/>
-    <row r="126" ht="13.5" customHeight="1"/>
-    <row r="127" ht="13.5" customHeight="1"/>
-    <row r="128" ht="13.5" customHeight="1"/>
-    <row r="129" ht="13.5" customHeight="1"/>
-    <row r="130" ht="13.5" customHeight="1"/>
-    <row r="131" ht="13.5" customHeight="1"/>
-    <row r="132" ht="13.5" customHeight="1"/>
-    <row r="133" ht="13.5" customHeight="1"/>
-    <row r="134" ht="13.5" customHeight="1"/>
-    <row r="135" ht="13.5" customHeight="1"/>
-    <row r="136" ht="13.5" customHeight="1"/>
-    <row r="137" ht="13.5" customHeight="1"/>
-    <row r="138" ht="13.5" customHeight="1"/>
-    <row r="139" ht="13.5" customHeight="1"/>
-    <row r="140" ht="13.5" customHeight="1"/>
-    <row r="141" ht="13.5" customHeight="1"/>
-    <row r="142" ht="13.5" customHeight="1"/>
-    <row r="143" ht="13.5" customHeight="1"/>
-    <row r="144" ht="13.5" customHeight="1"/>
-    <row r="145" ht="13.5" customHeight="1"/>
-    <row r="146" ht="13.5" customHeight="1"/>
-    <row r="147" ht="13.5" customHeight="1"/>
-    <row r="148" ht="13.5" customHeight="1"/>
-    <row r="149" ht="13.5" customHeight="1"/>
-    <row r="150" ht="13.5" customHeight="1"/>
-    <row r="151" ht="13.5" customHeight="1"/>
-    <row r="152" ht="13.5" customHeight="1"/>
-    <row r="153" ht="13.5" customHeight="1"/>
-    <row r="154" ht="13.5" customHeight="1"/>
-    <row r="155" ht="13.5" customHeight="1"/>
-    <row r="156" ht="13.5" customHeight="1"/>
-    <row r="157" ht="13.5" customHeight="1"/>
-    <row r="158" ht="13.5" customHeight="1"/>
-    <row r="159" ht="13.5" customHeight="1"/>
-    <row r="160" ht="13.5" customHeight="1"/>
-    <row r="161" ht="13.5" customHeight="1"/>
-    <row r="162" ht="13.5" customHeight="1"/>
-    <row r="163" ht="13.5" customHeight="1"/>
-    <row r="164" ht="13.5" customHeight="1"/>
-    <row r="165" ht="13.5" customHeight="1"/>
-    <row r="166" ht="13.5" customHeight="1"/>
-    <row r="167" ht="13.5" customHeight="1"/>
-    <row r="168" ht="13.5" customHeight="1"/>
-    <row r="169" ht="13.5" customHeight="1"/>
-    <row r="170" ht="13.5" customHeight="1"/>
-    <row r="171" ht="13.5" customHeight="1"/>
-    <row r="172" ht="13.5" customHeight="1"/>
-    <row r="173" ht="13.5" customHeight="1"/>
-    <row r="174" ht="13.5" customHeight="1"/>
-    <row r="175" ht="13.5" customHeight="1"/>
-    <row r="176" ht="13.5" customHeight="1"/>
-    <row r="177" ht="13.5" customHeight="1"/>
-    <row r="178" ht="13.5" customHeight="1"/>
-    <row r="179" ht="13.5" customHeight="1"/>
-    <row r="180" ht="13.5" customHeight="1"/>
-    <row r="181" ht="13.5" customHeight="1"/>
-    <row r="182" ht="13.5" customHeight="1"/>
-    <row r="183" ht="13.5" customHeight="1"/>
-    <row r="184" ht="13.5" customHeight="1"/>
-    <row r="185" ht="13.5" customHeight="1"/>
-    <row r="186" ht="13.5" customHeight="1"/>
-    <row r="187" ht="13.5" customHeight="1"/>
-    <row r="188" ht="13.5" customHeight="1"/>
-    <row r="189" ht="13.5" customHeight="1"/>
-    <row r="190" ht="13.5" customHeight="1"/>
-    <row r="191" ht="13.5" customHeight="1"/>
-    <row r="192" ht="13.5" customHeight="1"/>
-    <row r="193" ht="13.5" customHeight="1"/>
-    <row r="194" ht="13.5" customHeight="1"/>
-    <row r="195" ht="13.5" customHeight="1"/>
-    <row r="196" ht="13.5" customHeight="1"/>
-    <row r="197" ht="13.5" customHeight="1"/>
-    <row r="198" ht="13.5" customHeight="1"/>
-    <row r="199" ht="13.5" customHeight="1"/>
-    <row r="200" ht="13.5" customHeight="1"/>
-    <row r="201" ht="13.5" customHeight="1"/>
-    <row r="202" ht="13.5" customHeight="1"/>
-    <row r="203" ht="13.5" customHeight="1"/>
-    <row r="204" ht="13.5" customHeight="1"/>
-    <row r="205" ht="13.5" customHeight="1"/>
-    <row r="206" ht="13.5" customHeight="1"/>
-    <row r="207" ht="13.5" customHeight="1"/>
-    <row r="208" ht="13.5" customHeight="1"/>
-    <row r="209" ht="13.5" customHeight="1"/>
-    <row r="210" ht="13.5" customHeight="1"/>
-    <row r="211" ht="13.5" customHeight="1"/>
-    <row r="212" ht="13.5" customHeight="1"/>
-    <row r="213" ht="13.5" customHeight="1"/>
-    <row r="214" ht="13.5" customHeight="1"/>
-    <row r="215" ht="13.5" customHeight="1"/>
-    <row r="216" ht="13.5" customHeight="1"/>
-    <row r="217" ht="13.5" customHeight="1"/>
-    <row r="218" ht="13.5" customHeight="1"/>
-    <row r="219" ht="13.5" customHeight="1"/>
-    <row r="220" ht="13.5" customHeight="1"/>
-    <row r="221" ht="13.5" customHeight="1"/>
-    <row r="222" ht="13.5" customHeight="1"/>
-    <row r="223" ht="13.5" customHeight="1"/>
-    <row r="224" ht="13.5" customHeight="1"/>
-    <row r="225" ht="13.5" customHeight="1"/>
-    <row r="226" ht="13.5" customHeight="1"/>
-    <row r="227" ht="13.5" customHeight="1"/>
-    <row r="228" ht="13.5" customHeight="1"/>
-    <row r="229" ht="13.5" customHeight="1"/>
-    <row r="230" ht="13.5" customHeight="1"/>
-    <row r="231" ht="13.5" customHeight="1"/>
-    <row r="232" ht="13.5" customHeight="1"/>
-    <row r="233" ht="13.5" customHeight="1"/>
-    <row r="234" ht="13.5" customHeight="1"/>
-    <row r="235" ht="13.5" customHeight="1"/>
-    <row r="236" ht="13.5" customHeight="1"/>
-    <row r="237" ht="13.5" customHeight="1"/>
-    <row r="238" ht="13.5" customHeight="1"/>
-    <row r="239" ht="13.5" customHeight="1"/>
-    <row r="240" ht="13.5" customHeight="1"/>
-    <row r="241" ht="13.5" customHeight="1"/>
-    <row r="242" ht="13.5" customHeight="1"/>
-    <row r="243" ht="13.5" customHeight="1"/>
-    <row r="244" ht="13.5" customHeight="1"/>
-    <row r="245" ht="13.5" customHeight="1"/>
-    <row r="246" ht="13.5" customHeight="1"/>
-    <row r="247" ht="13.5" customHeight="1"/>
-    <row r="248" ht="13.5" customHeight="1"/>
-    <row r="249" ht="13.5" customHeight="1"/>
-    <row r="250" ht="13.5" customHeight="1"/>
-    <row r="251" ht="13.5" customHeight="1"/>
-    <row r="252" ht="13.5" customHeight="1"/>
-    <row r="253" ht="13.5" customHeight="1"/>
-    <row r="254" ht="13.5" customHeight="1"/>
-    <row r="255" ht="13.5" customHeight="1"/>
-    <row r="256" ht="13.5" customHeight="1"/>
-    <row r="257" ht="13.5" customHeight="1"/>
-    <row r="258" ht="13.5" customHeight="1"/>
-    <row r="259" ht="13.5" customHeight="1"/>
-    <row r="260" ht="13.5" customHeight="1"/>
-    <row r="261" ht="13.5" customHeight="1"/>
-    <row r="262" ht="13.5" customHeight="1"/>
-    <row r="263" ht="13.5" customHeight="1"/>
-    <row r="264" ht="13.5" customHeight="1"/>
-    <row r="265" ht="13.5" customHeight="1"/>
-    <row r="266" ht="13.5" customHeight="1"/>
-    <row r="267" ht="13.5" customHeight="1"/>
-    <row r="268" ht="13.5" customHeight="1"/>
-    <row r="269" ht="13.5" customHeight="1"/>
-    <row r="270" ht="13.5" customHeight="1"/>
-    <row r="271" ht="13.5" customHeight="1"/>
-    <row r="272" ht="13.5" customHeight="1"/>
-    <row r="273" ht="13.5" customHeight="1"/>
-    <row r="274" ht="13.5" customHeight="1"/>
-    <row r="275" ht="13.5" customHeight="1"/>
-    <row r="276" ht="13.5" customHeight="1"/>
-    <row r="277" ht="13.5" customHeight="1"/>
-    <row r="278" ht="13.5" customHeight="1"/>
-    <row r="279" ht="13.5" customHeight="1"/>
-    <row r="280" ht="13.5" customHeight="1"/>
-    <row r="281" ht="13.5" customHeight="1"/>
-    <row r="282" ht="13.5" customHeight="1"/>
-    <row r="283" ht="13.5" customHeight="1"/>
-    <row r="284" ht="13.5" customHeight="1"/>
-    <row r="285" ht="13.5" customHeight="1"/>
-    <row r="286" ht="13.5" customHeight="1"/>
-    <row r="287" ht="13.5" customHeight="1"/>
-    <row r="288" ht="13.5" customHeight="1"/>
-    <row r="289" ht="13.5" customHeight="1"/>
-    <row r="290" ht="13.5" customHeight="1"/>
-    <row r="291" ht="13.5" customHeight="1"/>
-    <row r="292" ht="13.5" customHeight="1"/>
-    <row r="293" ht="13.5" customHeight="1"/>
-    <row r="294" ht="13.5" customHeight="1"/>
-    <row r="295" ht="13.5" customHeight="1"/>
-    <row r="296" ht="13.5" customHeight="1"/>
-    <row r="297" ht="13.5" customHeight="1"/>
-    <row r="298" ht="13.5" customHeight="1"/>
-    <row r="299" ht="13.5" customHeight="1"/>
-    <row r="300" ht="13.5" customHeight="1"/>
-    <row r="301" ht="13.5" customHeight="1"/>
-    <row r="302" ht="13.5" customHeight="1"/>
-    <row r="303" ht="13.5" customHeight="1"/>
-    <row r="304" ht="13.5" customHeight="1"/>
-    <row r="305" ht="13.5" customHeight="1"/>
-    <row r="306" ht="13.5" customHeight="1"/>
-    <row r="307" ht="13.5" customHeight="1"/>
-    <row r="308" ht="13.5" customHeight="1"/>
-    <row r="309" ht="13.5" customHeight="1"/>
-    <row r="310" ht="13.5" customHeight="1"/>
-    <row r="311" ht="13.5" customHeight="1"/>
-    <row r="312" ht="13.5" customHeight="1"/>
-    <row r="313" ht="13.5" customHeight="1"/>
-    <row r="314" ht="13.5" customHeight="1"/>
-    <row r="315" ht="13.5" customHeight="1"/>
-    <row r="316" ht="13.5" customHeight="1"/>
-    <row r="317" ht="13.5" customHeight="1"/>
-    <row r="318" ht="13.5" customHeight="1"/>
-    <row r="319" ht="13.5" customHeight="1"/>
-    <row r="320" ht="13.5" customHeight="1"/>
-    <row r="321" ht="13.5" customHeight="1"/>
-    <row r="322" ht="13.5" customHeight="1"/>
-    <row r="323" ht="13.5" customHeight="1"/>
-    <row r="324" ht="13.5" customHeight="1"/>
-    <row r="325" ht="13.5" customHeight="1"/>
-    <row r="326" ht="13.5" customHeight="1"/>
-    <row r="327" ht="13.5" customHeight="1"/>
-    <row r="328" ht="13.5" customHeight="1"/>
-    <row r="329" ht="13.5" customHeight="1"/>
-    <row r="330" ht="13.5" customHeight="1"/>
-    <row r="331" ht="13.5" customHeight="1"/>
-    <row r="332" ht="13.5" customHeight="1"/>
-    <row r="333" ht="13.5" customHeight="1"/>
-    <row r="334" ht="13.5" customHeight="1"/>
-    <row r="335" ht="13.5" customHeight="1"/>
-    <row r="336" ht="13.5" customHeight="1"/>
-    <row r="337" ht="13.5" customHeight="1"/>
-    <row r="338" ht="13.5" customHeight="1"/>
-    <row r="339" ht="13.5" customHeight="1"/>
-    <row r="340" ht="13.5" customHeight="1"/>
-    <row r="341" ht="13.5" customHeight="1"/>
-    <row r="342" ht="13.5" customHeight="1"/>
-    <row r="343" ht="13.5" customHeight="1"/>
-    <row r="344" ht="13.5" customHeight="1"/>
-    <row r="345" ht="13.5" customHeight="1"/>
-    <row r="346" ht="13.5" customHeight="1"/>
-    <row r="347" ht="13.5" customHeight="1"/>
-    <row r="348" ht="13.5" customHeight="1"/>
-    <row r="349" ht="13.5" customHeight="1"/>
-    <row r="350" ht="13.5" customHeight="1"/>
-    <row r="351" ht="13.5" customHeight="1"/>
-    <row r="352" ht="13.5" customHeight="1"/>
-    <row r="353" ht="13.5" customHeight="1"/>
-    <row r="354" ht="13.5" customHeight="1"/>
-    <row r="355" ht="13.5" customHeight="1"/>
-    <row r="356" ht="13.5" customHeight="1"/>
-    <row r="357" ht="13.5" customHeight="1"/>
-    <row r="358" ht="13.5" customHeight="1"/>
-    <row r="359" ht="13.5" customHeight="1"/>
-    <row r="360" ht="13.5" customHeight="1"/>
-    <row r="361" ht="13.5" customHeight="1"/>
-    <row r="362" ht="13.5" customHeight="1"/>
-    <row r="363" ht="13.5" customHeight="1"/>
-    <row r="364" ht="13.5" customHeight="1"/>
-    <row r="365" ht="13.5" customHeight="1"/>
-    <row r="366" ht="13.5" customHeight="1"/>
-    <row r="367" ht="13.5" customHeight="1"/>
-    <row r="368" ht="13.5" customHeight="1"/>
-    <row r="369" ht="13.5" customHeight="1"/>
-    <row r="370" ht="13.5" customHeight="1"/>
-    <row r="371" ht="13.5" customHeight="1"/>
-    <row r="372" ht="13.5" customHeight="1"/>
-    <row r="373" ht="13.5" customHeight="1"/>
-    <row r="374" ht="13.5" customHeight="1"/>
-    <row r="375" ht="13.5" customHeight="1"/>
-    <row r="376" ht="13.5" customHeight="1"/>
-    <row r="377" ht="13.5" customHeight="1"/>
-    <row r="378" ht="13.5" customHeight="1"/>
-    <row r="379" ht="13.5" customHeight="1"/>
-    <row r="380" ht="13.5" customHeight="1"/>
-    <row r="381" ht="13.5" customHeight="1"/>
-    <row r="382" ht="13.5" customHeight="1"/>
-    <row r="383" ht="13.5" customHeight="1"/>
-    <row r="384" ht="13.5" customHeight="1"/>
-    <row r="385" ht="13.5" customHeight="1"/>
-    <row r="386" ht="13.5" customHeight="1"/>
-    <row r="387" ht="13.5" customHeight="1"/>
-    <row r="388" ht="13.5" customHeight="1"/>
-    <row r="389" ht="13.5" customHeight="1"/>
-    <row r="390" ht="13.5" customHeight="1"/>
-    <row r="391" ht="13.5" customHeight="1"/>
-    <row r="392" ht="13.5" customHeight="1"/>
-    <row r="393" ht="13.5" customHeight="1"/>
-    <row r="394" ht="13.5" customHeight="1"/>
-    <row r="395" ht="13.5" customHeight="1"/>
-    <row r="396" ht="13.5" customHeight="1"/>
-    <row r="397" ht="13.5" customHeight="1"/>
-    <row r="398" ht="13.5" customHeight="1"/>
-    <row r="399" ht="13.5" customHeight="1"/>
-    <row r="400" ht="13.5" customHeight="1"/>
-    <row r="401" ht="13.5" customHeight="1"/>
-    <row r="402" ht="13.5" customHeight="1"/>
-    <row r="403" ht="13.5" customHeight="1"/>
-    <row r="404" ht="13.5" customHeight="1"/>
-    <row r="405" ht="13.5" customHeight="1"/>
-    <row r="406" ht="13.5" customHeight="1"/>
-    <row r="407" ht="13.5" customHeight="1"/>
-    <row r="408" ht="13.5" customHeight="1"/>
-    <row r="409" ht="13.5" customHeight="1"/>
-    <row r="410" ht="13.5" customHeight="1"/>
-    <row r="411" ht="13.5" customHeight="1"/>
-    <row r="412" ht="13.5" customHeight="1"/>
-    <row r="413" ht="13.5" customHeight="1"/>
-    <row r="414" ht="13.5" customHeight="1"/>
-    <row r="415" ht="13.5" customHeight="1"/>
-    <row r="416" ht="13.5" customHeight="1"/>
-    <row r="417" ht="13.5" customHeight="1"/>
-    <row r="418" ht="13.5" customHeight="1"/>
-    <row r="419" ht="13.5" customHeight="1"/>
-    <row r="420" ht="13.5" customHeight="1"/>
-    <row r="421" ht="13.5" customHeight="1"/>
-    <row r="422" ht="13.5" customHeight="1"/>
-    <row r="423" ht="13.5" customHeight="1"/>
-    <row r="424" ht="13.5" customHeight="1"/>
-    <row r="425" ht="13.5" customHeight="1"/>
-    <row r="426" ht="13.5" customHeight="1"/>
-    <row r="427" ht="13.5" customHeight="1"/>
-    <row r="428" ht="13.5" customHeight="1"/>
-    <row r="429" ht="13.5" customHeight="1"/>
-    <row r="430" ht="13.5" customHeight="1"/>
-    <row r="431" ht="13.5" customHeight="1"/>
-    <row r="432" ht="13.5" customHeight="1"/>
-    <row r="433" ht="13.5" customHeight="1"/>
-    <row r="434" ht="13.5" customHeight="1"/>
-    <row r="435" ht="13.5" customHeight="1"/>
-    <row r="436" ht="13.5" customHeight="1"/>
-    <row r="437" ht="13.5" customHeight="1"/>
-    <row r="438" ht="13.5" customHeight="1"/>
-    <row r="439" ht="13.5" customHeight="1"/>
-    <row r="440" ht="13.5" customHeight="1"/>
-    <row r="441" ht="13.5" customHeight="1"/>
-    <row r="442" ht="13.5" customHeight="1"/>
-    <row r="443" ht="13.5" customHeight="1"/>
-    <row r="444" ht="13.5" customHeight="1"/>
-    <row r="445" ht="13.5" customHeight="1"/>
-    <row r="446" ht="13.5" customHeight="1"/>
-    <row r="447" ht="13.5" customHeight="1"/>
-    <row r="448" ht="13.5" customHeight="1"/>
-    <row r="449" ht="13.5" customHeight="1"/>
-    <row r="450" ht="13.5" customHeight="1"/>
-    <row r="451" ht="13.5" customHeight="1"/>
-    <row r="452" ht="13.5" customHeight="1"/>
-    <row r="453" ht="13.5" customHeight="1"/>
-    <row r="454" ht="13.5" customHeight="1"/>
-    <row r="455" ht="13.5" customHeight="1"/>
-    <row r="456" ht="13.5" customHeight="1"/>
-    <row r="457" ht="13.5" customHeight="1"/>
-    <row r="458" ht="13.5" customHeight="1"/>
-    <row r="459" ht="13.5" customHeight="1"/>
-    <row r="460" ht="13.5" customHeight="1"/>
-    <row r="461" ht="13.5" customHeight="1"/>
-    <row r="462" ht="13.5" customHeight="1"/>
-    <row r="463" ht="13.5" customHeight="1"/>
-    <row r="464" ht="13.5" customHeight="1"/>
-    <row r="465" ht="13.5" customHeight="1"/>
-    <row r="466" ht="13.5" customHeight="1"/>
-    <row r="467" ht="13.5" customHeight="1"/>
-    <row r="468" ht="13.5" customHeight="1"/>
-    <row r="469" ht="13.5" customHeight="1"/>
-    <row r="470" ht="13.5" customHeight="1"/>
-    <row r="471" ht="13.5" customHeight="1"/>
-    <row r="472" ht="13.5" customHeight="1"/>
-    <row r="473" ht="13.5" customHeight="1"/>
-    <row r="474" ht="13.5" customHeight="1"/>
-    <row r="475" ht="13.5" customHeight="1"/>
-    <row r="476" ht="13.5" customHeight="1"/>
-    <row r="477" ht="13.5" customHeight="1"/>
-    <row r="478" ht="13.5" customHeight="1"/>
-    <row r="479" ht="13.5" customHeight="1"/>
-    <row r="480" ht="13.5" customHeight="1"/>
-    <row r="481" ht="13.5" customHeight="1"/>
-    <row r="482" ht="13.5" customHeight="1"/>
-    <row r="483" ht="13.5" customHeight="1"/>
-    <row r="484" ht="13.5" customHeight="1"/>
-    <row r="485" ht="13.5" customHeight="1"/>
-    <row r="486" ht="13.5" customHeight="1"/>
-    <row r="487" ht="13.5" customHeight="1"/>
-    <row r="488" ht="13.5" customHeight="1"/>
-    <row r="489" ht="13.5" customHeight="1"/>
-    <row r="490" ht="13.5" customHeight="1"/>
-    <row r="491" ht="13.5" customHeight="1"/>
-    <row r="492" ht="13.5" customHeight="1"/>
-    <row r="493" ht="13.5" customHeight="1"/>
-    <row r="494" ht="13.5" customHeight="1"/>
-    <row r="495" ht="13.5" customHeight="1"/>
-    <row r="496" ht="13.5" customHeight="1"/>
-    <row r="497" ht="13.5" customHeight="1"/>
-    <row r="498" ht="13.5" customHeight="1"/>
-    <row r="499" ht="13.5" customHeight="1"/>
-    <row r="500" ht="13.5" customHeight="1"/>
-    <row r="501" ht="13.5" customHeight="1"/>
-    <row r="502" ht="13.5" customHeight="1"/>
-    <row r="503" ht="13.5" customHeight="1"/>
-    <row r="504" ht="13.5" customHeight="1"/>
-    <row r="505" ht="13.5" customHeight="1"/>
-    <row r="506" ht="13.5" customHeight="1"/>
-    <row r="507" ht="13.5" customHeight="1"/>
-    <row r="508" ht="13.5" customHeight="1"/>
-    <row r="509" ht="13.5" customHeight="1"/>
-    <row r="510" ht="13.5" customHeight="1"/>
-    <row r="511" ht="13.5" customHeight="1"/>
-    <row r="512" ht="13.5" customHeight="1"/>
-    <row r="513" ht="13.5" customHeight="1"/>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -3536,162 +3536,162 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="120" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="129" t="s">
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
+      <c r="S1" s="129"/>
+      <c r="T1" s="130"/>
+      <c r="U1" s="130"/>
+      <c r="V1" s="130"/>
+      <c r="W1" s="130"/>
+      <c r="X1" s="130"/>
+      <c r="Y1" s="130"/>
+      <c r="Z1" s="131"/>
+      <c r="AA1" s="117" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="108" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="99" t="str">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="138" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="101"/>
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="140"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
       <c r="AM1" s="20"/>
       <c r="AN1" s="21"/>
     </row>
-    <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="129" t="s">
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="150"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="125"/>
+      <c r="S2" s="132"/>
+      <c r="T2" s="133"/>
+      <c r="U2" s="133"/>
+      <c r="V2" s="133"/>
+      <c r="W2" s="133"/>
+      <c r="X2" s="133"/>
+      <c r="Y2" s="133"/>
+      <c r="Z2" s="134"/>
+      <c r="AA2" s="117" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="102" t="str">
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="141" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="99" t="str">
+      <c r="AD2" s="142"/>
+      <c r="AE2" s="142"/>
+      <c r="AF2" s="143"/>
+      <c r="AG2" s="138" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="101"/>
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="140"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
       <c r="AM2" s="20"/>
       <c r="AN2" s="20"/>
     </row>
-    <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="129" t="s">
+    <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="101"/>
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="150"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="128"/>
+      <c r="S3" s="135"/>
+      <c r="T3" s="136"/>
+      <c r="U3" s="136"/>
+      <c r="V3" s="136"/>
+      <c r="W3" s="136"/>
+      <c r="X3" s="136"/>
+      <c r="Y3" s="136"/>
+      <c r="Z3" s="137"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="108"/>
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="138"/>
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="140"/>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
       <c r="AM3" s="20"/>
       <c r="AN3" s="20"/>
     </row>
-    <row r="5" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1">
+    <row r="5" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3705,7 +3705,7 @@
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="N6" s="4"/>
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
@@ -3717,104 +3717,104 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="35"/>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1">
+    <row r="7" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="105" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="120" t="s">
+      <c r="C7" s="106"/>
+      <c r="D7" s="105" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="120" t="s">
+      <c r="E7" s="107"/>
+      <c r="F7" s="106"/>
+      <c r="G7" s="105" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="120" t="s">
+      <c r="H7" s="107"/>
+      <c r="I7" s="106"/>
+      <c r="J7" s="105" t="s">
         <v>34</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="120" t="s">
+      <c r="K7" s="107"/>
+      <c r="L7" s="107"/>
+      <c r="M7" s="107"/>
+      <c r="N7" s="107"/>
+      <c r="O7" s="107"/>
+      <c r="P7" s="106"/>
+      <c r="Q7" s="105" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="120" t="s">
+      <c r="R7" s="107"/>
+      <c r="S7" s="107"/>
+      <c r="T7" s="107"/>
+      <c r="U7" s="107"/>
+      <c r="V7" s="107"/>
+      <c r="W7" s="107"/>
+      <c r="X7" s="107"/>
+      <c r="Y7" s="107"/>
+      <c r="Z7" s="107"/>
+      <c r="AA7" s="107"/>
+      <c r="AB7" s="107"/>
+      <c r="AC7" s="107"/>
+      <c r="AD7" s="107"/>
+      <c r="AE7" s="106"/>
+      <c r="AF7" s="105" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="121"/>
-    </row>
-    <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1">
+      <c r="AG7" s="107"/>
+      <c r="AH7" s="107"/>
+      <c r="AI7" s="106"/>
+    </row>
+    <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="85"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="110"/>
-    </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
+      <c r="B8" s="111"/>
+      <c r="C8" s="112"/>
+      <c r="D8" s="113"/>
+      <c r="E8" s="114"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="111"/>
+      <c r="H8" s="116"/>
+      <c r="I8" s="112"/>
+      <c r="J8" s="144"/>
+      <c r="K8" s="145"/>
+      <c r="L8" s="145"/>
+      <c r="M8" s="145"/>
+      <c r="N8" s="145"/>
+      <c r="O8" s="145"/>
+      <c r="P8" s="146"/>
+      <c r="Q8" s="147"/>
+      <c r="R8" s="148"/>
+      <c r="S8" s="148"/>
+      <c r="T8" s="148"/>
+      <c r="U8" s="148"/>
+      <c r="V8" s="148"/>
+      <c r="W8" s="148"/>
+      <c r="X8" s="148"/>
+      <c r="Y8" s="148"/>
+      <c r="Z8" s="148"/>
+      <c r="AA8" s="148"/>
+      <c r="AB8" s="148"/>
+      <c r="AC8" s="148"/>
+      <c r="AD8" s="148"/>
+      <c r="AE8" s="149"/>
+      <c r="AF8" s="144"/>
+      <c r="AG8" s="145"/>
+      <c r="AH8" s="145"/>
+      <c r="AI8" s="146"/>
+    </row>
+    <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="86"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
+      <c r="B9" s="99"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="101"/>
+      <c r="E9" s="102"/>
+      <c r="F9" s="103"/>
+      <c r="G9" s="99"/>
+      <c r="H9" s="104"/>
+      <c r="I9" s="100"/>
       <c r="J9" s="93"/>
       <c r="K9" s="94"/>
       <c r="L9" s="94"/>
@@ -3843,16 +3843,16 @@
       <c r="AI9" s="95"/>
       <c r="AJ9" s="32"/>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="86"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
+      <c r="B10" s="99"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="101"/>
+      <c r="E10" s="102"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="99"/>
+      <c r="H10" s="104"/>
+      <c r="I10" s="100"/>
       <c r="J10" s="93"/>
       <c r="K10" s="94"/>
       <c r="L10" s="94"/>
@@ -3880,16 +3880,16 @@
       <c r="AH10" s="94"/>
       <c r="AI10" s="95"/>
     </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="86"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
+      <c r="B11" s="99"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="101"/>
+      <c r="E11" s="102"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="99"/>
+      <c r="H11" s="104"/>
+      <c r="I11" s="100"/>
       <c r="J11" s="93"/>
       <c r="K11" s="94"/>
       <c r="L11" s="94"/>
@@ -3917,16 +3917,16 @@
       <c r="AH11" s="94"/>
       <c r="AI11" s="95"/>
     </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="86"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
+      <c r="B12" s="99"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="101"/>
+      <c r="E12" s="102"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="99"/>
+      <c r="H12" s="104"/>
+      <c r="I12" s="100"/>
       <c r="J12" s="93"/>
       <c r="K12" s="94"/>
       <c r="L12" s="94"/>
@@ -3954,16 +3954,16 @@
       <c r="AH12" s="94"/>
       <c r="AI12" s="95"/>
     </row>
-    <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="86"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
+      <c r="B13" s="99"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="101"/>
+      <c r="E13" s="102"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="99"/>
+      <c r="H13" s="104"/>
+      <c r="I13" s="100"/>
       <c r="J13" s="93"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
@@ -3991,16 +3991,16 @@
       <c r="AH13" s="94"/>
       <c r="AI13" s="95"/>
     </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="86"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
+      <c r="B14" s="99"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="101"/>
+      <c r="E14" s="102"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="99"/>
+      <c r="H14" s="104"/>
+      <c r="I14" s="100"/>
       <c r="J14" s="93"/>
       <c r="K14" s="94"/>
       <c r="L14" s="94"/>
@@ -4028,16 +4028,16 @@
       <c r="AH14" s="94"/>
       <c r="AI14" s="95"/>
     </row>
-    <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="86"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
+      <c r="B15" s="99"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="99"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="100"/>
       <c r="J15" s="93"/>
       <c r="K15" s="94"/>
       <c r="L15" s="94"/>
@@ -4065,16 +4065,16 @@
       <c r="AH15" s="94"/>
       <c r="AI15" s="95"/>
     </row>
-    <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="86"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
+      <c r="B16" s="99"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="101"/>
+      <c r="E16" s="102"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="99"/>
+      <c r="H16" s="104"/>
+      <c r="I16" s="100"/>
       <c r="J16" s="93"/>
       <c r="K16" s="94"/>
       <c r="L16" s="94"/>
@@ -4102,16 +4102,16 @@
       <c r="AH16" s="94"/>
       <c r="AI16" s="95"/>
     </row>
-    <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="86"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
+      <c r="B17" s="99"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="101"/>
+      <c r="E17" s="102"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="99"/>
+      <c r="H17" s="104"/>
+      <c r="I17" s="100"/>
       <c r="J17" s="93"/>
       <c r="K17" s="94"/>
       <c r="L17" s="94"/>
@@ -4139,16 +4139,16 @@
       <c r="AH17" s="94"/>
       <c r="AI17" s="95"/>
     </row>
-    <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="86"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
+      <c r="B18" s="99"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="101"/>
+      <c r="E18" s="102"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="99"/>
+      <c r="H18" s="104"/>
+      <c r="I18" s="100"/>
       <c r="J18" s="93"/>
       <c r="K18" s="94"/>
       <c r="L18" s="94"/>
@@ -4176,16 +4176,16 @@
       <c r="AH18" s="94"/>
       <c r="AI18" s="95"/>
     </row>
-    <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="86"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
+      <c r="B19" s="99"/>
+      <c r="C19" s="100"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="99"/>
+      <c r="H19" s="104"/>
+      <c r="I19" s="100"/>
       <c r="J19" s="93"/>
       <c r="K19" s="94"/>
       <c r="L19" s="94"/>
@@ -4213,16 +4213,16 @@
       <c r="AH19" s="94"/>
       <c r="AI19" s="95"/>
     </row>
-    <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="86"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
+      <c r="B20" s="99"/>
+      <c r="C20" s="100"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="102"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="99"/>
+      <c r="H20" s="104"/>
+      <c r="I20" s="100"/>
       <c r="J20" s="93"/>
       <c r="K20" s="94"/>
       <c r="L20" s="94"/>
@@ -4250,16 +4250,16 @@
       <c r="AH20" s="94"/>
       <c r="AI20" s="95"/>
     </row>
-    <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="86"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
+      <c r="B21" s="99"/>
+      <c r="C21" s="100"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="102"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="99"/>
+      <c r="H21" s="104"/>
+      <c r="I21" s="100"/>
       <c r="J21" s="93"/>
       <c r="K21" s="94"/>
       <c r="L21" s="94"/>
@@ -4287,16 +4287,16 @@
       <c r="AH21" s="94"/>
       <c r="AI21" s="95"/>
     </row>
-    <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="86"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
+      <c r="B22" s="99"/>
+      <c r="C22" s="100"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="102"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="99"/>
+      <c r="H22" s="104"/>
+      <c r="I22" s="100"/>
       <c r="J22" s="93"/>
       <c r="K22" s="94"/>
       <c r="L22" s="94"/>
@@ -4324,16 +4324,16 @@
       <c r="AH22" s="94"/>
       <c r="AI22" s="95"/>
     </row>
-    <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="86"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
+      <c r="B23" s="99"/>
+      <c r="C23" s="100"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="102"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="99"/>
+      <c r="H23" s="104"/>
+      <c r="I23" s="100"/>
       <c r="J23" s="93"/>
       <c r="K23" s="94"/>
       <c r="L23" s="94"/>
@@ -4361,16 +4361,16 @@
       <c r="AH23" s="94"/>
       <c r="AI23" s="95"/>
     </row>
-    <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="86"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
+      <c r="B24" s="99"/>
+      <c r="C24" s="100"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="102"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="99"/>
+      <c r="H24" s="104"/>
+      <c r="I24" s="100"/>
       <c r="J24" s="93"/>
       <c r="K24" s="94"/>
       <c r="L24" s="94"/>
@@ -4398,16 +4398,16 @@
       <c r="AH24" s="94"/>
       <c r="AI24" s="95"/>
     </row>
-    <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="86"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="119"/>
+      <c r="B25" s="99"/>
+      <c r="C25" s="100"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="102"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="99"/>
+      <c r="H25" s="104"/>
+      <c r="I25" s="100"/>
       <c r="J25" s="93"/>
       <c r="K25" s="94"/>
       <c r="L25" s="94"/>
@@ -4435,16 +4435,16 @@
       <c r="AH25" s="94"/>
       <c r="AI25" s="95"/>
     </row>
-    <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="86"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
+      <c r="B26" s="99"/>
+      <c r="C26" s="100"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="104"/>
+      <c r="I26" s="100"/>
       <c r="J26" s="93"/>
       <c r="K26" s="94"/>
       <c r="L26" s="94"/>
@@ -4472,16 +4472,16 @@
       <c r="AH26" s="94"/>
       <c r="AI26" s="95"/>
     </row>
-    <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="86"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="119"/>
+      <c r="B27" s="99"/>
+      <c r="C27" s="100"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="102"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="104"/>
+      <c r="I27" s="100"/>
       <c r="J27" s="93"/>
       <c r="K27" s="94"/>
       <c r="L27" s="94"/>
@@ -4509,16 +4509,16 @@
       <c r="AH27" s="94"/>
       <c r="AI27" s="95"/>
     </row>
-    <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="86"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
+      <c r="B28" s="99"/>
+      <c r="C28" s="100"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="102"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="99"/>
+      <c r="H28" s="104"/>
+      <c r="I28" s="100"/>
       <c r="J28" s="93"/>
       <c r="K28" s="94"/>
       <c r="L28" s="94"/>
@@ -4546,16 +4546,16 @@
       <c r="AH28" s="94"/>
       <c r="AI28" s="95"/>
     </row>
-    <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="86"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="119"/>
+      <c r="B29" s="99"/>
+      <c r="C29" s="100"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="102"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="99"/>
+      <c r="H29" s="104"/>
+      <c r="I29" s="100"/>
       <c r="J29" s="93"/>
       <c r="K29" s="94"/>
       <c r="L29" s="94"/>
@@ -4583,16 +4583,16 @@
       <c r="AH29" s="94"/>
       <c r="AI29" s="95"/>
     </row>
-    <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="86"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="119"/>
+      <c r="B30" s="99"/>
+      <c r="C30" s="100"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="102"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="99"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="100"/>
       <c r="J30" s="93"/>
       <c r="K30" s="94"/>
       <c r="L30" s="94"/>
@@ -4620,16 +4620,16 @@
       <c r="AH30" s="94"/>
       <c r="AI30" s="95"/>
     </row>
-    <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="86"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119"/>
+      <c r="B31" s="99"/>
+      <c r="C31" s="100"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="102"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="104"/>
+      <c r="I31" s="100"/>
       <c r="J31" s="93"/>
       <c r="K31" s="94"/>
       <c r="L31" s="94"/>
@@ -4658,16 +4658,16 @@
       <c r="AI31" s="95"/>
       <c r="AJ31" s="32"/>
     </row>
-    <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="86"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="119"/>
+      <c r="B32" s="99"/>
+      <c r="C32" s="100"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="102"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="99"/>
+      <c r="H32" s="104"/>
+      <c r="I32" s="100"/>
       <c r="J32" s="93"/>
       <c r="K32" s="94"/>
       <c r="L32" s="94"/>
@@ -4696,16 +4696,16 @@
       <c r="AI32" s="95"/>
       <c r="AJ32" s="32"/>
     </row>
-    <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="86"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119"/>
+      <c r="B33" s="99"/>
+      <c r="C33" s="100"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="102"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="99"/>
+      <c r="H33" s="104"/>
+      <c r="I33" s="100"/>
       <c r="J33" s="93"/>
       <c r="K33" s="94"/>
       <c r="L33" s="94"/>
@@ -4734,7 +4734,7 @@
       <c r="AI33" s="95"/>
       <c r="AJ33" s="32"/>
     </row>
-    <row r="34" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
+    <row r="34" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -4772,7 +4772,7 @@
       <c r="AI34" s="32"/>
       <c r="AJ34" s="32"/>
     </row>
-    <row r="35" spans="1:36">
+    <row r="35" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -4810,7 +4810,7 @@
       <c r="AI35" s="32"/>
       <c r="AJ35" s="32"/>
     </row>
-    <row r="36" spans="1:36">
+    <row r="36" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -4848,7 +4848,7 @@
       <c r="AI36" s="32"/>
       <c r="AJ36" s="33"/>
     </row>
-    <row r="37" spans="1:36">
+    <row r="37" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -4886,7 +4886,7 @@
       <c r="AI37" s="32"/>
       <c r="AJ37" s="33"/>
     </row>
-    <row r="38" spans="1:36">
+    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -4926,6 +4926,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="J27:P27"/>
     <mergeCell ref="Q27:AE27"/>
     <mergeCell ref="AF27:AI27"/>
@@ -4950,161 +5105,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF26:AI26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5125,7 +5125,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="54" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="74" customWidth="1"/>
@@ -5260,32 +5260,32 @@
     <col min="16163" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="120" t="s">
         <v>32</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
       <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -5297,48 +5297,48 @@
       <c r="X1" s="154"/>
       <c r="Y1" s="154"/>
       <c r="Z1" s="155"/>
-      <c r="AA1" s="129" t="s">
+      <c r="AA1" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="99" t="str">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="101"/>
-    </row>
-    <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="AH1" s="139"/>
+      <c r="AI1" s="140"/>
+    </row>
+    <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="125"/>
       <c r="S2" s="156"/>
       <c r="T2" s="157"/>
       <c r="U2" s="157"/>
@@ -5347,48 +5347,48 @@
       <c r="X2" s="157"/>
       <c r="Y2" s="157"/>
       <c r="Z2" s="158"/>
-      <c r="AA2" s="129" t="s">
+      <c r="AA2" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="99" t="str">
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="101"/>
-    </row>
-    <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="AH2" s="139"/>
+      <c r="AI2" s="140"/>
+    </row>
+    <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="128"/>
       <c r="S3" s="159"/>
       <c r="T3" s="160"/>
       <c r="U3" s="160"/>
@@ -5397,23 +5397,23 @@
       <c r="X3" s="160"/>
       <c r="Y3" s="160"/>
       <c r="Z3" s="161"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105" t="str">
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="99" t="str">
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="138" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="101"/>
-    </row>
-    <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
+      <c r="AH3" s="139"/>
+      <c r="AI3" s="140"/>
+    </row>
+    <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -5450,7 +5450,7 @@
       <c r="AH4" s="42"/>
       <c r="AI4" s="42"/>
     </row>
-    <row r="5" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1">
+    <row r="5" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -5489,7 +5489,7 @@
       <c r="AH5" s="42"/>
       <c r="AI5" s="42"/>
     </row>
-    <row r="6" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1">
+    <row r="6" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -5526,7 +5526,7 @@
       <c r="AH6" s="42"/>
       <c r="AI6" s="42"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1">
+    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="46"/>
       <c r="B7" s="47" t="s">
         <v>37</v>
@@ -5565,7 +5565,7 @@
       <c r="AH7" s="52"/>
       <c r="AI7" s="53"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1">
+    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A8" s="46"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -5602,7 +5602,7 @@
       <c r="AH8" s="56"/>
       <c r="AI8" s="53"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1">
+    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="46"/>
       <c r="B9" s="47"/>
       <c r="C9" s="48"/>
@@ -5639,7 +5639,7 @@
       <c r="AH9" s="57"/>
       <c r="AI9" s="46"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1">
+    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="46"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -5676,7 +5676,7 @@
       <c r="AH10" s="52"/>
       <c r="AI10" s="53"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1">
+    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="46"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -5713,7 +5713,7 @@
       <c r="AH11" s="52"/>
       <c r="AI11" s="53"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1">
+    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="46"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -5750,7 +5750,7 @@
       <c r="AH12" s="52"/>
       <c r="AI12" s="53"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1">
+    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="46"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -5787,7 +5787,7 @@
       <c r="AH13" s="52"/>
       <c r="AI13" s="53"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1">
+    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="46"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -5824,7 +5824,7 @@
       <c r="AH14" s="52"/>
       <c r="AI14" s="53"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1">
+    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="46"/>
       <c r="B15" s="58"/>
       <c r="C15" s="48"/>
@@ -5861,7 +5861,7 @@
       <c r="AH15" s="52"/>
       <c r="AI15" s="53"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1">
+    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="46"/>
       <c r="B16" s="42"/>
       <c r="C16" s="46"/>
@@ -5898,7 +5898,7 @@
       <c r="AH16" s="52"/>
       <c r="AI16" s="53"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1">
+    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="46"/>
       <c r="B17" s="42"/>
       <c r="C17" s="46"/>
@@ -5935,7 +5935,7 @@
       <c r="AH17" s="52"/>
       <c r="AI17" s="53"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1">
+    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="46"/>
       <c r="B18" s="42"/>
       <c r="C18" s="46"/>
@@ -5972,7 +5972,7 @@
       <c r="AH18" s="52"/>
       <c r="AI18" s="53"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1">
+    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="46"/>
       <c r="B19" s="42"/>
       <c r="C19" s="46"/>
@@ -6009,7 +6009,7 @@
       <c r="AH19" s="52"/>
       <c r="AI19" s="53"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1">
+    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="46"/>
       <c r="B20" s="42"/>
       <c r="C20" s="46"/>
@@ -6046,7 +6046,7 @@
       <c r="AH20" s="52"/>
       <c r="AI20" s="53"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1">
+    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="46"/>
       <c r="B21" s="42"/>
       <c r="C21" s="46"/>
@@ -6083,7 +6083,7 @@
       <c r="AH21" s="52"/>
       <c r="AI21" s="53"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1">
+    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="46"/>
       <c r="B22" s="42"/>
       <c r="C22" s="46"/>
@@ -6120,7 +6120,7 @@
       <c r="AH22" s="52"/>
       <c r="AI22" s="53"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1">
+    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="46"/>
       <c r="B23" s="58"/>
       <c r="C23" s="48"/>
@@ -6157,7 +6157,7 @@
       <c r="AH23" s="52"/>
       <c r="AI23" s="53"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1">
+    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="46"/>
       <c r="B24" s="42"/>
       <c r="C24" s="46"/>
@@ -6194,7 +6194,7 @@
       <c r="AH24" s="52"/>
       <c r="AI24" s="53"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1">
+    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="46"/>
       <c r="B25" s="42"/>
       <c r="C25" s="46"/>
@@ -6231,7 +6231,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="53"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1">
+    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="46"/>
       <c r="B26" s="42"/>
       <c r="C26" s="46"/>
@@ -6268,7 +6268,7 @@
       <c r="AH26" s="52"/>
       <c r="AI26" s="53"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1">
+    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="46"/>
       <c r="B27" s="42"/>
       <c r="C27" s="46"/>
@@ -6305,7 +6305,7 @@
       <c r="AH27" s="52"/>
       <c r="AI27" s="53"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1">
+    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="46"/>
       <c r="B28" s="42"/>
       <c r="C28" s="46"/>
@@ -6342,7 +6342,7 @@
       <c r="AH28" s="52"/>
       <c r="AI28" s="53"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1">
+    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="46"/>
       <c r="B29" s="42"/>
       <c r="C29" s="46"/>
@@ -6379,7 +6379,7 @@
       <c r="AH29" s="52"/>
       <c r="AI29" s="53"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1">
+    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="59"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -6416,7 +6416,7 @@
       <c r="AH30" s="62"/>
       <c r="AI30" s="63"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1">
+    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="59"/>
       <c r="B31" s="42"/>
       <c r="C31" s="43"/>
@@ -6453,7 +6453,7 @@
       <c r="AH31" s="62"/>
       <c r="AI31" s="63"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1">
+    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="59"/>
       <c r="B32" s="66"/>
       <c r="C32" s="46"/>
@@ -6490,7 +6490,7 @@
       <c r="AH32" s="62"/>
       <c r="AI32" s="63"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1">
+    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="59"/>
       <c r="B33" s="66"/>
       <c r="C33" s="46"/>
@@ -6527,7 +6527,7 @@
       <c r="AH33" s="62"/>
       <c r="AI33" s="63"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1">
+    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="59"/>
       <c r="B34" s="66"/>
       <c r="C34" s="46"/>
@@ -6564,7 +6564,7 @@
       <c r="AH34" s="62"/>
       <c r="AI34" s="63"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1">
+    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="59"/>
       <c r="B35" s="66"/>
       <c r="C35" s="46"/>
@@ -6601,7 +6601,7 @@
       <c r="AH35" s="62"/>
       <c r="AI35" s="63"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1">
+    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -6638,7 +6638,7 @@
       <c r="AH36" s="71"/>
       <c r="AI36" s="59"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1">
+    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B37" s="72"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
@@ -6670,7 +6670,7 @@
       <c r="AH37" s="79"/>
       <c r="AI37" s="75"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1">
+    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
       <c r="U38" s="76"/>
@@ -6689,7 +6689,7 @@
       <c r="AH38" s="82"/>
       <c r="AI38" s="75"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1">
+    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q39" s="83"/>
       <c r="S39" s="75"/>
       <c r="T39" s="76"/>
@@ -6709,7 +6709,7 @@
       <c r="AH39" s="82"/>
       <c r="AI39" s="75"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1">
+    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S40" s="75"/>
       <c r="T40" s="75"/>
       <c r="U40" s="75"/>
@@ -6728,7 +6728,7 @@
       <c r="AH40" s="82"/>
       <c r="AI40" s="75"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1">
+    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J41" s="72"/>
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
@@ -6742,37 +6742,37 @@
       <c r="AH41" s="82"/>
       <c r="AI41" s="75"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1">
+    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE42" s="75"/>
       <c r="AF42" s="80"/>
       <c r="AG42" s="81"/>
       <c r="AH42" s="82"/>
       <c r="AI42" s="75"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1">
+    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AE43" s="75"/>
       <c r="AF43" s="80"/>
       <c r="AG43" s="80"/>
       <c r="AH43" s="82"/>
       <c r="AI43" s="75"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1">
+    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A44" s="72"/>
       <c r="AF44" s="84"/>
       <c r="AG44" s="84"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1">
+    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A45" s="72"/>
       <c r="AG45" s="84"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1">
+    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AF46" s="84"/>
       <c r="AG46" s="84"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1">
+    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="AG47" s="84"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1">
+    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="S48" s="72"/>
       <c r="T48" s="72"/>
       <c r="V48" s="72"/>
@@ -6785,7 +6785,7 @@
       <c r="AC48" s="72"/>
       <c r="AD48" s="72"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1">
+    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R49" s="72"/>
       <c r="S49" s="72"/>
       <c r="T49" s="72"/>
@@ -6800,10 +6800,10 @@
       <c r="AD49" s="72"/>
       <c r="AG49" s="84"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1">
+    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="R50" s="72"/>
     </row>
-    <row r="51" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1">
+    <row r="51" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A51" s="54"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -6836,7 +6836,7 @@
       <c r="AD51" s="54"/>
       <c r="AH51" s="83"/>
     </row>
-    <row r="52" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1">
+    <row r="52" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -6871,12 +6871,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6888,6 +6882,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6908,7 +6908,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="2" width="4.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="4.83203125" style="7" customWidth="1"/>
@@ -6917,32 +6917,32 @@
     <col min="19" max="16384" width="4.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="117" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="118"/>
+      <c r="C1" s="118"/>
+      <c r="D1" s="119"/>
+      <c r="E1" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
+      <c r="I1" s="151"/>
+      <c r="J1" s="151"/>
+      <c r="K1" s="151"/>
+      <c r="L1" s="151"/>
+      <c r="M1" s="151"/>
+      <c r="N1" s="152"/>
+      <c r="O1" s="120" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
+      <c r="P1" s="121"/>
+      <c r="Q1" s="121"/>
+      <c r="R1" s="122"/>
       <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -6954,51 +6954,51 @@
       <c r="X1" s="154"/>
       <c r="Y1" s="154"/>
       <c r="Z1" s="155"/>
-      <c r="AA1" s="129" t="s">
+      <c r="AA1" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="119"/>
+      <c r="AC1" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="190" t="str">
+      <c r="AD1" s="109"/>
+      <c r="AE1" s="109"/>
+      <c r="AF1" s="110"/>
+      <c r="AG1" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="192"/>
+      <c r="AH1" s="206"/>
+      <c r="AI1" s="207"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="21"/>
     </row>
-    <row r="2" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="117" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="118"/>
+      <c r="C2" s="118"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
+      <c r="H2" s="151"/>
+      <c r="I2" s="151"/>
+      <c r="J2" s="151"/>
+      <c r="K2" s="151"/>
+      <c r="L2" s="151"/>
+      <c r="M2" s="151"/>
+      <c r="N2" s="152"/>
+      <c r="O2" s="123"/>
+      <c r="P2" s="124"/>
+      <c r="Q2" s="124"/>
+      <c r="R2" s="125"/>
       <c r="S2" s="156"/>
       <c r="T2" s="157"/>
       <c r="U2" s="157"/>
@@ -7007,51 +7007,51 @@
       <c r="X2" s="157"/>
       <c r="Y2" s="157"/>
       <c r="Z2" s="158"/>
-      <c r="AA2" s="129" t="s">
+      <c r="AA2" s="117" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="119"/>
+      <c r="AC2" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="190" t="str">
+      <c r="AD2" s="109"/>
+      <c r="AE2" s="109"/>
+      <c r="AF2" s="110"/>
+      <c r="AG2" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="192"/>
+      <c r="AH2" s="206"/>
+      <c r="AI2" s="207"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
     </row>
-    <row r="3" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="129" t="s">
+    <row r="3" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="117" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="118"/>
+      <c r="C3" s="118"/>
+      <c r="D3" s="119"/>
+      <c r="E3" s="150" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
+      <c r="F3" s="151"/>
+      <c r="G3" s="151"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="151"/>
+      <c r="J3" s="151"/>
+      <c r="K3" s="151"/>
+      <c r="L3" s="151"/>
+      <c r="M3" s="151"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="126"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="128"/>
       <c r="S3" s="159"/>
       <c r="T3" s="160"/>
       <c r="U3" s="160"/>
@@ -7060,33 +7060,33 @@
       <c r="X3" s="160"/>
       <c r="Y3" s="160"/>
       <c r="Z3" s="161"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105" t="str">
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="119"/>
+      <c r="AC3" s="108" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="190" t="str">
+      <c r="AD3" s="109"/>
+      <c r="AE3" s="109"/>
+      <c r="AF3" s="110"/>
+      <c r="AG3" s="205" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="191"/>
-      <c r="AI3" s="192"/>
+      <c r="AH3" s="206"/>
+      <c r="AI3" s="207"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
     </row>
-    <row r="5" spans="1:61" s="23" customFormat="1">
+    <row r="5" spans="1:61" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="23" t="s">
         <v>39</v>
       </c>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
     </row>
-    <row r="6" spans="1:61" ht="12" customHeight="1">
+    <row r="6" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="V6" s="9"/>
@@ -7102,748 +7102,897 @@
       <c r="BH6" s="27"/>
       <c r="BI6" s="25"/>
     </row>
-    <row r="7" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B7" s="175" t="s">
+    <row r="7" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="167" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="198" t="s">
+      <c r="C7" s="167"/>
+      <c r="D7" s="167"/>
+      <c r="E7" s="210" t="s">
         <v>38</v>
       </c>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="198"/>
-      <c r="L7" s="182" t="s">
+      <c r="F7" s="210"/>
+      <c r="G7" s="210"/>
+      <c r="H7" s="210"/>
+      <c r="I7" s="210"/>
+      <c r="J7" s="210"/>
+      <c r="K7" s="210"/>
+      <c r="L7" s="214" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="183"/>
-      <c r="N7" s="176" t="s">
+      <c r="M7" s="215"/>
+      <c r="N7" s="171" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="177"/>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="175" t="s">
+      <c r="O7" s="172"/>
+      <c r="P7" s="172"/>
+      <c r="Q7" s="172"/>
+      <c r="R7" s="173"/>
+      <c r="S7" s="167" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="175"/>
-      <c r="U7" s="182" t="s">
+      <c r="T7" s="167"/>
+      <c r="U7" s="214" t="s">
         <v>18</v>
       </c>
-      <c r="V7" s="186"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="175" t="s">
+      <c r="V7" s="218"/>
+      <c r="W7" s="218"/>
+      <c r="X7" s="215"/>
+      <c r="Y7" s="167" t="s">
         <v>31</v>
       </c>
-      <c r="Z7" s="175"/>
-      <c r="AA7" s="176" t="s">
+      <c r="Z7" s="167"/>
+      <c r="AA7" s="171" t="s">
         <v>1</v>
       </c>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="178"/>
-      <c r="AD7" s="210" t="s">
+      <c r="AB7" s="172"/>
+      <c r="AC7" s="173"/>
+      <c r="AD7" s="177" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="211"/>
-      <c r="AF7" s="211"/>
-      <c r="AG7" s="211"/>
-      <c r="AH7" s="211"/>
-      <c r="AI7" s="211"/>
-      <c r="AJ7" s="211"/>
-      <c r="AK7" s="211"/>
-      <c r="AL7" s="212"/>
-      <c r="AM7" s="175" t="s">
+      <c r="AE7" s="178"/>
+      <c r="AF7" s="178"/>
+      <c r="AG7" s="178"/>
+      <c r="AH7" s="178"/>
+      <c r="AI7" s="178"/>
+      <c r="AJ7" s="178"/>
+      <c r="AK7" s="178"/>
+      <c r="AL7" s="179"/>
+      <c r="AM7" s="167" t="s">
         <v>0</v>
       </c>
-      <c r="AN7" s="175"/>
-      <c r="AO7" s="175"/>
-      <c r="AP7" s="175"/>
-      <c r="AQ7" s="175"/>
-      <c r="AR7" s="175"/>
-      <c r="AS7" s="175" t="s">
+      <c r="AN7" s="167"/>
+      <c r="AO7" s="167"/>
+      <c r="AP7" s="167"/>
+      <c r="AQ7" s="167"/>
+      <c r="AR7" s="167"/>
+      <c r="AS7" s="167" t="s">
         <v>30</v>
       </c>
-      <c r="AT7" s="175"/>
-      <c r="AU7" s="175"/>
-      <c r="AV7" s="175"/>
-      <c r="AW7" s="175" t="s">
+      <c r="AT7" s="167"/>
+      <c r="AU7" s="167"/>
+      <c r="AV7" s="167"/>
+      <c r="AW7" s="167" t="s">
         <v>2</v>
       </c>
-      <c r="AX7" s="175"/>
-      <c r="AY7" s="175"/>
-      <c r="AZ7" s="175"/>
-      <c r="BA7" s="175"/>
-      <c r="BB7" s="175"/>
-      <c r="BC7" s="175"/>
-      <c r="BD7" s="175"/>
-      <c r="BE7" s="175"/>
+      <c r="AX7" s="167"/>
+      <c r="AY7" s="167"/>
+      <c r="AZ7" s="167"/>
+      <c r="BA7" s="167"/>
+      <c r="BB7" s="167"/>
+      <c r="BC7" s="167"/>
+      <c r="BD7" s="167"/>
+      <c r="BE7" s="167"/>
       <c r="BF7" s="26"/>
       <c r="BG7" s="26"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
     </row>
-    <row r="8" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="198"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="180"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="180"/>
-      <c r="R8" s="181"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="187"/>
-      <c r="W8" s="187"/>
-      <c r="X8" s="185"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="180"/>
-      <c r="AC8" s="181"/>
-      <c r="AD8" s="175" t="s">
+    <row r="8" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="167"/>
+      <c r="C8" s="167"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="210"/>
+      <c r="F8" s="210"/>
+      <c r="G8" s="210"/>
+      <c r="H8" s="210"/>
+      <c r="I8" s="210"/>
+      <c r="J8" s="210"/>
+      <c r="K8" s="210"/>
+      <c r="L8" s="216"/>
+      <c r="M8" s="217"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="175"/>
+      <c r="P8" s="175"/>
+      <c r="Q8" s="175"/>
+      <c r="R8" s="176"/>
+      <c r="S8" s="167"/>
+      <c r="T8" s="167"/>
+      <c r="U8" s="216"/>
+      <c r="V8" s="219"/>
+      <c r="W8" s="219"/>
+      <c r="X8" s="217"/>
+      <c r="Y8" s="167"/>
+      <c r="Z8" s="167"/>
+      <c r="AA8" s="174"/>
+      <c r="AB8" s="175"/>
+      <c r="AC8" s="176"/>
+      <c r="AD8" s="167" t="s">
         <v>36</v>
       </c>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="175"/>
-      <c r="AJ8" s="210" t="s">
+      <c r="AE8" s="167"/>
+      <c r="AF8" s="167"/>
+      <c r="AG8" s="167"/>
+      <c r="AH8" s="167"/>
+      <c r="AI8" s="167"/>
+      <c r="AJ8" s="177" t="s">
         <v>35</v>
       </c>
-      <c r="AK8" s="211"/>
-      <c r="AL8" s="212"/>
-      <c r="AM8" s="210" t="s">
+      <c r="AK8" s="178"/>
+      <c r="AL8" s="179"/>
+      <c r="AM8" s="177" t="s">
         <v>29</v>
       </c>
-      <c r="AN8" s="212"/>
-      <c r="AO8" s="175" t="s">
+      <c r="AN8" s="179"/>
+      <c r="AO8" s="167" t="s">
         <v>14</v>
       </c>
-      <c r="AP8" s="175"/>
-      <c r="AQ8" s="175"/>
-      <c r="AR8" s="175"/>
-      <c r="AS8" s="175"/>
-      <c r="AT8" s="175"/>
-      <c r="AU8" s="175"/>
-      <c r="AV8" s="175"/>
-      <c r="AW8" s="175"/>
-      <c r="AX8" s="175"/>
-      <c r="AY8" s="175"/>
-      <c r="AZ8" s="175"/>
-      <c r="BA8" s="175"/>
-      <c r="BB8" s="175"/>
-      <c r="BC8" s="175"/>
-      <c r="BD8" s="175"/>
-      <c r="BE8" s="175"/>
+      <c r="AP8" s="167"/>
+      <c r="AQ8" s="167"/>
+      <c r="AR8" s="167"/>
+      <c r="AS8" s="167"/>
+      <c r="AT8" s="167"/>
+      <c r="AU8" s="167"/>
+      <c r="AV8" s="167"/>
+      <c r="AW8" s="167"/>
+      <c r="AX8" s="167"/>
+      <c r="AY8" s="167"/>
+      <c r="AZ8" s="167"/>
+      <c r="BA8" s="167"/>
+      <c r="BB8" s="167"/>
+      <c r="BC8" s="167"/>
+      <c r="BD8" s="167"/>
+      <c r="BE8" s="167"/>
       <c r="BF8" s="26"/>
       <c r="BG8" s="26"/>
       <c r="BH8" s="26"/>
       <c r="BI8" s="26"/>
     </row>
-    <row r="9" spans="1:61" ht="13.5" customHeight="1">
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
+    <row r="9" spans="1:61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="165"/>
+      <c r="C9" s="165"/>
+      <c r="D9" s="165"/>
+      <c r="E9" s="165"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="165"/>
+      <c r="H9" s="165"/>
+      <c r="I9" s="165"/>
+      <c r="J9" s="165"/>
+      <c r="K9" s="165"/>
       <c r="L9" s="96"/>
       <c r="M9" s="98"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="168"/>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="169"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="167"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="169"/>
-      <c r="Y9" s="197"/>
-      <c r="Z9" s="197"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="168"/>
-      <c r="AC9" s="169"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="168"/>
-      <c r="AF9" s="168"/>
-      <c r="AG9" s="168"/>
-      <c r="AH9" s="168"/>
-      <c r="AI9" s="169"/>
-      <c r="AJ9" s="199"/>
-      <c r="AK9" s="200"/>
-      <c r="AL9" s="201"/>
-      <c r="AM9" s="204"/>
-      <c r="AN9" s="205"/>
-      <c r="AO9" s="206"/>
-      <c r="AP9" s="206"/>
-      <c r="AQ9" s="206"/>
-      <c r="AR9" s="206"/>
-      <c r="AS9" s="209"/>
-      <c r="AT9" s="209"/>
-      <c r="AU9" s="209"/>
-      <c r="AV9" s="209"/>
-      <c r="AW9" s="193"/>
-      <c r="AX9" s="193"/>
-      <c r="AY9" s="193"/>
-      <c r="AZ9" s="193"/>
-      <c r="BA9" s="193"/>
-      <c r="BB9" s="193"/>
-      <c r="BC9" s="193"/>
-      <c r="BD9" s="193"/>
-      <c r="BE9" s="193"/>
+      <c r="N9" s="168"/>
+      <c r="O9" s="169"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="170"/>
+      <c r="S9" s="204"/>
+      <c r="T9" s="204"/>
+      <c r="U9" s="168"/>
+      <c r="V9" s="169"/>
+      <c r="W9" s="169"/>
+      <c r="X9" s="170"/>
+      <c r="Y9" s="166"/>
+      <c r="Z9" s="166"/>
+      <c r="AA9" s="168"/>
+      <c r="AB9" s="169"/>
+      <c r="AC9" s="170"/>
+      <c r="AD9" s="168"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="169"/>
+      <c r="AG9" s="169"/>
+      <c r="AH9" s="169"/>
+      <c r="AI9" s="170"/>
+      <c r="AJ9" s="162"/>
+      <c r="AK9" s="163"/>
+      <c r="AL9" s="164"/>
+      <c r="AM9" s="182"/>
+      <c r="AN9" s="183"/>
+      <c r="AO9" s="181"/>
+      <c r="AP9" s="181"/>
+      <c r="AQ9" s="181"/>
+      <c r="AR9" s="181"/>
+      <c r="AS9" s="184"/>
+      <c r="AT9" s="184"/>
+      <c r="AU9" s="184"/>
+      <c r="AV9" s="184"/>
+      <c r="AW9" s="165"/>
+      <c r="AX9" s="165"/>
+      <c r="AY9" s="165"/>
+      <c r="AZ9" s="165"/>
+      <c r="BA9" s="165"/>
+      <c r="BB9" s="165"/>
+      <c r="BC9" s="165"/>
+      <c r="BD9" s="165"/>
+      <c r="BE9" s="165"/>
       <c r="BF9" s="27"/>
       <c r="BG9" s="27"/>
       <c r="BH9" s="27"/>
       <c r="BI9" s="27"/>
     </row>
-    <row r="10" spans="1:61" ht="11.25" customHeight="1">
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
+    <row r="10" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="189"/>
+      <c r="C10" s="189"/>
+      <c r="D10" s="189"/>
+      <c r="E10" s="180"/>
+      <c r="F10" s="180"/>
+      <c r="G10" s="180"/>
+      <c r="H10" s="180"/>
+      <c r="I10" s="180"/>
+      <c r="J10" s="180"/>
+      <c r="K10" s="180"/>
       <c r="L10" s="96"/>
       <c r="M10" s="98"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="196"/>
-      <c r="T10" s="196"/>
-      <c r="U10" s="163"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="194"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="163"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="165"/>
-      <c r="AD10" s="195"/>
-      <c r="AE10" s="195"/>
-      <c r="AF10" s="195"/>
-      <c r="AG10" s="195"/>
-      <c r="AH10" s="195"/>
-      <c r="AI10" s="195"/>
-      <c r="AJ10" s="216"/>
-      <c r="AK10" s="217"/>
-      <c r="AL10" s="218"/>
-      <c r="AM10" s="204"/>
-      <c r="AN10" s="205"/>
-      <c r="AO10" s="207"/>
-      <c r="AP10" s="207"/>
-      <c r="AQ10" s="207"/>
-      <c r="AR10" s="207"/>
-      <c r="AS10" s="209"/>
-      <c r="AT10" s="209"/>
-      <c r="AU10" s="209"/>
-      <c r="AV10" s="209"/>
-      <c r="AW10" s="195"/>
-      <c r="AX10" s="195"/>
-      <c r="AY10" s="195"/>
-      <c r="AZ10" s="195"/>
-      <c r="BA10" s="195"/>
-      <c r="BB10" s="195"/>
-      <c r="BC10" s="195"/>
-      <c r="BD10" s="195"/>
-      <c r="BE10" s="195"/>
-    </row>
-    <row r="11" spans="1:61" ht="11.25" customHeight="1">
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
+      <c r="N10" s="191"/>
+      <c r="O10" s="192"/>
+      <c r="P10" s="192"/>
+      <c r="Q10" s="192"/>
+      <c r="R10" s="193"/>
+      <c r="S10" s="209"/>
+      <c r="T10" s="209"/>
+      <c r="U10" s="191"/>
+      <c r="V10" s="192"/>
+      <c r="W10" s="192"/>
+      <c r="X10" s="193"/>
+      <c r="Y10" s="208"/>
+      <c r="Z10" s="208"/>
+      <c r="AA10" s="191"/>
+      <c r="AB10" s="192"/>
+      <c r="AC10" s="193"/>
+      <c r="AD10" s="189"/>
+      <c r="AE10" s="189"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="189"/>
+      <c r="AH10" s="189"/>
+      <c r="AI10" s="189"/>
+      <c r="AJ10" s="186"/>
+      <c r="AK10" s="187"/>
+      <c r="AL10" s="188"/>
+      <c r="AM10" s="182"/>
+      <c r="AN10" s="183"/>
+      <c r="AO10" s="190"/>
+      <c r="AP10" s="190"/>
+      <c r="AQ10" s="190"/>
+      <c r="AR10" s="190"/>
+      <c r="AS10" s="184"/>
+      <c r="AT10" s="184"/>
+      <c r="AU10" s="184"/>
+      <c r="AV10" s="184"/>
+      <c r="AW10" s="189"/>
+      <c r="AX10" s="189"/>
+      <c r="AY10" s="189"/>
+      <c r="AZ10" s="189"/>
+      <c r="BA10" s="189"/>
+      <c r="BB10" s="189"/>
+      <c r="BC10" s="189"/>
+      <c r="BD10" s="189"/>
+      <c r="BE10" s="189"/>
+    </row>
+    <row r="11" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="180"/>
+      <c r="C11" s="180"/>
+      <c r="D11" s="180"/>
+      <c r="E11" s="180"/>
+      <c r="F11" s="180"/>
+      <c r="G11" s="180"/>
+      <c r="H11" s="180"/>
+      <c r="I11" s="180"/>
+      <c r="J11" s="180"/>
+      <c r="K11" s="180"/>
       <c r="L11" s="96"/>
       <c r="M11" s="98"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="171"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="189"/>
-      <c r="Z11" s="189"/>
-      <c r="AA11" s="170"/>
-      <c r="AB11" s="171"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="188"/>
-      <c r="AE11" s="188"/>
-      <c r="AF11" s="188"/>
-      <c r="AG11" s="188"/>
-      <c r="AH11" s="188"/>
-      <c r="AI11" s="188"/>
-      <c r="AJ11" s="213"/>
-      <c r="AK11" s="214"/>
-      <c r="AL11" s="215"/>
-      <c r="AM11" s="204"/>
-      <c r="AN11" s="205"/>
-      <c r="AO11" s="208"/>
-      <c r="AP11" s="208"/>
-      <c r="AQ11" s="208"/>
-      <c r="AR11" s="208"/>
-      <c r="AS11" s="209"/>
-      <c r="AT11" s="209"/>
-      <c r="AU11" s="209"/>
-      <c r="AV11" s="209"/>
-      <c r="AW11" s="188"/>
-      <c r="AX11" s="188"/>
-      <c r="AY11" s="188"/>
-      <c r="AZ11" s="188"/>
-      <c r="BA11" s="188"/>
-      <c r="BB11" s="188"/>
-      <c r="BC11" s="188"/>
-      <c r="BD11" s="188"/>
-      <c r="BE11" s="188"/>
-    </row>
-    <row r="12" spans="1:61">
-      <c r="B12" s="193"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="193"/>
+      <c r="N11" s="195"/>
+      <c r="O11" s="196"/>
+      <c r="P11" s="196"/>
+      <c r="Q11" s="196"/>
+      <c r="R11" s="197"/>
+      <c r="S11" s="211"/>
+      <c r="T11" s="211"/>
+      <c r="U11" s="195"/>
+      <c r="V11" s="196"/>
+      <c r="W11" s="196"/>
+      <c r="X11" s="197"/>
+      <c r="Y11" s="203"/>
+      <c r="Z11" s="203"/>
+      <c r="AA11" s="195"/>
+      <c r="AB11" s="196"/>
+      <c r="AC11" s="197"/>
+      <c r="AD11" s="180"/>
+      <c r="AE11" s="180"/>
+      <c r="AF11" s="180"/>
+      <c r="AG11" s="180"/>
+      <c r="AH11" s="180"/>
+      <c r="AI11" s="180"/>
+      <c r="AJ11" s="198"/>
+      <c r="AK11" s="199"/>
+      <c r="AL11" s="200"/>
+      <c r="AM11" s="182"/>
+      <c r="AN11" s="183"/>
+      <c r="AO11" s="194"/>
+      <c r="AP11" s="194"/>
+      <c r="AQ11" s="194"/>
+      <c r="AR11" s="194"/>
+      <c r="AS11" s="184"/>
+      <c r="AT11" s="184"/>
+      <c r="AU11" s="184"/>
+      <c r="AV11" s="184"/>
+      <c r="AW11" s="180"/>
+      <c r="AX11" s="180"/>
+      <c r="AY11" s="180"/>
+      <c r="AZ11" s="180"/>
+      <c r="BA11" s="180"/>
+      <c r="BB11" s="180"/>
+      <c r="BC11" s="180"/>
+      <c r="BD11" s="180"/>
+      <c r="BE11" s="180"/>
+    </row>
+    <row r="12" spans="1:61" x14ac:dyDescent="0.15">
+      <c r="B12" s="165"/>
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="165"/>
+      <c r="H12" s="165"/>
+      <c r="I12" s="165"/>
+      <c r="J12" s="165"/>
+      <c r="K12" s="165"/>
       <c r="L12" s="96"/>
       <c r="M12" s="98"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="170"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="171"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="167"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="169"/>
-      <c r="AD12" s="167"/>
-      <c r="AE12" s="168"/>
-      <c r="AF12" s="168"/>
-      <c r="AG12" s="168"/>
-      <c r="AH12" s="168"/>
-      <c r="AI12" s="169"/>
-      <c r="AJ12" s="199"/>
-      <c r="AK12" s="200"/>
-      <c r="AL12" s="201"/>
-      <c r="AM12" s="204"/>
-      <c r="AN12" s="205"/>
-      <c r="AO12" s="206"/>
-      <c r="AP12" s="206"/>
-      <c r="AQ12" s="206"/>
-      <c r="AR12" s="206"/>
-      <c r="AS12" s="209"/>
-      <c r="AT12" s="209"/>
-      <c r="AU12" s="209"/>
-      <c r="AV12" s="209"/>
-      <c r="AW12" s="193"/>
-      <c r="AX12" s="193"/>
-      <c r="AY12" s="193"/>
-      <c r="AZ12" s="193"/>
-      <c r="BA12" s="193"/>
-      <c r="BB12" s="193"/>
-      <c r="BC12" s="193"/>
-      <c r="BD12" s="193"/>
-      <c r="BE12" s="193"/>
-    </row>
-    <row r="13" spans="1:61">
-      <c r="B13" s="193"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
+      <c r="N12" s="168"/>
+      <c r="O12" s="169"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="170"/>
+      <c r="S12" s="204"/>
+      <c r="T12" s="204"/>
+      <c r="U12" s="195"/>
+      <c r="V12" s="196"/>
+      <c r="W12" s="196"/>
+      <c r="X12" s="197"/>
+      <c r="Y12" s="166"/>
+      <c r="Z12" s="166"/>
+      <c r="AA12" s="168"/>
+      <c r="AB12" s="169"/>
+      <c r="AC12" s="170"/>
+      <c r="AD12" s="168"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="169"/>
+      <c r="AG12" s="169"/>
+      <c r="AH12" s="169"/>
+      <c r="AI12" s="170"/>
+      <c r="AJ12" s="162"/>
+      <c r="AK12" s="163"/>
+      <c r="AL12" s="164"/>
+      <c r="AM12" s="182"/>
+      <c r="AN12" s="183"/>
+      <c r="AO12" s="181"/>
+      <c r="AP12" s="181"/>
+      <c r="AQ12" s="181"/>
+      <c r="AR12" s="181"/>
+      <c r="AS12" s="184"/>
+      <c r="AT12" s="184"/>
+      <c r="AU12" s="184"/>
+      <c r="AV12" s="184"/>
+      <c r="AW12" s="165"/>
+      <c r="AX12" s="165"/>
+      <c r="AY12" s="165"/>
+      <c r="AZ12" s="165"/>
+      <c r="BA12" s="165"/>
+      <c r="BB12" s="165"/>
+      <c r="BC12" s="165"/>
+      <c r="BD12" s="165"/>
+      <c r="BE12" s="165"/>
+    </row>
+    <row r="13" spans="1:61" x14ac:dyDescent="0.15">
+      <c r="B13" s="165"/>
+      <c r="C13" s="165"/>
+      <c r="D13" s="165"/>
+      <c r="E13" s="165"/>
+      <c r="F13" s="165"/>
+      <c r="G13" s="165"/>
+      <c r="H13" s="165"/>
+      <c r="I13" s="165"/>
+      <c r="J13" s="165"/>
+      <c r="K13" s="165"/>
       <c r="L13" s="96"/>
       <c r="M13" s="98"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="167"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="169"/>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="197"/>
-      <c r="AA13" s="167"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="169"/>
-      <c r="AD13" s="193"/>
-      <c r="AE13" s="193"/>
-      <c r="AF13" s="193"/>
-      <c r="AG13" s="193"/>
-      <c r="AH13" s="193"/>
-      <c r="AI13" s="193"/>
-      <c r="AJ13" s="199"/>
-      <c r="AK13" s="200"/>
-      <c r="AL13" s="201"/>
-      <c r="AM13" s="204"/>
-      <c r="AN13" s="205"/>
-      <c r="AO13" s="206"/>
-      <c r="AP13" s="206"/>
-      <c r="AQ13" s="206"/>
-      <c r="AR13" s="206"/>
-      <c r="AS13" s="209"/>
-      <c r="AT13" s="209"/>
-      <c r="AU13" s="209"/>
-      <c r="AV13" s="209"/>
-      <c r="AW13" s="193"/>
-      <c r="AX13" s="193"/>
-      <c r="AY13" s="193"/>
-      <c r="AZ13" s="193"/>
-      <c r="BA13" s="193"/>
-      <c r="BB13" s="193"/>
-      <c r="BC13" s="193"/>
-      <c r="BD13" s="193"/>
-      <c r="BE13" s="193"/>
-    </row>
-    <row r="14" spans="1:61" ht="11.25" customHeight="1">
-      <c r="B14" s="193"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
+      <c r="N13" s="168"/>
+      <c r="O13" s="169"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="170"/>
+      <c r="S13" s="204"/>
+      <c r="T13" s="204"/>
+      <c r="U13" s="168"/>
+      <c r="V13" s="169"/>
+      <c r="W13" s="169"/>
+      <c r="X13" s="170"/>
+      <c r="Y13" s="166"/>
+      <c r="Z13" s="166"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="169"/>
+      <c r="AC13" s="170"/>
+      <c r="AD13" s="165"/>
+      <c r="AE13" s="165"/>
+      <c r="AF13" s="165"/>
+      <c r="AG13" s="165"/>
+      <c r="AH13" s="165"/>
+      <c r="AI13" s="165"/>
+      <c r="AJ13" s="162"/>
+      <c r="AK13" s="163"/>
+      <c r="AL13" s="164"/>
+      <c r="AM13" s="182"/>
+      <c r="AN13" s="183"/>
+      <c r="AO13" s="181"/>
+      <c r="AP13" s="181"/>
+      <c r="AQ13" s="181"/>
+      <c r="AR13" s="181"/>
+      <c r="AS13" s="184"/>
+      <c r="AT13" s="184"/>
+      <c r="AU13" s="184"/>
+      <c r="AV13" s="184"/>
+      <c r="AW13" s="165"/>
+      <c r="AX13" s="165"/>
+      <c r="AY13" s="165"/>
+      <c r="AZ13" s="165"/>
+      <c r="BA13" s="165"/>
+      <c r="BB13" s="165"/>
+      <c r="BC13" s="165"/>
+      <c r="BD13" s="165"/>
+      <c r="BE13" s="165"/>
+    </row>
+    <row r="14" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="165"/>
+      <c r="C14" s="165"/>
+      <c r="D14" s="165"/>
+      <c r="E14" s="165"/>
+      <c r="F14" s="165"/>
+      <c r="G14" s="165"/>
+      <c r="H14" s="165"/>
+      <c r="I14" s="165"/>
+      <c r="J14" s="165"/>
+      <c r="K14" s="165"/>
       <c r="L14" s="96"/>
       <c r="M14" s="98"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="167"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="169"/>
-      <c r="Y14" s="197"/>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="167"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="169"/>
-      <c r="AD14" s="193"/>
-      <c r="AE14" s="193"/>
-      <c r="AF14" s="193"/>
-      <c r="AG14" s="193"/>
-      <c r="AH14" s="193"/>
-      <c r="AI14" s="193"/>
-      <c r="AJ14" s="199"/>
-      <c r="AK14" s="200"/>
-      <c r="AL14" s="201"/>
-      <c r="AM14" s="204"/>
-      <c r="AN14" s="205"/>
-      <c r="AO14" s="206"/>
-      <c r="AP14" s="206"/>
-      <c r="AQ14" s="206"/>
-      <c r="AR14" s="206"/>
-      <c r="AS14" s="209"/>
-      <c r="AT14" s="209"/>
-      <c r="AU14" s="209"/>
-      <c r="AV14" s="209"/>
-      <c r="AW14" s="193"/>
-      <c r="AX14" s="193"/>
-      <c r="AY14" s="193"/>
-      <c r="AZ14" s="193"/>
-      <c r="BA14" s="193"/>
-      <c r="BB14" s="193"/>
-      <c r="BC14" s="193"/>
-      <c r="BD14" s="193"/>
-      <c r="BE14" s="193"/>
-    </row>
-    <row r="15" spans="1:61" ht="11.25" customHeight="1">
-      <c r="B15" s="193"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
+      <c r="N14" s="168"/>
+      <c r="O14" s="169"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="170"/>
+      <c r="S14" s="204"/>
+      <c r="T14" s="204"/>
+      <c r="U14" s="168"/>
+      <c r="V14" s="169"/>
+      <c r="W14" s="169"/>
+      <c r="X14" s="170"/>
+      <c r="Y14" s="166"/>
+      <c r="Z14" s="166"/>
+      <c r="AA14" s="168"/>
+      <c r="AB14" s="169"/>
+      <c r="AC14" s="170"/>
+      <c r="AD14" s="165"/>
+      <c r="AE14" s="165"/>
+      <c r="AF14" s="165"/>
+      <c r="AG14" s="165"/>
+      <c r="AH14" s="165"/>
+      <c r="AI14" s="165"/>
+      <c r="AJ14" s="162"/>
+      <c r="AK14" s="163"/>
+      <c r="AL14" s="164"/>
+      <c r="AM14" s="182"/>
+      <c r="AN14" s="183"/>
+      <c r="AO14" s="181"/>
+      <c r="AP14" s="181"/>
+      <c r="AQ14" s="181"/>
+      <c r="AR14" s="181"/>
+      <c r="AS14" s="184"/>
+      <c r="AT14" s="184"/>
+      <c r="AU14" s="184"/>
+      <c r="AV14" s="184"/>
+      <c r="AW14" s="165"/>
+      <c r="AX14" s="165"/>
+      <c r="AY14" s="165"/>
+      <c r="AZ14" s="165"/>
+      <c r="BA14" s="165"/>
+      <c r="BB14" s="165"/>
+      <c r="BC14" s="165"/>
+      <c r="BD14" s="165"/>
+      <c r="BE14" s="165"/>
+    </row>
+    <row r="15" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="165"/>
+      <c r="C15" s="165"/>
+      <c r="D15" s="165"/>
+      <c r="E15" s="165"/>
+      <c r="F15" s="165"/>
+      <c r="G15" s="165"/>
+      <c r="H15" s="165"/>
+      <c r="I15" s="165"/>
+      <c r="J15" s="165"/>
+      <c r="K15" s="165"/>
       <c r="L15" s="96"/>
       <c r="M15" s="98"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="168"/>
-      <c r="R15" s="169"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="167"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="168"/>
-      <c r="X15" s="169"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="169"/>
-      <c r="AD15" s="193"/>
-      <c r="AE15" s="193"/>
-      <c r="AF15" s="193"/>
-      <c r="AG15" s="193"/>
-      <c r="AH15" s="193"/>
-      <c r="AI15" s="193"/>
-      <c r="AJ15" s="199"/>
-      <c r="AK15" s="200"/>
-      <c r="AL15" s="201"/>
-      <c r="AM15" s="204"/>
-      <c r="AN15" s="205"/>
-      <c r="AO15" s="206"/>
-      <c r="AP15" s="206"/>
-      <c r="AQ15" s="206"/>
-      <c r="AR15" s="206"/>
-      <c r="AS15" s="209"/>
-      <c r="AT15" s="209"/>
-      <c r="AU15" s="209"/>
-      <c r="AV15" s="209"/>
-      <c r="AW15" s="193"/>
-      <c r="AX15" s="193"/>
-      <c r="AY15" s="193"/>
-      <c r="AZ15" s="193"/>
-      <c r="BA15" s="193"/>
-      <c r="BB15" s="193"/>
-      <c r="BC15" s="193"/>
-      <c r="BD15" s="193"/>
-      <c r="BE15" s="193"/>
-    </row>
-    <row r="16" spans="1:61" s="29" customFormat="1">
-      <c r="B16" s="193"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="188"/>
+      <c r="N15" s="168"/>
+      <c r="O15" s="169"/>
+      <c r="P15" s="169"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="170"/>
+      <c r="S15" s="204"/>
+      <c r="T15" s="204"/>
+      <c r="U15" s="168"/>
+      <c r="V15" s="169"/>
+      <c r="W15" s="169"/>
+      <c r="X15" s="170"/>
+      <c r="Y15" s="166"/>
+      <c r="Z15" s="166"/>
+      <c r="AA15" s="168"/>
+      <c r="AB15" s="169"/>
+      <c r="AC15" s="170"/>
+      <c r="AD15" s="165"/>
+      <c r="AE15" s="165"/>
+      <c r="AF15" s="165"/>
+      <c r="AG15" s="165"/>
+      <c r="AH15" s="165"/>
+      <c r="AI15" s="165"/>
+      <c r="AJ15" s="162"/>
+      <c r="AK15" s="163"/>
+      <c r="AL15" s="164"/>
+      <c r="AM15" s="182"/>
+      <c r="AN15" s="183"/>
+      <c r="AO15" s="181"/>
+      <c r="AP15" s="181"/>
+      <c r="AQ15" s="181"/>
+      <c r="AR15" s="181"/>
+      <c r="AS15" s="184"/>
+      <c r="AT15" s="184"/>
+      <c r="AU15" s="184"/>
+      <c r="AV15" s="184"/>
+      <c r="AW15" s="165"/>
+      <c r="AX15" s="165"/>
+      <c r="AY15" s="165"/>
+      <c r="AZ15" s="165"/>
+      <c r="BA15" s="165"/>
+      <c r="BB15" s="165"/>
+      <c r="BC15" s="165"/>
+      <c r="BD15" s="165"/>
+      <c r="BE15" s="165"/>
+    </row>
+    <row r="16" spans="1:61" s="29" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="165"/>
+      <c r="C16" s="165"/>
+      <c r="D16" s="165"/>
+      <c r="E16" s="180"/>
+      <c r="F16" s="180"/>
+      <c r="G16" s="180"/>
+      <c r="H16" s="180"/>
+      <c r="I16" s="180"/>
+      <c r="J16" s="180"/>
+      <c r="K16" s="180"/>
       <c r="L16" s="96"/>
       <c r="M16" s="98"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="170"/>
-      <c r="V16" s="171"/>
-      <c r="W16" s="171"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="189"/>
-      <c r="Z16" s="189"/>
-      <c r="AA16" s="170"/>
-      <c r="AB16" s="171"/>
-      <c r="AC16" s="172"/>
-      <c r="AD16" s="188"/>
-      <c r="AE16" s="188"/>
-      <c r="AF16" s="188"/>
-      <c r="AG16" s="188"/>
-      <c r="AH16" s="188"/>
-      <c r="AI16" s="188"/>
-      <c r="AJ16" s="199"/>
-      <c r="AK16" s="200"/>
-      <c r="AL16" s="201"/>
-      <c r="AM16" s="204"/>
-      <c r="AN16" s="205"/>
-      <c r="AO16" s="206"/>
-      <c r="AP16" s="206"/>
-      <c r="AQ16" s="206"/>
-      <c r="AR16" s="206"/>
-      <c r="AS16" s="209"/>
-      <c r="AT16" s="209"/>
-      <c r="AU16" s="209"/>
-      <c r="AV16" s="209"/>
-      <c r="AW16" s="188"/>
-      <c r="AX16" s="188"/>
-      <c r="AY16" s="188"/>
-      <c r="AZ16" s="188"/>
-      <c r="BA16" s="188"/>
-      <c r="BB16" s="188"/>
-      <c r="BC16" s="188"/>
-      <c r="BD16" s="188"/>
-      <c r="BE16" s="188"/>
-    </row>
-    <row r="17" spans="2:57" ht="11.25" customHeight="1">
-      <c r="B17" s="167"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="169"/>
+      <c r="N16" s="195"/>
+      <c r="O16" s="196"/>
+      <c r="P16" s="196"/>
+      <c r="Q16" s="196"/>
+      <c r="R16" s="197"/>
+      <c r="S16" s="211"/>
+      <c r="T16" s="211"/>
+      <c r="U16" s="195"/>
+      <c r="V16" s="196"/>
+      <c r="W16" s="196"/>
+      <c r="X16" s="197"/>
+      <c r="Y16" s="203"/>
+      <c r="Z16" s="203"/>
+      <c r="AA16" s="195"/>
+      <c r="AB16" s="196"/>
+      <c r="AC16" s="197"/>
+      <c r="AD16" s="180"/>
+      <c r="AE16" s="180"/>
+      <c r="AF16" s="180"/>
+      <c r="AG16" s="180"/>
+      <c r="AH16" s="180"/>
+      <c r="AI16" s="180"/>
+      <c r="AJ16" s="162"/>
+      <c r="AK16" s="163"/>
+      <c r="AL16" s="164"/>
+      <c r="AM16" s="182"/>
+      <c r="AN16" s="183"/>
+      <c r="AO16" s="181"/>
+      <c r="AP16" s="181"/>
+      <c r="AQ16" s="181"/>
+      <c r="AR16" s="181"/>
+      <c r="AS16" s="184"/>
+      <c r="AT16" s="184"/>
+      <c r="AU16" s="184"/>
+      <c r="AV16" s="184"/>
+      <c r="AW16" s="180"/>
+      <c r="AX16" s="180"/>
+      <c r="AY16" s="180"/>
+      <c r="AZ16" s="180"/>
+      <c r="BA16" s="180"/>
+      <c r="BB16" s="180"/>
+      <c r="BC16" s="180"/>
+      <c r="BD16" s="180"/>
+      <c r="BE16" s="180"/>
+    </row>
+    <row r="17" spans="2:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="168"/>
+      <c r="C17" s="169"/>
+      <c r="D17" s="170"/>
+      <c r="E17" s="168"/>
+      <c r="F17" s="169"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="170"/>
       <c r="L17" s="96"/>
       <c r="M17" s="98"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="168"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="174"/>
-      <c r="U17" s="167"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="169"/>
-      <c r="Y17" s="202"/>
-      <c r="Z17" s="203"/>
-      <c r="AA17" s="167"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="169"/>
-      <c r="AD17" s="167"/>
-      <c r="AE17" s="168"/>
-      <c r="AF17" s="168"/>
-      <c r="AG17" s="168"/>
-      <c r="AH17" s="168"/>
-      <c r="AI17" s="169"/>
-      <c r="AJ17" s="199"/>
-      <c r="AK17" s="200"/>
-      <c r="AL17" s="201"/>
-      <c r="AM17" s="204"/>
-      <c r="AN17" s="205"/>
-      <c r="AO17" s="204"/>
-      <c r="AP17" s="219"/>
-      <c r="AQ17" s="219"/>
-      <c r="AR17" s="205"/>
-      <c r="AS17" s="209"/>
-      <c r="AT17" s="209"/>
-      <c r="AU17" s="209"/>
-      <c r="AV17" s="209"/>
-      <c r="AW17" s="167"/>
-      <c r="AX17" s="168"/>
-      <c r="AY17" s="168"/>
-      <c r="AZ17" s="168"/>
-      <c r="BA17" s="168"/>
-      <c r="BB17" s="168"/>
-      <c r="BC17" s="168"/>
-      <c r="BD17" s="168"/>
-      <c r="BE17" s="169"/>
-    </row>
-    <row r="18" spans="2:57">
-      <c r="B18" s="193"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
+      <c r="N17" s="168"/>
+      <c r="O17" s="169"/>
+      <c r="P17" s="169"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="170"/>
+      <c r="S17" s="212"/>
+      <c r="T17" s="213"/>
+      <c r="U17" s="168"/>
+      <c r="V17" s="169"/>
+      <c r="W17" s="169"/>
+      <c r="X17" s="170"/>
+      <c r="Y17" s="201"/>
+      <c r="Z17" s="202"/>
+      <c r="AA17" s="168"/>
+      <c r="AB17" s="169"/>
+      <c r="AC17" s="170"/>
+      <c r="AD17" s="168"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="169"/>
+      <c r="AG17" s="169"/>
+      <c r="AH17" s="169"/>
+      <c r="AI17" s="170"/>
+      <c r="AJ17" s="162"/>
+      <c r="AK17" s="163"/>
+      <c r="AL17" s="164"/>
+      <c r="AM17" s="182"/>
+      <c r="AN17" s="183"/>
+      <c r="AO17" s="182"/>
+      <c r="AP17" s="185"/>
+      <c r="AQ17" s="185"/>
+      <c r="AR17" s="183"/>
+      <c r="AS17" s="184"/>
+      <c r="AT17" s="184"/>
+      <c r="AU17" s="184"/>
+      <c r="AV17" s="184"/>
+      <c r="AW17" s="168"/>
+      <c r="AX17" s="169"/>
+      <c r="AY17" s="169"/>
+      <c r="AZ17" s="169"/>
+      <c r="BA17" s="169"/>
+      <c r="BB17" s="169"/>
+      <c r="BC17" s="169"/>
+      <c r="BD17" s="169"/>
+      <c r="BE17" s="170"/>
+    </row>
+    <row r="18" spans="2:57" x14ac:dyDescent="0.15">
+      <c r="B18" s="165"/>
+      <c r="C18" s="165"/>
+      <c r="D18" s="165"/>
+      <c r="E18" s="165"/>
+      <c r="F18" s="165"/>
+      <c r="G18" s="165"/>
+      <c r="H18" s="165"/>
+      <c r="I18" s="165"/>
+      <c r="J18" s="165"/>
+      <c r="K18" s="165"/>
       <c r="L18" s="96"/>
       <c r="M18" s="98"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="168"/>
-      <c r="Q18" s="168"/>
-      <c r="R18" s="169"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="167"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="168"/>
-      <c r="X18" s="169"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="197"/>
-      <c r="AA18" s="167"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="169"/>
-      <c r="AD18" s="193"/>
-      <c r="AE18" s="193"/>
-      <c r="AF18" s="193"/>
-      <c r="AG18" s="193"/>
-      <c r="AH18" s="193"/>
-      <c r="AI18" s="193"/>
-      <c r="AJ18" s="199"/>
-      <c r="AK18" s="200"/>
-      <c r="AL18" s="201"/>
-      <c r="AM18" s="204"/>
-      <c r="AN18" s="205"/>
-      <c r="AO18" s="206"/>
-      <c r="AP18" s="206"/>
-      <c r="AQ18" s="206"/>
-      <c r="AR18" s="206"/>
-      <c r="AS18" s="209"/>
-      <c r="AT18" s="209"/>
-      <c r="AU18" s="209"/>
-      <c r="AV18" s="209"/>
-      <c r="AW18" s="193"/>
-      <c r="AX18" s="193"/>
-      <c r="AY18" s="193"/>
-      <c r="AZ18" s="193"/>
-      <c r="BA18" s="193"/>
-      <c r="BB18" s="193"/>
-      <c r="BC18" s="193"/>
-      <c r="BD18" s="193"/>
-      <c r="BE18" s="193"/>
+      <c r="N18" s="168"/>
+      <c r="O18" s="169"/>
+      <c r="P18" s="169"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="170"/>
+      <c r="S18" s="204"/>
+      <c r="T18" s="204"/>
+      <c r="U18" s="168"/>
+      <c r="V18" s="169"/>
+      <c r="W18" s="169"/>
+      <c r="X18" s="170"/>
+      <c r="Y18" s="166"/>
+      <c r="Z18" s="166"/>
+      <c r="AA18" s="168"/>
+      <c r="AB18" s="169"/>
+      <c r="AC18" s="170"/>
+      <c r="AD18" s="165"/>
+      <c r="AE18" s="165"/>
+      <c r="AF18" s="165"/>
+      <c r="AG18" s="165"/>
+      <c r="AH18" s="165"/>
+      <c r="AI18" s="165"/>
+      <c r="AJ18" s="162"/>
+      <c r="AK18" s="163"/>
+      <c r="AL18" s="164"/>
+      <c r="AM18" s="182"/>
+      <c r="AN18" s="183"/>
+      <c r="AO18" s="181"/>
+      <c r="AP18" s="181"/>
+      <c r="AQ18" s="181"/>
+      <c r="AR18" s="181"/>
+      <c r="AS18" s="184"/>
+      <c r="AT18" s="184"/>
+      <c r="AU18" s="184"/>
+      <c r="AV18" s="184"/>
+      <c r="AW18" s="165"/>
+      <c r="AX18" s="165"/>
+      <c r="AY18" s="165"/>
+      <c r="AZ18" s="165"/>
+      <c r="BA18" s="165"/>
+      <c r="BB18" s="165"/>
+      <c r="BC18" s="165"/>
+      <c r="BD18" s="165"/>
+      <c r="BE18" s="165"/>
     </row>
   </sheetData>
   <mergeCells count="173">
+    <mergeCell ref="S11:T11"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="N10:R10"/>
+    <mergeCell ref="S13:T13"/>
+    <mergeCell ref="U13:X13"/>
+    <mergeCell ref="S15:T15"/>
+    <mergeCell ref="U15:X15"/>
+    <mergeCell ref="N17:R17"/>
+    <mergeCell ref="S16:T16"/>
+    <mergeCell ref="U16:X16"/>
+    <mergeCell ref="S17:T17"/>
+    <mergeCell ref="N13:R13"/>
+    <mergeCell ref="N14:R14"/>
+    <mergeCell ref="U11:X11"/>
+    <mergeCell ref="S7:T8"/>
+    <mergeCell ref="N16:R16"/>
+    <mergeCell ref="S14:T14"/>
+    <mergeCell ref="N7:R8"/>
+    <mergeCell ref="L7:M8"/>
+    <mergeCell ref="U7:X8"/>
+    <mergeCell ref="U10:X10"/>
+    <mergeCell ref="E11:K11"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AA17:AC17"/>
+    <mergeCell ref="B14:D14"/>
+    <mergeCell ref="E14:K14"/>
+    <mergeCell ref="U14:X14"/>
+    <mergeCell ref="L17:M17"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="B7:D8"/>
+    <mergeCell ref="Y10:Z10"/>
+    <mergeCell ref="B10:D10"/>
+    <mergeCell ref="E10:K10"/>
+    <mergeCell ref="S10:T10"/>
+    <mergeCell ref="L10:M10"/>
+    <mergeCell ref="B9:D9"/>
+    <mergeCell ref="E9:K9"/>
+    <mergeCell ref="S9:T9"/>
+    <mergeCell ref="Y9:Z9"/>
+    <mergeCell ref="E7:K8"/>
+    <mergeCell ref="N11:R11"/>
+    <mergeCell ref="S18:T18"/>
+    <mergeCell ref="U18:X18"/>
+    <mergeCell ref="Y18:Z18"/>
+    <mergeCell ref="AA18:AC18"/>
+    <mergeCell ref="L11:M11"/>
+    <mergeCell ref="B18:D18"/>
+    <mergeCell ref="E18:K18"/>
+    <mergeCell ref="L18:M18"/>
+    <mergeCell ref="N18:R18"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="E17:K17"/>
+    <mergeCell ref="B15:D15"/>
+    <mergeCell ref="E15:K15"/>
+    <mergeCell ref="L15:M15"/>
+    <mergeCell ref="N15:R15"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:K12"/>
+    <mergeCell ref="N12:R12"/>
+    <mergeCell ref="S12:T12"/>
+    <mergeCell ref="L12:M12"/>
+    <mergeCell ref="B11:D11"/>
+    <mergeCell ref="B16:D16"/>
+    <mergeCell ref="E16:K16"/>
+    <mergeCell ref="L16:M16"/>
+    <mergeCell ref="AJ18:AL18"/>
+    <mergeCell ref="AA12:AC12"/>
+    <mergeCell ref="AD12:AI12"/>
+    <mergeCell ref="U12:X12"/>
+    <mergeCell ref="AA16:AC16"/>
+    <mergeCell ref="Y17:Z17"/>
+    <mergeCell ref="AM13:AN13"/>
+    <mergeCell ref="AO13:AR13"/>
+    <mergeCell ref="AM12:AN12"/>
+    <mergeCell ref="AD15:AI15"/>
+    <mergeCell ref="AA14:AC14"/>
+    <mergeCell ref="U17:X17"/>
+    <mergeCell ref="Y15:Z15"/>
+    <mergeCell ref="AA15:AC15"/>
+    <mergeCell ref="AD14:AI14"/>
+    <mergeCell ref="AD18:AI18"/>
+    <mergeCell ref="AD17:AI17"/>
+    <mergeCell ref="AD16:AI16"/>
+    <mergeCell ref="AJ16:AL16"/>
+    <mergeCell ref="AM16:AN16"/>
+    <mergeCell ref="Y14:Z14"/>
+    <mergeCell ref="Y16:Z16"/>
+    <mergeCell ref="AJ17:AL17"/>
+    <mergeCell ref="AJ15:AL15"/>
+    <mergeCell ref="AD8:AI8"/>
+    <mergeCell ref="AW12:BE12"/>
+    <mergeCell ref="AW13:BE13"/>
+    <mergeCell ref="AW10:BE10"/>
+    <mergeCell ref="AO10:AR10"/>
+    <mergeCell ref="AA10:AC10"/>
+    <mergeCell ref="AD10:AI10"/>
+    <mergeCell ref="AA13:AC13"/>
+    <mergeCell ref="AW11:BE11"/>
+    <mergeCell ref="AJ12:AL12"/>
+    <mergeCell ref="AD13:AI13"/>
+    <mergeCell ref="AJ13:AL13"/>
+    <mergeCell ref="AM11:AN11"/>
+    <mergeCell ref="AO11:AR11"/>
+    <mergeCell ref="AA11:AC11"/>
+    <mergeCell ref="AD11:AI11"/>
+    <mergeCell ref="AS10:AV10"/>
+    <mergeCell ref="AS11:AV11"/>
+    <mergeCell ref="AS12:AV12"/>
+    <mergeCell ref="AO12:AR12"/>
+    <mergeCell ref="AS13:AV13"/>
+    <mergeCell ref="AM10:AN10"/>
+    <mergeCell ref="AJ8:AL8"/>
+    <mergeCell ref="AJ11:AL11"/>
+    <mergeCell ref="AJ10:AL10"/>
+    <mergeCell ref="AW7:BE8"/>
+    <mergeCell ref="AM8:AN8"/>
+    <mergeCell ref="AO8:AR8"/>
+    <mergeCell ref="AM9:AN9"/>
+    <mergeCell ref="AO9:AR9"/>
+    <mergeCell ref="AW9:BE9"/>
+    <mergeCell ref="AM7:AR7"/>
+    <mergeCell ref="AS7:AV8"/>
+    <mergeCell ref="AS9:AV9"/>
+    <mergeCell ref="AW18:BE18"/>
+    <mergeCell ref="AW16:BE16"/>
+    <mergeCell ref="AW17:BE17"/>
+    <mergeCell ref="AO16:AR16"/>
+    <mergeCell ref="AW14:BE14"/>
+    <mergeCell ref="AM15:AN15"/>
+    <mergeCell ref="AO15:AR15"/>
+    <mergeCell ref="AW15:BE15"/>
+    <mergeCell ref="AM14:AN14"/>
+    <mergeCell ref="AO14:AR14"/>
+    <mergeCell ref="AM18:AN18"/>
+    <mergeCell ref="AO18:AR18"/>
+    <mergeCell ref="AS14:AV14"/>
+    <mergeCell ref="AS15:AV15"/>
+    <mergeCell ref="AS16:AV16"/>
+    <mergeCell ref="AS17:AV17"/>
+    <mergeCell ref="AS18:AV18"/>
+    <mergeCell ref="AM17:AN17"/>
+    <mergeCell ref="AO17:AR17"/>
     <mergeCell ref="AJ14:AL14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
@@ -7868,155 +8017,6 @@
     <mergeCell ref="AD9:AI9"/>
     <mergeCell ref="AD7:AL7"/>
     <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AW18:BE18"/>
-    <mergeCell ref="AW16:BE16"/>
-    <mergeCell ref="AW17:BE17"/>
-    <mergeCell ref="AO16:AR16"/>
-    <mergeCell ref="AW14:BE14"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AO15:AR15"/>
-    <mergeCell ref="AW15:BE15"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AO18:AR18"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AS15:AV15"/>
-    <mergeCell ref="AS16:AV16"/>
-    <mergeCell ref="AS17:AV17"/>
-    <mergeCell ref="AS18:AV18"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AO17:AR17"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AW7:BE8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="AW9:BE9"/>
-    <mergeCell ref="AM7:AR7"/>
-    <mergeCell ref="AS7:AV8"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="AW12:BE12"/>
-    <mergeCell ref="AW13:BE13"/>
-    <mergeCell ref="AW10:BE10"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AW11:BE11"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AI11"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AD15:AI15"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AD14:AI14"/>
-    <mergeCell ref="AD18:AI18"/>
-    <mergeCell ref="AD17:AI17"/>
-    <mergeCell ref="AD16:AI16"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="E7:K8"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="N7:R8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="U7:X8"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="Y11:Z11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations count="1">
@@ -8028,7 +8028,7 @@
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
   <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
+    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- &amp;P -</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>

--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
@@ -16,8 +16,8 @@
     <externalReference r:id="rId5"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1'!$A$8:$T$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$BF$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1'!$B$8:$U$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$BG$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
@@ -33,7 +33,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0">
+    <comment ref="O7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,12 +43,11 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>プロジェクトで定めた採番ルールに準じたファイルID/電文IDを記入する。
-IDを意識し、検索しやすい位置を考えて追加すること。（むやみに最終行に追加しない）</t>
+          <t>インタフェースの授受相手先を記載する。(外部機関名称、部署名、システム名など)</t>
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,13 +57,13 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>外部インターフェースの送受信先を記入する。
-システム名が分かる場合は、「会社名/システム名」の形式で記入する。システム名が分からない場合は会社名のみ記入する。
-自社内の他システムの場合はシステム名のみ記入する。</t>
+          <t>伝送の場合は伝送方式、その他の場合は媒体送付方法を記載する。
+例1)伝送ファイルの場合、「FTP」または「HULFT」
+例2)MT/FD/MOの場合、「オフラインMTサーバ」</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD8" authorId="0">
+    <comment ref="AE8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,11 +73,14 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>「日次」、「月次」など、外部インターフェースに関する処理が行われる処理のサイクルを記載する。</t>
+          <t>インタフェースを入出力する処理サイクルを記載する。
+  ・ 「日時」  ・ 「週次」
+  ・ 「月次」  ・ 「年次」
+  ・ 「随時」  ・ 「その他」</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ8" authorId="0">
+    <comment ref="AH8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,11 +90,12 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>「夜間」、「15:00」など、左項目記載のサイクル中どのタイミングで処理が実行されるのかを記載する。</t>
+          <t>【処理サイクル：サイクル】に記載されたタイミングの内、どのタイミングで処理を実行するのか記載する。
+例)毎週月曜10:00</t>
         </r>
       </text>
     </comment>
-    <comment ref="AM8" authorId="0">
+    <comment ref="AN8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,13 +105,14 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>外部インターフェースのレコード長を記入する。
-可変長ファイルの場合は、想定される最長のレコード長を記入する。
-XML形式の場合は記入しなくてよい。</t>
+          <t>インタフェースのレコード長を記載する。
+  ・固定長の場合、バイト数
+  ・可変長の場合、最大バイト数
+※JSON、XML形式の場合は「-」と記載する。</t>
         </r>
       </text>
     </comment>
-    <comment ref="AO8" authorId="0">
+    <comment ref="AP8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,10 +122,10 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>外部インターフェースのピーク時件数を記入する。 
-データレコードの行数を記入する。 
- ※固定長ファイル等改行のないインターフェースの場合は、レコード長で区切った場合の件数を記入する。
- ※XMLファイルの場合は行数ではなく、論理的なデータ件数を記入する。</t>
+          <t>インタフェースのピーク時件数を記載する。
+データレコードの行数を記載する。
+　※固定長ファイル等改行のないインタフェースの場合は、レコード長で区切った場合の件数を記載する。
+　※XMLファイルの場合は行数ではなく、論理的なデータ件数を記載する。</t>
         </r>
       </text>
     </comment>
@@ -130,7 +134,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>データ量</t>
     <rPh sb="3" eb="4">
@@ -336,17 +340,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>暗号化
-要否</t>
-    <rPh sb="0" eb="3">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>成果物名</t>
     <phoneticPr fontId="16"/>
   </si>
@@ -375,10 +368,6 @@
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サイクル</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -416,6 +405,25 @@
     <rPh sb="2" eb="3">
       <t>メイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>暗号化
+有無</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイクル</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -718,7 +726,7 @@
       <charset val="128"/>
     </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,8 +873,14 @@
         <bgColor indexed="23"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1178,6 +1192,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1317,7 +1344,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1559,12 +1586,159 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1574,153 +1748,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1748,6 +1775,108 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1757,41 +1886,23 @@
     <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -1802,125 +1913,35 @@
     <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -3542,53 +3563,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="150"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="120" t="s">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="114"/>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="132" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="122"/>
-      <c r="S1" s="129"/>
-      <c r="T1" s="130"/>
-      <c r="U1" s="130"/>
-      <c r="V1" s="130"/>
-      <c r="W1" s="130"/>
-      <c r="X1" s="130"/>
-      <c r="Y1" s="130"/>
-      <c r="Z1" s="131"/>
-      <c r="AA1" s="117" t="s">
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
+      <c r="S1" s="141"/>
+      <c r="T1" s="142"/>
+      <c r="U1" s="142"/>
+      <c r="V1" s="142"/>
+      <c r="W1" s="142"/>
+      <c r="X1" s="142"/>
+      <c r="Y1" s="142"/>
+      <c r="Z1" s="143"/>
+      <c r="AA1" s="129" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="108" t="str">
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="105" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="138" t="str">
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="99" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="101"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
@@ -3596,51 +3617,51 @@
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="150"/>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="125"/>
-      <c r="S2" s="132"/>
-      <c r="T2" s="133"/>
-      <c r="U2" s="133"/>
-      <c r="V2" s="133"/>
-      <c r="W2" s="133"/>
-      <c r="X2" s="133"/>
-      <c r="Y2" s="133"/>
-      <c r="Z2" s="134"/>
-      <c r="AA2" s="117" t="s">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="114"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
+      <c r="S2" s="144"/>
+      <c r="T2" s="145"/>
+      <c r="U2" s="145"/>
+      <c r="V2" s="145"/>
+      <c r="W2" s="145"/>
+      <c r="X2" s="145"/>
+      <c r="Y2" s="145"/>
+      <c r="Z2" s="146"/>
+      <c r="AA2" s="129" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="141" t="str">
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="102" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="142"/>
-      <c r="AE2" s="142"/>
-      <c r="AF2" s="143"/>
-      <c r="AG2" s="138" t="str">
+      <c r="AD2" s="103"/>
+      <c r="AE2" s="103"/>
+      <c r="AF2" s="104"/>
+      <c r="AG2" s="99" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="140"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="101"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
@@ -3648,43 +3669,43 @@
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="150"/>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="128"/>
-      <c r="S3" s="135"/>
-      <c r="T3" s="136"/>
-      <c r="U3" s="136"/>
-      <c r="V3" s="136"/>
-      <c r="W3" s="136"/>
-      <c r="X3" s="136"/>
-      <c r="Y3" s="136"/>
-      <c r="Z3" s="137"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="108"/>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="138"/>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="140"/>
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="114"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
+      <c r="S3" s="147"/>
+      <c r="T3" s="148"/>
+      <c r="U3" s="148"/>
+      <c r="V3" s="148"/>
+      <c r="W3" s="148"/>
+      <c r="X3" s="148"/>
+      <c r="Y3" s="148"/>
+      <c r="Z3" s="149"/>
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="105"/>
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="99"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="101"/>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -3721,100 +3742,100 @@
       <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="105" t="s">
+      <c r="B7" s="120" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="106"/>
-      <c r="D7" s="105" t="s">
+      <c r="C7" s="121"/>
+      <c r="D7" s="120" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="107"/>
-      <c r="F7" s="106"/>
-      <c r="G7" s="105" t="s">
+      <c r="E7" s="122"/>
+      <c r="F7" s="121"/>
+      <c r="G7" s="120" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="107"/>
-      <c r="I7" s="106"/>
-      <c r="J7" s="105" t="s">
-        <v>34</v>
+      <c r="H7" s="122"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="120" t="s">
+        <v>33</v>
       </c>
-      <c r="K7" s="107"/>
-      <c r="L7" s="107"/>
-      <c r="M7" s="107"/>
-      <c r="N7" s="107"/>
-      <c r="O7" s="107"/>
-      <c r="P7" s="106"/>
-      <c r="Q7" s="105" t="s">
+      <c r="K7" s="122"/>
+      <c r="L7" s="122"/>
+      <c r="M7" s="122"/>
+      <c r="N7" s="122"/>
+      <c r="O7" s="122"/>
+      <c r="P7" s="121"/>
+      <c r="Q7" s="120" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="107"/>
-      <c r="S7" s="107"/>
-      <c r="T7" s="107"/>
-      <c r="U7" s="107"/>
-      <c r="V7" s="107"/>
-      <c r="W7" s="107"/>
-      <c r="X7" s="107"/>
-      <c r="Y7" s="107"/>
-      <c r="Z7" s="107"/>
-      <c r="AA7" s="107"/>
-      <c r="AB7" s="107"/>
-      <c r="AC7" s="107"/>
-      <c r="AD7" s="107"/>
-      <c r="AE7" s="106"/>
-      <c r="AF7" s="105" t="s">
+      <c r="R7" s="122"/>
+      <c r="S7" s="122"/>
+      <c r="T7" s="122"/>
+      <c r="U7" s="122"/>
+      <c r="V7" s="122"/>
+      <c r="W7" s="122"/>
+      <c r="X7" s="122"/>
+      <c r="Y7" s="122"/>
+      <c r="Z7" s="122"/>
+      <c r="AA7" s="122"/>
+      <c r="AB7" s="122"/>
+      <c r="AC7" s="122"/>
+      <c r="AD7" s="122"/>
+      <c r="AE7" s="121"/>
+      <c r="AF7" s="120" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="107"/>
-      <c r="AH7" s="107"/>
-      <c r="AI7" s="106"/>
+      <c r="AG7" s="122"/>
+      <c r="AH7" s="122"/>
+      <c r="AI7" s="121"/>
     </row>
     <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A8" s="85"/>
-      <c r="B8" s="111"/>
-      <c r="C8" s="112"/>
-      <c r="D8" s="113"/>
-      <c r="E8" s="114"/>
-      <c r="F8" s="115"/>
-      <c r="G8" s="111"/>
-      <c r="H8" s="116"/>
-      <c r="I8" s="112"/>
-      <c r="J8" s="144"/>
-      <c r="K8" s="145"/>
-      <c r="L8" s="145"/>
-      <c r="M8" s="145"/>
-      <c r="N8" s="145"/>
-      <c r="O8" s="145"/>
-      <c r="P8" s="146"/>
-      <c r="Q8" s="147"/>
-      <c r="R8" s="148"/>
-      <c r="S8" s="148"/>
-      <c r="T8" s="148"/>
-      <c r="U8" s="148"/>
-      <c r="V8" s="148"/>
-      <c r="W8" s="148"/>
-      <c r="X8" s="148"/>
-      <c r="Y8" s="148"/>
-      <c r="Z8" s="148"/>
-      <c r="AA8" s="148"/>
-      <c r="AB8" s="148"/>
-      <c r="AC8" s="148"/>
-      <c r="AD8" s="148"/>
-      <c r="AE8" s="149"/>
-      <c r="AF8" s="144"/>
-      <c r="AG8" s="145"/>
-      <c r="AH8" s="145"/>
-      <c r="AI8" s="146"/>
+      <c r="B8" s="123"/>
+      <c r="C8" s="124"/>
+      <c r="D8" s="125"/>
+      <c r="E8" s="126"/>
+      <c r="F8" s="127"/>
+      <c r="G8" s="123"/>
+      <c r="H8" s="128"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="108"/>
+      <c r="K8" s="109"/>
+      <c r="L8" s="109"/>
+      <c r="M8" s="109"/>
+      <c r="N8" s="109"/>
+      <c r="O8" s="109"/>
+      <c r="P8" s="110"/>
+      <c r="Q8" s="111"/>
+      <c r="R8" s="112"/>
+      <c r="S8" s="112"/>
+      <c r="T8" s="112"/>
+      <c r="U8" s="112"/>
+      <c r="V8" s="112"/>
+      <c r="W8" s="112"/>
+      <c r="X8" s="112"/>
+      <c r="Y8" s="112"/>
+      <c r="Z8" s="112"/>
+      <c r="AA8" s="112"/>
+      <c r="AB8" s="112"/>
+      <c r="AC8" s="112"/>
+      <c r="AD8" s="112"/>
+      <c r="AE8" s="113"/>
+      <c r="AF8" s="108"/>
+      <c r="AG8" s="109"/>
+      <c r="AH8" s="109"/>
+      <c r="AI8" s="110"/>
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="86"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="100"/>
-      <c r="D9" s="101"/>
-      <c r="E9" s="102"/>
-      <c r="F9" s="103"/>
-      <c r="G9" s="99"/>
-      <c r="H9" s="104"/>
-      <c r="I9" s="100"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="119"/>
+      <c r="D9" s="150"/>
+      <c r="E9" s="151"/>
+      <c r="F9" s="152"/>
+      <c r="G9" s="117"/>
+      <c r="H9" s="118"/>
+      <c r="I9" s="119"/>
       <c r="J9" s="93"/>
       <c r="K9" s="94"/>
       <c r="L9" s="94"/>
@@ -3845,14 +3866,14 @@
     </row>
     <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A10" s="86"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="100"/>
-      <c r="D10" s="101"/>
-      <c r="E10" s="102"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="104"/>
-      <c r="I10" s="100"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="119"/>
+      <c r="D10" s="150"/>
+      <c r="E10" s="151"/>
+      <c r="F10" s="152"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="118"/>
+      <c r="I10" s="119"/>
       <c r="J10" s="93"/>
       <c r="K10" s="94"/>
       <c r="L10" s="94"/>
@@ -3882,14 +3903,14 @@
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="86"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="100"/>
-      <c r="D11" s="101"/>
-      <c r="E11" s="102"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="104"/>
-      <c r="I11" s="100"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="119"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="151"/>
+      <c r="F11" s="152"/>
+      <c r="G11" s="117"/>
+      <c r="H11" s="118"/>
+      <c r="I11" s="119"/>
       <c r="J11" s="93"/>
       <c r="K11" s="94"/>
       <c r="L11" s="94"/>
@@ -3919,14 +3940,14 @@
     </row>
     <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="86"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="100"/>
-      <c r="D12" s="101"/>
-      <c r="E12" s="102"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="99"/>
-      <c r="H12" s="104"/>
-      <c r="I12" s="100"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="119"/>
+      <c r="D12" s="150"/>
+      <c r="E12" s="151"/>
+      <c r="F12" s="152"/>
+      <c r="G12" s="117"/>
+      <c r="H12" s="118"/>
+      <c r="I12" s="119"/>
       <c r="J12" s="93"/>
       <c r="K12" s="94"/>
       <c r="L12" s="94"/>
@@ -3956,14 +3977,14 @@
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="86"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="100"/>
-      <c r="D13" s="101"/>
-      <c r="E13" s="102"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="104"/>
-      <c r="I13" s="100"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="119"/>
+      <c r="D13" s="150"/>
+      <c r="E13" s="151"/>
+      <c r="F13" s="152"/>
+      <c r="G13" s="117"/>
+      <c r="H13" s="118"/>
+      <c r="I13" s="119"/>
       <c r="J13" s="93"/>
       <c r="K13" s="94"/>
       <c r="L13" s="94"/>
@@ -3993,14 +4014,14 @@
     </row>
     <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="86"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="100"/>
-      <c r="D14" s="101"/>
-      <c r="E14" s="102"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="104"/>
-      <c r="I14" s="100"/>
+      <c r="B14" s="117"/>
+      <c r="C14" s="119"/>
+      <c r="D14" s="150"/>
+      <c r="E14" s="151"/>
+      <c r="F14" s="152"/>
+      <c r="G14" s="117"/>
+      <c r="H14" s="118"/>
+      <c r="I14" s="119"/>
       <c r="J14" s="93"/>
       <c r="K14" s="94"/>
       <c r="L14" s="94"/>
@@ -4030,14 +4051,14 @@
     </row>
     <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="86"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="100"/>
-      <c r="D15" s="101"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="104"/>
-      <c r="I15" s="100"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="119"/>
+      <c r="D15" s="150"/>
+      <c r="E15" s="151"/>
+      <c r="F15" s="152"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="118"/>
+      <c r="I15" s="119"/>
       <c r="J15" s="93"/>
       <c r="K15" s="94"/>
       <c r="L15" s="94"/>
@@ -4067,14 +4088,14 @@
     </row>
     <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="86"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="100"/>
-      <c r="D16" s="101"/>
-      <c r="E16" s="102"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="99"/>
-      <c r="H16" s="104"/>
-      <c r="I16" s="100"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="119"/>
+      <c r="D16" s="150"/>
+      <c r="E16" s="151"/>
+      <c r="F16" s="152"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="118"/>
+      <c r="I16" s="119"/>
       <c r="J16" s="93"/>
       <c r="K16" s="94"/>
       <c r="L16" s="94"/>
@@ -4104,14 +4125,14 @@
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="86"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="100"/>
-      <c r="D17" s="101"/>
-      <c r="E17" s="102"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="104"/>
-      <c r="I17" s="100"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="119"/>
+      <c r="D17" s="150"/>
+      <c r="E17" s="151"/>
+      <c r="F17" s="152"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="118"/>
+      <c r="I17" s="119"/>
       <c r="J17" s="93"/>
       <c r="K17" s="94"/>
       <c r="L17" s="94"/>
@@ -4141,14 +4162,14 @@
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="86"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="100"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="102"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="104"/>
-      <c r="I18" s="100"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="119"/>
+      <c r="D18" s="150"/>
+      <c r="E18" s="151"/>
+      <c r="F18" s="152"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="118"/>
+      <c r="I18" s="119"/>
       <c r="J18" s="93"/>
       <c r="K18" s="94"/>
       <c r="L18" s="94"/>
@@ -4178,14 +4199,14 @@
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="86"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="100"/>
-      <c r="D19" s="101"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="99"/>
-      <c r="H19" s="104"/>
-      <c r="I19" s="100"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="119"/>
+      <c r="D19" s="150"/>
+      <c r="E19" s="151"/>
+      <c r="F19" s="152"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="119"/>
       <c r="J19" s="93"/>
       <c r="K19" s="94"/>
       <c r="L19" s="94"/>
@@ -4215,14 +4236,14 @@
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="86"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="100"/>
-      <c r="D20" s="101"/>
-      <c r="E20" s="102"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="104"/>
-      <c r="I20" s="100"/>
+      <c r="B20" s="117"/>
+      <c r="C20" s="119"/>
+      <c r="D20" s="150"/>
+      <c r="E20" s="151"/>
+      <c r="F20" s="152"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="119"/>
       <c r="J20" s="93"/>
       <c r="K20" s="94"/>
       <c r="L20" s="94"/>
@@ -4252,14 +4273,14 @@
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="86"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="100"/>
-      <c r="D21" s="101"/>
-      <c r="E21" s="102"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="104"/>
-      <c r="I21" s="100"/>
+      <c r="B21" s="117"/>
+      <c r="C21" s="119"/>
+      <c r="D21" s="150"/>
+      <c r="E21" s="151"/>
+      <c r="F21" s="152"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="118"/>
+      <c r="I21" s="119"/>
       <c r="J21" s="93"/>
       <c r="K21" s="94"/>
       <c r="L21" s="94"/>
@@ -4289,14 +4310,14 @@
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="86"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="100"/>
-      <c r="D22" s="101"/>
-      <c r="E22" s="102"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="99"/>
-      <c r="H22" s="104"/>
-      <c r="I22" s="100"/>
+      <c r="B22" s="117"/>
+      <c r="C22" s="119"/>
+      <c r="D22" s="150"/>
+      <c r="E22" s="151"/>
+      <c r="F22" s="152"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="118"/>
+      <c r="I22" s="119"/>
       <c r="J22" s="93"/>
       <c r="K22" s="94"/>
       <c r="L22" s="94"/>
@@ -4326,14 +4347,14 @@
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="86"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="100"/>
-      <c r="D23" s="101"/>
-      <c r="E23" s="102"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="104"/>
-      <c r="I23" s="100"/>
+      <c r="B23" s="117"/>
+      <c r="C23" s="119"/>
+      <c r="D23" s="150"/>
+      <c r="E23" s="151"/>
+      <c r="F23" s="152"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="118"/>
+      <c r="I23" s="119"/>
       <c r="J23" s="93"/>
       <c r="K23" s="94"/>
       <c r="L23" s="94"/>
@@ -4363,14 +4384,14 @@
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="86"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="100"/>
-      <c r="D24" s="101"/>
-      <c r="E24" s="102"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="104"/>
-      <c r="I24" s="100"/>
+      <c r="B24" s="117"/>
+      <c r="C24" s="119"/>
+      <c r="D24" s="150"/>
+      <c r="E24" s="151"/>
+      <c r="F24" s="152"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="118"/>
+      <c r="I24" s="119"/>
       <c r="J24" s="93"/>
       <c r="K24" s="94"/>
       <c r="L24" s="94"/>
@@ -4400,14 +4421,14 @@
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="86"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="100"/>
-      <c r="D25" s="101"/>
-      <c r="E25" s="102"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="99"/>
-      <c r="H25" s="104"/>
-      <c r="I25" s="100"/>
+      <c r="B25" s="117"/>
+      <c r="C25" s="119"/>
+      <c r="D25" s="150"/>
+      <c r="E25" s="151"/>
+      <c r="F25" s="152"/>
+      <c r="G25" s="117"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="119"/>
       <c r="J25" s="93"/>
       <c r="K25" s="94"/>
       <c r="L25" s="94"/>
@@ -4437,14 +4458,14 @@
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="86"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="100"/>
-      <c r="D26" s="101"/>
-      <c r="E26" s="102"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="104"/>
-      <c r="I26" s="100"/>
+      <c r="B26" s="117"/>
+      <c r="C26" s="119"/>
+      <c r="D26" s="150"/>
+      <c r="E26" s="151"/>
+      <c r="F26" s="152"/>
+      <c r="G26" s="117"/>
+      <c r="H26" s="118"/>
+      <c r="I26" s="119"/>
       <c r="J26" s="93"/>
       <c r="K26" s="94"/>
       <c r="L26" s="94"/>
@@ -4474,14 +4495,14 @@
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="86"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="100"/>
-      <c r="D27" s="101"/>
-      <c r="E27" s="102"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="104"/>
-      <c r="I27" s="100"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="119"/>
+      <c r="D27" s="150"/>
+      <c r="E27" s="151"/>
+      <c r="F27" s="152"/>
+      <c r="G27" s="117"/>
+      <c r="H27" s="118"/>
+      <c r="I27" s="119"/>
       <c r="J27" s="93"/>
       <c r="K27" s="94"/>
       <c r="L27" s="94"/>
@@ -4511,14 +4532,14 @@
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="86"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="100"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="104"/>
-      <c r="I28" s="100"/>
+      <c r="B28" s="117"/>
+      <c r="C28" s="119"/>
+      <c r="D28" s="150"/>
+      <c r="E28" s="151"/>
+      <c r="F28" s="152"/>
+      <c r="G28" s="117"/>
+      <c r="H28" s="118"/>
+      <c r="I28" s="119"/>
       <c r="J28" s="93"/>
       <c r="K28" s="94"/>
       <c r="L28" s="94"/>
@@ -4548,14 +4569,14 @@
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="86"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="100"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="102"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="99"/>
-      <c r="H29" s="104"/>
-      <c r="I29" s="100"/>
+      <c r="B29" s="117"/>
+      <c r="C29" s="119"/>
+      <c r="D29" s="150"/>
+      <c r="E29" s="151"/>
+      <c r="F29" s="152"/>
+      <c r="G29" s="117"/>
+      <c r="H29" s="118"/>
+      <c r="I29" s="119"/>
       <c r="J29" s="93"/>
       <c r="K29" s="94"/>
       <c r="L29" s="94"/>
@@ -4585,14 +4606,14 @@
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="86"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="100"/>
-      <c r="D30" s="101"/>
-      <c r="E30" s="102"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="100"/>
+      <c r="B30" s="117"/>
+      <c r="C30" s="119"/>
+      <c r="D30" s="150"/>
+      <c r="E30" s="151"/>
+      <c r="F30" s="152"/>
+      <c r="G30" s="117"/>
+      <c r="H30" s="118"/>
+      <c r="I30" s="119"/>
       <c r="J30" s="93"/>
       <c r="K30" s="94"/>
       <c r="L30" s="94"/>
@@ -4622,14 +4643,14 @@
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="86"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="100"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="102"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="100"/>
+      <c r="B31" s="117"/>
+      <c r="C31" s="119"/>
+      <c r="D31" s="150"/>
+      <c r="E31" s="151"/>
+      <c r="F31" s="152"/>
+      <c r="G31" s="117"/>
+      <c r="H31" s="118"/>
+      <c r="I31" s="119"/>
       <c r="J31" s="93"/>
       <c r="K31" s="94"/>
       <c r="L31" s="94"/>
@@ -4660,14 +4681,14 @@
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="86"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="100"/>
-      <c r="D32" s="101"/>
-      <c r="E32" s="102"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="99"/>
-      <c r="H32" s="104"/>
-      <c r="I32" s="100"/>
+      <c r="B32" s="117"/>
+      <c r="C32" s="119"/>
+      <c r="D32" s="150"/>
+      <c r="E32" s="151"/>
+      <c r="F32" s="152"/>
+      <c r="G32" s="117"/>
+      <c r="H32" s="118"/>
+      <c r="I32" s="119"/>
       <c r="J32" s="93"/>
       <c r="K32" s="94"/>
       <c r="L32" s="94"/>
@@ -4698,14 +4719,14 @@
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="86"/>
-      <c r="B33" s="99"/>
-      <c r="C33" s="100"/>
-      <c r="D33" s="101"/>
-      <c r="E33" s="102"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="104"/>
-      <c r="I33" s="100"/>
+      <c r="B33" s="117"/>
+      <c r="C33" s="119"/>
+      <c r="D33" s="150"/>
+      <c r="E33" s="151"/>
+      <c r="F33" s="152"/>
+      <c r="G33" s="117"/>
+      <c r="H33" s="118"/>
+      <c r="I33" s="119"/>
       <c r="J33" s="93"/>
       <c r="K33" s="94"/>
       <c r="L33" s="94"/>
@@ -4926,6 +4947,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
     <mergeCell ref="J30:P30"/>
     <mergeCell ref="Q30:AE30"/>
     <mergeCell ref="AF30:AI30"/>
@@ -4950,161 +5126,6 @@
     <mergeCell ref="Q29:AE29"/>
     <mergeCell ref="AF29:AI29"/>
     <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5261,31 +5282,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="129" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="150" t="str">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="114" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="120" t="s">
-        <v>32</v>
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="132" t="s">
+        <v>31</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="122"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
       <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -5297,48 +5318,48 @@
       <c r="X1" s="154"/>
       <c r="Y1" s="154"/>
       <c r="Z1" s="155"/>
-      <c r="AA1" s="117" t="s">
+      <c r="AA1" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="108" t="str">
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="105" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="138" t="str">
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="99" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="139"/>
-      <c r="AI1" s="140"/>
+      <c r="AH1" s="100"/>
+      <c r="AI1" s="101"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="150" t="str">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="114" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="125"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
       <c r="S2" s="156"/>
       <c r="T2" s="157"/>
       <c r="U2" s="157"/>
@@ -5347,48 +5368,48 @@
       <c r="X2" s="157"/>
       <c r="Y2" s="157"/>
       <c r="Z2" s="158"/>
-      <c r="AA2" s="117" t="s">
+      <c r="AA2" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="108" t="str">
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="105" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="138" t="str">
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="99" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="139"/>
-      <c r="AI2" s="140"/>
+      <c r="AH2" s="100"/>
+      <c r="AI2" s="101"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="150" t="str">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="114" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="128"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
       <c r="S3" s="159"/>
       <c r="T3" s="160"/>
       <c r="U3" s="160"/>
@@ -5397,21 +5418,21 @@
       <c r="X3" s="160"/>
       <c r="Y3" s="160"/>
       <c r="Z3" s="161"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="108" t="str">
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="105" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="138" t="str">
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="99" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="139"/>
-      <c r="AI3" s="140"/>
+      <c r="AH3" s="100"/>
+      <c r="AI3" s="101"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="42"/>
@@ -5468,7 +5489,7 @@
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="42"/>
       <c r="S5" s="42"/>
@@ -5529,7 +5550,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A7" s="46"/>
       <c r="B7" s="47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
@@ -6871,6 +6892,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6882,12 +6909,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6918,31 +6939,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="117" t="s">
-        <v>40</v>
+      <c r="A1" s="129" t="s">
+        <v>38</v>
       </c>
-      <c r="B1" s="118"/>
-      <c r="C1" s="118"/>
-      <c r="D1" s="119"/>
-      <c r="E1" s="150" t="str">
+      <c r="B1" s="130"/>
+      <c r="C1" s="130"/>
+      <c r="D1" s="131"/>
+      <c r="E1" s="114" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
-      <c r="I1" s="151"/>
-      <c r="J1" s="151"/>
-      <c r="K1" s="151"/>
-      <c r="L1" s="151"/>
-      <c r="M1" s="151"/>
-      <c r="N1" s="152"/>
-      <c r="O1" s="120" t="s">
+      <c r="F1" s="115"/>
+      <c r="G1" s="115"/>
+      <c r="H1" s="115"/>
+      <c r="I1" s="115"/>
+      <c r="J1" s="115"/>
+      <c r="K1" s="115"/>
+      <c r="L1" s="115"/>
+      <c r="M1" s="115"/>
+      <c r="N1" s="116"/>
+      <c r="O1" s="132" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="121"/>
-      <c r="Q1" s="121"/>
-      <c r="R1" s="122"/>
+      <c r="P1" s="133"/>
+      <c r="Q1" s="133"/>
+      <c r="R1" s="134"/>
       <c r="S1" s="153" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -6954,51 +6975,51 @@
       <c r="X1" s="154"/>
       <c r="Y1" s="154"/>
       <c r="Z1" s="155"/>
-      <c r="AA1" s="117" t="s">
+      <c r="AA1" s="129" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="119"/>
-      <c r="AC1" s="108" t="str">
+      <c r="AB1" s="131"/>
+      <c r="AC1" s="105" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="109"/>
-      <c r="AE1" s="109"/>
-      <c r="AF1" s="110"/>
-      <c r="AG1" s="205" t="str">
+      <c r="AD1" s="106"/>
+      <c r="AE1" s="106"/>
+      <c r="AF1" s="107"/>
+      <c r="AG1" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="206"/>
-      <c r="AI1" s="207"/>
+      <c r="AH1" s="190"/>
+      <c r="AI1" s="191"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="117" t="s">
+      <c r="A2" s="129" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="150" t="str">
+      <c r="B2" s="130"/>
+      <c r="C2" s="130"/>
+      <c r="D2" s="131"/>
+      <c r="E2" s="114" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="151"/>
-      <c r="G2" s="151"/>
-      <c r="H2" s="151"/>
-      <c r="I2" s="151"/>
-      <c r="J2" s="151"/>
-      <c r="K2" s="151"/>
-      <c r="L2" s="151"/>
-      <c r="M2" s="151"/>
-      <c r="N2" s="152"/>
-      <c r="O2" s="123"/>
-      <c r="P2" s="124"/>
-      <c r="Q2" s="124"/>
-      <c r="R2" s="125"/>
+      <c r="F2" s="115"/>
+      <c r="G2" s="115"/>
+      <c r="H2" s="115"/>
+      <c r="I2" s="115"/>
+      <c r="J2" s="115"/>
+      <c r="K2" s="115"/>
+      <c r="L2" s="115"/>
+      <c r="M2" s="115"/>
+      <c r="N2" s="116"/>
+      <c r="O2" s="135"/>
+      <c r="P2" s="136"/>
+      <c r="Q2" s="136"/>
+      <c r="R2" s="137"/>
       <c r="S2" s="156"/>
       <c r="T2" s="157"/>
       <c r="U2" s="157"/>
@@ -7007,51 +7028,51 @@
       <c r="X2" s="157"/>
       <c r="Y2" s="157"/>
       <c r="Z2" s="158"/>
-      <c r="AA2" s="117" t="s">
+      <c r="AA2" s="129" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="119"/>
-      <c r="AC2" s="108" t="str">
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="105" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="109"/>
-      <c r="AE2" s="109"/>
-      <c r="AF2" s="110"/>
-      <c r="AG2" s="205" t="str">
+      <c r="AD2" s="106"/>
+      <c r="AE2" s="106"/>
+      <c r="AF2" s="107"/>
+      <c r="AG2" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="206"/>
-      <c r="AI2" s="207"/>
+      <c r="AH2" s="190"/>
+      <c r="AI2" s="191"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
     </row>
     <row r="3" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="129" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="118"/>
-      <c r="C3" s="118"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="150" t="str">
+      <c r="B3" s="130"/>
+      <c r="C3" s="130"/>
+      <c r="D3" s="131"/>
+      <c r="E3" s="114" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="151"/>
-      <c r="G3" s="151"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="151"/>
-      <c r="J3" s="151"/>
-      <c r="K3" s="151"/>
-      <c r="L3" s="151"/>
-      <c r="M3" s="151"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="126"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="128"/>
+      <c r="F3" s="115"/>
+      <c r="G3" s="115"/>
+      <c r="H3" s="115"/>
+      <c r="I3" s="115"/>
+      <c r="J3" s="115"/>
+      <c r="K3" s="115"/>
+      <c r="L3" s="115"/>
+      <c r="M3" s="115"/>
+      <c r="N3" s="116"/>
+      <c r="O3" s="138"/>
+      <c r="P3" s="139"/>
+      <c r="Q3" s="139"/>
+      <c r="R3" s="140"/>
       <c r="S3" s="159"/>
       <c r="T3" s="160"/>
       <c r="U3" s="160"/>
@@ -7060,28 +7081,28 @@
       <c r="X3" s="160"/>
       <c r="Y3" s="160"/>
       <c r="Z3" s="161"/>
-      <c r="AA3" s="117"/>
-      <c r="AB3" s="119"/>
-      <c r="AC3" s="108" t="str">
+      <c r="AA3" s="129"/>
+      <c r="AB3" s="131"/>
+      <c r="AC3" s="105" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="109"/>
-      <c r="AE3" s="109"/>
-      <c r="AF3" s="110"/>
-      <c r="AG3" s="205" t="str">
+      <c r="AD3" s="106"/>
+      <c r="AE3" s="106"/>
+      <c r="AF3" s="107"/>
+      <c r="AG3" s="189" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="206"/>
-      <c r="AI3" s="207"/>
+      <c r="AH3" s="190"/>
+      <c r="AI3" s="191"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
     </row>
     <row r="5" spans="1:61" s="23" customFormat="1" x14ac:dyDescent="0.15">
       <c r="B5" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
@@ -7103,897 +7124,762 @@
       <c r="BI6" s="25"/>
     </row>
     <row r="7" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="215" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="175" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="167"/>
-      <c r="D7" s="167"/>
-      <c r="E7" s="210" t="s">
-        <v>38</v>
+      <c r="D7" s="175"/>
+      <c r="E7" s="175"/>
+      <c r="F7" s="195" t="s">
+        <v>36</v>
       </c>
-      <c r="F7" s="210"/>
-      <c r="G7" s="210"/>
-      <c r="H7" s="210"/>
-      <c r="I7" s="210"/>
-      <c r="J7" s="210"/>
-      <c r="K7" s="210"/>
-      <c r="L7" s="214" t="s">
+      <c r="G7" s="195"/>
+      <c r="H7" s="195"/>
+      <c r="I7" s="195"/>
+      <c r="J7" s="195"/>
+      <c r="K7" s="195"/>
+      <c r="L7" s="195"/>
+      <c r="M7" s="182" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="215"/>
-      <c r="N7" s="171" t="s">
+      <c r="N7" s="183"/>
+      <c r="O7" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="172"/>
-      <c r="P7" s="172"/>
-      <c r="Q7" s="172"/>
-      <c r="R7" s="173"/>
-      <c r="S7" s="167" t="s">
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="178"/>
+      <c r="T7" s="175" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="167"/>
-      <c r="U7" s="214" t="s">
+      <c r="U7" s="175"/>
+      <c r="V7" s="182" t="s">
         <v>18</v>
       </c>
-      <c r="V7" s="218"/>
-      <c r="W7" s="218"/>
-      <c r="X7" s="215"/>
-      <c r="Y7" s="167" t="s">
-        <v>31</v>
+      <c r="W7" s="186"/>
+      <c r="X7" s="186"/>
+      <c r="Y7" s="183"/>
+      <c r="Z7" s="175" t="s">
+        <v>39</v>
       </c>
-      <c r="Z7" s="167"/>
-      <c r="AA7" s="171" t="s">
+      <c r="AA7" s="175"/>
+      <c r="AB7" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="AB7" s="172"/>
-      <c r="AC7" s="173"/>
-      <c r="AD7" s="177" t="s">
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="178"/>
+      <c r="AE7" s="205" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="178"/>
-      <c r="AF7" s="178"/>
-      <c r="AG7" s="178"/>
-      <c r="AH7" s="178"/>
-      <c r="AI7" s="178"/>
-      <c r="AJ7" s="178"/>
-      <c r="AK7" s="178"/>
-      <c r="AL7" s="179"/>
-      <c r="AM7" s="167" t="s">
+      <c r="AF7" s="206"/>
+      <c r="AG7" s="206"/>
+      <c r="AH7" s="206"/>
+      <c r="AI7" s="206"/>
+      <c r="AJ7" s="206"/>
+      <c r="AK7" s="206"/>
+      <c r="AL7" s="206"/>
+      <c r="AM7" s="207"/>
+      <c r="AN7" s="175" t="s">
         <v>0</v>
       </c>
-      <c r="AN7" s="167"/>
-      <c r="AO7" s="167"/>
-      <c r="AP7" s="167"/>
-      <c r="AQ7" s="167"/>
-      <c r="AR7" s="167"/>
-      <c r="AS7" s="167" t="s">
+      <c r="AO7" s="175"/>
+      <c r="AP7" s="175"/>
+      <c r="AQ7" s="175"/>
+      <c r="AR7" s="175"/>
+      <c r="AS7" s="175"/>
+      <c r="AT7" s="175" t="s">
         <v>30</v>
       </c>
-      <c r="AT7" s="167"/>
-      <c r="AU7" s="167"/>
-      <c r="AV7" s="167"/>
-      <c r="AW7" s="167" t="s">
+      <c r="AU7" s="175"/>
+      <c r="AV7" s="175"/>
+      <c r="AW7" s="175"/>
+      <c r="AX7" s="175" t="s">
         <v>2</v>
       </c>
-      <c r="AX7" s="167"/>
-      <c r="AY7" s="167"/>
-      <c r="AZ7" s="167"/>
-      <c r="BA7" s="167"/>
-      <c r="BB7" s="167"/>
-      <c r="BC7" s="167"/>
-      <c r="BD7" s="167"/>
-      <c r="BE7" s="167"/>
-      <c r="BF7" s="26"/>
+      <c r="AY7" s="175"/>
+      <c r="AZ7" s="175"/>
+      <c r="BA7" s="175"/>
+      <c r="BB7" s="175"/>
+      <c r="BC7" s="175"/>
+      <c r="BD7" s="175"/>
+      <c r="BE7" s="175"/>
+      <c r="BF7" s="175"/>
       <c r="BG7" s="26"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
     </row>
     <row r="8" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="167"/>
-      <c r="C8" s="167"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="210"/>
-      <c r="F8" s="210"/>
-      <c r="G8" s="210"/>
-      <c r="H8" s="210"/>
-      <c r="I8" s="210"/>
-      <c r="J8" s="210"/>
-      <c r="K8" s="210"/>
-      <c r="L8" s="216"/>
-      <c r="M8" s="217"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="175"/>
-      <c r="P8" s="175"/>
-      <c r="Q8" s="175"/>
-      <c r="R8" s="176"/>
-      <c r="S8" s="167"/>
-      <c r="T8" s="167"/>
-      <c r="U8" s="216"/>
-      <c r="V8" s="219"/>
-      <c r="W8" s="219"/>
-      <c r="X8" s="217"/>
-      <c r="Y8" s="167"/>
-      <c r="Z8" s="167"/>
-      <c r="AA8" s="174"/>
-      <c r="AB8" s="175"/>
-      <c r="AC8" s="176"/>
-      <c r="AD8" s="167" t="s">
-        <v>36</v>
+      <c r="B8" s="216"/>
+      <c r="C8" s="175"/>
+      <c r="D8" s="175"/>
+      <c r="E8" s="175"/>
+      <c r="F8" s="195"/>
+      <c r="G8" s="195"/>
+      <c r="H8" s="195"/>
+      <c r="I8" s="195"/>
+      <c r="J8" s="195"/>
+      <c r="K8" s="195"/>
+      <c r="L8" s="195"/>
+      <c r="M8" s="184"/>
+      <c r="N8" s="185"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="180"/>
+      <c r="R8" s="180"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="175"/>
+      <c r="U8" s="175"/>
+      <c r="V8" s="184"/>
+      <c r="W8" s="187"/>
+      <c r="X8" s="187"/>
+      <c r="Y8" s="185"/>
+      <c r="Z8" s="175"/>
+      <c r="AA8" s="175"/>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="180"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="205" t="s">
+        <v>40</v>
       </c>
-      <c r="AE8" s="167"/>
-      <c r="AF8" s="167"/>
-      <c r="AG8" s="167"/>
-      <c r="AH8" s="167"/>
-      <c r="AI8" s="167"/>
-      <c r="AJ8" s="177" t="s">
-        <v>35</v>
+      <c r="AF8" s="206"/>
+      <c r="AG8" s="207"/>
+      <c r="AH8" s="175" t="s">
+        <v>34</v>
       </c>
-      <c r="AK8" s="178"/>
-      <c r="AL8" s="179"/>
-      <c r="AM8" s="177" t="s">
+      <c r="AI8" s="175"/>
+      <c r="AJ8" s="175"/>
+      <c r="AK8" s="175"/>
+      <c r="AL8" s="175"/>
+      <c r="AM8" s="175"/>
+      <c r="AN8" s="205" t="s">
         <v>29</v>
       </c>
-      <c r="AN8" s="179"/>
-      <c r="AO8" s="167" t="s">
+      <c r="AO8" s="207"/>
+      <c r="AP8" s="175" t="s">
         <v>14</v>
       </c>
-      <c r="AP8" s="167"/>
-      <c r="AQ8" s="167"/>
-      <c r="AR8" s="167"/>
-      <c r="AS8" s="167"/>
-      <c r="AT8" s="167"/>
-      <c r="AU8" s="167"/>
-      <c r="AV8" s="167"/>
-      <c r="AW8" s="167"/>
-      <c r="AX8" s="167"/>
-      <c r="AY8" s="167"/>
-      <c r="AZ8" s="167"/>
-      <c r="BA8" s="167"/>
-      <c r="BB8" s="167"/>
-      <c r="BC8" s="167"/>
-      <c r="BD8" s="167"/>
-      <c r="BE8" s="167"/>
-      <c r="BF8" s="26"/>
+      <c r="AQ8" s="175"/>
+      <c r="AR8" s="175"/>
+      <c r="AS8" s="175"/>
+      <c r="AT8" s="175"/>
+      <c r="AU8" s="175"/>
+      <c r="AV8" s="175"/>
+      <c r="AW8" s="175"/>
+      <c r="AX8" s="175"/>
+      <c r="AY8" s="175"/>
+      <c r="AZ8" s="175"/>
+      <c r="BA8" s="175"/>
+      <c r="BB8" s="175"/>
+      <c r="BC8" s="175"/>
+      <c r="BD8" s="175"/>
+      <c r="BE8" s="175"/>
+      <c r="BF8" s="175"/>
       <c r="BG8" s="26"/>
       <c r="BH8" s="26"/>
       <c r="BI8" s="26"/>
     </row>
     <row r="9" spans="1:61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="165"/>
-      <c r="C9" s="165"/>
-      <c r="D9" s="165"/>
-      <c r="E9" s="165"/>
-      <c r="F9" s="165"/>
-      <c r="G9" s="165"/>
-      <c r="H9" s="165"/>
-      <c r="I9" s="165"/>
-      <c r="J9" s="165"/>
-      <c r="K9" s="165"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="168"/>
-      <c r="O9" s="169"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="170"/>
-      <c r="S9" s="204"/>
-      <c r="T9" s="204"/>
-      <c r="U9" s="168"/>
-      <c r="V9" s="169"/>
-      <c r="W9" s="169"/>
-      <c r="X9" s="170"/>
-      <c r="Y9" s="166"/>
-      <c r="Z9" s="166"/>
-      <c r="AA9" s="168"/>
-      <c r="AB9" s="169"/>
-      <c r="AC9" s="170"/>
-      <c r="AD9" s="168"/>
-      <c r="AE9" s="169"/>
-      <c r="AF9" s="169"/>
-      <c r="AG9" s="169"/>
-      <c r="AH9" s="169"/>
-      <c r="AI9" s="170"/>
-      <c r="AJ9" s="162"/>
-      <c r="AK9" s="163"/>
-      <c r="AL9" s="164"/>
-      <c r="AM9" s="182"/>
-      <c r="AN9" s="183"/>
-      <c r="AO9" s="181"/>
-      <c r="AP9" s="181"/>
-      <c r="AQ9" s="181"/>
-      <c r="AR9" s="181"/>
-      <c r="AS9" s="184"/>
-      <c r="AT9" s="184"/>
-      <c r="AU9" s="184"/>
-      <c r="AV9" s="184"/>
-      <c r="AW9" s="165"/>
-      <c r="AX9" s="165"/>
-      <c r="AY9" s="165"/>
-      <c r="AZ9" s="165"/>
-      <c r="BA9" s="165"/>
-      <c r="BB9" s="165"/>
-      <c r="BC9" s="165"/>
-      <c r="BD9" s="165"/>
-      <c r="BE9" s="165"/>
-      <c r="BF9" s="27"/>
+      <c r="B9" s="217"/>
+      <c r="C9" s="192"/>
+      <c r="D9" s="192"/>
+      <c r="E9" s="192"/>
+      <c r="F9" s="192"/>
+      <c r="G9" s="192"/>
+      <c r="H9" s="192"/>
+      <c r="I9" s="192"/>
+      <c r="J9" s="192"/>
+      <c r="K9" s="192"/>
+      <c r="L9" s="192"/>
+      <c r="M9" s="96"/>
+      <c r="N9" s="98"/>
+      <c r="O9" s="167"/>
+      <c r="P9" s="168"/>
+      <c r="Q9" s="168"/>
+      <c r="R9" s="168"/>
+      <c r="S9" s="169"/>
+      <c r="T9" s="166"/>
+      <c r="U9" s="166"/>
+      <c r="V9" s="167"/>
+      <c r="W9" s="168"/>
+      <c r="X9" s="168"/>
+      <c r="Y9" s="169"/>
+      <c r="Z9" s="192"/>
+      <c r="AA9" s="192"/>
+      <c r="AB9" s="167"/>
+      <c r="AC9" s="168"/>
+      <c r="AD9" s="169"/>
+      <c r="AE9" s="196"/>
+      <c r="AF9" s="197"/>
+      <c r="AG9" s="198"/>
+      <c r="AH9" s="167"/>
+      <c r="AI9" s="168"/>
+      <c r="AJ9" s="168"/>
+      <c r="AK9" s="168"/>
+      <c r="AL9" s="168"/>
+      <c r="AM9" s="169"/>
+      <c r="AN9" s="199"/>
+      <c r="AO9" s="200"/>
+      <c r="AP9" s="201"/>
+      <c r="AQ9" s="201"/>
+      <c r="AR9" s="201"/>
+      <c r="AS9" s="201"/>
+      <c r="AT9" s="204"/>
+      <c r="AU9" s="204"/>
+      <c r="AV9" s="204"/>
+      <c r="AW9" s="204"/>
+      <c r="AX9" s="192"/>
+      <c r="AY9" s="192"/>
+      <c r="AZ9" s="192"/>
+      <c r="BA9" s="192"/>
+      <c r="BB9" s="192"/>
+      <c r="BC9" s="192"/>
+      <c r="BD9" s="192"/>
+      <c r="BE9" s="192"/>
+      <c r="BF9" s="192"/>
       <c r="BG9" s="27"/>
       <c r="BH9" s="27"/>
       <c r="BI9" s="27"/>
     </row>
     <row r="10" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="189"/>
-      <c r="C10" s="189"/>
-      <c r="D10" s="189"/>
-      <c r="E10" s="180"/>
-      <c r="F10" s="180"/>
-      <c r="G10" s="180"/>
-      <c r="H10" s="180"/>
-      <c r="I10" s="180"/>
-      <c r="J10" s="180"/>
-      <c r="K10" s="180"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="191"/>
-      <c r="O10" s="192"/>
-      <c r="P10" s="192"/>
-      <c r="Q10" s="192"/>
-      <c r="R10" s="193"/>
-      <c r="S10" s="209"/>
-      <c r="T10" s="209"/>
-      <c r="U10" s="191"/>
-      <c r="V10" s="192"/>
-      <c r="W10" s="192"/>
-      <c r="X10" s="193"/>
-      <c r="Y10" s="208"/>
-      <c r="Z10" s="208"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="192"/>
-      <c r="AC10" s="193"/>
-      <c r="AD10" s="189"/>
-      <c r="AE10" s="189"/>
-      <c r="AF10" s="189"/>
-      <c r="AG10" s="189"/>
-      <c r="AH10" s="189"/>
-      <c r="AI10" s="189"/>
-      <c r="AJ10" s="186"/>
-      <c r="AK10" s="187"/>
-      <c r="AL10" s="188"/>
-      <c r="AM10" s="182"/>
-      <c r="AN10" s="183"/>
-      <c r="AO10" s="190"/>
-      <c r="AP10" s="190"/>
-      <c r="AQ10" s="190"/>
-      <c r="AR10" s="190"/>
-      <c r="AS10" s="184"/>
-      <c r="AT10" s="184"/>
-      <c r="AU10" s="184"/>
-      <c r="AV10" s="184"/>
-      <c r="AW10" s="189"/>
-      <c r="AX10" s="189"/>
-      <c r="AY10" s="189"/>
-      <c r="AZ10" s="189"/>
-      <c r="BA10" s="189"/>
-      <c r="BB10" s="189"/>
-      <c r="BC10" s="189"/>
-      <c r="BD10" s="189"/>
-      <c r="BE10" s="189"/>
+      <c r="B10" s="217"/>
+      <c r="C10" s="193"/>
+      <c r="D10" s="193"/>
+      <c r="E10" s="193"/>
+      <c r="F10" s="188"/>
+      <c r="G10" s="188"/>
+      <c r="H10" s="188"/>
+      <c r="I10" s="188"/>
+      <c r="J10" s="188"/>
+      <c r="K10" s="188"/>
+      <c r="L10" s="188"/>
+      <c r="M10" s="96"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="163"/>
+      <c r="P10" s="164"/>
+      <c r="Q10" s="164"/>
+      <c r="R10" s="164"/>
+      <c r="S10" s="165"/>
+      <c r="T10" s="194"/>
+      <c r="U10" s="194"/>
+      <c r="V10" s="163"/>
+      <c r="W10" s="164"/>
+      <c r="X10" s="164"/>
+      <c r="Y10" s="165"/>
+      <c r="Z10" s="193"/>
+      <c r="AA10" s="193"/>
+      <c r="AB10" s="163"/>
+      <c r="AC10" s="164"/>
+      <c r="AD10" s="165"/>
+      <c r="AE10" s="211"/>
+      <c r="AF10" s="212"/>
+      <c r="AG10" s="213"/>
+      <c r="AH10" s="193"/>
+      <c r="AI10" s="193"/>
+      <c r="AJ10" s="193"/>
+      <c r="AK10" s="193"/>
+      <c r="AL10" s="193"/>
+      <c r="AM10" s="193"/>
+      <c r="AN10" s="199"/>
+      <c r="AO10" s="200"/>
+      <c r="AP10" s="202"/>
+      <c r="AQ10" s="202"/>
+      <c r="AR10" s="202"/>
+      <c r="AS10" s="202"/>
+      <c r="AT10" s="204"/>
+      <c r="AU10" s="204"/>
+      <c r="AV10" s="204"/>
+      <c r="AW10" s="204"/>
+      <c r="AX10" s="193"/>
+      <c r="AY10" s="193"/>
+      <c r="AZ10" s="193"/>
+      <c r="BA10" s="193"/>
+      <c r="BB10" s="193"/>
+      <c r="BC10" s="193"/>
+      <c r="BD10" s="193"/>
+      <c r="BE10" s="193"/>
+      <c r="BF10" s="193"/>
     </row>
     <row r="11" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="180"/>
-      <c r="C11" s="180"/>
-      <c r="D11" s="180"/>
-      <c r="E11" s="180"/>
-      <c r="F11" s="180"/>
-      <c r="G11" s="180"/>
-      <c r="H11" s="180"/>
-      <c r="I11" s="180"/>
-      <c r="J11" s="180"/>
-      <c r="K11" s="180"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="195"/>
-      <c r="O11" s="196"/>
-      <c r="P11" s="196"/>
-      <c r="Q11" s="196"/>
-      <c r="R11" s="197"/>
-      <c r="S11" s="211"/>
-      <c r="T11" s="211"/>
-      <c r="U11" s="195"/>
-      <c r="V11" s="196"/>
-      <c r="W11" s="196"/>
-      <c r="X11" s="197"/>
-      <c r="Y11" s="203"/>
-      <c r="Z11" s="203"/>
-      <c r="AA11" s="195"/>
-      <c r="AB11" s="196"/>
-      <c r="AC11" s="197"/>
-      <c r="AD11" s="180"/>
-      <c r="AE11" s="180"/>
-      <c r="AF11" s="180"/>
-      <c r="AG11" s="180"/>
-      <c r="AH11" s="180"/>
-      <c r="AI11" s="180"/>
-      <c r="AJ11" s="198"/>
-      <c r="AK11" s="199"/>
-      <c r="AL11" s="200"/>
-      <c r="AM11" s="182"/>
-      <c r="AN11" s="183"/>
-      <c r="AO11" s="194"/>
-      <c r="AP11" s="194"/>
-      <c r="AQ11" s="194"/>
-      <c r="AR11" s="194"/>
-      <c r="AS11" s="184"/>
-      <c r="AT11" s="184"/>
-      <c r="AU11" s="184"/>
-      <c r="AV11" s="184"/>
-      <c r="AW11" s="180"/>
-      <c r="AX11" s="180"/>
-      <c r="AY11" s="180"/>
-      <c r="AZ11" s="180"/>
-      <c r="BA11" s="180"/>
-      <c r="BB11" s="180"/>
-      <c r="BC11" s="180"/>
-      <c r="BD11" s="180"/>
-      <c r="BE11" s="180"/>
+      <c r="B11" s="217"/>
+      <c r="C11" s="188"/>
+      <c r="D11" s="188"/>
+      <c r="E11" s="188"/>
+      <c r="F11" s="188"/>
+      <c r="G11" s="188"/>
+      <c r="H11" s="188"/>
+      <c r="I11" s="188"/>
+      <c r="J11" s="188"/>
+      <c r="K11" s="188"/>
+      <c r="L11" s="188"/>
+      <c r="M11" s="96"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="170"/>
+      <c r="P11" s="171"/>
+      <c r="Q11" s="171"/>
+      <c r="R11" s="171"/>
+      <c r="S11" s="172"/>
+      <c r="T11" s="162"/>
+      <c r="U11" s="162"/>
+      <c r="V11" s="170"/>
+      <c r="W11" s="171"/>
+      <c r="X11" s="171"/>
+      <c r="Y11" s="172"/>
+      <c r="Z11" s="188"/>
+      <c r="AA11" s="188"/>
+      <c r="AB11" s="170"/>
+      <c r="AC11" s="171"/>
+      <c r="AD11" s="172"/>
+      <c r="AE11" s="208"/>
+      <c r="AF11" s="209"/>
+      <c r="AG11" s="210"/>
+      <c r="AH11" s="188"/>
+      <c r="AI11" s="188"/>
+      <c r="AJ11" s="188"/>
+      <c r="AK11" s="188"/>
+      <c r="AL11" s="188"/>
+      <c r="AM11" s="188"/>
+      <c r="AN11" s="199"/>
+      <c r="AO11" s="200"/>
+      <c r="AP11" s="203"/>
+      <c r="AQ11" s="203"/>
+      <c r="AR11" s="203"/>
+      <c r="AS11" s="203"/>
+      <c r="AT11" s="204"/>
+      <c r="AU11" s="204"/>
+      <c r="AV11" s="204"/>
+      <c r="AW11" s="204"/>
+      <c r="AX11" s="188"/>
+      <c r="AY11" s="188"/>
+      <c r="AZ11" s="188"/>
+      <c r="BA11" s="188"/>
+      <c r="BB11" s="188"/>
+      <c r="BC11" s="188"/>
+      <c r="BD11" s="188"/>
+      <c r="BE11" s="188"/>
+      <c r="BF11" s="188"/>
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="B12" s="165"/>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="F12" s="165"/>
-      <c r="G12" s="165"/>
-      <c r="H12" s="165"/>
-      <c r="I12" s="165"/>
-      <c r="J12" s="165"/>
-      <c r="K12" s="165"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="168"/>
-      <c r="O12" s="169"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="170"/>
-      <c r="S12" s="204"/>
-      <c r="T12" s="204"/>
-      <c r="U12" s="195"/>
-      <c r="V12" s="196"/>
-      <c r="W12" s="196"/>
-      <c r="X12" s="197"/>
-      <c r="Y12" s="166"/>
-      <c r="Z12" s="166"/>
-      <c r="AA12" s="168"/>
-      <c r="AB12" s="169"/>
-      <c r="AC12" s="170"/>
-      <c r="AD12" s="168"/>
-      <c r="AE12" s="169"/>
-      <c r="AF12" s="169"/>
-      <c r="AG12" s="169"/>
-      <c r="AH12" s="169"/>
-      <c r="AI12" s="170"/>
-      <c r="AJ12" s="162"/>
-      <c r="AK12" s="163"/>
-      <c r="AL12" s="164"/>
-      <c r="AM12" s="182"/>
-      <c r="AN12" s="183"/>
-      <c r="AO12" s="181"/>
-      <c r="AP12" s="181"/>
-      <c r="AQ12" s="181"/>
-      <c r="AR12" s="181"/>
-      <c r="AS12" s="184"/>
-      <c r="AT12" s="184"/>
-      <c r="AU12" s="184"/>
-      <c r="AV12" s="184"/>
-      <c r="AW12" s="165"/>
-      <c r="AX12" s="165"/>
-      <c r="AY12" s="165"/>
-      <c r="AZ12" s="165"/>
-      <c r="BA12" s="165"/>
-      <c r="BB12" s="165"/>
-      <c r="BC12" s="165"/>
-      <c r="BD12" s="165"/>
-      <c r="BE12" s="165"/>
+      <c r="B12" s="217"/>
+      <c r="C12" s="192"/>
+      <c r="D12" s="192"/>
+      <c r="E12" s="192"/>
+      <c r="F12" s="192"/>
+      <c r="G12" s="192"/>
+      <c r="H12" s="192"/>
+      <c r="I12" s="192"/>
+      <c r="J12" s="192"/>
+      <c r="K12" s="192"/>
+      <c r="L12" s="192"/>
+      <c r="M12" s="96"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="167"/>
+      <c r="P12" s="168"/>
+      <c r="Q12" s="168"/>
+      <c r="R12" s="168"/>
+      <c r="S12" s="169"/>
+      <c r="T12" s="166"/>
+      <c r="U12" s="166"/>
+      <c r="V12" s="170"/>
+      <c r="W12" s="171"/>
+      <c r="X12" s="171"/>
+      <c r="Y12" s="172"/>
+      <c r="Z12" s="192"/>
+      <c r="AA12" s="192"/>
+      <c r="AB12" s="167"/>
+      <c r="AC12" s="168"/>
+      <c r="AD12" s="169"/>
+      <c r="AE12" s="196"/>
+      <c r="AF12" s="197"/>
+      <c r="AG12" s="198"/>
+      <c r="AH12" s="167"/>
+      <c r="AI12" s="168"/>
+      <c r="AJ12" s="168"/>
+      <c r="AK12" s="168"/>
+      <c r="AL12" s="168"/>
+      <c r="AM12" s="169"/>
+      <c r="AN12" s="199"/>
+      <c r="AO12" s="200"/>
+      <c r="AP12" s="201"/>
+      <c r="AQ12" s="201"/>
+      <c r="AR12" s="201"/>
+      <c r="AS12" s="201"/>
+      <c r="AT12" s="204"/>
+      <c r="AU12" s="204"/>
+      <c r="AV12" s="204"/>
+      <c r="AW12" s="204"/>
+      <c r="AX12" s="192"/>
+      <c r="AY12" s="192"/>
+      <c r="AZ12" s="192"/>
+      <c r="BA12" s="192"/>
+      <c r="BB12" s="192"/>
+      <c r="BC12" s="192"/>
+      <c r="BD12" s="192"/>
+      <c r="BE12" s="192"/>
+      <c r="BF12" s="192"/>
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="B13" s="165"/>
-      <c r="C13" s="165"/>
-      <c r="D13" s="165"/>
-      <c r="E13" s="165"/>
-      <c r="F13" s="165"/>
-      <c r="G13" s="165"/>
-      <c r="H13" s="165"/>
-      <c r="I13" s="165"/>
-      <c r="J13" s="165"/>
-      <c r="K13" s="165"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="168"/>
-      <c r="O13" s="169"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="170"/>
-      <c r="S13" s="204"/>
-      <c r="T13" s="204"/>
-      <c r="U13" s="168"/>
-      <c r="V13" s="169"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="170"/>
-      <c r="Y13" s="166"/>
-      <c r="Z13" s="166"/>
-      <c r="AA13" s="168"/>
-      <c r="AB13" s="169"/>
-      <c r="AC13" s="170"/>
-      <c r="AD13" s="165"/>
-      <c r="AE13" s="165"/>
-      <c r="AF13" s="165"/>
-      <c r="AG13" s="165"/>
-      <c r="AH13" s="165"/>
-      <c r="AI13" s="165"/>
-      <c r="AJ13" s="162"/>
-      <c r="AK13" s="163"/>
-      <c r="AL13" s="164"/>
-      <c r="AM13" s="182"/>
-      <c r="AN13" s="183"/>
-      <c r="AO13" s="181"/>
-      <c r="AP13" s="181"/>
-      <c r="AQ13" s="181"/>
-      <c r="AR13" s="181"/>
-      <c r="AS13" s="184"/>
-      <c r="AT13" s="184"/>
-      <c r="AU13" s="184"/>
-      <c r="AV13" s="184"/>
-      <c r="AW13" s="165"/>
-      <c r="AX13" s="165"/>
-      <c r="AY13" s="165"/>
-      <c r="AZ13" s="165"/>
-      <c r="BA13" s="165"/>
-      <c r="BB13" s="165"/>
-      <c r="BC13" s="165"/>
-      <c r="BD13" s="165"/>
-      <c r="BE13" s="165"/>
+      <c r="B13" s="217"/>
+      <c r="C13" s="192"/>
+      <c r="D13" s="192"/>
+      <c r="E13" s="192"/>
+      <c r="F13" s="192"/>
+      <c r="G13" s="192"/>
+      <c r="H13" s="192"/>
+      <c r="I13" s="192"/>
+      <c r="J13" s="192"/>
+      <c r="K13" s="192"/>
+      <c r="L13" s="192"/>
+      <c r="M13" s="96"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="167"/>
+      <c r="P13" s="168"/>
+      <c r="Q13" s="168"/>
+      <c r="R13" s="168"/>
+      <c r="S13" s="169"/>
+      <c r="T13" s="166"/>
+      <c r="U13" s="166"/>
+      <c r="V13" s="167"/>
+      <c r="W13" s="168"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="169"/>
+      <c r="Z13" s="192"/>
+      <c r="AA13" s="192"/>
+      <c r="AB13" s="167"/>
+      <c r="AC13" s="168"/>
+      <c r="AD13" s="169"/>
+      <c r="AE13" s="196"/>
+      <c r="AF13" s="197"/>
+      <c r="AG13" s="198"/>
+      <c r="AH13" s="192"/>
+      <c r="AI13" s="192"/>
+      <c r="AJ13" s="192"/>
+      <c r="AK13" s="192"/>
+      <c r="AL13" s="192"/>
+      <c r="AM13" s="192"/>
+      <c r="AN13" s="199"/>
+      <c r="AO13" s="200"/>
+      <c r="AP13" s="201"/>
+      <c r="AQ13" s="201"/>
+      <c r="AR13" s="201"/>
+      <c r="AS13" s="201"/>
+      <c r="AT13" s="204"/>
+      <c r="AU13" s="204"/>
+      <c r="AV13" s="204"/>
+      <c r="AW13" s="204"/>
+      <c r="AX13" s="192"/>
+      <c r="AY13" s="192"/>
+      <c r="AZ13" s="192"/>
+      <c r="BA13" s="192"/>
+      <c r="BB13" s="192"/>
+      <c r="BC13" s="192"/>
+      <c r="BD13" s="192"/>
+      <c r="BE13" s="192"/>
+      <c r="BF13" s="192"/>
     </row>
     <row r="14" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="165"/>
-      <c r="C14" s="165"/>
-      <c r="D14" s="165"/>
-      <c r="E14" s="165"/>
-      <c r="F14" s="165"/>
-      <c r="G14" s="165"/>
-      <c r="H14" s="165"/>
-      <c r="I14" s="165"/>
-      <c r="J14" s="165"/>
-      <c r="K14" s="165"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="168"/>
-      <c r="O14" s="169"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="170"/>
-      <c r="S14" s="204"/>
-      <c r="T14" s="204"/>
-      <c r="U14" s="168"/>
-      <c r="V14" s="169"/>
-      <c r="W14" s="169"/>
-      <c r="X14" s="170"/>
-      <c r="Y14" s="166"/>
-      <c r="Z14" s="166"/>
-      <c r="AA14" s="168"/>
-      <c r="AB14" s="169"/>
-      <c r="AC14" s="170"/>
-      <c r="AD14" s="165"/>
-      <c r="AE14" s="165"/>
-      <c r="AF14" s="165"/>
-      <c r="AG14" s="165"/>
-      <c r="AH14" s="165"/>
-      <c r="AI14" s="165"/>
-      <c r="AJ14" s="162"/>
-      <c r="AK14" s="163"/>
-      <c r="AL14" s="164"/>
-      <c r="AM14" s="182"/>
-      <c r="AN14" s="183"/>
-      <c r="AO14" s="181"/>
-      <c r="AP14" s="181"/>
-      <c r="AQ14" s="181"/>
-      <c r="AR14" s="181"/>
-      <c r="AS14" s="184"/>
-      <c r="AT14" s="184"/>
-      <c r="AU14" s="184"/>
-      <c r="AV14" s="184"/>
-      <c r="AW14" s="165"/>
-      <c r="AX14" s="165"/>
-      <c r="AY14" s="165"/>
-      <c r="AZ14" s="165"/>
-      <c r="BA14" s="165"/>
-      <c r="BB14" s="165"/>
-      <c r="BC14" s="165"/>
-      <c r="BD14" s="165"/>
-      <c r="BE14" s="165"/>
+      <c r="B14" s="217"/>
+      <c r="C14" s="192"/>
+      <c r="D14" s="192"/>
+      <c r="E14" s="192"/>
+      <c r="F14" s="192"/>
+      <c r="G14" s="192"/>
+      <c r="H14" s="192"/>
+      <c r="I14" s="192"/>
+      <c r="J14" s="192"/>
+      <c r="K14" s="192"/>
+      <c r="L14" s="192"/>
+      <c r="M14" s="96"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="167"/>
+      <c r="P14" s="168"/>
+      <c r="Q14" s="168"/>
+      <c r="R14" s="168"/>
+      <c r="S14" s="169"/>
+      <c r="T14" s="166"/>
+      <c r="U14" s="166"/>
+      <c r="V14" s="167"/>
+      <c r="W14" s="168"/>
+      <c r="X14" s="168"/>
+      <c r="Y14" s="169"/>
+      <c r="Z14" s="192"/>
+      <c r="AA14" s="192"/>
+      <c r="AB14" s="167"/>
+      <c r="AC14" s="168"/>
+      <c r="AD14" s="169"/>
+      <c r="AE14" s="196"/>
+      <c r="AF14" s="197"/>
+      <c r="AG14" s="198"/>
+      <c r="AH14" s="192"/>
+      <c r="AI14" s="192"/>
+      <c r="AJ14" s="192"/>
+      <c r="AK14" s="192"/>
+      <c r="AL14" s="192"/>
+      <c r="AM14" s="192"/>
+      <c r="AN14" s="199"/>
+      <c r="AO14" s="200"/>
+      <c r="AP14" s="201"/>
+      <c r="AQ14" s="201"/>
+      <c r="AR14" s="201"/>
+      <c r="AS14" s="201"/>
+      <c r="AT14" s="204"/>
+      <c r="AU14" s="204"/>
+      <c r="AV14" s="204"/>
+      <c r="AW14" s="204"/>
+      <c r="AX14" s="192"/>
+      <c r="AY14" s="192"/>
+      <c r="AZ14" s="192"/>
+      <c r="BA14" s="192"/>
+      <c r="BB14" s="192"/>
+      <c r="BC14" s="192"/>
+      <c r="BD14" s="192"/>
+      <c r="BE14" s="192"/>
+      <c r="BF14" s="192"/>
     </row>
     <row r="15" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="165"/>
-      <c r="C15" s="165"/>
-      <c r="D15" s="165"/>
-      <c r="E15" s="165"/>
-      <c r="F15" s="165"/>
-      <c r="G15" s="165"/>
-      <c r="H15" s="165"/>
-      <c r="I15" s="165"/>
-      <c r="J15" s="165"/>
-      <c r="K15" s="165"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="168"/>
-      <c r="O15" s="169"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="170"/>
-      <c r="S15" s="204"/>
-      <c r="T15" s="204"/>
-      <c r="U15" s="168"/>
-      <c r="V15" s="169"/>
-      <c r="W15" s="169"/>
-      <c r="X15" s="170"/>
-      <c r="Y15" s="166"/>
-      <c r="Z15" s="166"/>
-      <c r="AA15" s="168"/>
-      <c r="AB15" s="169"/>
-      <c r="AC15" s="170"/>
-      <c r="AD15" s="165"/>
-      <c r="AE15" s="165"/>
-      <c r="AF15" s="165"/>
-      <c r="AG15" s="165"/>
-      <c r="AH15" s="165"/>
-      <c r="AI15" s="165"/>
-      <c r="AJ15" s="162"/>
-      <c r="AK15" s="163"/>
-      <c r="AL15" s="164"/>
-      <c r="AM15" s="182"/>
-      <c r="AN15" s="183"/>
-      <c r="AO15" s="181"/>
-      <c r="AP15" s="181"/>
-      <c r="AQ15" s="181"/>
-      <c r="AR15" s="181"/>
-      <c r="AS15" s="184"/>
-      <c r="AT15" s="184"/>
-      <c r="AU15" s="184"/>
-      <c r="AV15" s="184"/>
-      <c r="AW15" s="165"/>
-      <c r="AX15" s="165"/>
-      <c r="AY15" s="165"/>
-      <c r="AZ15" s="165"/>
-      <c r="BA15" s="165"/>
-      <c r="BB15" s="165"/>
-      <c r="BC15" s="165"/>
-      <c r="BD15" s="165"/>
-      <c r="BE15" s="165"/>
+      <c r="B15" s="217"/>
+      <c r="C15" s="192"/>
+      <c r="D15" s="192"/>
+      <c r="E15" s="192"/>
+      <c r="F15" s="192"/>
+      <c r="G15" s="192"/>
+      <c r="H15" s="192"/>
+      <c r="I15" s="192"/>
+      <c r="J15" s="192"/>
+      <c r="K15" s="192"/>
+      <c r="L15" s="192"/>
+      <c r="M15" s="96"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="167"/>
+      <c r="P15" s="168"/>
+      <c r="Q15" s="168"/>
+      <c r="R15" s="168"/>
+      <c r="S15" s="169"/>
+      <c r="T15" s="166"/>
+      <c r="U15" s="166"/>
+      <c r="V15" s="167"/>
+      <c r="W15" s="168"/>
+      <c r="X15" s="168"/>
+      <c r="Y15" s="169"/>
+      <c r="Z15" s="192"/>
+      <c r="AA15" s="192"/>
+      <c r="AB15" s="167"/>
+      <c r="AC15" s="168"/>
+      <c r="AD15" s="169"/>
+      <c r="AE15" s="196"/>
+      <c r="AF15" s="197"/>
+      <c r="AG15" s="198"/>
+      <c r="AH15" s="192"/>
+      <c r="AI15" s="192"/>
+      <c r="AJ15" s="192"/>
+      <c r="AK15" s="192"/>
+      <c r="AL15" s="192"/>
+      <c r="AM15" s="192"/>
+      <c r="AN15" s="199"/>
+      <c r="AO15" s="200"/>
+      <c r="AP15" s="201"/>
+      <c r="AQ15" s="201"/>
+      <c r="AR15" s="201"/>
+      <c r="AS15" s="201"/>
+      <c r="AT15" s="204"/>
+      <c r="AU15" s="204"/>
+      <c r="AV15" s="204"/>
+      <c r="AW15" s="204"/>
+      <c r="AX15" s="192"/>
+      <c r="AY15" s="192"/>
+      <c r="AZ15" s="192"/>
+      <c r="BA15" s="192"/>
+      <c r="BB15" s="192"/>
+      <c r="BC15" s="192"/>
+      <c r="BD15" s="192"/>
+      <c r="BE15" s="192"/>
+      <c r="BF15" s="192"/>
     </row>
     <row r="16" spans="1:61" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="165"/>
-      <c r="C16" s="165"/>
-      <c r="D16" s="165"/>
-      <c r="E16" s="180"/>
-      <c r="F16" s="180"/>
-      <c r="G16" s="180"/>
-      <c r="H16" s="180"/>
-      <c r="I16" s="180"/>
-      <c r="J16" s="180"/>
-      <c r="K16" s="180"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="195"/>
-      <c r="O16" s="196"/>
-      <c r="P16" s="196"/>
-      <c r="Q16" s="196"/>
-      <c r="R16" s="197"/>
-      <c r="S16" s="211"/>
-      <c r="T16" s="211"/>
-      <c r="U16" s="195"/>
-      <c r="V16" s="196"/>
-      <c r="W16" s="196"/>
-      <c r="X16" s="197"/>
-      <c r="Y16" s="203"/>
-      <c r="Z16" s="203"/>
-      <c r="AA16" s="195"/>
-      <c r="AB16" s="196"/>
-      <c r="AC16" s="197"/>
-      <c r="AD16" s="180"/>
-      <c r="AE16" s="180"/>
-      <c r="AF16" s="180"/>
-      <c r="AG16" s="180"/>
-      <c r="AH16" s="180"/>
-      <c r="AI16" s="180"/>
-      <c r="AJ16" s="162"/>
-      <c r="AK16" s="163"/>
-      <c r="AL16" s="164"/>
-      <c r="AM16" s="182"/>
-      <c r="AN16" s="183"/>
-      <c r="AO16" s="181"/>
-      <c r="AP16" s="181"/>
-      <c r="AQ16" s="181"/>
-      <c r="AR16" s="181"/>
-      <c r="AS16" s="184"/>
-      <c r="AT16" s="184"/>
-      <c r="AU16" s="184"/>
-      <c r="AV16" s="184"/>
-      <c r="AW16" s="180"/>
-      <c r="AX16" s="180"/>
-      <c r="AY16" s="180"/>
-      <c r="AZ16" s="180"/>
-      <c r="BA16" s="180"/>
-      <c r="BB16" s="180"/>
-      <c r="BC16" s="180"/>
-      <c r="BD16" s="180"/>
-      <c r="BE16" s="180"/>
-    </row>
-    <row r="17" spans="2:57" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="168"/>
-      <c r="C17" s="169"/>
-      <c r="D17" s="170"/>
-      <c r="E17" s="168"/>
-      <c r="F17" s="169"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="170"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="168"/>
-      <c r="O17" s="169"/>
-      <c r="P17" s="169"/>
-      <c r="Q17" s="169"/>
-      <c r="R17" s="170"/>
-      <c r="S17" s="212"/>
-      <c r="T17" s="213"/>
-      <c r="U17" s="168"/>
-      <c r="V17" s="169"/>
-      <c r="W17" s="169"/>
-      <c r="X17" s="170"/>
-      <c r="Y17" s="201"/>
-      <c r="Z17" s="202"/>
-      <c r="AA17" s="168"/>
-      <c r="AB17" s="169"/>
-      <c r="AC17" s="170"/>
-      <c r="AD17" s="168"/>
-      <c r="AE17" s="169"/>
-      <c r="AF17" s="169"/>
-      <c r="AG17" s="169"/>
-      <c r="AH17" s="169"/>
-      <c r="AI17" s="170"/>
-      <c r="AJ17" s="162"/>
-      <c r="AK17" s="163"/>
-      <c r="AL17" s="164"/>
-      <c r="AM17" s="182"/>
-      <c r="AN17" s="183"/>
-      <c r="AO17" s="182"/>
-      <c r="AP17" s="185"/>
-      <c r="AQ17" s="185"/>
-      <c r="AR17" s="183"/>
-      <c r="AS17" s="184"/>
-      <c r="AT17" s="184"/>
-      <c r="AU17" s="184"/>
-      <c r="AV17" s="184"/>
-      <c r="AW17" s="168"/>
-      <c r="AX17" s="169"/>
-      <c r="AY17" s="169"/>
-      <c r="AZ17" s="169"/>
-      <c r="BA17" s="169"/>
-      <c r="BB17" s="169"/>
-      <c r="BC17" s="169"/>
-      <c r="BD17" s="169"/>
-      <c r="BE17" s="170"/>
-    </row>
-    <row r="18" spans="2:57" x14ac:dyDescent="0.15">
-      <c r="B18" s="165"/>
-      <c r="C18" s="165"/>
-      <c r="D18" s="165"/>
-      <c r="E18" s="165"/>
-      <c r="F18" s="165"/>
-      <c r="G18" s="165"/>
-      <c r="H18" s="165"/>
-      <c r="I18" s="165"/>
-      <c r="J18" s="165"/>
-      <c r="K18" s="165"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="168"/>
-      <c r="O18" s="169"/>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="170"/>
-      <c r="S18" s="204"/>
-      <c r="T18" s="204"/>
-      <c r="U18" s="168"/>
-      <c r="V18" s="169"/>
-      <c r="W18" s="169"/>
-      <c r="X18" s="170"/>
-      <c r="Y18" s="166"/>
-      <c r="Z18" s="166"/>
-      <c r="AA18" s="168"/>
-      <c r="AB18" s="169"/>
-      <c r="AC18" s="170"/>
-      <c r="AD18" s="165"/>
-      <c r="AE18" s="165"/>
-      <c r="AF18" s="165"/>
-      <c r="AG18" s="165"/>
-      <c r="AH18" s="165"/>
-      <c r="AI18" s="165"/>
-      <c r="AJ18" s="162"/>
-      <c r="AK18" s="163"/>
-      <c r="AL18" s="164"/>
-      <c r="AM18" s="182"/>
-      <c r="AN18" s="183"/>
-      <c r="AO18" s="181"/>
-      <c r="AP18" s="181"/>
-      <c r="AQ18" s="181"/>
-      <c r="AR18" s="181"/>
-      <c r="AS18" s="184"/>
-      <c r="AT18" s="184"/>
-      <c r="AU18" s="184"/>
-      <c r="AV18" s="184"/>
-      <c r="AW18" s="165"/>
-      <c r="AX18" s="165"/>
-      <c r="AY18" s="165"/>
-      <c r="AZ18" s="165"/>
-      <c r="BA18" s="165"/>
-      <c r="BB18" s="165"/>
-      <c r="BC18" s="165"/>
-      <c r="BD18" s="165"/>
-      <c r="BE18" s="165"/>
+      <c r="B16" s="217"/>
+      <c r="C16" s="192"/>
+      <c r="D16" s="192"/>
+      <c r="E16" s="192"/>
+      <c r="F16" s="188"/>
+      <c r="G16" s="188"/>
+      <c r="H16" s="188"/>
+      <c r="I16" s="188"/>
+      <c r="J16" s="188"/>
+      <c r="K16" s="188"/>
+      <c r="L16" s="188"/>
+      <c r="M16" s="96"/>
+      <c r="N16" s="98"/>
+      <c r="O16" s="170"/>
+      <c r="P16" s="171"/>
+      <c r="Q16" s="171"/>
+      <c r="R16" s="171"/>
+      <c r="S16" s="172"/>
+      <c r="T16" s="162"/>
+      <c r="U16" s="162"/>
+      <c r="V16" s="170"/>
+      <c r="W16" s="171"/>
+      <c r="X16" s="171"/>
+      <c r="Y16" s="172"/>
+      <c r="Z16" s="188"/>
+      <c r="AA16" s="188"/>
+      <c r="AB16" s="170"/>
+      <c r="AC16" s="171"/>
+      <c r="AD16" s="172"/>
+      <c r="AE16" s="196"/>
+      <c r="AF16" s="197"/>
+      <c r="AG16" s="198"/>
+      <c r="AH16" s="188"/>
+      <c r="AI16" s="188"/>
+      <c r="AJ16" s="188"/>
+      <c r="AK16" s="188"/>
+      <c r="AL16" s="188"/>
+      <c r="AM16" s="188"/>
+      <c r="AN16" s="199"/>
+      <c r="AO16" s="200"/>
+      <c r="AP16" s="201"/>
+      <c r="AQ16" s="201"/>
+      <c r="AR16" s="201"/>
+      <c r="AS16" s="201"/>
+      <c r="AT16" s="204"/>
+      <c r="AU16" s="204"/>
+      <c r="AV16" s="204"/>
+      <c r="AW16" s="204"/>
+      <c r="AX16" s="188"/>
+      <c r="AY16" s="188"/>
+      <c r="AZ16" s="188"/>
+      <c r="BA16" s="188"/>
+      <c r="BB16" s="188"/>
+      <c r="BC16" s="188"/>
+      <c r="BD16" s="188"/>
+      <c r="BE16" s="188"/>
+      <c r="BF16" s="188"/>
+    </row>
+    <row r="17" spans="2:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="217"/>
+      <c r="C17" s="167"/>
+      <c r="D17" s="168"/>
+      <c r="E17" s="169"/>
+      <c r="F17" s="167"/>
+      <c r="G17" s="168"/>
+      <c r="H17" s="168"/>
+      <c r="I17" s="168"/>
+      <c r="J17" s="168"/>
+      <c r="K17" s="168"/>
+      <c r="L17" s="169"/>
+      <c r="M17" s="96"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="167"/>
+      <c r="P17" s="168"/>
+      <c r="Q17" s="168"/>
+      <c r="R17" s="168"/>
+      <c r="S17" s="169"/>
+      <c r="T17" s="173"/>
+      <c r="U17" s="174"/>
+      <c r="V17" s="167"/>
+      <c r="W17" s="168"/>
+      <c r="X17" s="168"/>
+      <c r="Y17" s="169"/>
+      <c r="Z17" s="167"/>
+      <c r="AA17" s="169"/>
+      <c r="AB17" s="167"/>
+      <c r="AC17" s="168"/>
+      <c r="AD17" s="169"/>
+      <c r="AE17" s="196"/>
+      <c r="AF17" s="197"/>
+      <c r="AG17" s="198"/>
+      <c r="AH17" s="167"/>
+      <c r="AI17" s="168"/>
+      <c r="AJ17" s="168"/>
+      <c r="AK17" s="168"/>
+      <c r="AL17" s="168"/>
+      <c r="AM17" s="169"/>
+      <c r="AN17" s="199"/>
+      <c r="AO17" s="200"/>
+      <c r="AP17" s="199"/>
+      <c r="AQ17" s="214"/>
+      <c r="AR17" s="214"/>
+      <c r="AS17" s="200"/>
+      <c r="AT17" s="204"/>
+      <c r="AU17" s="204"/>
+      <c r="AV17" s="204"/>
+      <c r="AW17" s="204"/>
+      <c r="AX17" s="167"/>
+      <c r="AY17" s="168"/>
+      <c r="AZ17" s="168"/>
+      <c r="BA17" s="168"/>
+      <c r="BB17" s="168"/>
+      <c r="BC17" s="168"/>
+      <c r="BD17" s="168"/>
+      <c r="BE17" s="168"/>
+      <c r="BF17" s="169"/>
+    </row>
+    <row r="18" spans="2:58" x14ac:dyDescent="0.15">
+      <c r="B18" s="217"/>
+      <c r="C18" s="192"/>
+      <c r="D18" s="192"/>
+      <c r="E18" s="192"/>
+      <c r="F18" s="192"/>
+      <c r="G18" s="192"/>
+      <c r="H18" s="192"/>
+      <c r="I18" s="192"/>
+      <c r="J18" s="192"/>
+      <c r="K18" s="192"/>
+      <c r="L18" s="192"/>
+      <c r="M18" s="96"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="167"/>
+      <c r="P18" s="168"/>
+      <c r="Q18" s="168"/>
+      <c r="R18" s="168"/>
+      <c r="S18" s="169"/>
+      <c r="T18" s="166"/>
+      <c r="U18" s="166"/>
+      <c r="V18" s="167"/>
+      <c r="W18" s="168"/>
+      <c r="X18" s="168"/>
+      <c r="Y18" s="169"/>
+      <c r="Z18" s="192"/>
+      <c r="AA18" s="192"/>
+      <c r="AB18" s="167"/>
+      <c r="AC18" s="168"/>
+      <c r="AD18" s="169"/>
+      <c r="AE18" s="196"/>
+      <c r="AF18" s="197"/>
+      <c r="AG18" s="198"/>
+      <c r="AH18" s="192"/>
+      <c r="AI18" s="192"/>
+      <c r="AJ18" s="192"/>
+      <c r="AK18" s="192"/>
+      <c r="AL18" s="192"/>
+      <c r="AM18" s="192"/>
+      <c r="AN18" s="199"/>
+      <c r="AO18" s="200"/>
+      <c r="AP18" s="201"/>
+      <c r="AQ18" s="201"/>
+      <c r="AR18" s="201"/>
+      <c r="AS18" s="201"/>
+      <c r="AT18" s="204"/>
+      <c r="AU18" s="204"/>
+      <c r="AV18" s="204"/>
+      <c r="AW18" s="204"/>
+      <c r="AX18" s="192"/>
+      <c r="AY18" s="192"/>
+      <c r="AZ18" s="192"/>
+      <c r="BA18" s="192"/>
+      <c r="BB18" s="192"/>
+      <c r="BC18" s="192"/>
+      <c r="BD18" s="192"/>
+      <c r="BE18" s="192"/>
+      <c r="BF18" s="192"/>
     </row>
   </sheetData>
-  <mergeCells count="173">
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="N7:R8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="U7:X8"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="Y11:Z11"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="E7:K8"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AD15:AI15"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AD14:AI14"/>
-    <mergeCell ref="AD18:AI18"/>
-    <mergeCell ref="AD17:AI17"/>
-    <mergeCell ref="AD16:AI16"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="AW12:BE12"/>
-    <mergeCell ref="AW13:BE13"/>
-    <mergeCell ref="AW10:BE10"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AW11:BE11"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AI11"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AW7:BE8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="AW9:BE9"/>
-    <mergeCell ref="AM7:AR7"/>
-    <mergeCell ref="AS7:AV8"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="AW18:BE18"/>
-    <mergeCell ref="AW16:BE16"/>
-    <mergeCell ref="AW17:BE17"/>
-    <mergeCell ref="AO16:AR16"/>
-    <mergeCell ref="AW14:BE14"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AO15:AR15"/>
-    <mergeCell ref="AW15:BE15"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AO18:AR18"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AS15:AV15"/>
-    <mergeCell ref="AS16:AV16"/>
-    <mergeCell ref="AS17:AV17"/>
-    <mergeCell ref="AS18:AV18"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AO17:AR17"/>
-    <mergeCell ref="AJ14:AL14"/>
+  <mergeCells count="174">
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -8002,31 +7888,181 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="AA7:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AJ9:AL9"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AB7:AD8"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AX18:BF18"/>
+    <mergeCell ref="AX16:BF16"/>
+    <mergeCell ref="AX17:BF17"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AX14:BF14"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AX15:BF15"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AP18:AS18"/>
+    <mergeCell ref="AT14:AW14"/>
+    <mergeCell ref="AT15:AW15"/>
+    <mergeCell ref="AT16:AW16"/>
+    <mergeCell ref="AT17:AW17"/>
+    <mergeCell ref="AT18:AW18"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AX7:BF8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX9:BF9"/>
+    <mergeCell ref="AN7:AS7"/>
+    <mergeCell ref="AT7:AW8"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX12:BF12"/>
+    <mergeCell ref="AX13:BF13"/>
+    <mergeCell ref="AX10:BF10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AX11:BF11"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AT10:AW10"/>
+    <mergeCell ref="AT11:AW11"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AT13:AW13"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="F7:L8"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="O7:S8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="V7:Y8"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="Z11:AA11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:M18">
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:N18">
       <formula1>"入力,出力"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z9:AA18">
+      <formula1>"有り,無し"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
     <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- &amp;P -</oddFooter>
   </headerFooter>

--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
@@ -43,7 +43,7 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>インタフェースの授受相手先を記載する。(外部機関名称、部署名、システム名など)</t>
+          <t>インタフェースの授受相手先を記載する(外部機関名称、部署名、システム名など)。</t>
         </r>
       </text>
     </comment>
@@ -74,7 +74,7 @@
             <charset val="128"/>
           </rPr>
           <t>インタフェースを入出力する処理サイクルを記載する。
-  ・ 「日時」  ・ 「週次」
+  ・ 「日次」  ・ 「週次」
   ・ 「月次」  ・ 「年次」
   ・ 「随時」  ・ 「その他」</t>
         </r>
@@ -125,7 +125,7 @@
           <t>インタフェースのピーク時件数を記載する。
 データレコードの行数を記載する。
 　※固定長ファイル等改行のないインタフェースの場合は、レコード長で区切った場合の件数を記載する。
-　※XMLファイルの場合は行数ではなく、論理的なデータ件数を記載する。</t>
+　※JSON、XMLファイルの場合は行数ではなく、論理的なデータ件数を記載する。</t>
         </r>
       </text>
     </comment>
@@ -435,7 +435,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="42" x14ac:knownFonts="1">
+  <fonts count="42">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1550,6 +1550,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="46" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1904,23 +1907,26 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1931,17 +1937,11 @@
     <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="34" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2858,42 +2858,42 @@
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="8.83203125" defaultRowHeight="13.5"/>
   <cols>
     <col min="1" max="16384" width="8.83203125" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="13.5" customHeight="1">
       <c r="B1" s="11"/>
       <c r="C1" s="12"/>
     </row>
-    <row r="2" spans="1:3" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" ht="19.5" customHeight="1">
       <c r="A2" s="13"/>
     </row>
-    <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="4" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="5" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="8" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="9" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="10" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="11" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="12" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="13" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="14" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="15" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="16" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="17" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="18" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="19" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="20" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="21" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="22" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="4" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="5" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="6" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="7" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="8" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="9" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="10" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="11" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="12" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="13" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="14" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="15" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="16" spans="1:3" ht="13.5" customHeight="1"/>
+    <row r="17" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="18" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="19" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="20" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="21" spans="6:12" ht="13.5" customHeight="1"/>
+    <row r="22" spans="6:12" ht="13.5" customHeight="1">
       <c r="F22" s="14"/>
       <c r="H22" s="14"/>
     </row>
-    <row r="23" spans="6:12" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="6:12" ht="17.25" customHeight="1">
       <c r="F23" s="14"/>
       <c r="G23" s="14"/>
       <c r="H23" s="14"/>
@@ -2904,7 +2904,7 @@
       <c r="K23" s="37"/>
       <c r="L23" s="37"/>
     </row>
-    <row r="24" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="6:12" ht="13.5" customHeight="1">
       <c r="F24" s="14"/>
       <c r="G24" s="14"/>
       <c r="H24" s="14"/>
@@ -2913,19 +2913,19 @@
       <c r="K24" s="37"/>
       <c r="L24" s="37"/>
     </row>
-    <row r="25" spans="6:12" ht="18" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="6:12" ht="18" customHeight="1">
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="87" t="str">
+      <c r="I25" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
       <c r="L25" s="37"/>
     </row>
-    <row r="26" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="6:12" ht="13.5" customHeight="1">
       <c r="F26" s="14"/>
       <c r="G26" s="14"/>
       <c r="H26" s="14"/>
@@ -2934,7 +2934,7 @@
       <c r="K26" s="37"/>
       <c r="L26" s="37"/>
     </row>
-    <row r="27" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="6:12" ht="13.5" customHeight="1">
       <c r="F27" s="14"/>
       <c r="G27" s="14"/>
       <c r="H27" s="14"/>
@@ -2943,7 +2943,7 @@
       <c r="K27" s="37"/>
       <c r="L27" s="37"/>
     </row>
-    <row r="28" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="6:12" ht="13.5" customHeight="1">
       <c r="F28" s="16"/>
       <c r="G28" s="14"/>
       <c r="H28" s="14"/>
@@ -2952,7 +2952,7 @@
       <c r="K28" s="37"/>
       <c r="L28" s="37"/>
     </row>
-    <row r="29" spans="6:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="6:12" ht="15" customHeight="1">
       <c r="F29" s="14"/>
       <c r="H29" s="14"/>
       <c r="I29" s="37"/>
@@ -2960,7 +2960,7 @@
       <c r="K29" s="37"/>
       <c r="L29" s="37"/>
     </row>
-    <row r="30" spans="6:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="6:12" ht="13.5" customHeight="1">
       <c r="F30" s="14"/>
       <c r="G30" s="17"/>
       <c r="H30" s="14"/>
@@ -2969,7 +2969,7 @@
       <c r="K30" s="37"/>
       <c r="L30" s="37"/>
     </row>
-    <row r="31" spans="6:12" ht="18.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="6:12" ht="18.75" customHeight="1">
       <c r="F31" s="14"/>
       <c r="G31" s="17"/>
       <c r="H31" s="14"/>
@@ -2978,7 +2978,7 @@
       <c r="K31" s="37"/>
       <c r="L31" s="37"/>
     </row>
-    <row r="32" spans="6:12" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="32" spans="6:12" ht="18.75">
       <c r="F32" s="14"/>
       <c r="G32" s="17"/>
       <c r="H32" s="14"/>
@@ -2989,7 +2989,7 @@
       <c r="K32" s="37"/>
       <c r="L32" s="37"/>
     </row>
-    <row r="33" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="33" spans="6:19" ht="18.75">
       <c r="F33" s="14"/>
       <c r="H33" s="14"/>
       <c r="I33" s="37"/>
@@ -3001,7 +3001,7 @@
       <c r="O33" s="18"/>
       <c r="P33" s="18"/>
     </row>
-    <row r="34" spans="6:19" ht="18.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="6:19" ht="18.75">
       <c r="F34" s="14"/>
       <c r="H34" s="14"/>
       <c r="I34" s="37"/>
@@ -3014,519 +3014,519 @@
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
-    </row>
-    <row r="35" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
+    </row>
+    <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
-    </row>
-    <row r="36" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O36" s="92"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="91"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
+    </row>
+    <row r="36" spans="6:19" ht="13.5" customHeight="1">
+      <c r="O36" s="93"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="92"/>
       <c r="S36" s="36"/>
     </row>
-    <row r="37" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O37" s="88"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="88"/>
-    </row>
-    <row r="38" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
-    </row>
-    <row r="39" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
-    </row>
-    <row r="40" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="41" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="42" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="43" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="44" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="45" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="46" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="47" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="48" spans="6:19" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="49" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="50" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="51" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="52" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="53" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="54" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="55" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="56" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="57" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="58" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="59" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="60" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="62" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="63" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="64" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="65" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="66" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="67" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="68" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="69" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="70" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="71" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="72" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="73" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="74" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="75" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="76" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="77" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="78" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="79" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="80" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="81" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="82" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="83" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="84" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="85" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="86" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="87" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="88" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="89" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="90" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="91" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="92" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="93" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="94" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="95" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="96" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="97" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="98" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="99" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="100" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="101" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="102" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="103" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="104" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="105" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="106" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="107" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="108" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="109" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="110" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="111" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="112" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="113" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="114" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="115" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="116" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="117" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="118" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="119" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="120" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="121" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="122" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="123" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="124" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="125" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="126" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="127" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="128" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="129" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="130" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="131" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="132" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="133" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="134" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="135" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="136" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="137" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="138" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="139" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="140" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="141" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="142" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="143" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="144" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="145" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="146" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="147" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="148" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="149" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="150" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="151" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="152" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="153" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="154" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="155" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="156" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="157" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="158" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="159" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="160" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="161" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="162" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="163" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="164" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="165" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="166" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="167" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="168" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="169" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="170" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="171" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="172" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="173" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="174" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="175" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="176" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="177" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="178" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="179" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="180" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="181" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="182" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="183" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="184" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="185" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="186" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="187" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="188" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="189" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="190" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="191" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="192" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="193" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="194" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="195" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="196" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="197" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="198" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="199" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="200" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="201" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="202" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="203" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="204" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="205" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="206" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="207" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="208" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="209" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="210" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="211" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="212" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="213" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="214" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="215" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="216" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="217" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="218" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="219" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="220" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="221" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="222" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="223" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="224" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="225" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="226" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="227" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="228" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="229" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="230" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="231" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="232" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="233" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="234" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="235" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="236" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="237" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="238" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="239" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="240" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="241" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="242" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="243" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="244" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="245" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="246" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="247" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="248" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="249" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="250" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="251" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="252" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="253" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="254" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="255" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="256" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="257" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="258" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="259" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="260" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="261" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="262" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="263" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="264" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="265" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="266" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="267" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="268" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="269" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="270" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="271" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="272" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="273" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="274" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="275" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="276" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="277" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="278" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="279" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="280" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="281" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="282" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="283" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="284" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="285" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="286" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="287" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="288" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="289" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="290" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="291" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="292" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="293" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="294" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="295" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="296" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="297" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="298" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="299" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="300" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="301" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="302" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="303" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="304" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="305" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="306" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="307" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="308" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="309" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="310" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="311" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="312" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="313" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="314" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="315" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="316" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="317" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="318" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="319" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="320" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="321" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="322" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="323" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="324" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="325" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="326" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="327" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="328" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="329" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="330" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="331" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="332" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="333" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="334" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="335" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="336" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="337" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="338" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="339" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="340" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="341" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="342" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="343" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="344" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="345" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="346" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="347" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="348" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="349" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="350" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="351" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="352" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="353" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="354" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="355" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="356" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="357" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="358" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="359" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="360" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="361" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="362" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="363" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="364" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="365" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="366" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="367" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="368" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="369" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="370" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="371" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="372" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="373" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="374" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="375" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="376" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="377" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="378" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="379" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="380" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="381" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="382" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="383" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="384" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="385" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="386" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="387" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="388" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="389" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="390" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="391" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="392" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="393" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="394" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="395" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="396" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="397" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="398" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="399" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="400" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="401" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="402" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="403" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="404" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="405" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="406" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="407" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="408" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="409" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="410" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="411" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="412" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="413" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="414" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="415" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="416" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="417" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="418" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="419" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="420" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="421" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="422" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="423" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="424" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="425" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="426" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="427" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="428" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="429" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="430" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="431" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="432" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="433" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="434" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="435" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="436" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="437" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="438" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="439" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="440" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="441" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="442" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="443" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="444" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="445" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="446" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="447" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="448" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="449" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="450" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="451" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="452" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="453" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="454" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="455" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="456" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="457" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="458" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="459" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="460" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="461" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="462" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="463" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="464" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="465" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="466" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="467" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="468" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="469" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="470" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="471" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="472" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="473" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="474" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="475" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="476" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="477" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="478" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="479" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="480" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="481" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="482" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="483" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="484" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="485" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="486" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="487" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="488" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="489" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="490" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="491" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="492" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="493" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="494" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="495" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="496" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="497" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="498" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="499" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="500" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="501" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="502" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="503" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="504" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="505" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="506" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="507" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="508" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="509" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="510" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="511" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="512" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="513" ht="13.5" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="37" spans="6:19" ht="13.5" customHeight="1">
+      <c r="O37" s="89"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="89"/>
+    </row>
+    <row r="38" spans="6:19" ht="13.5" customHeight="1">
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
+    </row>
+    <row r="39" spans="6:19" ht="13.5" customHeight="1">
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
+    </row>
+    <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="42" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="43" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="44" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="45" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="46" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="47" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="48" spans="6:19" ht="13.5" customHeight="1"/>
+    <row r="49" ht="13.5" customHeight="1"/>
+    <row r="50" ht="13.5" customHeight="1"/>
+    <row r="51" ht="13.5" customHeight="1"/>
+    <row r="52" ht="13.5" customHeight="1"/>
+    <row r="53" ht="13.5" customHeight="1"/>
+    <row r="54" ht="13.5" customHeight="1"/>
+    <row r="55" ht="13.5" customHeight="1"/>
+    <row r="56" ht="13.5" customHeight="1"/>
+    <row r="57" ht="13.5" customHeight="1"/>
+    <row r="58" ht="13.5" customHeight="1"/>
+    <row r="59" ht="13.5" customHeight="1"/>
+    <row r="60" ht="13.5" customHeight="1"/>
+    <row r="61" ht="13.5" customHeight="1"/>
+    <row r="62" ht="13.5" customHeight="1"/>
+    <row r="63" ht="13.5" customHeight="1"/>
+    <row r="64" ht="13.5" customHeight="1"/>
+    <row r="65" ht="13.5" customHeight="1"/>
+    <row r="66" ht="13.5" customHeight="1"/>
+    <row r="67" ht="13.5" customHeight="1"/>
+    <row r="68" ht="13.5" customHeight="1"/>
+    <row r="69" ht="13.5" customHeight="1"/>
+    <row r="70" ht="13.5" customHeight="1"/>
+    <row r="71" ht="13.5" customHeight="1"/>
+    <row r="72" ht="13.5" customHeight="1"/>
+    <row r="73" ht="13.5" customHeight="1"/>
+    <row r="74" ht="13.5" customHeight="1"/>
+    <row r="75" ht="13.5" customHeight="1"/>
+    <row r="76" ht="13.5" customHeight="1"/>
+    <row r="77" ht="13.5" customHeight="1"/>
+    <row r="78" ht="13.5" customHeight="1"/>
+    <row r="79" ht="13.5" customHeight="1"/>
+    <row r="80" ht="13.5" customHeight="1"/>
+    <row r="81" ht="13.5" customHeight="1"/>
+    <row r="82" ht="13.5" customHeight="1"/>
+    <row r="83" ht="13.5" customHeight="1"/>
+    <row r="84" ht="13.5" customHeight="1"/>
+    <row r="85" ht="13.5" customHeight="1"/>
+    <row r="86" ht="13.5" customHeight="1"/>
+    <row r="87" ht="13.5" customHeight="1"/>
+    <row r="88" ht="13.5" customHeight="1"/>
+    <row r="89" ht="13.5" customHeight="1"/>
+    <row r="90" ht="13.5" customHeight="1"/>
+    <row r="91" ht="13.5" customHeight="1"/>
+    <row r="92" ht="13.5" customHeight="1"/>
+    <row r="93" ht="13.5" customHeight="1"/>
+    <row r="94" ht="13.5" customHeight="1"/>
+    <row r="95" ht="13.5" customHeight="1"/>
+    <row r="96" ht="13.5" customHeight="1"/>
+    <row r="97" ht="13.5" customHeight="1"/>
+    <row r="98" ht="13.5" customHeight="1"/>
+    <row r="99" ht="13.5" customHeight="1"/>
+    <row r="100" ht="13.5" customHeight="1"/>
+    <row r="101" ht="13.5" customHeight="1"/>
+    <row r="102" ht="13.5" customHeight="1"/>
+    <row r="103" ht="13.5" customHeight="1"/>
+    <row r="104" ht="13.5" customHeight="1"/>
+    <row r="105" ht="13.5" customHeight="1"/>
+    <row r="106" ht="13.5" customHeight="1"/>
+    <row r="107" ht="13.5" customHeight="1"/>
+    <row r="108" ht="13.5" customHeight="1"/>
+    <row r="109" ht="13.5" customHeight="1"/>
+    <row r="110" ht="13.5" customHeight="1"/>
+    <row r="111" ht="13.5" customHeight="1"/>
+    <row r="112" ht="13.5" customHeight="1"/>
+    <row r="113" ht="13.5" customHeight="1"/>
+    <row r="114" ht="13.5" customHeight="1"/>
+    <row r="115" ht="13.5" customHeight="1"/>
+    <row r="116" ht="13.5" customHeight="1"/>
+    <row r="117" ht="13.5" customHeight="1"/>
+    <row r="118" ht="13.5" customHeight="1"/>
+    <row r="119" ht="13.5" customHeight="1"/>
+    <row r="120" ht="13.5" customHeight="1"/>
+    <row r="121" ht="13.5" customHeight="1"/>
+    <row r="122" ht="13.5" customHeight="1"/>
+    <row r="123" ht="13.5" customHeight="1"/>
+    <row r="124" ht="13.5" customHeight="1"/>
+    <row r="125" ht="13.5" customHeight="1"/>
+    <row r="126" ht="13.5" customHeight="1"/>
+    <row r="127" ht="13.5" customHeight="1"/>
+    <row r="128" ht="13.5" customHeight="1"/>
+    <row r="129" ht="13.5" customHeight="1"/>
+    <row r="130" ht="13.5" customHeight="1"/>
+    <row r="131" ht="13.5" customHeight="1"/>
+    <row r="132" ht="13.5" customHeight="1"/>
+    <row r="133" ht="13.5" customHeight="1"/>
+    <row r="134" ht="13.5" customHeight="1"/>
+    <row r="135" ht="13.5" customHeight="1"/>
+    <row r="136" ht="13.5" customHeight="1"/>
+    <row r="137" ht="13.5" customHeight="1"/>
+    <row r="138" ht="13.5" customHeight="1"/>
+    <row r="139" ht="13.5" customHeight="1"/>
+    <row r="140" ht="13.5" customHeight="1"/>
+    <row r="141" ht="13.5" customHeight="1"/>
+    <row r="142" ht="13.5" customHeight="1"/>
+    <row r="143" ht="13.5" customHeight="1"/>
+    <row r="144" ht="13.5" customHeight="1"/>
+    <row r="145" ht="13.5" customHeight="1"/>
+    <row r="146" ht="13.5" customHeight="1"/>
+    <row r="147" ht="13.5" customHeight="1"/>
+    <row r="148" ht="13.5" customHeight="1"/>
+    <row r="149" ht="13.5" customHeight="1"/>
+    <row r="150" ht="13.5" customHeight="1"/>
+    <row r="151" ht="13.5" customHeight="1"/>
+    <row r="152" ht="13.5" customHeight="1"/>
+    <row r="153" ht="13.5" customHeight="1"/>
+    <row r="154" ht="13.5" customHeight="1"/>
+    <row r="155" ht="13.5" customHeight="1"/>
+    <row r="156" ht="13.5" customHeight="1"/>
+    <row r="157" ht="13.5" customHeight="1"/>
+    <row r="158" ht="13.5" customHeight="1"/>
+    <row r="159" ht="13.5" customHeight="1"/>
+    <row r="160" ht="13.5" customHeight="1"/>
+    <row r="161" ht="13.5" customHeight="1"/>
+    <row r="162" ht="13.5" customHeight="1"/>
+    <row r="163" ht="13.5" customHeight="1"/>
+    <row r="164" ht="13.5" customHeight="1"/>
+    <row r="165" ht="13.5" customHeight="1"/>
+    <row r="166" ht="13.5" customHeight="1"/>
+    <row r="167" ht="13.5" customHeight="1"/>
+    <row r="168" ht="13.5" customHeight="1"/>
+    <row r="169" ht="13.5" customHeight="1"/>
+    <row r="170" ht="13.5" customHeight="1"/>
+    <row r="171" ht="13.5" customHeight="1"/>
+    <row r="172" ht="13.5" customHeight="1"/>
+    <row r="173" ht="13.5" customHeight="1"/>
+    <row r="174" ht="13.5" customHeight="1"/>
+    <row r="175" ht="13.5" customHeight="1"/>
+    <row r="176" ht="13.5" customHeight="1"/>
+    <row r="177" ht="13.5" customHeight="1"/>
+    <row r="178" ht="13.5" customHeight="1"/>
+    <row r="179" ht="13.5" customHeight="1"/>
+    <row r="180" ht="13.5" customHeight="1"/>
+    <row r="181" ht="13.5" customHeight="1"/>
+    <row r="182" ht="13.5" customHeight="1"/>
+    <row r="183" ht="13.5" customHeight="1"/>
+    <row r="184" ht="13.5" customHeight="1"/>
+    <row r="185" ht="13.5" customHeight="1"/>
+    <row r="186" ht="13.5" customHeight="1"/>
+    <row r="187" ht="13.5" customHeight="1"/>
+    <row r="188" ht="13.5" customHeight="1"/>
+    <row r="189" ht="13.5" customHeight="1"/>
+    <row r="190" ht="13.5" customHeight="1"/>
+    <row r="191" ht="13.5" customHeight="1"/>
+    <row r="192" ht="13.5" customHeight="1"/>
+    <row r="193" ht="13.5" customHeight="1"/>
+    <row r="194" ht="13.5" customHeight="1"/>
+    <row r="195" ht="13.5" customHeight="1"/>
+    <row r="196" ht="13.5" customHeight="1"/>
+    <row r="197" ht="13.5" customHeight="1"/>
+    <row r="198" ht="13.5" customHeight="1"/>
+    <row r="199" ht="13.5" customHeight="1"/>
+    <row r="200" ht="13.5" customHeight="1"/>
+    <row r="201" ht="13.5" customHeight="1"/>
+    <row r="202" ht="13.5" customHeight="1"/>
+    <row r="203" ht="13.5" customHeight="1"/>
+    <row r="204" ht="13.5" customHeight="1"/>
+    <row r="205" ht="13.5" customHeight="1"/>
+    <row r="206" ht="13.5" customHeight="1"/>
+    <row r="207" ht="13.5" customHeight="1"/>
+    <row r="208" ht="13.5" customHeight="1"/>
+    <row r="209" ht="13.5" customHeight="1"/>
+    <row r="210" ht="13.5" customHeight="1"/>
+    <row r="211" ht="13.5" customHeight="1"/>
+    <row r="212" ht="13.5" customHeight="1"/>
+    <row r="213" ht="13.5" customHeight="1"/>
+    <row r="214" ht="13.5" customHeight="1"/>
+    <row r="215" ht="13.5" customHeight="1"/>
+    <row r="216" ht="13.5" customHeight="1"/>
+    <row r="217" ht="13.5" customHeight="1"/>
+    <row r="218" ht="13.5" customHeight="1"/>
+    <row r="219" ht="13.5" customHeight="1"/>
+    <row r="220" ht="13.5" customHeight="1"/>
+    <row r="221" ht="13.5" customHeight="1"/>
+    <row r="222" ht="13.5" customHeight="1"/>
+    <row r="223" ht="13.5" customHeight="1"/>
+    <row r="224" ht="13.5" customHeight="1"/>
+    <row r="225" ht="13.5" customHeight="1"/>
+    <row r="226" ht="13.5" customHeight="1"/>
+    <row r="227" ht="13.5" customHeight="1"/>
+    <row r="228" ht="13.5" customHeight="1"/>
+    <row r="229" ht="13.5" customHeight="1"/>
+    <row r="230" ht="13.5" customHeight="1"/>
+    <row r="231" ht="13.5" customHeight="1"/>
+    <row r="232" ht="13.5" customHeight="1"/>
+    <row r="233" ht="13.5" customHeight="1"/>
+    <row r="234" ht="13.5" customHeight="1"/>
+    <row r="235" ht="13.5" customHeight="1"/>
+    <row r="236" ht="13.5" customHeight="1"/>
+    <row r="237" ht="13.5" customHeight="1"/>
+    <row r="238" ht="13.5" customHeight="1"/>
+    <row r="239" ht="13.5" customHeight="1"/>
+    <row r="240" ht="13.5" customHeight="1"/>
+    <row r="241" ht="13.5" customHeight="1"/>
+    <row r="242" ht="13.5" customHeight="1"/>
+    <row r="243" ht="13.5" customHeight="1"/>
+    <row r="244" ht="13.5" customHeight="1"/>
+    <row r="245" ht="13.5" customHeight="1"/>
+    <row r="246" ht="13.5" customHeight="1"/>
+    <row r="247" ht="13.5" customHeight="1"/>
+    <row r="248" ht="13.5" customHeight="1"/>
+    <row r="249" ht="13.5" customHeight="1"/>
+    <row r="250" ht="13.5" customHeight="1"/>
+    <row r="251" ht="13.5" customHeight="1"/>
+    <row r="252" ht="13.5" customHeight="1"/>
+    <row r="253" ht="13.5" customHeight="1"/>
+    <row r="254" ht="13.5" customHeight="1"/>
+    <row r="255" ht="13.5" customHeight="1"/>
+    <row r="256" ht="13.5" customHeight="1"/>
+    <row r="257" ht="13.5" customHeight="1"/>
+    <row r="258" ht="13.5" customHeight="1"/>
+    <row r="259" ht="13.5" customHeight="1"/>
+    <row r="260" ht="13.5" customHeight="1"/>
+    <row r="261" ht="13.5" customHeight="1"/>
+    <row r="262" ht="13.5" customHeight="1"/>
+    <row r="263" ht="13.5" customHeight="1"/>
+    <row r="264" ht="13.5" customHeight="1"/>
+    <row r="265" ht="13.5" customHeight="1"/>
+    <row r="266" ht="13.5" customHeight="1"/>
+    <row r="267" ht="13.5" customHeight="1"/>
+    <row r="268" ht="13.5" customHeight="1"/>
+    <row r="269" ht="13.5" customHeight="1"/>
+    <row r="270" ht="13.5" customHeight="1"/>
+    <row r="271" ht="13.5" customHeight="1"/>
+    <row r="272" ht="13.5" customHeight="1"/>
+    <row r="273" ht="13.5" customHeight="1"/>
+    <row r="274" ht="13.5" customHeight="1"/>
+    <row r="275" ht="13.5" customHeight="1"/>
+    <row r="276" ht="13.5" customHeight="1"/>
+    <row r="277" ht="13.5" customHeight="1"/>
+    <row r="278" ht="13.5" customHeight="1"/>
+    <row r="279" ht="13.5" customHeight="1"/>
+    <row r="280" ht="13.5" customHeight="1"/>
+    <row r="281" ht="13.5" customHeight="1"/>
+    <row r="282" ht="13.5" customHeight="1"/>
+    <row r="283" ht="13.5" customHeight="1"/>
+    <row r="284" ht="13.5" customHeight="1"/>
+    <row r="285" ht="13.5" customHeight="1"/>
+    <row r="286" ht="13.5" customHeight="1"/>
+    <row r="287" ht="13.5" customHeight="1"/>
+    <row r="288" ht="13.5" customHeight="1"/>
+    <row r="289" ht="13.5" customHeight="1"/>
+    <row r="290" ht="13.5" customHeight="1"/>
+    <row r="291" ht="13.5" customHeight="1"/>
+    <row r="292" ht="13.5" customHeight="1"/>
+    <row r="293" ht="13.5" customHeight="1"/>
+    <row r="294" ht="13.5" customHeight="1"/>
+    <row r="295" ht="13.5" customHeight="1"/>
+    <row r="296" ht="13.5" customHeight="1"/>
+    <row r="297" ht="13.5" customHeight="1"/>
+    <row r="298" ht="13.5" customHeight="1"/>
+    <row r="299" ht="13.5" customHeight="1"/>
+    <row r="300" ht="13.5" customHeight="1"/>
+    <row r="301" ht="13.5" customHeight="1"/>
+    <row r="302" ht="13.5" customHeight="1"/>
+    <row r="303" ht="13.5" customHeight="1"/>
+    <row r="304" ht="13.5" customHeight="1"/>
+    <row r="305" ht="13.5" customHeight="1"/>
+    <row r="306" ht="13.5" customHeight="1"/>
+    <row r="307" ht="13.5" customHeight="1"/>
+    <row r="308" ht="13.5" customHeight="1"/>
+    <row r="309" ht="13.5" customHeight="1"/>
+    <row r="310" ht="13.5" customHeight="1"/>
+    <row r="311" ht="13.5" customHeight="1"/>
+    <row r="312" ht="13.5" customHeight="1"/>
+    <row r="313" ht="13.5" customHeight="1"/>
+    <row r="314" ht="13.5" customHeight="1"/>
+    <row r="315" ht="13.5" customHeight="1"/>
+    <row r="316" ht="13.5" customHeight="1"/>
+    <row r="317" ht="13.5" customHeight="1"/>
+    <row r="318" ht="13.5" customHeight="1"/>
+    <row r="319" ht="13.5" customHeight="1"/>
+    <row r="320" ht="13.5" customHeight="1"/>
+    <row r="321" ht="13.5" customHeight="1"/>
+    <row r="322" ht="13.5" customHeight="1"/>
+    <row r="323" ht="13.5" customHeight="1"/>
+    <row r="324" ht="13.5" customHeight="1"/>
+    <row r="325" ht="13.5" customHeight="1"/>
+    <row r="326" ht="13.5" customHeight="1"/>
+    <row r="327" ht="13.5" customHeight="1"/>
+    <row r="328" ht="13.5" customHeight="1"/>
+    <row r="329" ht="13.5" customHeight="1"/>
+    <row r="330" ht="13.5" customHeight="1"/>
+    <row r="331" ht="13.5" customHeight="1"/>
+    <row r="332" ht="13.5" customHeight="1"/>
+    <row r="333" ht="13.5" customHeight="1"/>
+    <row r="334" ht="13.5" customHeight="1"/>
+    <row r="335" ht="13.5" customHeight="1"/>
+    <row r="336" ht="13.5" customHeight="1"/>
+    <row r="337" ht="13.5" customHeight="1"/>
+    <row r="338" ht="13.5" customHeight="1"/>
+    <row r="339" ht="13.5" customHeight="1"/>
+    <row r="340" ht="13.5" customHeight="1"/>
+    <row r="341" ht="13.5" customHeight="1"/>
+    <row r="342" ht="13.5" customHeight="1"/>
+    <row r="343" ht="13.5" customHeight="1"/>
+    <row r="344" ht="13.5" customHeight="1"/>
+    <row r="345" ht="13.5" customHeight="1"/>
+    <row r="346" ht="13.5" customHeight="1"/>
+    <row r="347" ht="13.5" customHeight="1"/>
+    <row r="348" ht="13.5" customHeight="1"/>
+    <row r="349" ht="13.5" customHeight="1"/>
+    <row r="350" ht="13.5" customHeight="1"/>
+    <row r="351" ht="13.5" customHeight="1"/>
+    <row r="352" ht="13.5" customHeight="1"/>
+    <row r="353" ht="13.5" customHeight="1"/>
+    <row r="354" ht="13.5" customHeight="1"/>
+    <row r="355" ht="13.5" customHeight="1"/>
+    <row r="356" ht="13.5" customHeight="1"/>
+    <row r="357" ht="13.5" customHeight="1"/>
+    <row r="358" ht="13.5" customHeight="1"/>
+    <row r="359" ht="13.5" customHeight="1"/>
+    <row r="360" ht="13.5" customHeight="1"/>
+    <row r="361" ht="13.5" customHeight="1"/>
+    <row r="362" ht="13.5" customHeight="1"/>
+    <row r="363" ht="13.5" customHeight="1"/>
+    <row r="364" ht="13.5" customHeight="1"/>
+    <row r="365" ht="13.5" customHeight="1"/>
+    <row r="366" ht="13.5" customHeight="1"/>
+    <row r="367" ht="13.5" customHeight="1"/>
+    <row r="368" ht="13.5" customHeight="1"/>
+    <row r="369" ht="13.5" customHeight="1"/>
+    <row r="370" ht="13.5" customHeight="1"/>
+    <row r="371" ht="13.5" customHeight="1"/>
+    <row r="372" ht="13.5" customHeight="1"/>
+    <row r="373" ht="13.5" customHeight="1"/>
+    <row r="374" ht="13.5" customHeight="1"/>
+    <row r="375" ht="13.5" customHeight="1"/>
+    <row r="376" ht="13.5" customHeight="1"/>
+    <row r="377" ht="13.5" customHeight="1"/>
+    <row r="378" ht="13.5" customHeight="1"/>
+    <row r="379" ht="13.5" customHeight="1"/>
+    <row r="380" ht="13.5" customHeight="1"/>
+    <row r="381" ht="13.5" customHeight="1"/>
+    <row r="382" ht="13.5" customHeight="1"/>
+    <row r="383" ht="13.5" customHeight="1"/>
+    <row r="384" ht="13.5" customHeight="1"/>
+    <row r="385" ht="13.5" customHeight="1"/>
+    <row r="386" ht="13.5" customHeight="1"/>
+    <row r="387" ht="13.5" customHeight="1"/>
+    <row r="388" ht="13.5" customHeight="1"/>
+    <row r="389" ht="13.5" customHeight="1"/>
+    <row r="390" ht="13.5" customHeight="1"/>
+    <row r="391" ht="13.5" customHeight="1"/>
+    <row r="392" ht="13.5" customHeight="1"/>
+    <row r="393" ht="13.5" customHeight="1"/>
+    <row r="394" ht="13.5" customHeight="1"/>
+    <row r="395" ht="13.5" customHeight="1"/>
+    <row r="396" ht="13.5" customHeight="1"/>
+    <row r="397" ht="13.5" customHeight="1"/>
+    <row r="398" ht="13.5" customHeight="1"/>
+    <row r="399" ht="13.5" customHeight="1"/>
+    <row r="400" ht="13.5" customHeight="1"/>
+    <row r="401" ht="13.5" customHeight="1"/>
+    <row r="402" ht="13.5" customHeight="1"/>
+    <row r="403" ht="13.5" customHeight="1"/>
+    <row r="404" ht="13.5" customHeight="1"/>
+    <row r="405" ht="13.5" customHeight="1"/>
+    <row r="406" ht="13.5" customHeight="1"/>
+    <row r="407" ht="13.5" customHeight="1"/>
+    <row r="408" ht="13.5" customHeight="1"/>
+    <row r="409" ht="13.5" customHeight="1"/>
+    <row r="410" ht="13.5" customHeight="1"/>
+    <row r="411" ht="13.5" customHeight="1"/>
+    <row r="412" ht="13.5" customHeight="1"/>
+    <row r="413" ht="13.5" customHeight="1"/>
+    <row r="414" ht="13.5" customHeight="1"/>
+    <row r="415" ht="13.5" customHeight="1"/>
+    <row r="416" ht="13.5" customHeight="1"/>
+    <row r="417" ht="13.5" customHeight="1"/>
+    <row r="418" ht="13.5" customHeight="1"/>
+    <row r="419" ht="13.5" customHeight="1"/>
+    <row r="420" ht="13.5" customHeight="1"/>
+    <row r="421" ht="13.5" customHeight="1"/>
+    <row r="422" ht="13.5" customHeight="1"/>
+    <row r="423" ht="13.5" customHeight="1"/>
+    <row r="424" ht="13.5" customHeight="1"/>
+    <row r="425" ht="13.5" customHeight="1"/>
+    <row r="426" ht="13.5" customHeight="1"/>
+    <row r="427" ht="13.5" customHeight="1"/>
+    <row r="428" ht="13.5" customHeight="1"/>
+    <row r="429" ht="13.5" customHeight="1"/>
+    <row r="430" ht="13.5" customHeight="1"/>
+    <row r="431" ht="13.5" customHeight="1"/>
+    <row r="432" ht="13.5" customHeight="1"/>
+    <row r="433" ht="13.5" customHeight="1"/>
+    <row r="434" ht="13.5" customHeight="1"/>
+    <row r="435" ht="13.5" customHeight="1"/>
+    <row r="436" ht="13.5" customHeight="1"/>
+    <row r="437" ht="13.5" customHeight="1"/>
+    <row r="438" ht="13.5" customHeight="1"/>
+    <row r="439" ht="13.5" customHeight="1"/>
+    <row r="440" ht="13.5" customHeight="1"/>
+    <row r="441" ht="13.5" customHeight="1"/>
+    <row r="442" ht="13.5" customHeight="1"/>
+    <row r="443" ht="13.5" customHeight="1"/>
+    <row r="444" ht="13.5" customHeight="1"/>
+    <row r="445" ht="13.5" customHeight="1"/>
+    <row r="446" ht="13.5" customHeight="1"/>
+    <row r="447" ht="13.5" customHeight="1"/>
+    <row r="448" ht="13.5" customHeight="1"/>
+    <row r="449" ht="13.5" customHeight="1"/>
+    <row r="450" ht="13.5" customHeight="1"/>
+    <row r="451" ht="13.5" customHeight="1"/>
+    <row r="452" ht="13.5" customHeight="1"/>
+    <row r="453" ht="13.5" customHeight="1"/>
+    <row r="454" ht="13.5" customHeight="1"/>
+    <row r="455" ht="13.5" customHeight="1"/>
+    <row r="456" ht="13.5" customHeight="1"/>
+    <row r="457" ht="13.5" customHeight="1"/>
+    <row r="458" ht="13.5" customHeight="1"/>
+    <row r="459" ht="13.5" customHeight="1"/>
+    <row r="460" ht="13.5" customHeight="1"/>
+    <row r="461" ht="13.5" customHeight="1"/>
+    <row r="462" ht="13.5" customHeight="1"/>
+    <row r="463" ht="13.5" customHeight="1"/>
+    <row r="464" ht="13.5" customHeight="1"/>
+    <row r="465" ht="13.5" customHeight="1"/>
+    <row r="466" ht="13.5" customHeight="1"/>
+    <row r="467" ht="13.5" customHeight="1"/>
+    <row r="468" ht="13.5" customHeight="1"/>
+    <row r="469" ht="13.5" customHeight="1"/>
+    <row r="470" ht="13.5" customHeight="1"/>
+    <row r="471" ht="13.5" customHeight="1"/>
+    <row r="472" ht="13.5" customHeight="1"/>
+    <row r="473" ht="13.5" customHeight="1"/>
+    <row r="474" ht="13.5" customHeight="1"/>
+    <row r="475" ht="13.5" customHeight="1"/>
+    <row r="476" ht="13.5" customHeight="1"/>
+    <row r="477" ht="13.5" customHeight="1"/>
+    <row r="478" ht="13.5" customHeight="1"/>
+    <row r="479" ht="13.5" customHeight="1"/>
+    <row r="480" ht="13.5" customHeight="1"/>
+    <row r="481" ht="13.5" customHeight="1"/>
+    <row r="482" ht="13.5" customHeight="1"/>
+    <row r="483" ht="13.5" customHeight="1"/>
+    <row r="484" ht="13.5" customHeight="1"/>
+    <row r="485" ht="13.5" customHeight="1"/>
+    <row r="486" ht="13.5" customHeight="1"/>
+    <row r="487" ht="13.5" customHeight="1"/>
+    <row r="488" ht="13.5" customHeight="1"/>
+    <row r="489" ht="13.5" customHeight="1"/>
+    <row r="490" ht="13.5" customHeight="1"/>
+    <row r="491" ht="13.5" customHeight="1"/>
+    <row r="492" ht="13.5" customHeight="1"/>
+    <row r="493" ht="13.5" customHeight="1"/>
+    <row r="494" ht="13.5" customHeight="1"/>
+    <row r="495" ht="13.5" customHeight="1"/>
+    <row r="496" ht="13.5" customHeight="1"/>
+    <row r="497" ht="13.5" customHeight="1"/>
+    <row r="498" ht="13.5" customHeight="1"/>
+    <row r="499" ht="13.5" customHeight="1"/>
+    <row r="500" ht="13.5" customHeight="1"/>
+    <row r="501" ht="13.5" customHeight="1"/>
+    <row r="502" ht="13.5" customHeight="1"/>
+    <row r="503" ht="13.5" customHeight="1"/>
+    <row r="504" ht="13.5" customHeight="1"/>
+    <row r="505" ht="13.5" customHeight="1"/>
+    <row r="506" ht="13.5" customHeight="1"/>
+    <row r="507" ht="13.5" customHeight="1"/>
+    <row r="508" ht="13.5" customHeight="1"/>
+    <row r="509" ht="13.5" customHeight="1"/>
+    <row r="510" ht="13.5" customHeight="1"/>
+    <row r="511" ht="13.5" customHeight="1"/>
+    <row r="512" ht="13.5" customHeight="1"/>
+    <row r="513" ht="13.5" customHeight="1"/>
   </sheetData>
   <mergeCells count="7">
     <mergeCell ref="I25:K25"/>
@@ -3557,162 +3557,162 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="16384" width="4.83203125" style="30"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="129" t="s">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="106" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="99" t="str">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="100" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="101"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="102"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
       <c r="AM1" s="20"/>
       <c r="AN1" s="21"/>
     </row>
-    <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="129" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="102" t="str">
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="103" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="99" t="str">
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="100" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="101"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="102"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
       <c r="AM2" s="20"/>
       <c r="AN2" s="20"/>
     </row>
-    <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
+    <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="101"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="102"/>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
       <c r="AM3" s="20"/>
       <c r="AN3" s="20"/>
     </row>
-    <row r="5" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:40" s="1" customFormat="1" ht="22.5" customHeight="1">
       <c r="N5" s="4" t="s">
         <v>9</v>
       </c>
@@ -3726,7 +3726,7 @@
       <c r="AH5" s="35"/>
       <c r="AI5" s="35"/>
     </row>
-    <row r="6" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:40" s="1" customFormat="1" ht="15" customHeight="1">
       <c r="N6" s="4"/>
       <c r="AA6" s="35"/>
       <c r="AB6" s="35"/>
@@ -3738,1024 +3738,1024 @@
       <c r="AH6" s="35"/>
       <c r="AI6" s="35"/>
     </row>
-    <row r="7" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickBot="1">
       <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="120" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="120" t="s">
+      <c r="E7" s="123"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="120" t="s">
+      <c r="H7" s="123"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="120" t="s">
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="120" t="s">
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="121"/>
-    </row>
-    <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="122"/>
+    </row>
+    <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="85"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="110"/>
-    </row>
-    <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="109"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="111"/>
+    </row>
+    <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="86"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="94"/>
-      <c r="AI9" s="95"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="96"/>
       <c r="AJ9" s="32"/>
     </row>
-    <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="86"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="97"/>
-      <c r="AD10" s="97"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="95"/>
-    </row>
-    <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B10" s="118"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="96"/>
+    </row>
+    <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="86"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="98"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="95"/>
-    </row>
-    <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="118"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="120"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
+    </row>
+    <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="86"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="95"/>
-    </row>
-    <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B12" s="118"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
+    </row>
+    <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="86"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="95"/>
-    </row>
-    <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="118"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="96"/>
+    </row>
+    <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="86"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="95"/>
-    </row>
-    <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B14" s="118"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="96"/>
+    </row>
+    <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="86"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="98"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="95"/>
-    </row>
-    <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="118"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="96"/>
+    </row>
+    <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="86"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="95"/>
-    </row>
-    <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B16" s="118"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
+    </row>
+    <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="86"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="97"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="98"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="94"/>
-      <c r="AI17" s="95"/>
-    </row>
-    <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B17" s="118"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
+    </row>
+    <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="86"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="95"/>
-    </row>
-    <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B18" s="118"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
+    </row>
+    <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="86"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="95"/>
-    </row>
-    <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
+    </row>
+    <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="86"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="95"/>
-    </row>
-    <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B20" s="118"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
+    </row>
+    <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="86"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="94"/>
-      <c r="AI21" s="95"/>
-    </row>
-    <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B21" s="118"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
+    </row>
+    <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="86"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="93"/>
-      <c r="AG22" s="94"/>
-      <c r="AH22" s="94"/>
-      <c r="AI22" s="95"/>
-    </row>
-    <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B22" s="118"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
+    </row>
+    <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="86"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="94"/>
-      <c r="AH23" s="94"/>
-      <c r="AI23" s="95"/>
-    </row>
-    <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B23" s="118"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="120"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
+    </row>
+    <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="86"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="97"/>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="94"/>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="95"/>
-    </row>
-    <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B24" s="118"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
+    </row>
+    <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="86"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="98"/>
-      <c r="AF25" s="93"/>
-      <c r="AG25" s="94"/>
-      <c r="AH25" s="94"/>
-      <c r="AI25" s="95"/>
-    </row>
-    <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B25" s="118"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
+    </row>
+    <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="86"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="93"/>
-      <c r="AG26" s="94"/>
-      <c r="AH26" s="94"/>
-      <c r="AI26" s="95"/>
-    </row>
-    <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B26" s="118"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
+    </row>
+    <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="86"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="98"/>
-      <c r="AF27" s="93"/>
-      <c r="AG27" s="94"/>
-      <c r="AH27" s="94"/>
-      <c r="AI27" s="95"/>
-    </row>
-    <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B27" s="118"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="120"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
+    </row>
+    <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="86"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="97"/>
-      <c r="AE28" s="98"/>
-      <c r="AF28" s="93"/>
-      <c r="AG28" s="94"/>
-      <c r="AH28" s="94"/>
-      <c r="AI28" s="95"/>
-    </row>
-    <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="118"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
+    </row>
+    <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="86"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="97"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="97"/>
-      <c r="AA29" s="97"/>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="97"/>
-      <c r="AE29" s="98"/>
-      <c r="AF29" s="93"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="95"/>
-    </row>
-    <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B29" s="118"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
+    </row>
+    <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="86"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="97"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="97"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="97"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="97"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="93"/>
-      <c r="AG30" s="94"/>
-      <c r="AH30" s="94"/>
-      <c r="AI30" s="95"/>
-    </row>
-    <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="118"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
+    </row>
+    <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="86"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="97"/>
-      <c r="T31" s="97"/>
-      <c r="U31" s="97"/>
-      <c r="V31" s="97"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="97"/>
-      <c r="Y31" s="97"/>
-      <c r="Z31" s="97"/>
-      <c r="AA31" s="97"/>
-      <c r="AB31" s="97"/>
-      <c r="AC31" s="97"/>
-      <c r="AD31" s="97"/>
-      <c r="AE31" s="98"/>
-      <c r="AF31" s="93"/>
-      <c r="AG31" s="94"/>
-      <c r="AH31" s="94"/>
-      <c r="AI31" s="95"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="120"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
       <c r="AJ31" s="32"/>
     </row>
-    <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="86"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="97"/>
-      <c r="T32" s="97"/>
-      <c r="U32" s="97"/>
-      <c r="V32" s="97"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="97"/>
-      <c r="Y32" s="97"/>
-      <c r="Z32" s="97"/>
-      <c r="AA32" s="97"/>
-      <c r="AB32" s="97"/>
-      <c r="AC32" s="97"/>
-      <c r="AD32" s="97"/>
-      <c r="AE32" s="98"/>
-      <c r="AF32" s="93"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="95"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="120"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
       <c r="AJ32" s="32"/>
     </row>
-    <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="86"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="97"/>
-      <c r="U33" s="97"/>
-      <c r="V33" s="97"/>
-      <c r="W33" s="97"/>
-      <c r="X33" s="97"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="98"/>
-      <c r="AF33" s="93"/>
-      <c r="AG33" s="94"/>
-      <c r="AH33" s="94"/>
-      <c r="AI33" s="95"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="120"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
       <c r="AJ33" s="32"/>
     </row>
-    <row r="34" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A34" s="32"/>
       <c r="B34" s="32"/>
       <c r="C34" s="32"/>
@@ -4793,7 +4793,7 @@
       <c r="AI34" s="32"/>
       <c r="AJ34" s="32"/>
     </row>
-    <row r="35" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:36">
       <c r="A35" s="32"/>
       <c r="B35" s="32"/>
       <c r="C35" s="32"/>
@@ -4831,7 +4831,7 @@
       <c r="AI35" s="32"/>
       <c r="AJ35" s="32"/>
     </row>
-    <row r="36" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:36">
       <c r="A36" s="32"/>
       <c r="B36" s="32"/>
       <c r="C36" s="32"/>
@@ -4869,7 +4869,7 @@
       <c r="AI36" s="32"/>
       <c r="AJ36" s="33"/>
     </row>
-    <row r="37" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:36">
       <c r="A37" s="32"/>
       <c r="B37" s="32"/>
       <c r="C37" s="32"/>
@@ -4907,7 +4907,7 @@
       <c r="AI37" s="32"/>
       <c r="AJ37" s="33"/>
     </row>
-    <row r="38" spans="1:36" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:36">
       <c r="A38" s="32"/>
       <c r="B38" s="32"/>
       <c r="C38" s="32"/>
@@ -5146,7 +5146,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="16" width="4.83203125" style="54" customWidth="1"/>
     <col min="17" max="17" width="4.83203125" style="74" customWidth="1"/>
@@ -5281,160 +5281,160 @@
     <col min="16163" max="16384" width="4.83203125" style="54"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="153" t="str">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="129" t="s">
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="99" t="str">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="101"/>
-    </row>
-    <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="129" t="s">
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="102"/>
+    </row>
+    <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="129" t="s">
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="99" t="str">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="101"/>
-    </row>
-    <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="102"/>
+    </row>
+    <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105" t="str">
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="99" t="str">
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="101"/>
-    </row>
-    <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="102"/>
+    </row>
+    <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
       <c r="B4" s="42"/>
       <c r="C4" s="42"/>
@@ -5471,7 +5471,7 @@
       <c r="AH4" s="42"/>
       <c r="AI4" s="42"/>
     </row>
-    <row r="5" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A5" s="42"/>
       <c r="B5" s="42"/>
       <c r="C5" s="42"/>
@@ -5510,7 +5510,7 @@
       <c r="AH5" s="42"/>
       <c r="AI5" s="42"/>
     </row>
-    <row r="6" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35" s="44" customFormat="1" ht="15" customHeight="1">
       <c r="A6" s="42"/>
       <c r="B6" s="42"/>
       <c r="C6" s="42"/>
@@ -5547,7 +5547,7 @@
       <c r="AH6" s="42"/>
       <c r="AI6" s="42"/>
     </row>
-    <row r="7" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="46"/>
       <c r="B7" s="47" t="s">
         <v>35</v>
@@ -5586,7 +5586,7 @@
       <c r="AH7" s="52"/>
       <c r="AI7" s="53"/>
     </row>
-    <row r="8" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:35" ht="15" customHeight="1">
       <c r="A8" s="46"/>
       <c r="B8" s="48"/>
       <c r="C8" s="48"/>
@@ -5623,7 +5623,7 @@
       <c r="AH8" s="56"/>
       <c r="AI8" s="53"/>
     </row>
-    <row r="9" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:35" ht="15" customHeight="1">
       <c r="A9" s="46"/>
       <c r="B9" s="47"/>
       <c r="C9" s="48"/>
@@ -5660,7 +5660,7 @@
       <c r="AH9" s="57"/>
       <c r="AI9" s="46"/>
     </row>
-    <row r="10" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:35" ht="15" customHeight="1">
       <c r="A10" s="46"/>
       <c r="B10" s="48"/>
       <c r="C10" s="48"/>
@@ -5697,7 +5697,7 @@
       <c r="AH10" s="52"/>
       <c r="AI10" s="53"/>
     </row>
-    <row r="11" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:35" ht="15" customHeight="1">
       <c r="A11" s="46"/>
       <c r="B11" s="48"/>
       <c r="C11" s="48"/>
@@ -5734,7 +5734,7 @@
       <c r="AH11" s="52"/>
       <c r="AI11" s="53"/>
     </row>
-    <row r="12" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:35" ht="15" customHeight="1">
       <c r="A12" s="46"/>
       <c r="B12" s="48"/>
       <c r="C12" s="48"/>
@@ -5771,7 +5771,7 @@
       <c r="AH12" s="52"/>
       <c r="AI12" s="53"/>
     </row>
-    <row r="13" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:35" ht="15" customHeight="1">
       <c r="A13" s="46"/>
       <c r="B13" s="48"/>
       <c r="C13" s="48"/>
@@ -5808,7 +5808,7 @@
       <c r="AH13" s="52"/>
       <c r="AI13" s="53"/>
     </row>
-    <row r="14" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:35" ht="15" customHeight="1">
       <c r="A14" s="46"/>
       <c r="B14" s="53"/>
       <c r="C14" s="53"/>
@@ -5845,7 +5845,7 @@
       <c r="AH14" s="52"/>
       <c r="AI14" s="53"/>
     </row>
-    <row r="15" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:35" ht="15" customHeight="1">
       <c r="A15" s="46"/>
       <c r="B15" s="58"/>
       <c r="C15" s="48"/>
@@ -5882,7 +5882,7 @@
       <c r="AH15" s="52"/>
       <c r="AI15" s="53"/>
     </row>
-    <row r="16" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:35" ht="15" customHeight="1">
       <c r="A16" s="46"/>
       <c r="B16" s="42"/>
       <c r="C16" s="46"/>
@@ -5919,7 +5919,7 @@
       <c r="AH16" s="52"/>
       <c r="AI16" s="53"/>
     </row>
-    <row r="17" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:35" ht="15" customHeight="1">
       <c r="A17" s="46"/>
       <c r="B17" s="42"/>
       <c r="C17" s="46"/>
@@ -5956,7 +5956,7 @@
       <c r="AH17" s="52"/>
       <c r="AI17" s="53"/>
     </row>
-    <row r="18" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:35" ht="15" customHeight="1">
       <c r="A18" s="46"/>
       <c r="B18" s="42"/>
       <c r="C18" s="46"/>
@@ -5993,7 +5993,7 @@
       <c r="AH18" s="52"/>
       <c r="AI18" s="53"/>
     </row>
-    <row r="19" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:35" ht="15" customHeight="1">
       <c r="A19" s="46"/>
       <c r="B19" s="42"/>
       <c r="C19" s="46"/>
@@ -6030,7 +6030,7 @@
       <c r="AH19" s="52"/>
       <c r="AI19" s="53"/>
     </row>
-    <row r="20" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:35" ht="15" customHeight="1">
       <c r="A20" s="46"/>
       <c r="B20" s="42"/>
       <c r="C20" s="46"/>
@@ -6067,7 +6067,7 @@
       <c r="AH20" s="52"/>
       <c r="AI20" s="53"/>
     </row>
-    <row r="21" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:35" ht="15" customHeight="1">
       <c r="A21" s="46"/>
       <c r="B21" s="42"/>
       <c r="C21" s="46"/>
@@ -6104,7 +6104,7 @@
       <c r="AH21" s="52"/>
       <c r="AI21" s="53"/>
     </row>
-    <row r="22" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:35" ht="15" customHeight="1">
       <c r="A22" s="46"/>
       <c r="B22" s="42"/>
       <c r="C22" s="46"/>
@@ -6141,7 +6141,7 @@
       <c r="AH22" s="52"/>
       <c r="AI22" s="53"/>
     </row>
-    <row r="23" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:35" ht="15" customHeight="1">
       <c r="A23" s="46"/>
       <c r="B23" s="58"/>
       <c r="C23" s="48"/>
@@ -6178,7 +6178,7 @@
       <c r="AH23" s="52"/>
       <c r="AI23" s="53"/>
     </row>
-    <row r="24" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:35" ht="15" customHeight="1">
       <c r="A24" s="46"/>
       <c r="B24" s="42"/>
       <c r="C24" s="46"/>
@@ -6215,7 +6215,7 @@
       <c r="AH24" s="52"/>
       <c r="AI24" s="53"/>
     </row>
-    <row r="25" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:35" ht="15" customHeight="1">
       <c r="A25" s="46"/>
       <c r="B25" s="42"/>
       <c r="C25" s="46"/>
@@ -6252,7 +6252,7 @@
       <c r="AH25" s="52"/>
       <c r="AI25" s="53"/>
     </row>
-    <row r="26" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:35" ht="15" customHeight="1">
       <c r="A26" s="46"/>
       <c r="B26" s="42"/>
       <c r="C26" s="46"/>
@@ -6289,7 +6289,7 @@
       <c r="AH26" s="52"/>
       <c r="AI26" s="53"/>
     </row>
-    <row r="27" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:35" ht="15" customHeight="1">
       <c r="A27" s="46"/>
       <c r="B27" s="42"/>
       <c r="C27" s="46"/>
@@ -6326,7 +6326,7 @@
       <c r="AH27" s="52"/>
       <c r="AI27" s="53"/>
     </row>
-    <row r="28" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:35" ht="15" customHeight="1">
       <c r="A28" s="46"/>
       <c r="B28" s="42"/>
       <c r="C28" s="46"/>
@@ -6363,7 +6363,7 @@
       <c r="AH28" s="52"/>
       <c r="AI28" s="53"/>
     </row>
-    <row r="29" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:35" ht="15" customHeight="1">
       <c r="A29" s="46"/>
       <c r="B29" s="42"/>
       <c r="C29" s="46"/>
@@ -6400,7 +6400,7 @@
       <c r="AH29" s="52"/>
       <c r="AI29" s="53"/>
     </row>
-    <row r="30" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:35" ht="15" customHeight="1">
       <c r="A30" s="59"/>
       <c r="B30" s="42"/>
       <c r="C30" s="42"/>
@@ -6437,7 +6437,7 @@
       <c r="AH30" s="62"/>
       <c r="AI30" s="63"/>
     </row>
-    <row r="31" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:35" ht="15" customHeight="1">
       <c r="A31" s="59"/>
       <c r="B31" s="42"/>
       <c r="C31" s="43"/>
@@ -6474,7 +6474,7 @@
       <c r="AH31" s="62"/>
       <c r="AI31" s="63"/>
     </row>
-    <row r="32" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:35" ht="15" customHeight="1">
       <c r="A32" s="59"/>
       <c r="B32" s="66"/>
       <c r="C32" s="46"/>
@@ -6511,7 +6511,7 @@
       <c r="AH32" s="62"/>
       <c r="AI32" s="63"/>
     </row>
-    <row r="33" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:35" ht="15" customHeight="1">
       <c r="A33" s="59"/>
       <c r="B33" s="66"/>
       <c r="C33" s="46"/>
@@ -6548,7 +6548,7 @@
       <c r="AH33" s="62"/>
       <c r="AI33" s="63"/>
     </row>
-    <row r="34" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:35" ht="15" customHeight="1">
       <c r="A34" s="59"/>
       <c r="B34" s="66"/>
       <c r="C34" s="46"/>
@@ -6585,7 +6585,7 @@
       <c r="AH34" s="62"/>
       <c r="AI34" s="63"/>
     </row>
-    <row r="35" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:35" ht="15" customHeight="1">
       <c r="A35" s="59"/>
       <c r="B35" s="66"/>
       <c r="C35" s="46"/>
@@ -6622,7 +6622,7 @@
       <c r="AH35" s="62"/>
       <c r="AI35" s="63"/>
     </row>
-    <row r="36" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:35" ht="15" customHeight="1">
       <c r="A36" s="59"/>
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
@@ -6659,7 +6659,7 @@
       <c r="AH36" s="71"/>
       <c r="AI36" s="59"/>
     </row>
-    <row r="37" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:35" ht="15" customHeight="1">
       <c r="B37" s="72"/>
       <c r="E37" s="72"/>
       <c r="F37" s="72"/>
@@ -6691,7 +6691,7 @@
       <c r="AH37" s="79"/>
       <c r="AI37" s="75"/>
     </row>
-    <row r="38" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:35" ht="15" customHeight="1">
       <c r="S38" s="75"/>
       <c r="T38" s="75"/>
       <c r="U38" s="76"/>
@@ -6710,7 +6710,7 @@
       <c r="AH38" s="82"/>
       <c r="AI38" s="75"/>
     </row>
-    <row r="39" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:35" ht="15" customHeight="1">
       <c r="Q39" s="83"/>
       <c r="S39" s="75"/>
       <c r="T39" s="76"/>
@@ -6730,7 +6730,7 @@
       <c r="AH39" s="82"/>
       <c r="AI39" s="75"/>
     </row>
-    <row r="40" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:35" ht="15" customHeight="1">
       <c r="S40" s="75"/>
       <c r="T40" s="75"/>
       <c r="U40" s="75"/>
@@ -6749,7 +6749,7 @@
       <c r="AH40" s="82"/>
       <c r="AI40" s="75"/>
     </row>
-    <row r="41" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:35" ht="15" customHeight="1">
       <c r="J41" s="72"/>
       <c r="K41" s="72"/>
       <c r="L41" s="72"/>
@@ -6763,37 +6763,37 @@
       <c r="AH41" s="82"/>
       <c r="AI41" s="75"/>
     </row>
-    <row r="42" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:35" ht="15" customHeight="1">
       <c r="AE42" s="75"/>
       <c r="AF42" s="80"/>
       <c r="AG42" s="81"/>
       <c r="AH42" s="82"/>
       <c r="AI42" s="75"/>
     </row>
-    <row r="43" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:35" ht="15" customHeight="1">
       <c r="AE43" s="75"/>
       <c r="AF43" s="80"/>
       <c r="AG43" s="80"/>
       <c r="AH43" s="82"/>
       <c r="AI43" s="75"/>
     </row>
-    <row r="44" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:35" ht="15" customHeight="1">
       <c r="A44" s="72"/>
       <c r="AF44" s="84"/>
       <c r="AG44" s="84"/>
     </row>
-    <row r="45" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:35" ht="15" customHeight="1">
       <c r="A45" s="72"/>
       <c r="AG45" s="84"/>
     </row>
-    <row r="46" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:35" ht="15" customHeight="1">
       <c r="AF46" s="84"/>
       <c r="AG46" s="84"/>
     </row>
-    <row r="47" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:35" ht="15" customHeight="1">
       <c r="AG47" s="84"/>
     </row>
-    <row r="48" spans="1:35" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:35" ht="15" customHeight="1">
       <c r="S48" s="72"/>
       <c r="T48" s="72"/>
       <c r="V48" s="72"/>
@@ -6806,7 +6806,7 @@
       <c r="AC48" s="72"/>
       <c r="AD48" s="72"/>
     </row>
-    <row r="49" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:34" ht="15" customHeight="1">
       <c r="R49" s="72"/>
       <c r="S49" s="72"/>
       <c r="T49" s="72"/>
@@ -6821,10 +6821,10 @@
       <c r="AD49" s="72"/>
       <c r="AG49" s="84"/>
     </row>
-    <row r="50" spans="1:34" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:34" ht="15" customHeight="1">
       <c r="R50" s="72"/>
     </row>
-    <row r="51" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A51" s="54"/>
       <c r="B51" s="54"/>
       <c r="C51" s="54"/>
@@ -6857,7 +6857,7 @@
       <c r="AD51" s="54"/>
       <c r="AH51" s="83"/>
     </row>
-    <row r="52" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:34" s="72" customFormat="1" ht="15" customHeight="1">
       <c r="A52" s="54"/>
       <c r="B52" s="54"/>
       <c r="C52" s="54"/>
@@ -6929,7 +6929,7 @@
       <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="4.83203125" defaultRowHeight="11.25"/>
   <cols>
     <col min="1" max="2" width="4.83203125" style="6" customWidth="1"/>
     <col min="3" max="3" width="4.83203125" style="7" customWidth="1"/>
@@ -6938,176 +6938,176 @@
     <col min="19" max="16384" width="4.83203125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="129" t="s">
+    <row r="1" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
+      <c r="A1" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="153" t="str">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="129" t="s">
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="189" t="str">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="190"/>
-      <c r="AI1" s="191"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="21"/>
     </row>
-    <row r="2" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="129" t="s">
+    <row r="2" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
+      <c r="A2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="129" t="s">
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="189" t="str">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="190"/>
-      <c r="AI2" s="191"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="192"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
     </row>
-    <row r="3" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="129" t="s">
+    <row r="3" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
+      <c r="A3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105" t="str">
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="189" t="str">
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="190"/>
-      <c r="AI3" s="191"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="192"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
     </row>
-    <row r="5" spans="1:61" s="23" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:61" s="23" customFormat="1">
       <c r="B5" s="23" t="s">
         <v>37</v>
       </c>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
     </row>
-    <row r="6" spans="1:61" ht="12" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:61" ht="12" customHeight="1">
       <c r="Q6" s="6"/>
       <c r="R6" s="6"/>
       <c r="V6" s="9"/>
@@ -7123,756 +7123,756 @@
       <c r="BH6" s="27"/>
       <c r="BI6" s="25"/>
     </row>
-    <row r="7" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="215" t="s">
+    <row r="7" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B7" s="216" t="s">
         <v>41</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="175"/>
-      <c r="E7" s="175"/>
-      <c r="F7" s="195" t="s">
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="195"/>
-      <c r="H7" s="195"/>
-      <c r="I7" s="195"/>
-      <c r="J7" s="195"/>
-      <c r="K7" s="195"/>
-      <c r="L7" s="195"/>
-      <c r="M7" s="182" t="s">
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="183"/>
-      <c r="O7" s="176" t="s">
+      <c r="N7" s="184"/>
+      <c r="O7" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="175" t="s">
+      <c r="P7" s="178"/>
+      <c r="Q7" s="178"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="175"/>
-      <c r="V7" s="182" t="s">
+      <c r="U7" s="176"/>
+      <c r="V7" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="186"/>
-      <c r="X7" s="186"/>
-      <c r="Y7" s="183"/>
-      <c r="Z7" s="175" t="s">
+      <c r="W7" s="187"/>
+      <c r="X7" s="187"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="175"/>
-      <c r="AB7" s="176" t="s">
+      <c r="AA7" s="176"/>
+      <c r="AB7" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="178"/>
-      <c r="AE7" s="205" t="s">
+      <c r="AC7" s="178"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="AF7" s="206"/>
-      <c r="AG7" s="206"/>
-      <c r="AH7" s="206"/>
-      <c r="AI7" s="206"/>
-      <c r="AJ7" s="206"/>
-      <c r="AK7" s="206"/>
-      <c r="AL7" s="206"/>
-      <c r="AM7" s="207"/>
-      <c r="AN7" s="175" t="s">
+      <c r="AF7" s="211"/>
+      <c r="AG7" s="211"/>
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="211"/>
+      <c r="AJ7" s="211"/>
+      <c r="AK7" s="211"/>
+      <c r="AL7" s="211"/>
+      <c r="AM7" s="210"/>
+      <c r="AN7" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="AO7" s="175"/>
-      <c r="AP7" s="175"/>
-      <c r="AQ7" s="175"/>
-      <c r="AR7" s="175"/>
-      <c r="AS7" s="175"/>
-      <c r="AT7" s="175" t="s">
+      <c r="AO7" s="176"/>
+      <c r="AP7" s="176"/>
+      <c r="AQ7" s="176"/>
+      <c r="AR7" s="176"/>
+      <c r="AS7" s="176"/>
+      <c r="AT7" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="AU7" s="175"/>
-      <c r="AV7" s="175"/>
-      <c r="AW7" s="175"/>
-      <c r="AX7" s="175" t="s">
+      <c r="AU7" s="176"/>
+      <c r="AV7" s="176"/>
+      <c r="AW7" s="176"/>
+      <c r="AX7" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="175"/>
-      <c r="AZ7" s="175"/>
-      <c r="BA7" s="175"/>
-      <c r="BB7" s="175"/>
-      <c r="BC7" s="175"/>
-      <c r="BD7" s="175"/>
-      <c r="BE7" s="175"/>
-      <c r="BF7" s="175"/>
+      <c r="AY7" s="176"/>
+      <c r="AZ7" s="176"/>
+      <c r="BA7" s="176"/>
+      <c r="BB7" s="176"/>
+      <c r="BC7" s="176"/>
+      <c r="BD7" s="176"/>
+      <c r="BE7" s="176"/>
+      <c r="BF7" s="176"/>
       <c r="BG7" s="26"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
     </row>
-    <row r="8" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B8" s="216"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="175"/>
-      <c r="F8" s="195"/>
-      <c r="G8" s="195"/>
-      <c r="H8" s="195"/>
-      <c r="I8" s="195"/>
-      <c r="J8" s="195"/>
-      <c r="K8" s="195"/>
-      <c r="L8" s="195"/>
-      <c r="M8" s="184"/>
-      <c r="N8" s="185"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="180"/>
-      <c r="R8" s="180"/>
-      <c r="S8" s="181"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="175"/>
-      <c r="V8" s="184"/>
-      <c r="W8" s="187"/>
-      <c r="X8" s="187"/>
-      <c r="Y8" s="185"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="175"/>
-      <c r="AB8" s="179"/>
-      <c r="AC8" s="180"/>
-      <c r="AD8" s="181"/>
-      <c r="AE8" s="205" t="s">
+    <row r="8" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
+      <c r="B8" s="217"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="180"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="182"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="185"/>
+      <c r="W8" s="188"/>
+      <c r="X8" s="188"/>
+      <c r="Y8" s="186"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="176"/>
+      <c r="AB8" s="180"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="182"/>
+      <c r="AE8" s="209" t="s">
         <v>40</v>
       </c>
-      <c r="AF8" s="206"/>
-      <c r="AG8" s="207"/>
-      <c r="AH8" s="175" t="s">
+      <c r="AF8" s="211"/>
+      <c r="AG8" s="210"/>
+      <c r="AH8" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="AI8" s="175"/>
-      <c r="AJ8" s="175"/>
-      <c r="AK8" s="175"/>
-      <c r="AL8" s="175"/>
-      <c r="AM8" s="175"/>
-      <c r="AN8" s="205" t="s">
+      <c r="AI8" s="176"/>
+      <c r="AJ8" s="176"/>
+      <c r="AK8" s="176"/>
+      <c r="AL8" s="176"/>
+      <c r="AM8" s="176"/>
+      <c r="AN8" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="AO8" s="207"/>
-      <c r="AP8" s="175" t="s">
+      <c r="AO8" s="210"/>
+      <c r="AP8" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="AQ8" s="175"/>
-      <c r="AR8" s="175"/>
-      <c r="AS8" s="175"/>
-      <c r="AT8" s="175"/>
-      <c r="AU8" s="175"/>
-      <c r="AV8" s="175"/>
-      <c r="AW8" s="175"/>
-      <c r="AX8" s="175"/>
-      <c r="AY8" s="175"/>
-      <c r="AZ8" s="175"/>
-      <c r="BA8" s="175"/>
-      <c r="BB8" s="175"/>
-      <c r="BC8" s="175"/>
-      <c r="BD8" s="175"/>
-      <c r="BE8" s="175"/>
-      <c r="BF8" s="175"/>
+      <c r="AQ8" s="176"/>
+      <c r="AR8" s="176"/>
+      <c r="AS8" s="176"/>
+      <c r="AT8" s="176"/>
+      <c r="AU8" s="176"/>
+      <c r="AV8" s="176"/>
+      <c r="AW8" s="176"/>
+      <c r="AX8" s="176"/>
+      <c r="AY8" s="176"/>
+      <c r="AZ8" s="176"/>
+      <c r="BA8" s="176"/>
+      <c r="BB8" s="176"/>
+      <c r="BC8" s="176"/>
+      <c r="BD8" s="176"/>
+      <c r="BE8" s="176"/>
+      <c r="BF8" s="176"/>
       <c r="BG8" s="26"/>
       <c r="BH8" s="26"/>
       <c r="BI8" s="26"/>
     </row>
-    <row r="9" spans="1:61" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="217"/>
-      <c r="C9" s="192"/>
-      <c r="D9" s="192"/>
-      <c r="E9" s="192"/>
-      <c r="F9" s="192"/>
-      <c r="G9" s="192"/>
-      <c r="H9" s="192"/>
-      <c r="I9" s="192"/>
-      <c r="J9" s="192"/>
-      <c r="K9" s="192"/>
-      <c r="L9" s="192"/>
-      <c r="M9" s="96"/>
-      <c r="N9" s="98"/>
-      <c r="O9" s="167"/>
-      <c r="P9" s="168"/>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="168"/>
-      <c r="S9" s="169"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="166"/>
-      <c r="V9" s="167"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="168"/>
-      <c r="Y9" s="169"/>
-      <c r="Z9" s="192"/>
-      <c r="AA9" s="192"/>
-      <c r="AB9" s="167"/>
-      <c r="AC9" s="168"/>
-      <c r="AD9" s="169"/>
-      <c r="AE9" s="196"/>
-      <c r="AF9" s="197"/>
-      <c r="AG9" s="198"/>
-      <c r="AH9" s="167"/>
-      <c r="AI9" s="168"/>
-      <c r="AJ9" s="168"/>
-      <c r="AK9" s="168"/>
-      <c r="AL9" s="168"/>
-      <c r="AM9" s="169"/>
-      <c r="AN9" s="199"/>
-      <c r="AO9" s="200"/>
-      <c r="AP9" s="201"/>
-      <c r="AQ9" s="201"/>
-      <c r="AR9" s="201"/>
-      <c r="AS9" s="201"/>
-      <c r="AT9" s="204"/>
-      <c r="AU9" s="204"/>
-      <c r="AV9" s="204"/>
-      <c r="AW9" s="204"/>
-      <c r="AX9" s="192"/>
-      <c r="AY9" s="192"/>
-      <c r="AZ9" s="192"/>
-      <c r="BA9" s="192"/>
-      <c r="BB9" s="192"/>
-      <c r="BC9" s="192"/>
-      <c r="BD9" s="192"/>
-      <c r="BE9" s="192"/>
-      <c r="BF9" s="192"/>
+    <row r="9" spans="1:61" ht="13.5" customHeight="1">
+      <c r="B9" s="87"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="170"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="168"/>
+      <c r="W9" s="169"/>
+      <c r="X9" s="169"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="168"/>
+      <c r="AC9" s="169"/>
+      <c r="AD9" s="170"/>
+      <c r="AE9" s="197"/>
+      <c r="AF9" s="198"/>
+      <c r="AG9" s="199"/>
+      <c r="AH9" s="168"/>
+      <c r="AI9" s="169"/>
+      <c r="AJ9" s="169"/>
+      <c r="AK9" s="169"/>
+      <c r="AL9" s="169"/>
+      <c r="AM9" s="170"/>
+      <c r="AN9" s="200"/>
+      <c r="AO9" s="201"/>
+      <c r="AP9" s="202"/>
+      <c r="AQ9" s="202"/>
+      <c r="AR9" s="202"/>
+      <c r="AS9" s="202"/>
+      <c r="AT9" s="205"/>
+      <c r="AU9" s="205"/>
+      <c r="AV9" s="205"/>
+      <c r="AW9" s="205"/>
+      <c r="AX9" s="193"/>
+      <c r="AY9" s="193"/>
+      <c r="AZ9" s="193"/>
+      <c r="BA9" s="193"/>
+      <c r="BB9" s="193"/>
+      <c r="BC9" s="193"/>
+      <c r="BD9" s="193"/>
+      <c r="BE9" s="193"/>
+      <c r="BF9" s="193"/>
       <c r="BG9" s="27"/>
       <c r="BH9" s="27"/>
       <c r="BI9" s="27"/>
     </row>
-    <row r="10" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B10" s="217"/>
-      <c r="C10" s="193"/>
-      <c r="D10" s="193"/>
-      <c r="E10" s="193"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="188"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="163"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="164"/>
-      <c r="S10" s="165"/>
-      <c r="T10" s="194"/>
-      <c r="U10" s="194"/>
-      <c r="V10" s="163"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="164"/>
-      <c r="Y10" s="165"/>
-      <c r="Z10" s="193"/>
-      <c r="AA10" s="193"/>
-      <c r="AB10" s="163"/>
-      <c r="AC10" s="164"/>
-      <c r="AD10" s="165"/>
-      <c r="AE10" s="211"/>
-      <c r="AF10" s="212"/>
-      <c r="AG10" s="213"/>
-      <c r="AH10" s="193"/>
-      <c r="AI10" s="193"/>
-      <c r="AJ10" s="193"/>
-      <c r="AK10" s="193"/>
-      <c r="AL10" s="193"/>
-      <c r="AM10" s="193"/>
-      <c r="AN10" s="199"/>
-      <c r="AO10" s="200"/>
-      <c r="AP10" s="202"/>
-      <c r="AQ10" s="202"/>
-      <c r="AR10" s="202"/>
-      <c r="AS10" s="202"/>
-      <c r="AT10" s="204"/>
-      <c r="AU10" s="204"/>
-      <c r="AV10" s="204"/>
-      <c r="AW10" s="204"/>
-      <c r="AX10" s="193"/>
-      <c r="AY10" s="193"/>
-      <c r="AZ10" s="193"/>
-      <c r="BA10" s="193"/>
-      <c r="BB10" s="193"/>
-      <c r="BC10" s="193"/>
-      <c r="BD10" s="193"/>
-      <c r="BE10" s="193"/>
-      <c r="BF10" s="193"/>
-    </row>
-    <row r="11" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B11" s="217"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="188"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="170"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="171"/>
-      <c r="S11" s="172"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="162"/>
-      <c r="V11" s="170"/>
-      <c r="W11" s="171"/>
-      <c r="X11" s="171"/>
-      <c r="Y11" s="172"/>
-      <c r="Z11" s="188"/>
-      <c r="AA11" s="188"/>
-      <c r="AB11" s="170"/>
-      <c r="AC11" s="171"/>
-      <c r="AD11" s="172"/>
-      <c r="AE11" s="208"/>
-      <c r="AF11" s="209"/>
-      <c r="AG11" s="210"/>
-      <c r="AH11" s="188"/>
-      <c r="AI11" s="188"/>
-      <c r="AJ11" s="188"/>
-      <c r="AK11" s="188"/>
-      <c r="AL11" s="188"/>
-      <c r="AM11" s="188"/>
-      <c r="AN11" s="199"/>
-      <c r="AO11" s="200"/>
-      <c r="AP11" s="203"/>
-      <c r="AQ11" s="203"/>
-      <c r="AR11" s="203"/>
-      <c r="AS11" s="203"/>
-      <c r="AT11" s="204"/>
-      <c r="AU11" s="204"/>
-      <c r="AV11" s="204"/>
-      <c r="AW11" s="204"/>
-      <c r="AX11" s="188"/>
-      <c r="AY11" s="188"/>
-      <c r="AZ11" s="188"/>
-      <c r="BA11" s="188"/>
-      <c r="BB11" s="188"/>
-      <c r="BC11" s="188"/>
-      <c r="BD11" s="188"/>
-      <c r="BE11" s="188"/>
-      <c r="BF11" s="188"/>
-    </row>
-    <row r="12" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="B12" s="217"/>
-      <c r="C12" s="192"/>
-      <c r="D12" s="192"/>
-      <c r="E12" s="192"/>
-      <c r="F12" s="192"/>
-      <c r="G12" s="192"/>
-      <c r="H12" s="192"/>
-      <c r="I12" s="192"/>
-      <c r="J12" s="192"/>
-      <c r="K12" s="192"/>
-      <c r="L12" s="192"/>
-      <c r="M12" s="96"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="167"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="168"/>
-      <c r="S12" s="169"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="166"/>
-      <c r="V12" s="170"/>
-      <c r="W12" s="171"/>
-      <c r="X12" s="171"/>
-      <c r="Y12" s="172"/>
-      <c r="Z12" s="192"/>
-      <c r="AA12" s="192"/>
-      <c r="AB12" s="167"/>
-      <c r="AC12" s="168"/>
-      <c r="AD12" s="169"/>
-      <c r="AE12" s="196"/>
-      <c r="AF12" s="197"/>
-      <c r="AG12" s="198"/>
-      <c r="AH12" s="167"/>
-      <c r="AI12" s="168"/>
-      <c r="AJ12" s="168"/>
-      <c r="AK12" s="168"/>
-      <c r="AL12" s="168"/>
-      <c r="AM12" s="169"/>
-      <c r="AN12" s="199"/>
-      <c r="AO12" s="200"/>
-      <c r="AP12" s="201"/>
-      <c r="AQ12" s="201"/>
-      <c r="AR12" s="201"/>
-      <c r="AS12" s="201"/>
-      <c r="AT12" s="204"/>
-      <c r="AU12" s="204"/>
-      <c r="AV12" s="204"/>
-      <c r="AW12" s="204"/>
-      <c r="AX12" s="192"/>
-      <c r="AY12" s="192"/>
-      <c r="AZ12" s="192"/>
-      <c r="BA12" s="192"/>
-      <c r="BB12" s="192"/>
-      <c r="BC12" s="192"/>
-      <c r="BD12" s="192"/>
-      <c r="BE12" s="192"/>
-      <c r="BF12" s="192"/>
-    </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.15">
-      <c r="B13" s="217"/>
-      <c r="C13" s="192"/>
-      <c r="D13" s="192"/>
-      <c r="E13" s="192"/>
-      <c r="F13" s="192"/>
-      <c r="G13" s="192"/>
-      <c r="H13" s="192"/>
-      <c r="I13" s="192"/>
-      <c r="J13" s="192"/>
-      <c r="K13" s="192"/>
-      <c r="L13" s="192"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="167"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="168"/>
-      <c r="S13" s="169"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="166"/>
-      <c r="V13" s="167"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="169"/>
-      <c r="Z13" s="192"/>
-      <c r="AA13" s="192"/>
-      <c r="AB13" s="167"/>
-      <c r="AC13" s="168"/>
-      <c r="AD13" s="169"/>
-      <c r="AE13" s="196"/>
-      <c r="AF13" s="197"/>
-      <c r="AG13" s="198"/>
-      <c r="AH13" s="192"/>
-      <c r="AI13" s="192"/>
-      <c r="AJ13" s="192"/>
-      <c r="AK13" s="192"/>
-      <c r="AL13" s="192"/>
-      <c r="AM13" s="192"/>
-      <c r="AN13" s="199"/>
-      <c r="AO13" s="200"/>
-      <c r="AP13" s="201"/>
-      <c r="AQ13" s="201"/>
-      <c r="AR13" s="201"/>
-      <c r="AS13" s="201"/>
-      <c r="AT13" s="204"/>
-      <c r="AU13" s="204"/>
-      <c r="AV13" s="204"/>
-      <c r="AW13" s="204"/>
-      <c r="AX13" s="192"/>
-      <c r="AY13" s="192"/>
-      <c r="AZ13" s="192"/>
-      <c r="BA13" s="192"/>
-      <c r="BB13" s="192"/>
-      <c r="BC13" s="192"/>
-      <c r="BD13" s="192"/>
-      <c r="BE13" s="192"/>
-      <c r="BF13" s="192"/>
-    </row>
-    <row r="14" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B14" s="217"/>
-      <c r="C14" s="192"/>
-      <c r="D14" s="192"/>
-      <c r="E14" s="192"/>
-      <c r="F14" s="192"/>
-      <c r="G14" s="192"/>
-      <c r="H14" s="192"/>
-      <c r="I14" s="192"/>
-      <c r="J14" s="192"/>
-      <c r="K14" s="192"/>
-      <c r="L14" s="192"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="167"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="168"/>
-      <c r="S14" s="169"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="166"/>
-      <c r="V14" s="167"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="168"/>
-      <c r="Y14" s="169"/>
-      <c r="Z14" s="192"/>
-      <c r="AA14" s="192"/>
-      <c r="AB14" s="167"/>
-      <c r="AC14" s="168"/>
-      <c r="AD14" s="169"/>
-      <c r="AE14" s="196"/>
-      <c r="AF14" s="197"/>
-      <c r="AG14" s="198"/>
-      <c r="AH14" s="192"/>
-      <c r="AI14" s="192"/>
-      <c r="AJ14" s="192"/>
-      <c r="AK14" s="192"/>
-      <c r="AL14" s="192"/>
-      <c r="AM14" s="192"/>
-      <c r="AN14" s="199"/>
-      <c r="AO14" s="200"/>
-      <c r="AP14" s="201"/>
-      <c r="AQ14" s="201"/>
-      <c r="AR14" s="201"/>
-      <c r="AS14" s="201"/>
-      <c r="AT14" s="204"/>
-      <c r="AU14" s="204"/>
-      <c r="AV14" s="204"/>
-      <c r="AW14" s="204"/>
-      <c r="AX14" s="192"/>
-      <c r="AY14" s="192"/>
-      <c r="AZ14" s="192"/>
-      <c r="BA14" s="192"/>
-      <c r="BB14" s="192"/>
-      <c r="BC14" s="192"/>
-      <c r="BD14" s="192"/>
-      <c r="BE14" s="192"/>
-      <c r="BF14" s="192"/>
-    </row>
-    <row r="15" spans="1:61" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="217"/>
-      <c r="C15" s="192"/>
-      <c r="D15" s="192"/>
-      <c r="E15" s="192"/>
-      <c r="F15" s="192"/>
-      <c r="G15" s="192"/>
-      <c r="H15" s="192"/>
-      <c r="I15" s="192"/>
-      <c r="J15" s="192"/>
-      <c r="K15" s="192"/>
-      <c r="L15" s="192"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="167"/>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="168"/>
-      <c r="R15" s="168"/>
-      <c r="S15" s="169"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="166"/>
-      <c r="V15" s="167"/>
-      <c r="W15" s="168"/>
-      <c r="X15" s="168"/>
-      <c r="Y15" s="169"/>
-      <c r="Z15" s="192"/>
-      <c r="AA15" s="192"/>
-      <c r="AB15" s="167"/>
-      <c r="AC15" s="168"/>
-      <c r="AD15" s="169"/>
-      <c r="AE15" s="196"/>
-      <c r="AF15" s="197"/>
-      <c r="AG15" s="198"/>
-      <c r="AH15" s="192"/>
-      <c r="AI15" s="192"/>
-      <c r="AJ15" s="192"/>
-      <c r="AK15" s="192"/>
-      <c r="AL15" s="192"/>
-      <c r="AM15" s="192"/>
-      <c r="AN15" s="199"/>
-      <c r="AO15" s="200"/>
-      <c r="AP15" s="201"/>
-      <c r="AQ15" s="201"/>
-      <c r="AR15" s="201"/>
-      <c r="AS15" s="201"/>
-      <c r="AT15" s="204"/>
-      <c r="AU15" s="204"/>
-      <c r="AV15" s="204"/>
-      <c r="AW15" s="204"/>
-      <c r="AX15" s="192"/>
-      <c r="AY15" s="192"/>
-      <c r="AZ15" s="192"/>
-      <c r="BA15" s="192"/>
-      <c r="BB15" s="192"/>
-      <c r="BC15" s="192"/>
-      <c r="BD15" s="192"/>
-      <c r="BE15" s="192"/>
-      <c r="BF15" s="192"/>
-    </row>
-    <row r="16" spans="1:61" s="29" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="B16" s="217"/>
-      <c r="C16" s="192"/>
-      <c r="D16" s="192"/>
-      <c r="E16" s="192"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="188"/>
-      <c r="M16" s="96"/>
-      <c r="N16" s="98"/>
-      <c r="O16" s="170"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="171"/>
-      <c r="S16" s="172"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="162"/>
-      <c r="V16" s="170"/>
-      <c r="W16" s="171"/>
-      <c r="X16" s="171"/>
-      <c r="Y16" s="172"/>
-      <c r="Z16" s="188"/>
-      <c r="AA16" s="188"/>
-      <c r="AB16" s="170"/>
-      <c r="AC16" s="171"/>
-      <c r="AD16" s="172"/>
-      <c r="AE16" s="196"/>
-      <c r="AF16" s="197"/>
-      <c r="AG16" s="198"/>
-      <c r="AH16" s="188"/>
-      <c r="AI16" s="188"/>
-      <c r="AJ16" s="188"/>
-      <c r="AK16" s="188"/>
-      <c r="AL16" s="188"/>
-      <c r="AM16" s="188"/>
-      <c r="AN16" s="199"/>
-      <c r="AO16" s="200"/>
-      <c r="AP16" s="201"/>
-      <c r="AQ16" s="201"/>
-      <c r="AR16" s="201"/>
-      <c r="AS16" s="201"/>
-      <c r="AT16" s="204"/>
-      <c r="AU16" s="204"/>
-      <c r="AV16" s="204"/>
-      <c r="AW16" s="204"/>
-      <c r="AX16" s="188"/>
-      <c r="AY16" s="188"/>
-      <c r="AZ16" s="188"/>
-      <c r="BA16" s="188"/>
-      <c r="BB16" s="188"/>
-      <c r="BC16" s="188"/>
-      <c r="BD16" s="188"/>
-      <c r="BE16" s="188"/>
-      <c r="BF16" s="188"/>
-    </row>
-    <row r="17" spans="2:58" ht="11.25" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="B17" s="217"/>
-      <c r="C17" s="167"/>
-      <c r="D17" s="168"/>
-      <c r="E17" s="169"/>
-      <c r="F17" s="167"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="168"/>
-      <c r="L17" s="169"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="167"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="168"/>
-      <c r="R17" s="168"/>
-      <c r="S17" s="169"/>
-      <c r="T17" s="173"/>
-      <c r="U17" s="174"/>
-      <c r="V17" s="167"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="168"/>
-      <c r="Y17" s="169"/>
-      <c r="Z17" s="167"/>
-      <c r="AA17" s="169"/>
-      <c r="AB17" s="167"/>
-      <c r="AC17" s="168"/>
-      <c r="AD17" s="169"/>
-      <c r="AE17" s="196"/>
-      <c r="AF17" s="197"/>
-      <c r="AG17" s="198"/>
-      <c r="AH17" s="167"/>
-      <c r="AI17" s="168"/>
-      <c r="AJ17" s="168"/>
-      <c r="AK17" s="168"/>
-      <c r="AL17" s="168"/>
-      <c r="AM17" s="169"/>
-      <c r="AN17" s="199"/>
-      <c r="AO17" s="200"/>
-      <c r="AP17" s="199"/>
-      <c r="AQ17" s="214"/>
-      <c r="AR17" s="214"/>
-      <c r="AS17" s="200"/>
-      <c r="AT17" s="204"/>
-      <c r="AU17" s="204"/>
-      <c r="AV17" s="204"/>
-      <c r="AW17" s="204"/>
-      <c r="AX17" s="167"/>
-      <c r="AY17" s="168"/>
-      <c r="AZ17" s="168"/>
-      <c r="BA17" s="168"/>
-      <c r="BB17" s="168"/>
-      <c r="BC17" s="168"/>
-      <c r="BD17" s="168"/>
-      <c r="BE17" s="168"/>
-      <c r="BF17" s="169"/>
-    </row>
-    <row r="18" spans="2:58" x14ac:dyDescent="0.15">
-      <c r="B18" s="217"/>
-      <c r="C18" s="192"/>
-      <c r="D18" s="192"/>
-      <c r="E18" s="192"/>
-      <c r="F18" s="192"/>
-      <c r="G18" s="192"/>
-      <c r="H18" s="192"/>
-      <c r="I18" s="192"/>
-      <c r="J18" s="192"/>
-      <c r="K18" s="192"/>
-      <c r="L18" s="192"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="167"/>
-      <c r="P18" s="168"/>
-      <c r="Q18" s="168"/>
-      <c r="R18" s="168"/>
-      <c r="S18" s="169"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="166"/>
-      <c r="V18" s="167"/>
-      <c r="W18" s="168"/>
-      <c r="X18" s="168"/>
-      <c r="Y18" s="169"/>
-      <c r="Z18" s="192"/>
-      <c r="AA18" s="192"/>
-      <c r="AB18" s="167"/>
-      <c r="AC18" s="168"/>
-      <c r="AD18" s="169"/>
-      <c r="AE18" s="196"/>
-      <c r="AF18" s="197"/>
-      <c r="AG18" s="198"/>
-      <c r="AH18" s="192"/>
-      <c r="AI18" s="192"/>
-      <c r="AJ18" s="192"/>
-      <c r="AK18" s="192"/>
-      <c r="AL18" s="192"/>
-      <c r="AM18" s="192"/>
-      <c r="AN18" s="199"/>
-      <c r="AO18" s="200"/>
-      <c r="AP18" s="201"/>
-      <c r="AQ18" s="201"/>
-      <c r="AR18" s="201"/>
-      <c r="AS18" s="201"/>
-      <c r="AT18" s="204"/>
-      <c r="AU18" s="204"/>
-      <c r="AV18" s="204"/>
-      <c r="AW18" s="204"/>
-      <c r="AX18" s="192"/>
-      <c r="AY18" s="192"/>
-      <c r="AZ18" s="192"/>
-      <c r="BA18" s="192"/>
-      <c r="BB18" s="192"/>
-      <c r="BC18" s="192"/>
-      <c r="BD18" s="192"/>
-      <c r="BE18" s="192"/>
-      <c r="BF18" s="192"/>
+    <row r="10" spans="1:61" ht="11.25" customHeight="1">
+      <c r="B10" s="87"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="166"/>
+      <c r="T10" s="195"/>
+      <c r="U10" s="195"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="164"/>
+      <c r="AC10" s="165"/>
+      <c r="AD10" s="166"/>
+      <c r="AE10" s="213"/>
+      <c r="AF10" s="214"/>
+      <c r="AG10" s="215"/>
+      <c r="AH10" s="194"/>
+      <c r="AI10" s="194"/>
+      <c r="AJ10" s="194"/>
+      <c r="AK10" s="194"/>
+      <c r="AL10" s="194"/>
+      <c r="AM10" s="194"/>
+      <c r="AN10" s="200"/>
+      <c r="AO10" s="201"/>
+      <c r="AP10" s="203"/>
+      <c r="AQ10" s="203"/>
+      <c r="AR10" s="203"/>
+      <c r="AS10" s="203"/>
+      <c r="AT10" s="205"/>
+      <c r="AU10" s="205"/>
+      <c r="AV10" s="205"/>
+      <c r="AW10" s="205"/>
+      <c r="AX10" s="194"/>
+      <c r="AY10" s="194"/>
+      <c r="AZ10" s="194"/>
+      <c r="BA10" s="194"/>
+      <c r="BB10" s="194"/>
+      <c r="BC10" s="194"/>
+      <c r="BD10" s="194"/>
+      <c r="BE10" s="194"/>
+      <c r="BF10" s="194"/>
+    </row>
+    <row r="11" spans="1:61" ht="11.25" customHeight="1">
+      <c r="B11" s="87"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="189"/>
+      <c r="AA11" s="189"/>
+      <c r="AB11" s="171"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="206"/>
+      <c r="AF11" s="207"/>
+      <c r="AG11" s="208"/>
+      <c r="AH11" s="189"/>
+      <c r="AI11" s="189"/>
+      <c r="AJ11" s="189"/>
+      <c r="AK11" s="189"/>
+      <c r="AL11" s="189"/>
+      <c r="AM11" s="189"/>
+      <c r="AN11" s="200"/>
+      <c r="AO11" s="201"/>
+      <c r="AP11" s="204"/>
+      <c r="AQ11" s="204"/>
+      <c r="AR11" s="204"/>
+      <c r="AS11" s="204"/>
+      <c r="AT11" s="205"/>
+      <c r="AU11" s="205"/>
+      <c r="AV11" s="205"/>
+      <c r="AW11" s="205"/>
+      <c r="AX11" s="189"/>
+      <c r="AY11" s="189"/>
+      <c r="AZ11" s="189"/>
+      <c r="BA11" s="189"/>
+      <c r="BB11" s="189"/>
+      <c r="BC11" s="189"/>
+      <c r="BD11" s="189"/>
+      <c r="BE11" s="189"/>
+      <c r="BF11" s="189"/>
+    </row>
+    <row r="12" spans="1:61">
+      <c r="B12" s="87"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="193"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="167"/>
+      <c r="U12" s="167"/>
+      <c r="V12" s="171"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="172"/>
+      <c r="Y12" s="173"/>
+      <c r="Z12" s="193"/>
+      <c r="AA12" s="193"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="169"/>
+      <c r="AD12" s="170"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="198"/>
+      <c r="AG12" s="199"/>
+      <c r="AH12" s="168"/>
+      <c r="AI12" s="169"/>
+      <c r="AJ12" s="169"/>
+      <c r="AK12" s="169"/>
+      <c r="AL12" s="169"/>
+      <c r="AM12" s="170"/>
+      <c r="AN12" s="200"/>
+      <c r="AO12" s="201"/>
+      <c r="AP12" s="202"/>
+      <c r="AQ12" s="202"/>
+      <c r="AR12" s="202"/>
+      <c r="AS12" s="202"/>
+      <c r="AT12" s="205"/>
+      <c r="AU12" s="205"/>
+      <c r="AV12" s="205"/>
+      <c r="AW12" s="205"/>
+      <c r="AX12" s="193"/>
+      <c r="AY12" s="193"/>
+      <c r="AZ12" s="193"/>
+      <c r="BA12" s="193"/>
+      <c r="BB12" s="193"/>
+      <c r="BC12" s="193"/>
+      <c r="BD12" s="193"/>
+      <c r="BE12" s="193"/>
+      <c r="BF12" s="193"/>
+    </row>
+    <row r="13" spans="1:61">
+      <c r="B13" s="87"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="167"/>
+      <c r="U13" s="167"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="169"/>
+      <c r="X13" s="169"/>
+      <c r="Y13" s="170"/>
+      <c r="Z13" s="193"/>
+      <c r="AA13" s="193"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="169"/>
+      <c r="AD13" s="170"/>
+      <c r="AE13" s="197"/>
+      <c r="AF13" s="198"/>
+      <c r="AG13" s="199"/>
+      <c r="AH13" s="193"/>
+      <c r="AI13" s="193"/>
+      <c r="AJ13" s="193"/>
+      <c r="AK13" s="193"/>
+      <c r="AL13" s="193"/>
+      <c r="AM13" s="193"/>
+      <c r="AN13" s="200"/>
+      <c r="AO13" s="201"/>
+      <c r="AP13" s="202"/>
+      <c r="AQ13" s="202"/>
+      <c r="AR13" s="202"/>
+      <c r="AS13" s="202"/>
+      <c r="AT13" s="205"/>
+      <c r="AU13" s="205"/>
+      <c r="AV13" s="205"/>
+      <c r="AW13" s="205"/>
+      <c r="AX13" s="193"/>
+      <c r="AY13" s="193"/>
+      <c r="AZ13" s="193"/>
+      <c r="BA13" s="193"/>
+      <c r="BB13" s="193"/>
+      <c r="BC13" s="193"/>
+      <c r="BD13" s="193"/>
+      <c r="BE13" s="193"/>
+      <c r="BF13" s="193"/>
+    </row>
+    <row r="14" spans="1:61" ht="11.25" customHeight="1">
+      <c r="B14" s="87"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="167"/>
+      <c r="U14" s="167"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="169"/>
+      <c r="X14" s="169"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="193"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="169"/>
+      <c r="AD14" s="170"/>
+      <c r="AE14" s="197"/>
+      <c r="AF14" s="198"/>
+      <c r="AG14" s="199"/>
+      <c r="AH14" s="193"/>
+      <c r="AI14" s="193"/>
+      <c r="AJ14" s="193"/>
+      <c r="AK14" s="193"/>
+      <c r="AL14" s="193"/>
+      <c r="AM14" s="193"/>
+      <c r="AN14" s="200"/>
+      <c r="AO14" s="201"/>
+      <c r="AP14" s="202"/>
+      <c r="AQ14" s="202"/>
+      <c r="AR14" s="202"/>
+      <c r="AS14" s="202"/>
+      <c r="AT14" s="205"/>
+      <c r="AU14" s="205"/>
+      <c r="AV14" s="205"/>
+      <c r="AW14" s="205"/>
+      <c r="AX14" s="193"/>
+      <c r="AY14" s="193"/>
+      <c r="AZ14" s="193"/>
+      <c r="BA14" s="193"/>
+      <c r="BB14" s="193"/>
+      <c r="BC14" s="193"/>
+      <c r="BD14" s="193"/>
+      <c r="BE14" s="193"/>
+      <c r="BF14" s="193"/>
+    </row>
+    <row r="15" spans="1:61" ht="11.25" customHeight="1">
+      <c r="B15" s="87"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="169"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="169"/>
+      <c r="S15" s="170"/>
+      <c r="T15" s="167"/>
+      <c r="U15" s="167"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="169"/>
+      <c r="X15" s="169"/>
+      <c r="Y15" s="170"/>
+      <c r="Z15" s="193"/>
+      <c r="AA15" s="193"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="169"/>
+      <c r="AD15" s="170"/>
+      <c r="AE15" s="197"/>
+      <c r="AF15" s="198"/>
+      <c r="AG15" s="199"/>
+      <c r="AH15" s="193"/>
+      <c r="AI15" s="193"/>
+      <c r="AJ15" s="193"/>
+      <c r="AK15" s="193"/>
+      <c r="AL15" s="193"/>
+      <c r="AM15" s="193"/>
+      <c r="AN15" s="200"/>
+      <c r="AO15" s="201"/>
+      <c r="AP15" s="202"/>
+      <c r="AQ15" s="202"/>
+      <c r="AR15" s="202"/>
+      <c r="AS15" s="202"/>
+      <c r="AT15" s="205"/>
+      <c r="AU15" s="205"/>
+      <c r="AV15" s="205"/>
+      <c r="AW15" s="205"/>
+      <c r="AX15" s="193"/>
+      <c r="AY15" s="193"/>
+      <c r="AZ15" s="193"/>
+      <c r="BA15" s="193"/>
+      <c r="BB15" s="193"/>
+      <c r="BC15" s="193"/>
+      <c r="BD15" s="193"/>
+      <c r="BE15" s="193"/>
+      <c r="BF15" s="193"/>
+    </row>
+    <row r="16" spans="1:61" s="29" customFormat="1">
+      <c r="B16" s="87"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="172"/>
+      <c r="R16" s="172"/>
+      <c r="S16" s="173"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="163"/>
+      <c r="V16" s="171"/>
+      <c r="W16" s="172"/>
+      <c r="X16" s="172"/>
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="189"/>
+      <c r="AA16" s="189"/>
+      <c r="AB16" s="171"/>
+      <c r="AC16" s="172"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="198"/>
+      <c r="AG16" s="199"/>
+      <c r="AH16" s="189"/>
+      <c r="AI16" s="189"/>
+      <c r="AJ16" s="189"/>
+      <c r="AK16" s="189"/>
+      <c r="AL16" s="189"/>
+      <c r="AM16" s="189"/>
+      <c r="AN16" s="200"/>
+      <c r="AO16" s="201"/>
+      <c r="AP16" s="202"/>
+      <c r="AQ16" s="202"/>
+      <c r="AR16" s="202"/>
+      <c r="AS16" s="202"/>
+      <c r="AT16" s="205"/>
+      <c r="AU16" s="205"/>
+      <c r="AV16" s="205"/>
+      <c r="AW16" s="205"/>
+      <c r="AX16" s="189"/>
+      <c r="AY16" s="189"/>
+      <c r="AZ16" s="189"/>
+      <c r="BA16" s="189"/>
+      <c r="BB16" s="189"/>
+      <c r="BC16" s="189"/>
+      <c r="BD16" s="189"/>
+      <c r="BE16" s="189"/>
+      <c r="BF16" s="189"/>
+    </row>
+    <row r="17" spans="2:58" ht="11.25" customHeight="1">
+      <c r="B17" s="87"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="170"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="169"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="174"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="169"/>
+      <c r="X17" s="169"/>
+      <c r="Y17" s="170"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="170"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="169"/>
+      <c r="AD17" s="170"/>
+      <c r="AE17" s="197"/>
+      <c r="AF17" s="198"/>
+      <c r="AG17" s="199"/>
+      <c r="AH17" s="168"/>
+      <c r="AI17" s="169"/>
+      <c r="AJ17" s="169"/>
+      <c r="AK17" s="169"/>
+      <c r="AL17" s="169"/>
+      <c r="AM17" s="170"/>
+      <c r="AN17" s="200"/>
+      <c r="AO17" s="201"/>
+      <c r="AP17" s="200"/>
+      <c r="AQ17" s="212"/>
+      <c r="AR17" s="212"/>
+      <c r="AS17" s="201"/>
+      <c r="AT17" s="205"/>
+      <c r="AU17" s="205"/>
+      <c r="AV17" s="205"/>
+      <c r="AW17" s="205"/>
+      <c r="AX17" s="168"/>
+      <c r="AY17" s="169"/>
+      <c r="AZ17" s="169"/>
+      <c r="BA17" s="169"/>
+      <c r="BB17" s="169"/>
+      <c r="BC17" s="169"/>
+      <c r="BD17" s="169"/>
+      <c r="BE17" s="169"/>
+      <c r="BF17" s="170"/>
+    </row>
+    <row r="18" spans="2:58">
+      <c r="B18" s="87"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="193"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="169"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="169"/>
+      <c r="S18" s="170"/>
+      <c r="T18" s="167"/>
+      <c r="U18" s="167"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="169"/>
+      <c r="X18" s="169"/>
+      <c r="Y18" s="170"/>
+      <c r="Z18" s="193"/>
+      <c r="AA18" s="193"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="169"/>
+      <c r="AD18" s="170"/>
+      <c r="AE18" s="197"/>
+      <c r="AF18" s="198"/>
+      <c r="AG18" s="199"/>
+      <c r="AH18" s="193"/>
+      <c r="AI18" s="193"/>
+      <c r="AJ18" s="193"/>
+      <c r="AK18" s="193"/>
+      <c r="AL18" s="193"/>
+      <c r="AM18" s="193"/>
+      <c r="AN18" s="200"/>
+      <c r="AO18" s="201"/>
+      <c r="AP18" s="202"/>
+      <c r="AQ18" s="202"/>
+      <c r="AR18" s="202"/>
+      <c r="AS18" s="202"/>
+      <c r="AT18" s="205"/>
+      <c r="AU18" s="205"/>
+      <c r="AV18" s="205"/>
+      <c r="AW18" s="205"/>
+      <c r="AX18" s="193"/>
+      <c r="AY18" s="193"/>
+      <c r="AZ18" s="193"/>
+      <c r="BA18" s="193"/>
+      <c r="BB18" s="193"/>
+      <c r="BC18" s="193"/>
+      <c r="BD18" s="193"/>
+      <c r="BE18" s="193"/>
+      <c r="BF18" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="174">

--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
@@ -47,6 +47,21 @@
         </r>
       </text>
     </comment>
+    <comment ref="T7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ 明朝"/>
+            <family val="1"/>
+            <charset val="128"/>
+          </rPr>
+          <t>インタフェースを授受媒体を記載する。
+※「JSON、XML」の場合、「-」と記載する。</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="V7" authorId="0">
       <text>
         <r>
@@ -58,7 +73,7 @@
             <charset val="128"/>
           </rPr>
           <t>伝送の場合は伝送方式、その他の場合は媒体送付方法を記載する。
-例1)伝送ファイルの場合、「FTP」または「HULFT」
+例1)伝送の場合、「FTP」または「HULFT」
 例2)MT/FD/MOの場合、「オフラインMTサーバ」</t>
         </r>
       </text>
@@ -106,9 +121,9 @@
             <charset val="128"/>
           </rPr>
           <t>インタフェースのレコード長を記載する。
-  ・固定長の場合、バイト数
-  ・可変長の場合、最大バイト数
-※JSON、XML形式の場合は「-」と記載する。</t>
+  ・「固定長」の場合、バイト数
+  ・「可変長」の場合、最大バイト数
+ ※ 「JSON、XML形式」の場合、「-」と記載する。</t>
         </r>
       </text>
     </comment>
@@ -124,8 +139,8 @@
           </rPr>
           <t>インタフェースのピーク時件数を記載する。
 データレコードの行数を記載する。
-　※固定長ファイル等改行のないインタフェースの場合は、レコード長で区切った場合の件数を記載する。
-　※JSON、XMLファイルの場合は行数ではなく、論理的なデータ件数を記載する。</t>
+　※「固定長」など改行のないインタフェースの場合、レコード長で区切った場合の件数を記載する。
+　※「JSON、XML」の場合、行数ではなく論理的なデータ件数を記載する。</t>
         </r>
       </text>
     </comment>
@@ -419,11 +434,11 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>サイクル</t>
+    <t>No.</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>No.</t>
+    <t>サイクル</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -435,7 +450,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -723,6 +738,13 @@
       <sz val="10"/>
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
       <charset val="128"/>
     </font>
   </fonts>
@@ -1589,6 +1611,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1607,15 +1746,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1643,114 +1773,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1778,66 +1800,153 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1855,93 +1964,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -3563,53 +3585,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="133" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="130" t="s">
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="106" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="109" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="100" t="str">
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="139" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="102"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="141"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
@@ -3617,51 +3639,51 @@
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="130" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="103" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="142" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="100" t="str">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="139" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="141"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
@@ -3669,43 +3691,43 @@
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="102"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141"/>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -3742,100 +3764,100 @@
       <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="121" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="121" t="s">
+      <c r="E7" s="108"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="121" t="s">
+      <c r="H7" s="108"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="121" t="s">
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="121" t="s">
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="122"/>
+      <c r="AG7" s="108"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="107"/>
     </row>
     <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="85"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="114"/>
-      <c r="AF8" s="109"/>
-      <c r="AG8" s="110"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="111"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="147"/>
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="86"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="94"/>
       <c r="K9" s="95"/>
       <c r="L9" s="95"/>
@@ -3866,14 +3888,14 @@
     </row>
     <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="86"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="94"/>
       <c r="K10" s="95"/>
       <c r="L10" s="95"/>
@@ -3903,14 +3925,14 @@
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="86"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="120"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="94"/>
       <c r="K11" s="95"/>
       <c r="L11" s="95"/>
@@ -3940,14 +3962,14 @@
     </row>
     <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="86"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="94"/>
       <c r="K12" s="95"/>
       <c r="L12" s="95"/>
@@ -3977,14 +3999,14 @@
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="86"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="120"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="101"/>
       <c r="J13" s="94"/>
       <c r="K13" s="95"/>
       <c r="L13" s="95"/>
@@ -4014,14 +4036,14 @@
     </row>
     <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="86"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="101"/>
       <c r="J14" s="94"/>
       <c r="K14" s="95"/>
       <c r="L14" s="95"/>
@@ -4051,14 +4073,14 @@
     </row>
     <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="86"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="101"/>
       <c r="J15" s="94"/>
       <c r="K15" s="95"/>
       <c r="L15" s="95"/>
@@ -4088,14 +4110,14 @@
     </row>
     <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="86"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="101"/>
       <c r="J16" s="94"/>
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
@@ -4125,14 +4147,14 @@
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="86"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="120"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="101"/>
       <c r="J17" s="94"/>
       <c r="K17" s="95"/>
       <c r="L17" s="95"/>
@@ -4162,14 +4184,14 @@
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="86"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="101"/>
       <c r="J18" s="94"/>
       <c r="K18" s="95"/>
       <c r="L18" s="95"/>
@@ -4199,14 +4221,14 @@
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="86"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="101"/>
       <c r="J19" s="94"/>
       <c r="K19" s="95"/>
       <c r="L19" s="95"/>
@@ -4236,14 +4258,14 @@
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="86"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="101"/>
       <c r="J20" s="94"/>
       <c r="K20" s="95"/>
       <c r="L20" s="95"/>
@@ -4273,14 +4295,14 @@
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="86"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="101"/>
       <c r="J21" s="94"/>
       <c r="K21" s="95"/>
       <c r="L21" s="95"/>
@@ -4310,14 +4332,14 @@
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="86"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="101"/>
       <c r="J22" s="94"/>
       <c r="K22" s="95"/>
       <c r="L22" s="95"/>
@@ -4347,14 +4369,14 @@
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="86"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="120"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="101"/>
       <c r="J23" s="94"/>
       <c r="K23" s="95"/>
       <c r="L23" s="95"/>
@@ -4384,14 +4406,14 @@
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="86"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="120"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="101"/>
       <c r="J24" s="94"/>
       <c r="K24" s="95"/>
       <c r="L24" s="95"/>
@@ -4421,14 +4443,14 @@
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="86"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="120"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="101"/>
       <c r="J25" s="94"/>
       <c r="K25" s="95"/>
       <c r="L25" s="95"/>
@@ -4458,14 +4480,14 @@
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="86"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="101"/>
       <c r="J26" s="94"/>
       <c r="K26" s="95"/>
       <c r="L26" s="95"/>
@@ -4495,14 +4517,14 @@
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="86"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="120"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="101"/>
       <c r="J27" s="94"/>
       <c r="K27" s="95"/>
       <c r="L27" s="95"/>
@@ -4532,14 +4554,14 @@
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="86"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="120"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="101"/>
       <c r="J28" s="94"/>
       <c r="K28" s="95"/>
       <c r="L28" s="95"/>
@@ -4569,14 +4591,14 @@
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="86"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="101"/>
       <c r="J29" s="94"/>
       <c r="K29" s="95"/>
       <c r="L29" s="95"/>
@@ -4606,14 +4628,14 @@
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="86"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="120"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="101"/>
       <c r="J30" s="94"/>
       <c r="K30" s="95"/>
       <c r="L30" s="95"/>
@@ -4643,14 +4665,14 @@
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="86"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="120"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="101"/>
       <c r="J31" s="94"/>
       <c r="K31" s="95"/>
       <c r="L31" s="95"/>
@@ -4681,14 +4703,14 @@
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="86"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="120"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="101"/>
       <c r="J32" s="94"/>
       <c r="K32" s="95"/>
       <c r="L32" s="95"/>
@@ -4719,14 +4741,14 @@
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="86"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="101"/>
       <c r="J33" s="94"/>
       <c r="K33" s="95"/>
       <c r="L33" s="95"/>
@@ -4947,6 +4969,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="J27:P27"/>
     <mergeCell ref="Q27:AE27"/>
     <mergeCell ref="AF27:AI27"/>
@@ -4971,161 +5148,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF26:AI26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5282,31 +5304,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="115" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="133" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123"/>
       <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -5318,48 +5340,48 @@
       <c r="X1" s="155"/>
       <c r="Y1" s="155"/>
       <c r="Z1" s="156"/>
-      <c r="AA1" s="130" t="s">
+      <c r="AA1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="106" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="100" t="str">
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="139" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="102"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="141"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="115" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="126"/>
       <c r="S2" s="157"/>
       <c r="T2" s="158"/>
       <c r="U2" s="158"/>
@@ -5368,48 +5390,48 @@
       <c r="X2" s="158"/>
       <c r="Y2" s="158"/>
       <c r="Z2" s="159"/>
-      <c r="AA2" s="130" t="s">
+      <c r="AA2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="106" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="100" t="str">
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="139" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="141"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="115" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="141"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="129"/>
       <c r="S3" s="160"/>
       <c r="T3" s="161"/>
       <c r="U3" s="161"/>
@@ -5418,21 +5440,21 @@
       <c r="X3" s="161"/>
       <c r="Y3" s="161"/>
       <c r="Z3" s="162"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="106" t="str">
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="100" t="str">
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="139" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="102"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -6892,12 +6914,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6909,6 +6925,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6939,31 +6961,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="115" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="133" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123"/>
       <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -6975,51 +6997,51 @@
       <c r="X1" s="155"/>
       <c r="Y1" s="155"/>
       <c r="Z1" s="156"/>
-      <c r="AA1" s="130" t="s">
+      <c r="AA1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="106" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="190" t="str">
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="192"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="206"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="115" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="126"/>
       <c r="S2" s="157"/>
       <c r="T2" s="158"/>
       <c r="U2" s="158"/>
@@ -7028,51 +7050,51 @@
       <c r="X2" s="158"/>
       <c r="Y2" s="158"/>
       <c r="Z2" s="159"/>
-      <c r="AA2" s="130" t="s">
+      <c r="AA2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="106" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="190" t="str">
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="192"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
     </row>
     <row r="3" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="115" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="141"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="129"/>
       <c r="S3" s="160"/>
       <c r="T3" s="161"/>
       <c r="U3" s="161"/>
@@ -7081,21 +7103,21 @@
       <c r="X3" s="161"/>
       <c r="Y3" s="161"/>
       <c r="Z3" s="162"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="106" t="str">
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="190" t="str">
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="191"/>
-      <c r="AI3" s="192"/>
+      <c r="AH3" s="205"/>
+      <c r="AI3" s="206"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -7124,758 +7146,908 @@
       <c r="BI6" s="25"/>
     </row>
     <row r="7" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B7" s="216" t="s">
-        <v>41</v>
+      <c r="B7" s="167" t="s">
+        <v>40</v>
       </c>
-      <c r="C7" s="176" t="s">
+      <c r="C7" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="196" t="s">
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="183" t="s">
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="184"/>
-      <c r="O7" s="177" t="s">
+      <c r="N7" s="213"/>
+      <c r="O7" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="176" t="s">
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="178"/>
+      <c r="T7" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="176"/>
-      <c r="V7" s="183" t="s">
+      <c r="U7" s="166"/>
+      <c r="V7" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-      <c r="Y7" s="184"/>
-      <c r="Z7" s="176" t="s">
+      <c r="W7" s="216"/>
+      <c r="X7" s="216"/>
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="176"/>
-      <c r="AB7" s="177" t="s">
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="AC7" s="178"/>
-      <c r="AD7" s="179"/>
-      <c r="AE7" s="209" t="s">
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="178"/>
+      <c r="AE7" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="AF7" s="211"/>
-      <c r="AG7" s="211"/>
-      <c r="AH7" s="211"/>
-      <c r="AI7" s="211"/>
-      <c r="AJ7" s="211"/>
-      <c r="AK7" s="211"/>
-      <c r="AL7" s="211"/>
-      <c r="AM7" s="210"/>
-      <c r="AN7" s="176" t="s">
+      <c r="AF7" s="164"/>
+      <c r="AG7" s="164"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="164"/>
+      <c r="AJ7" s="164"/>
+      <c r="AK7" s="164"/>
+      <c r="AL7" s="164"/>
+      <c r="AM7" s="165"/>
+      <c r="AN7" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="AO7" s="176"/>
-      <c r="AP7" s="176"/>
-      <c r="AQ7" s="176"/>
-      <c r="AR7" s="176"/>
-      <c r="AS7" s="176"/>
-      <c r="AT7" s="176" t="s">
+      <c r="AO7" s="166"/>
+      <c r="AP7" s="166"/>
+      <c r="AQ7" s="166"/>
+      <c r="AR7" s="166"/>
+      <c r="AS7" s="166"/>
+      <c r="AT7" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="AU7" s="176"/>
-      <c r="AV7" s="176"/>
-      <c r="AW7" s="176"/>
-      <c r="AX7" s="176" t="s">
+      <c r="AU7" s="166"/>
+      <c r="AV7" s="166"/>
+      <c r="AW7" s="166"/>
+      <c r="AX7" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="176"/>
-      <c r="AZ7" s="176"/>
-      <c r="BA7" s="176"/>
-      <c r="BB7" s="176"/>
-      <c r="BC7" s="176"/>
-      <c r="BD7" s="176"/>
-      <c r="BE7" s="176"/>
-      <c r="BF7" s="176"/>
+      <c r="AY7" s="166"/>
+      <c r="AZ7" s="166"/>
+      <c r="BA7" s="166"/>
+      <c r="BB7" s="166"/>
+      <c r="BC7" s="166"/>
+      <c r="BD7" s="166"/>
+      <c r="BE7" s="166"/>
+      <c r="BF7" s="166"/>
       <c r="BG7" s="26"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
     </row>
     <row r="8" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B8" s="217"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="180"/>
-      <c r="P8" s="181"/>
-      <c r="Q8" s="181"/>
-      <c r="R8" s="181"/>
-      <c r="S8" s="182"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="188"/>
-      <c r="X8" s="188"/>
-      <c r="Y8" s="186"/>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="180"/>
-      <c r="AC8" s="181"/>
-      <c r="AD8" s="182"/>
-      <c r="AE8" s="209" t="s">
-        <v>40</v>
+      <c r="B8" s="168"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="180"/>
+      <c r="R8" s="180"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="166"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="214"/>
+      <c r="W8" s="217"/>
+      <c r="X8" s="217"/>
+      <c r="Y8" s="215"/>
+      <c r="Z8" s="166"/>
+      <c r="AA8" s="166"/>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="180"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="163" t="s">
+        <v>41</v>
       </c>
-      <c r="AF8" s="211"/>
-      <c r="AG8" s="210"/>
-      <c r="AH8" s="176" t="s">
+      <c r="AF8" s="164"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="AI8" s="176"/>
-      <c r="AJ8" s="176"/>
-      <c r="AK8" s="176"/>
-      <c r="AL8" s="176"/>
-      <c r="AM8" s="176"/>
-      <c r="AN8" s="209" t="s">
+      <c r="AI8" s="166"/>
+      <c r="AJ8" s="166"/>
+      <c r="AK8" s="166"/>
+      <c r="AL8" s="166"/>
+      <c r="AM8" s="166"/>
+      <c r="AN8" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="AO8" s="210"/>
-      <c r="AP8" s="176" t="s">
+      <c r="AO8" s="165"/>
+      <c r="AP8" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AQ8" s="176"/>
-      <c r="AR8" s="176"/>
-      <c r="AS8" s="176"/>
-      <c r="AT8" s="176"/>
-      <c r="AU8" s="176"/>
-      <c r="AV8" s="176"/>
-      <c r="AW8" s="176"/>
-      <c r="AX8" s="176"/>
-      <c r="AY8" s="176"/>
-      <c r="AZ8" s="176"/>
-      <c r="BA8" s="176"/>
-      <c r="BB8" s="176"/>
-      <c r="BC8" s="176"/>
-      <c r="BD8" s="176"/>
-      <c r="BE8" s="176"/>
-      <c r="BF8" s="176"/>
+      <c r="AQ8" s="166"/>
+      <c r="AR8" s="166"/>
+      <c r="AS8" s="166"/>
+      <c r="AT8" s="166"/>
+      <c r="AU8" s="166"/>
+      <c r="AV8" s="166"/>
+      <c r="AW8" s="166"/>
+      <c r="AX8" s="166"/>
+      <c r="AY8" s="166"/>
+      <c r="AZ8" s="166"/>
+      <c r="BA8" s="166"/>
+      <c r="BB8" s="166"/>
+      <c r="BC8" s="166"/>
+      <c r="BD8" s="166"/>
+      <c r="BE8" s="166"/>
+      <c r="BF8" s="166"/>
       <c r="BG8" s="26"/>
       <c r="BH8" s="26"/>
       <c r="BI8" s="26"/>
     </row>
     <row r="9" spans="1:61" ht="13.5" customHeight="1">
       <c r="B9" s="87"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
       <c r="M9" s="97"/>
       <c r="N9" s="99"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="169"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="167"/>
-      <c r="U9" s="167"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="169"/>
-      <c r="X9" s="169"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="193"/>
-      <c r="AB9" s="168"/>
-      <c r="AC9" s="169"/>
-      <c r="AD9" s="170"/>
-      <c r="AE9" s="197"/>
-      <c r="AF9" s="198"/>
-      <c r="AG9" s="199"/>
-      <c r="AH9" s="168"/>
-      <c r="AI9" s="169"/>
-      <c r="AJ9" s="169"/>
-      <c r="AK9" s="169"/>
-      <c r="AL9" s="169"/>
-      <c r="AM9" s="170"/>
-      <c r="AN9" s="200"/>
-      <c r="AO9" s="201"/>
-      <c r="AP9" s="202"/>
-      <c r="AQ9" s="202"/>
-      <c r="AR9" s="202"/>
-      <c r="AS9" s="202"/>
-      <c r="AT9" s="205"/>
-      <c r="AU9" s="205"/>
-      <c r="AV9" s="205"/>
-      <c r="AW9" s="205"/>
-      <c r="AX9" s="193"/>
-      <c r="AY9" s="193"/>
-      <c r="AZ9" s="193"/>
-      <c r="BA9" s="193"/>
-      <c r="BB9" s="193"/>
-      <c r="BC9" s="193"/>
-      <c r="BD9" s="193"/>
-      <c r="BE9" s="193"/>
-      <c r="BF9" s="193"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="174"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="203"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="172"/>
+      <c r="AA9" s="172"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="174"/>
+      <c r="AJ9" s="174"/>
+      <c r="AK9" s="174"/>
+      <c r="AL9" s="174"/>
+      <c r="AM9" s="175"/>
+      <c r="AN9" s="184"/>
+      <c r="AO9" s="185"/>
+      <c r="AP9" s="183"/>
+      <c r="AQ9" s="183"/>
+      <c r="AR9" s="183"/>
+      <c r="AS9" s="183"/>
+      <c r="AT9" s="186"/>
+      <c r="AU9" s="186"/>
+      <c r="AV9" s="186"/>
+      <c r="AW9" s="186"/>
+      <c r="AX9" s="172"/>
+      <c r="AY9" s="172"/>
+      <c r="AZ9" s="172"/>
+      <c r="BA9" s="172"/>
+      <c r="BB9" s="172"/>
+      <c r="BC9" s="172"/>
+      <c r="BD9" s="172"/>
+      <c r="BE9" s="172"/>
+      <c r="BF9" s="172"/>
       <c r="BG9" s="27"/>
       <c r="BH9" s="27"/>
       <c r="BI9" s="27"/>
     </row>
     <row r="10" spans="1:61" ht="11.25" customHeight="1">
       <c r="B10" s="87"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
       <c r="M10" s="97"/>
       <c r="N10" s="99"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="195"/>
-      <c r="U10" s="195"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="194"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="165"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="213"/>
-      <c r="AF10" s="214"/>
-      <c r="AG10" s="215"/>
-      <c r="AH10" s="194"/>
-      <c r="AI10" s="194"/>
-      <c r="AJ10" s="194"/>
-      <c r="AK10" s="194"/>
-      <c r="AL10" s="194"/>
-      <c r="AM10" s="194"/>
-      <c r="AN10" s="200"/>
-      <c r="AO10" s="201"/>
-      <c r="AP10" s="203"/>
-      <c r="AQ10" s="203"/>
-      <c r="AR10" s="203"/>
-      <c r="AS10" s="203"/>
-      <c r="AT10" s="205"/>
-      <c r="AU10" s="205"/>
-      <c r="AV10" s="205"/>
-      <c r="AW10" s="205"/>
-      <c r="AX10" s="194"/>
-      <c r="AY10" s="194"/>
-      <c r="AZ10" s="194"/>
-      <c r="BA10" s="194"/>
-      <c r="BB10" s="194"/>
-      <c r="BC10" s="194"/>
-      <c r="BD10" s="194"/>
-      <c r="BE10" s="194"/>
-      <c r="BF10" s="194"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="207"/>
+      <c r="U10" s="207"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="195"/>
+      <c r="Z10" s="191"/>
+      <c r="AA10" s="191"/>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="195"/>
+      <c r="AE10" s="188"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="191"/>
+      <c r="AI10" s="191"/>
+      <c r="AJ10" s="191"/>
+      <c r="AK10" s="191"/>
+      <c r="AL10" s="191"/>
+      <c r="AM10" s="191"/>
+      <c r="AN10" s="184"/>
+      <c r="AO10" s="185"/>
+      <c r="AP10" s="192"/>
+      <c r="AQ10" s="192"/>
+      <c r="AR10" s="192"/>
+      <c r="AS10" s="192"/>
+      <c r="AT10" s="186"/>
+      <c r="AU10" s="186"/>
+      <c r="AV10" s="186"/>
+      <c r="AW10" s="186"/>
+      <c r="AX10" s="191"/>
+      <c r="AY10" s="191"/>
+      <c r="AZ10" s="191"/>
+      <c r="BA10" s="191"/>
+      <c r="BB10" s="191"/>
+      <c r="BC10" s="191"/>
+      <c r="BD10" s="191"/>
+      <c r="BE10" s="191"/>
+      <c r="BF10" s="191"/>
     </row>
     <row r="11" spans="1:61" ht="11.25" customHeight="1">
       <c r="B11" s="87"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
       <c r="M11" s="97"/>
       <c r="N11" s="99"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="163"/>
-      <c r="U11" s="163"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="189"/>
-      <c r="AA11" s="189"/>
-      <c r="AB11" s="171"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="206"/>
-      <c r="AF11" s="207"/>
-      <c r="AG11" s="208"/>
-      <c r="AH11" s="189"/>
-      <c r="AI11" s="189"/>
-      <c r="AJ11" s="189"/>
-      <c r="AK11" s="189"/>
-      <c r="AL11" s="189"/>
-      <c r="AM11" s="189"/>
-      <c r="AN11" s="200"/>
-      <c r="AO11" s="201"/>
-      <c r="AP11" s="204"/>
-      <c r="AQ11" s="204"/>
-      <c r="AR11" s="204"/>
-      <c r="AS11" s="204"/>
-      <c r="AT11" s="205"/>
-      <c r="AU11" s="205"/>
-      <c r="AV11" s="205"/>
-      <c r="AW11" s="205"/>
-      <c r="AX11" s="189"/>
-      <c r="AY11" s="189"/>
-      <c r="AZ11" s="189"/>
-      <c r="BA11" s="189"/>
-      <c r="BB11" s="189"/>
-      <c r="BC11" s="189"/>
-      <c r="BD11" s="189"/>
-      <c r="BE11" s="189"/>
-      <c r="BF11" s="189"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="198"/>
+      <c r="Q11" s="198"/>
+      <c r="R11" s="198"/>
+      <c r="S11" s="199"/>
+      <c r="T11" s="209"/>
+      <c r="U11" s="209"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="198"/>
+      <c r="X11" s="198"/>
+      <c r="Y11" s="199"/>
+      <c r="Z11" s="182"/>
+      <c r="AA11" s="182"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="198"/>
+      <c r="AD11" s="199"/>
+      <c r="AE11" s="200"/>
+      <c r="AF11" s="201"/>
+      <c r="AG11" s="202"/>
+      <c r="AH11" s="182"/>
+      <c r="AI11" s="182"/>
+      <c r="AJ11" s="182"/>
+      <c r="AK11" s="182"/>
+      <c r="AL11" s="182"/>
+      <c r="AM11" s="182"/>
+      <c r="AN11" s="184"/>
+      <c r="AO11" s="185"/>
+      <c r="AP11" s="196"/>
+      <c r="AQ11" s="196"/>
+      <c r="AR11" s="196"/>
+      <c r="AS11" s="196"/>
+      <c r="AT11" s="186"/>
+      <c r="AU11" s="186"/>
+      <c r="AV11" s="186"/>
+      <c r="AW11" s="186"/>
+      <c r="AX11" s="182"/>
+      <c r="AY11" s="182"/>
+      <c r="AZ11" s="182"/>
+      <c r="BA11" s="182"/>
+      <c r="BB11" s="182"/>
+      <c r="BC11" s="182"/>
+      <c r="BD11" s="182"/>
+      <c r="BE11" s="182"/>
+      <c r="BF11" s="182"/>
     </row>
     <row r="12" spans="1:61">
       <c r="B12" s="87"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="193"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
       <c r="M12" s="97"/>
       <c r="N12" s="99"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="167"/>
-      <c r="U12" s="167"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="173"/>
-      <c r="Z12" s="193"/>
-      <c r="AA12" s="193"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="169"/>
-      <c r="AD12" s="170"/>
-      <c r="AE12" s="197"/>
-      <c r="AF12" s="198"/>
-      <c r="AG12" s="199"/>
-      <c r="AH12" s="168"/>
-      <c r="AI12" s="169"/>
-      <c r="AJ12" s="169"/>
-      <c r="AK12" s="169"/>
-      <c r="AL12" s="169"/>
-      <c r="AM12" s="170"/>
-      <c r="AN12" s="200"/>
-      <c r="AO12" s="201"/>
-      <c r="AP12" s="202"/>
-      <c r="AQ12" s="202"/>
-      <c r="AR12" s="202"/>
-      <c r="AS12" s="202"/>
-      <c r="AT12" s="205"/>
-      <c r="AU12" s="205"/>
-      <c r="AV12" s="205"/>
-      <c r="AW12" s="205"/>
-      <c r="AX12" s="193"/>
-      <c r="AY12" s="193"/>
-      <c r="AZ12" s="193"/>
-      <c r="BA12" s="193"/>
-      <c r="BB12" s="193"/>
-      <c r="BC12" s="193"/>
-      <c r="BD12" s="193"/>
-      <c r="BE12" s="193"/>
-      <c r="BF12" s="193"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="174"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="203"/>
+      <c r="U12" s="203"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="198"/>
+      <c r="X12" s="198"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="172"/>
+      <c r="AA12" s="172"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="174"/>
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="171"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="174"/>
+      <c r="AJ12" s="174"/>
+      <c r="AK12" s="174"/>
+      <c r="AL12" s="174"/>
+      <c r="AM12" s="175"/>
+      <c r="AN12" s="184"/>
+      <c r="AO12" s="185"/>
+      <c r="AP12" s="183"/>
+      <c r="AQ12" s="183"/>
+      <c r="AR12" s="183"/>
+      <c r="AS12" s="183"/>
+      <c r="AT12" s="186"/>
+      <c r="AU12" s="186"/>
+      <c r="AV12" s="186"/>
+      <c r="AW12" s="186"/>
+      <c r="AX12" s="172"/>
+      <c r="AY12" s="172"/>
+      <c r="AZ12" s="172"/>
+      <c r="BA12" s="172"/>
+      <c r="BB12" s="172"/>
+      <c r="BC12" s="172"/>
+      <c r="BD12" s="172"/>
+      <c r="BE12" s="172"/>
+      <c r="BF12" s="172"/>
     </row>
     <row r="13" spans="1:61">
       <c r="B13" s="87"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
       <c r="M13" s="97"/>
       <c r="N13" s="99"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="167"/>
-      <c r="U13" s="167"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="169"/>
-      <c r="Y13" s="170"/>
-      <c r="Z13" s="193"/>
-      <c r="AA13" s="193"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="169"/>
-      <c r="AD13" s="170"/>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="198"/>
-      <c r="AG13" s="199"/>
-      <c r="AH13" s="193"/>
-      <c r="AI13" s="193"/>
-      <c r="AJ13" s="193"/>
-      <c r="AK13" s="193"/>
-      <c r="AL13" s="193"/>
-      <c r="AM13" s="193"/>
-      <c r="AN13" s="200"/>
-      <c r="AO13" s="201"/>
-      <c r="AP13" s="202"/>
-      <c r="AQ13" s="202"/>
-      <c r="AR13" s="202"/>
-      <c r="AS13" s="202"/>
-      <c r="AT13" s="205"/>
-      <c r="AU13" s="205"/>
-      <c r="AV13" s="205"/>
-      <c r="AW13" s="205"/>
-      <c r="AX13" s="193"/>
-      <c r="AY13" s="193"/>
-      <c r="AZ13" s="193"/>
-      <c r="BA13" s="193"/>
-      <c r="BB13" s="193"/>
-      <c r="BC13" s="193"/>
-      <c r="BD13" s="193"/>
-      <c r="BE13" s="193"/>
-      <c r="BF13" s="193"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="203"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="175"/>
+      <c r="Z13" s="172"/>
+      <c r="AA13" s="172"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="175"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="171"/>
+      <c r="AH13" s="172"/>
+      <c r="AI13" s="172"/>
+      <c r="AJ13" s="172"/>
+      <c r="AK13" s="172"/>
+      <c r="AL13" s="172"/>
+      <c r="AM13" s="172"/>
+      <c r="AN13" s="184"/>
+      <c r="AO13" s="185"/>
+      <c r="AP13" s="183"/>
+      <c r="AQ13" s="183"/>
+      <c r="AR13" s="183"/>
+      <c r="AS13" s="183"/>
+      <c r="AT13" s="186"/>
+      <c r="AU13" s="186"/>
+      <c r="AV13" s="186"/>
+      <c r="AW13" s="186"/>
+      <c r="AX13" s="172"/>
+      <c r="AY13" s="172"/>
+      <c r="AZ13" s="172"/>
+      <c r="BA13" s="172"/>
+      <c r="BB13" s="172"/>
+      <c r="BC13" s="172"/>
+      <c r="BD13" s="172"/>
+      <c r="BE13" s="172"/>
+      <c r="BF13" s="172"/>
     </row>
     <row r="14" spans="1:61" ht="11.25" customHeight="1">
       <c r="B14" s="87"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="193"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
       <c r="M14" s="97"/>
       <c r="N14" s="99"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="167"/>
-      <c r="U14" s="167"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="169"/>
-      <c r="X14" s="169"/>
-      <c r="Y14" s="170"/>
-      <c r="Z14" s="193"/>
-      <c r="AA14" s="193"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="169"/>
-      <c r="AD14" s="170"/>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="198"/>
-      <c r="AG14" s="199"/>
-      <c r="AH14" s="193"/>
-      <c r="AI14" s="193"/>
-      <c r="AJ14" s="193"/>
-      <c r="AK14" s="193"/>
-      <c r="AL14" s="193"/>
-      <c r="AM14" s="193"/>
-      <c r="AN14" s="200"/>
-      <c r="AO14" s="201"/>
-      <c r="AP14" s="202"/>
-      <c r="AQ14" s="202"/>
-      <c r="AR14" s="202"/>
-      <c r="AS14" s="202"/>
-      <c r="AT14" s="205"/>
-      <c r="AU14" s="205"/>
-      <c r="AV14" s="205"/>
-      <c r="AW14" s="205"/>
-      <c r="AX14" s="193"/>
-      <c r="AY14" s="193"/>
-      <c r="AZ14" s="193"/>
-      <c r="BA14" s="193"/>
-      <c r="BB14" s="193"/>
-      <c r="BC14" s="193"/>
-      <c r="BD14" s="193"/>
-      <c r="BE14" s="193"/>
-      <c r="BF14" s="193"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="174"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="203"/>
+      <c r="U14" s="203"/>
+      <c r="V14" s="173"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="175"/>
+      <c r="Z14" s="172"/>
+      <c r="AA14" s="172"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="175"/>
+      <c r="AE14" s="169"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="172"/>
+      <c r="AI14" s="172"/>
+      <c r="AJ14" s="172"/>
+      <c r="AK14" s="172"/>
+      <c r="AL14" s="172"/>
+      <c r="AM14" s="172"/>
+      <c r="AN14" s="184"/>
+      <c r="AO14" s="185"/>
+      <c r="AP14" s="183"/>
+      <c r="AQ14" s="183"/>
+      <c r="AR14" s="183"/>
+      <c r="AS14" s="183"/>
+      <c r="AT14" s="186"/>
+      <c r="AU14" s="186"/>
+      <c r="AV14" s="186"/>
+      <c r="AW14" s="186"/>
+      <c r="AX14" s="172"/>
+      <c r="AY14" s="172"/>
+      <c r="AZ14" s="172"/>
+      <c r="BA14" s="172"/>
+      <c r="BB14" s="172"/>
+      <c r="BC14" s="172"/>
+      <c r="BD14" s="172"/>
+      <c r="BE14" s="172"/>
+      <c r="BF14" s="172"/>
     </row>
     <row r="15" spans="1:61" ht="11.25" customHeight="1">
       <c r="B15" s="87"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
-      <c r="L15" s="193"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
       <c r="M15" s="97"/>
       <c r="N15" s="99"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="169"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="167"/>
-      <c r="U15" s="167"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="169"/>
-      <c r="X15" s="169"/>
-      <c r="Y15" s="170"/>
-      <c r="Z15" s="193"/>
-      <c r="AA15" s="193"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="169"/>
-      <c r="AD15" s="170"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="198"/>
-      <c r="AG15" s="199"/>
-      <c r="AH15" s="193"/>
-      <c r="AI15" s="193"/>
-      <c r="AJ15" s="193"/>
-      <c r="AK15" s="193"/>
-      <c r="AL15" s="193"/>
-      <c r="AM15" s="193"/>
-      <c r="AN15" s="200"/>
-      <c r="AO15" s="201"/>
-      <c r="AP15" s="202"/>
-      <c r="AQ15" s="202"/>
-      <c r="AR15" s="202"/>
-      <c r="AS15" s="202"/>
-      <c r="AT15" s="205"/>
-      <c r="AU15" s="205"/>
-      <c r="AV15" s="205"/>
-      <c r="AW15" s="205"/>
-      <c r="AX15" s="193"/>
-      <c r="AY15" s="193"/>
-      <c r="AZ15" s="193"/>
-      <c r="BA15" s="193"/>
-      <c r="BB15" s="193"/>
-      <c r="BC15" s="193"/>
-      <c r="BD15" s="193"/>
-      <c r="BE15" s="193"/>
-      <c r="BF15" s="193"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="203"/>
+      <c r="U15" s="203"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="172"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="174"/>
+      <c r="AD15" s="175"/>
+      <c r="AE15" s="169"/>
+      <c r="AF15" s="170"/>
+      <c r="AG15" s="171"/>
+      <c r="AH15" s="172"/>
+      <c r="AI15" s="172"/>
+      <c r="AJ15" s="172"/>
+      <c r="AK15" s="172"/>
+      <c r="AL15" s="172"/>
+      <c r="AM15" s="172"/>
+      <c r="AN15" s="184"/>
+      <c r="AO15" s="185"/>
+      <c r="AP15" s="183"/>
+      <c r="AQ15" s="183"/>
+      <c r="AR15" s="183"/>
+      <c r="AS15" s="183"/>
+      <c r="AT15" s="186"/>
+      <c r="AU15" s="186"/>
+      <c r="AV15" s="186"/>
+      <c r="AW15" s="186"/>
+      <c r="AX15" s="172"/>
+      <c r="AY15" s="172"/>
+      <c r="AZ15" s="172"/>
+      <c r="BA15" s="172"/>
+      <c r="BB15" s="172"/>
+      <c r="BC15" s="172"/>
+      <c r="BD15" s="172"/>
+      <c r="BE15" s="172"/>
+      <c r="BF15" s="172"/>
     </row>
     <row r="16" spans="1:61" s="29" customFormat="1">
       <c r="B16" s="87"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="189"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
       <c r="M16" s="97"/>
       <c r="N16" s="99"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="171"/>
-      <c r="W16" s="172"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="189"/>
-      <c r="AA16" s="189"/>
-      <c r="AB16" s="171"/>
-      <c r="AC16" s="172"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="197"/>
-      <c r="AF16" s="198"/>
-      <c r="AG16" s="199"/>
-      <c r="AH16" s="189"/>
-      <c r="AI16" s="189"/>
-      <c r="AJ16" s="189"/>
-      <c r="AK16" s="189"/>
-      <c r="AL16" s="189"/>
-      <c r="AM16" s="189"/>
-      <c r="AN16" s="200"/>
-      <c r="AO16" s="201"/>
-      <c r="AP16" s="202"/>
-      <c r="AQ16" s="202"/>
-      <c r="AR16" s="202"/>
-      <c r="AS16" s="202"/>
-      <c r="AT16" s="205"/>
-      <c r="AU16" s="205"/>
-      <c r="AV16" s="205"/>
-      <c r="AW16" s="205"/>
-      <c r="AX16" s="189"/>
-      <c r="AY16" s="189"/>
-      <c r="AZ16" s="189"/>
-      <c r="BA16" s="189"/>
-      <c r="BB16" s="189"/>
-      <c r="BC16" s="189"/>
-      <c r="BD16" s="189"/>
-      <c r="BE16" s="189"/>
-      <c r="BF16" s="189"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="198"/>
+      <c r="Q16" s="198"/>
+      <c r="R16" s="198"/>
+      <c r="S16" s="199"/>
+      <c r="T16" s="209"/>
+      <c r="U16" s="209"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="198"/>
+      <c r="X16" s="198"/>
+      <c r="Y16" s="199"/>
+      <c r="Z16" s="182"/>
+      <c r="AA16" s="182"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="198"/>
+      <c r="AD16" s="199"/>
+      <c r="AE16" s="169"/>
+      <c r="AF16" s="170"/>
+      <c r="AG16" s="171"/>
+      <c r="AH16" s="182"/>
+      <c r="AI16" s="182"/>
+      <c r="AJ16" s="182"/>
+      <c r="AK16" s="182"/>
+      <c r="AL16" s="182"/>
+      <c r="AM16" s="182"/>
+      <c r="AN16" s="184"/>
+      <c r="AO16" s="185"/>
+      <c r="AP16" s="183"/>
+      <c r="AQ16" s="183"/>
+      <c r="AR16" s="183"/>
+      <c r="AS16" s="183"/>
+      <c r="AT16" s="186"/>
+      <c r="AU16" s="186"/>
+      <c r="AV16" s="186"/>
+      <c r="AW16" s="186"/>
+      <c r="AX16" s="182"/>
+      <c r="AY16" s="182"/>
+      <c r="AZ16" s="182"/>
+      <c r="BA16" s="182"/>
+      <c r="BB16" s="182"/>
+      <c r="BC16" s="182"/>
+      <c r="BD16" s="182"/>
+      <c r="BE16" s="182"/>
+      <c r="BF16" s="182"/>
     </row>
     <row r="17" spans="2:58" ht="11.25" customHeight="1">
       <c r="B17" s="87"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="170"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="175"/>
       <c r="M17" s="97"/>
       <c r="N17" s="99"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="169"/>
-      <c r="Q17" s="169"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="174"/>
-      <c r="U17" s="175"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="169"/>
-      <c r="X17" s="169"/>
-      <c r="Y17" s="170"/>
-      <c r="Z17" s="168"/>
-      <c r="AA17" s="170"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="169"/>
-      <c r="AD17" s="170"/>
-      <c r="AE17" s="197"/>
-      <c r="AF17" s="198"/>
-      <c r="AG17" s="199"/>
-      <c r="AH17" s="168"/>
-      <c r="AI17" s="169"/>
-      <c r="AJ17" s="169"/>
-      <c r="AK17" s="169"/>
-      <c r="AL17" s="169"/>
-      <c r="AM17" s="170"/>
-      <c r="AN17" s="200"/>
-      <c r="AO17" s="201"/>
-      <c r="AP17" s="200"/>
-      <c r="AQ17" s="212"/>
-      <c r="AR17" s="212"/>
-      <c r="AS17" s="201"/>
-      <c r="AT17" s="205"/>
-      <c r="AU17" s="205"/>
-      <c r="AV17" s="205"/>
-      <c r="AW17" s="205"/>
-      <c r="AX17" s="168"/>
-      <c r="AY17" s="169"/>
-      <c r="AZ17" s="169"/>
-      <c r="BA17" s="169"/>
-      <c r="BB17" s="169"/>
-      <c r="BC17" s="169"/>
-      <c r="BD17" s="169"/>
-      <c r="BE17" s="169"/>
-      <c r="BF17" s="170"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="210"/>
+      <c r="U17" s="211"/>
+      <c r="V17" s="173"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="175"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="175"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="174"/>
+      <c r="AD17" s="175"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="170"/>
+      <c r="AG17" s="171"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="174"/>
+      <c r="AJ17" s="174"/>
+      <c r="AK17" s="174"/>
+      <c r="AL17" s="174"/>
+      <c r="AM17" s="175"/>
+      <c r="AN17" s="184"/>
+      <c r="AO17" s="185"/>
+      <c r="AP17" s="184"/>
+      <c r="AQ17" s="187"/>
+      <c r="AR17" s="187"/>
+      <c r="AS17" s="185"/>
+      <c r="AT17" s="186"/>
+      <c r="AU17" s="186"/>
+      <c r="AV17" s="186"/>
+      <c r="AW17" s="186"/>
+      <c r="AX17" s="173"/>
+      <c r="AY17" s="174"/>
+      <c r="AZ17" s="174"/>
+      <c r="BA17" s="174"/>
+      <c r="BB17" s="174"/>
+      <c r="BC17" s="174"/>
+      <c r="BD17" s="174"/>
+      <c r="BE17" s="174"/>
+      <c r="BF17" s="175"/>
     </row>
     <row r="18" spans="2:58">
       <c r="B18" s="87"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="193"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
       <c r="M18" s="97"/>
       <c r="N18" s="99"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="169"/>
-      <c r="S18" s="170"/>
-      <c r="T18" s="167"/>
-      <c r="U18" s="167"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="169"/>
-      <c r="X18" s="169"/>
-      <c r="Y18" s="170"/>
-      <c r="Z18" s="193"/>
-      <c r="AA18" s="193"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="169"/>
-      <c r="AD18" s="170"/>
-      <c r="AE18" s="197"/>
-      <c r="AF18" s="198"/>
-      <c r="AG18" s="199"/>
-      <c r="AH18" s="193"/>
-      <c r="AI18" s="193"/>
-      <c r="AJ18" s="193"/>
-      <c r="AK18" s="193"/>
-      <c r="AL18" s="193"/>
-      <c r="AM18" s="193"/>
-      <c r="AN18" s="200"/>
-      <c r="AO18" s="201"/>
-      <c r="AP18" s="202"/>
-      <c r="AQ18" s="202"/>
-      <c r="AR18" s="202"/>
-      <c r="AS18" s="202"/>
-      <c r="AT18" s="205"/>
-      <c r="AU18" s="205"/>
-      <c r="AV18" s="205"/>
-      <c r="AW18" s="205"/>
-      <c r="AX18" s="193"/>
-      <c r="AY18" s="193"/>
-      <c r="AZ18" s="193"/>
-      <c r="BA18" s="193"/>
-      <c r="BB18" s="193"/>
-      <c r="BC18" s="193"/>
-      <c r="BD18" s="193"/>
-      <c r="BE18" s="193"/>
-      <c r="BF18" s="193"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="203"/>
+      <c r="U18" s="203"/>
+      <c r="V18" s="173"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="175"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="175"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="171"/>
+      <c r="AH18" s="172"/>
+      <c r="AI18" s="172"/>
+      <c r="AJ18" s="172"/>
+      <c r="AK18" s="172"/>
+      <c r="AL18" s="172"/>
+      <c r="AM18" s="172"/>
+      <c r="AN18" s="184"/>
+      <c r="AO18" s="185"/>
+      <c r="AP18" s="183"/>
+      <c r="AQ18" s="183"/>
+      <c r="AR18" s="183"/>
+      <c r="AS18" s="183"/>
+      <c r="AT18" s="186"/>
+      <c r="AU18" s="186"/>
+      <c r="AV18" s="186"/>
+      <c r="AW18" s="186"/>
+      <c r="AX18" s="172"/>
+      <c r="AY18" s="172"/>
+      <c r="AZ18" s="172"/>
+      <c r="BA18" s="172"/>
+      <c r="BB18" s="172"/>
+      <c r="BC18" s="172"/>
+      <c r="BD18" s="172"/>
+      <c r="BE18" s="172"/>
+      <c r="BF18" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="174">
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="O7:S8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="V7:Y8"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="F7:L8"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AX13:BF13"/>
+    <mergeCell ref="AX10:BF10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AX11:BF11"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AT10:AW10"/>
+    <mergeCell ref="AT11:AW11"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AT13:AW13"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX9:BF9"/>
+    <mergeCell ref="AN7:AS7"/>
+    <mergeCell ref="AT7:AW8"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX12:BF12"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AX18:BF18"/>
+    <mergeCell ref="AX16:BF16"/>
+    <mergeCell ref="AX17:BF17"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AX14:BF14"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AX15:BF15"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AP18:AS18"/>
+    <mergeCell ref="AT14:AW14"/>
+    <mergeCell ref="AT15:AW15"/>
+    <mergeCell ref="AT16:AW16"/>
+    <mergeCell ref="AT17:AW17"/>
+    <mergeCell ref="AT18:AW18"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AX7:BF8"/>
     <mergeCell ref="AE8:AG8"/>
     <mergeCell ref="AH8:AM8"/>
     <mergeCell ref="B7:B8"/>
@@ -7900,159 +8072,9 @@
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="AB7:AD8"/>
     <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AX18:BF18"/>
-    <mergeCell ref="AX16:BF16"/>
-    <mergeCell ref="AX17:BF17"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AX14:BF14"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AX15:BF15"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AP18:AS18"/>
-    <mergeCell ref="AT14:AW14"/>
-    <mergeCell ref="AT15:AW15"/>
-    <mergeCell ref="AT16:AW16"/>
-    <mergeCell ref="AT17:AW17"/>
-    <mergeCell ref="AT18:AW18"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AX7:BF8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX9:BF9"/>
-    <mergeCell ref="AN7:AS7"/>
-    <mergeCell ref="AT7:AW8"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX12:BF12"/>
-    <mergeCell ref="AX13:BF13"/>
-    <mergeCell ref="AX10:BF10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AX11:BF11"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AT10:AW10"/>
-    <mergeCell ref="AT11:AW11"/>
-    <mergeCell ref="AT12:AW12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="AT13:AW13"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="F7:L8"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:Y15"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:Y16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="T7:U8"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="O7:S8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="V7:Y8"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="Z11:AA11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="2">
+  <dataValidations disablePrompts="1" count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:N18">
       <formula1>"入力,出力"</formula1>
     </dataValidation>

--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
@@ -123,7 +123,7 @@
           <t>インタフェースのレコード長を記載する。
   ・「固定長」の場合、バイト数
   ・「可変長」の場合、最大バイト数
- ※ 「JSON、XML形式」の場合、「-」と記載する。</t>
+ ※ 「JSON、XML」の場合、「-」と記載する。</t>
         </r>
       </text>
     </comment>
@@ -1611,12 +1611,159 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1626,153 +1773,6 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1800,170 +1800,170 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -3585,53 +3585,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="121" t="s">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="115"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="133" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="123"/>
-      <c r="S1" s="130"/>
-      <c r="T1" s="131"/>
-      <c r="U1" s="131"/>
-      <c r="V1" s="131"/>
-      <c r="W1" s="131"/>
-      <c r="X1" s="131"/>
-      <c r="Y1" s="131"/>
-      <c r="Z1" s="132"/>
-      <c r="AA1" s="118" t="s">
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
+      <c r="S1" s="142"/>
+      <c r="T1" s="143"/>
+      <c r="U1" s="143"/>
+      <c r="V1" s="143"/>
+      <c r="W1" s="143"/>
+      <c r="X1" s="143"/>
+      <c r="Y1" s="143"/>
+      <c r="Z1" s="144"/>
+      <c r="AA1" s="130" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="109" t="str">
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="106" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="139" t="str">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="100" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="141"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="102"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
@@ -3639,51 +3639,51 @@
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="151"/>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="126"/>
-      <c r="S2" s="133"/>
-      <c r="T2" s="134"/>
-      <c r="U2" s="134"/>
-      <c r="V2" s="134"/>
-      <c r="W2" s="134"/>
-      <c r="X2" s="134"/>
-      <c r="Y2" s="134"/>
-      <c r="Z2" s="135"/>
-      <c r="AA2" s="118" t="s">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="115"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="145"/>
+      <c r="T2" s="146"/>
+      <c r="U2" s="146"/>
+      <c r="V2" s="146"/>
+      <c r="W2" s="146"/>
+      <c r="X2" s="146"/>
+      <c r="Y2" s="146"/>
+      <c r="Z2" s="147"/>
+      <c r="AA2" s="130" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="142" t="str">
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="103" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="143"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="139" t="str">
+      <c r="AD2" s="104"/>
+      <c r="AE2" s="104"/>
+      <c r="AF2" s="105"/>
+      <c r="AG2" s="100" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="141"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="102"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
@@ -3691,43 +3691,43 @@
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="151"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="129"/>
-      <c r="S3" s="136"/>
-      <c r="T3" s="137"/>
-      <c r="U3" s="137"/>
-      <c r="V3" s="137"/>
-      <c r="W3" s="137"/>
-      <c r="X3" s="137"/>
-      <c r="Y3" s="137"/>
-      <c r="Z3" s="138"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="109"/>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="139"/>
-      <c r="AH3" s="140"/>
-      <c r="AI3" s="141"/>
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="115"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="148"/>
+      <c r="T3" s="149"/>
+      <c r="U3" s="149"/>
+      <c r="V3" s="149"/>
+      <c r="W3" s="149"/>
+      <c r="X3" s="149"/>
+      <c r="Y3" s="149"/>
+      <c r="Z3" s="150"/>
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="106"/>
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="100"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="102"/>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -3764,100 +3764,100 @@
       <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="106" t="s">
+      <c r="B7" s="121" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="107"/>
-      <c r="D7" s="106" t="s">
+      <c r="C7" s="122"/>
+      <c r="D7" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="108"/>
-      <c r="F7" s="107"/>
-      <c r="G7" s="106" t="s">
+      <c r="E7" s="123"/>
+      <c r="F7" s="122"/>
+      <c r="G7" s="121" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="108"/>
-      <c r="I7" s="107"/>
-      <c r="J7" s="106" t="s">
+      <c r="H7" s="123"/>
+      <c r="I7" s="122"/>
+      <c r="J7" s="121" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="108"/>
-      <c r="L7" s="108"/>
-      <c r="M7" s="108"/>
-      <c r="N7" s="108"/>
-      <c r="O7" s="108"/>
-      <c r="P7" s="107"/>
-      <c r="Q7" s="106" t="s">
+      <c r="K7" s="123"/>
+      <c r="L7" s="123"/>
+      <c r="M7" s="123"/>
+      <c r="N7" s="123"/>
+      <c r="O7" s="123"/>
+      <c r="P7" s="122"/>
+      <c r="Q7" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="108"/>
-      <c r="S7" s="108"/>
-      <c r="T7" s="108"/>
-      <c r="U7" s="108"/>
-      <c r="V7" s="108"/>
-      <c r="W7" s="108"/>
-      <c r="X7" s="108"/>
-      <c r="Y7" s="108"/>
-      <c r="Z7" s="108"/>
-      <c r="AA7" s="108"/>
-      <c r="AB7" s="108"/>
-      <c r="AC7" s="108"/>
-      <c r="AD7" s="108"/>
-      <c r="AE7" s="107"/>
-      <c r="AF7" s="106" t="s">
+      <c r="R7" s="123"/>
+      <c r="S7" s="123"/>
+      <c r="T7" s="123"/>
+      <c r="U7" s="123"/>
+      <c r="V7" s="123"/>
+      <c r="W7" s="123"/>
+      <c r="X7" s="123"/>
+      <c r="Y7" s="123"/>
+      <c r="Z7" s="123"/>
+      <c r="AA7" s="123"/>
+      <c r="AB7" s="123"/>
+      <c r="AC7" s="123"/>
+      <c r="AD7" s="123"/>
+      <c r="AE7" s="122"/>
+      <c r="AF7" s="121" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="108"/>
-      <c r="AH7" s="108"/>
-      <c r="AI7" s="107"/>
+      <c r="AG7" s="123"/>
+      <c r="AH7" s="123"/>
+      <c r="AI7" s="122"/>
     </row>
     <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="85"/>
-      <c r="B8" s="112"/>
-      <c r="C8" s="113"/>
-      <c r="D8" s="114"/>
-      <c r="E8" s="115"/>
-      <c r="F8" s="116"/>
-      <c r="G8" s="112"/>
-      <c r="H8" s="117"/>
-      <c r="I8" s="113"/>
-      <c r="J8" s="145"/>
-      <c r="K8" s="146"/>
-      <c r="L8" s="146"/>
-      <c r="M8" s="146"/>
-      <c r="N8" s="146"/>
-      <c r="O8" s="146"/>
-      <c r="P8" s="147"/>
-      <c r="Q8" s="148"/>
-      <c r="R8" s="149"/>
-      <c r="S8" s="149"/>
-      <c r="T8" s="149"/>
-      <c r="U8" s="149"/>
-      <c r="V8" s="149"/>
-      <c r="W8" s="149"/>
-      <c r="X8" s="149"/>
-      <c r="Y8" s="149"/>
-      <c r="Z8" s="149"/>
-      <c r="AA8" s="149"/>
-      <c r="AB8" s="149"/>
-      <c r="AC8" s="149"/>
-      <c r="AD8" s="149"/>
-      <c r="AE8" s="150"/>
-      <c r="AF8" s="145"/>
-      <c r="AG8" s="146"/>
-      <c r="AH8" s="146"/>
-      <c r="AI8" s="147"/>
+      <c r="B8" s="124"/>
+      <c r="C8" s="125"/>
+      <c r="D8" s="126"/>
+      <c r="E8" s="127"/>
+      <c r="F8" s="128"/>
+      <c r="G8" s="124"/>
+      <c r="H8" s="129"/>
+      <c r="I8" s="125"/>
+      <c r="J8" s="109"/>
+      <c r="K8" s="110"/>
+      <c r="L8" s="110"/>
+      <c r="M8" s="110"/>
+      <c r="N8" s="110"/>
+      <c r="O8" s="110"/>
+      <c r="P8" s="111"/>
+      <c r="Q8" s="112"/>
+      <c r="R8" s="113"/>
+      <c r="S8" s="113"/>
+      <c r="T8" s="113"/>
+      <c r="U8" s="113"/>
+      <c r="V8" s="113"/>
+      <c r="W8" s="113"/>
+      <c r="X8" s="113"/>
+      <c r="Y8" s="113"/>
+      <c r="Z8" s="113"/>
+      <c r="AA8" s="113"/>
+      <c r="AB8" s="113"/>
+      <c r="AC8" s="113"/>
+      <c r="AD8" s="113"/>
+      <c r="AE8" s="114"/>
+      <c r="AF8" s="109"/>
+      <c r="AG8" s="110"/>
+      <c r="AH8" s="110"/>
+      <c r="AI8" s="111"/>
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="86"/>
-      <c r="B9" s="100"/>
-      <c r="C9" s="101"/>
-      <c r="D9" s="102"/>
-      <c r="E9" s="103"/>
-      <c r="F9" s="104"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="105"/>
-      <c r="I9" s="101"/>
+      <c r="B9" s="118"/>
+      <c r="C9" s="120"/>
+      <c r="D9" s="151"/>
+      <c r="E9" s="152"/>
+      <c r="F9" s="153"/>
+      <c r="G9" s="118"/>
+      <c r="H9" s="119"/>
+      <c r="I9" s="120"/>
       <c r="J9" s="94"/>
       <c r="K9" s="95"/>
       <c r="L9" s="95"/>
@@ -3888,14 +3888,14 @@
     </row>
     <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="86"/>
-      <c r="B10" s="100"/>
-      <c r="C10" s="101"/>
-      <c r="D10" s="102"/>
-      <c r="E10" s="103"/>
-      <c r="F10" s="104"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="105"/>
-      <c r="I10" s="101"/>
+      <c r="B10" s="118"/>
+      <c r="C10" s="120"/>
+      <c r="D10" s="151"/>
+      <c r="E10" s="152"/>
+      <c r="F10" s="153"/>
+      <c r="G10" s="118"/>
+      <c r="H10" s="119"/>
+      <c r="I10" s="120"/>
       <c r="J10" s="94"/>
       <c r="K10" s="95"/>
       <c r="L10" s="95"/>
@@ -3925,14 +3925,14 @@
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="86"/>
-      <c r="B11" s="100"/>
-      <c r="C11" s="101"/>
-      <c r="D11" s="102"/>
-      <c r="E11" s="103"/>
-      <c r="F11" s="104"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="105"/>
-      <c r="I11" s="101"/>
+      <c r="B11" s="118"/>
+      <c r="C11" s="120"/>
+      <c r="D11" s="151"/>
+      <c r="E11" s="152"/>
+      <c r="F11" s="153"/>
+      <c r="G11" s="118"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="120"/>
       <c r="J11" s="94"/>
       <c r="K11" s="95"/>
       <c r="L11" s="95"/>
@@ -3962,14 +3962,14 @@
     </row>
     <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="86"/>
-      <c r="B12" s="100"/>
-      <c r="C12" s="101"/>
-      <c r="D12" s="102"/>
-      <c r="E12" s="103"/>
-      <c r="F12" s="104"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="105"/>
-      <c r="I12" s="101"/>
+      <c r="B12" s="118"/>
+      <c r="C12" s="120"/>
+      <c r="D12" s="151"/>
+      <c r="E12" s="152"/>
+      <c r="F12" s="153"/>
+      <c r="G12" s="118"/>
+      <c r="H12" s="119"/>
+      <c r="I12" s="120"/>
       <c r="J12" s="94"/>
       <c r="K12" s="95"/>
       <c r="L12" s="95"/>
@@ -3999,14 +3999,14 @@
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="86"/>
-      <c r="B13" s="100"/>
-      <c r="C13" s="101"/>
-      <c r="D13" s="102"/>
-      <c r="E13" s="103"/>
-      <c r="F13" s="104"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="105"/>
-      <c r="I13" s="101"/>
+      <c r="B13" s="118"/>
+      <c r="C13" s="120"/>
+      <c r="D13" s="151"/>
+      <c r="E13" s="152"/>
+      <c r="F13" s="153"/>
+      <c r="G13" s="118"/>
+      <c r="H13" s="119"/>
+      <c r="I13" s="120"/>
       <c r="J13" s="94"/>
       <c r="K13" s="95"/>
       <c r="L13" s="95"/>
@@ -4036,14 +4036,14 @@
     </row>
     <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="86"/>
-      <c r="B14" s="100"/>
-      <c r="C14" s="101"/>
-      <c r="D14" s="102"/>
-      <c r="E14" s="103"/>
-      <c r="F14" s="104"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="105"/>
-      <c r="I14" s="101"/>
+      <c r="B14" s="118"/>
+      <c r="C14" s="120"/>
+      <c r="D14" s="151"/>
+      <c r="E14" s="152"/>
+      <c r="F14" s="153"/>
+      <c r="G14" s="118"/>
+      <c r="H14" s="119"/>
+      <c r="I14" s="120"/>
       <c r="J14" s="94"/>
       <c r="K14" s="95"/>
       <c r="L14" s="95"/>
@@ -4073,14 +4073,14 @@
     </row>
     <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="86"/>
-      <c r="B15" s="100"/>
-      <c r="C15" s="101"/>
-      <c r="D15" s="102"/>
-      <c r="E15" s="103"/>
-      <c r="F15" s="104"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="105"/>
-      <c r="I15" s="101"/>
+      <c r="B15" s="118"/>
+      <c r="C15" s="120"/>
+      <c r="D15" s="151"/>
+      <c r="E15" s="152"/>
+      <c r="F15" s="153"/>
+      <c r="G15" s="118"/>
+      <c r="H15" s="119"/>
+      <c r="I15" s="120"/>
       <c r="J15" s="94"/>
       <c r="K15" s="95"/>
       <c r="L15" s="95"/>
@@ -4110,14 +4110,14 @@
     </row>
     <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="86"/>
-      <c r="B16" s="100"/>
-      <c r="C16" s="101"/>
-      <c r="D16" s="102"/>
-      <c r="E16" s="103"/>
-      <c r="F16" s="104"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="105"/>
-      <c r="I16" s="101"/>
+      <c r="B16" s="118"/>
+      <c r="C16" s="120"/>
+      <c r="D16" s="151"/>
+      <c r="E16" s="152"/>
+      <c r="F16" s="153"/>
+      <c r="G16" s="118"/>
+      <c r="H16" s="119"/>
+      <c r="I16" s="120"/>
       <c r="J16" s="94"/>
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
@@ -4147,14 +4147,14 @@
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="86"/>
-      <c r="B17" s="100"/>
-      <c r="C17" s="101"/>
-      <c r="D17" s="102"/>
-      <c r="E17" s="103"/>
-      <c r="F17" s="104"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="105"/>
-      <c r="I17" s="101"/>
+      <c r="B17" s="118"/>
+      <c r="C17" s="120"/>
+      <c r="D17" s="151"/>
+      <c r="E17" s="152"/>
+      <c r="F17" s="153"/>
+      <c r="G17" s="118"/>
+      <c r="H17" s="119"/>
+      <c r="I17" s="120"/>
       <c r="J17" s="94"/>
       <c r="K17" s="95"/>
       <c r="L17" s="95"/>
@@ -4184,14 +4184,14 @@
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="86"/>
-      <c r="B18" s="100"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="102"/>
-      <c r="E18" s="103"/>
-      <c r="F18" s="104"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="105"/>
-      <c r="I18" s="101"/>
+      <c r="B18" s="118"/>
+      <c r="C18" s="120"/>
+      <c r="D18" s="151"/>
+      <c r="E18" s="152"/>
+      <c r="F18" s="153"/>
+      <c r="G18" s="118"/>
+      <c r="H18" s="119"/>
+      <c r="I18" s="120"/>
       <c r="J18" s="94"/>
       <c r="K18" s="95"/>
       <c r="L18" s="95"/>
@@ -4221,14 +4221,14 @@
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="86"/>
-      <c r="B19" s="100"/>
-      <c r="C19" s="101"/>
-      <c r="D19" s="102"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="104"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="105"/>
-      <c r="I19" s="101"/>
+      <c r="B19" s="118"/>
+      <c r="C19" s="120"/>
+      <c r="D19" s="151"/>
+      <c r="E19" s="152"/>
+      <c r="F19" s="153"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="119"/>
+      <c r="I19" s="120"/>
       <c r="J19" s="94"/>
       <c r="K19" s="95"/>
       <c r="L19" s="95"/>
@@ -4258,14 +4258,14 @@
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="86"/>
-      <c r="B20" s="100"/>
-      <c r="C20" s="101"/>
-      <c r="D20" s="102"/>
-      <c r="E20" s="103"/>
-      <c r="F20" s="104"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="105"/>
-      <c r="I20" s="101"/>
+      <c r="B20" s="118"/>
+      <c r="C20" s="120"/>
+      <c r="D20" s="151"/>
+      <c r="E20" s="152"/>
+      <c r="F20" s="153"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="119"/>
+      <c r="I20" s="120"/>
       <c r="J20" s="94"/>
       <c r="K20" s="95"/>
       <c r="L20" s="95"/>
@@ -4295,14 +4295,14 @@
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="86"/>
-      <c r="B21" s="100"/>
-      <c r="C21" s="101"/>
-      <c r="D21" s="102"/>
-      <c r="E21" s="103"/>
-      <c r="F21" s="104"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="105"/>
-      <c r="I21" s="101"/>
+      <c r="B21" s="118"/>
+      <c r="C21" s="120"/>
+      <c r="D21" s="151"/>
+      <c r="E21" s="152"/>
+      <c r="F21" s="153"/>
+      <c r="G21" s="118"/>
+      <c r="H21" s="119"/>
+      <c r="I21" s="120"/>
       <c r="J21" s="94"/>
       <c r="K21" s="95"/>
       <c r="L21" s="95"/>
@@ -4332,14 +4332,14 @@
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="86"/>
-      <c r="B22" s="100"/>
-      <c r="C22" s="101"/>
-      <c r="D22" s="102"/>
-      <c r="E22" s="103"/>
-      <c r="F22" s="104"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="105"/>
-      <c r="I22" s="101"/>
+      <c r="B22" s="118"/>
+      <c r="C22" s="120"/>
+      <c r="D22" s="151"/>
+      <c r="E22" s="152"/>
+      <c r="F22" s="153"/>
+      <c r="G22" s="118"/>
+      <c r="H22" s="119"/>
+      <c r="I22" s="120"/>
       <c r="J22" s="94"/>
       <c r="K22" s="95"/>
       <c r="L22" s="95"/>
@@ -4369,14 +4369,14 @@
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="86"/>
-      <c r="B23" s="100"/>
-      <c r="C23" s="101"/>
-      <c r="D23" s="102"/>
-      <c r="E23" s="103"/>
-      <c r="F23" s="104"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="105"/>
-      <c r="I23" s="101"/>
+      <c r="B23" s="118"/>
+      <c r="C23" s="120"/>
+      <c r="D23" s="151"/>
+      <c r="E23" s="152"/>
+      <c r="F23" s="153"/>
+      <c r="G23" s="118"/>
+      <c r="H23" s="119"/>
+      <c r="I23" s="120"/>
       <c r="J23" s="94"/>
       <c r="K23" s="95"/>
       <c r="L23" s="95"/>
@@ -4406,14 +4406,14 @@
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="86"/>
-      <c r="B24" s="100"/>
-      <c r="C24" s="101"/>
-      <c r="D24" s="102"/>
-      <c r="E24" s="103"/>
-      <c r="F24" s="104"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="105"/>
-      <c r="I24" s="101"/>
+      <c r="B24" s="118"/>
+      <c r="C24" s="120"/>
+      <c r="D24" s="151"/>
+      <c r="E24" s="152"/>
+      <c r="F24" s="153"/>
+      <c r="G24" s="118"/>
+      <c r="H24" s="119"/>
+      <c r="I24" s="120"/>
       <c r="J24" s="94"/>
       <c r="K24" s="95"/>
       <c r="L24" s="95"/>
@@ -4443,14 +4443,14 @@
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="86"/>
-      <c r="B25" s="100"/>
-      <c r="C25" s="101"/>
-      <c r="D25" s="102"/>
-      <c r="E25" s="103"/>
-      <c r="F25" s="104"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="105"/>
-      <c r="I25" s="101"/>
+      <c r="B25" s="118"/>
+      <c r="C25" s="120"/>
+      <c r="D25" s="151"/>
+      <c r="E25" s="152"/>
+      <c r="F25" s="153"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="119"/>
+      <c r="I25" s="120"/>
       <c r="J25" s="94"/>
       <c r="K25" s="95"/>
       <c r="L25" s="95"/>
@@ -4480,14 +4480,14 @@
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="86"/>
-      <c r="B26" s="100"/>
-      <c r="C26" s="101"/>
-      <c r="D26" s="102"/>
-      <c r="E26" s="103"/>
-      <c r="F26" s="104"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="105"/>
-      <c r="I26" s="101"/>
+      <c r="B26" s="118"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="151"/>
+      <c r="E26" s="152"/>
+      <c r="F26" s="153"/>
+      <c r="G26" s="118"/>
+      <c r="H26" s="119"/>
+      <c r="I26" s="120"/>
       <c r="J26" s="94"/>
       <c r="K26" s="95"/>
       <c r="L26" s="95"/>
@@ -4517,14 +4517,14 @@
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="86"/>
-      <c r="B27" s="100"/>
-      <c r="C27" s="101"/>
-      <c r="D27" s="102"/>
-      <c r="E27" s="103"/>
-      <c r="F27" s="104"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="105"/>
-      <c r="I27" s="101"/>
+      <c r="B27" s="118"/>
+      <c r="C27" s="120"/>
+      <c r="D27" s="151"/>
+      <c r="E27" s="152"/>
+      <c r="F27" s="153"/>
+      <c r="G27" s="118"/>
+      <c r="H27" s="119"/>
+      <c r="I27" s="120"/>
       <c r="J27" s="94"/>
       <c r="K27" s="95"/>
       <c r="L27" s="95"/>
@@ -4554,14 +4554,14 @@
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="86"/>
-      <c r="B28" s="100"/>
-      <c r="C28" s="101"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="103"/>
-      <c r="F28" s="104"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="105"/>
-      <c r="I28" s="101"/>
+      <c r="B28" s="118"/>
+      <c r="C28" s="120"/>
+      <c r="D28" s="151"/>
+      <c r="E28" s="152"/>
+      <c r="F28" s="153"/>
+      <c r="G28" s="118"/>
+      <c r="H28" s="119"/>
+      <c r="I28" s="120"/>
       <c r="J28" s="94"/>
       <c r="K28" s="95"/>
       <c r="L28" s="95"/>
@@ -4591,14 +4591,14 @@
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="86"/>
-      <c r="B29" s="100"/>
-      <c r="C29" s="101"/>
-      <c r="D29" s="102"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="104"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="105"/>
-      <c r="I29" s="101"/>
+      <c r="B29" s="118"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="151"/>
+      <c r="E29" s="152"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="118"/>
+      <c r="H29" s="119"/>
+      <c r="I29" s="120"/>
       <c r="J29" s="94"/>
       <c r="K29" s="95"/>
       <c r="L29" s="95"/>
@@ -4628,14 +4628,14 @@
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="86"/>
-      <c r="B30" s="100"/>
-      <c r="C30" s="101"/>
-      <c r="D30" s="102"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="105"/>
-      <c r="I30" s="101"/>
+      <c r="B30" s="118"/>
+      <c r="C30" s="120"/>
+      <c r="D30" s="151"/>
+      <c r="E30" s="152"/>
+      <c r="F30" s="153"/>
+      <c r="G30" s="118"/>
+      <c r="H30" s="119"/>
+      <c r="I30" s="120"/>
       <c r="J30" s="94"/>
       <c r="K30" s="95"/>
       <c r="L30" s="95"/>
@@ -4665,14 +4665,14 @@
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="86"/>
-      <c r="B31" s="100"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="102"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="105"/>
-      <c r="I31" s="101"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="120"/>
+      <c r="D31" s="151"/>
+      <c r="E31" s="152"/>
+      <c r="F31" s="153"/>
+      <c r="G31" s="118"/>
+      <c r="H31" s="119"/>
+      <c r="I31" s="120"/>
       <c r="J31" s="94"/>
       <c r="K31" s="95"/>
       <c r="L31" s="95"/>
@@ -4703,14 +4703,14 @@
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="86"/>
-      <c r="B32" s="100"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="102"/>
-      <c r="E32" s="103"/>
-      <c r="F32" s="104"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="105"/>
-      <c r="I32" s="101"/>
+      <c r="B32" s="118"/>
+      <c r="C32" s="120"/>
+      <c r="D32" s="151"/>
+      <c r="E32" s="152"/>
+      <c r="F32" s="153"/>
+      <c r="G32" s="118"/>
+      <c r="H32" s="119"/>
+      <c r="I32" s="120"/>
       <c r="J32" s="94"/>
       <c r="K32" s="95"/>
       <c r="L32" s="95"/>
@@ -4741,14 +4741,14 @@
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="86"/>
-      <c r="B33" s="100"/>
-      <c r="C33" s="101"/>
-      <c r="D33" s="102"/>
-      <c r="E33" s="103"/>
-      <c r="F33" s="104"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="105"/>
-      <c r="I33" s="101"/>
+      <c r="B33" s="118"/>
+      <c r="C33" s="120"/>
+      <c r="D33" s="151"/>
+      <c r="E33" s="152"/>
+      <c r="F33" s="153"/>
+      <c r="G33" s="118"/>
+      <c r="H33" s="119"/>
+      <c r="I33" s="120"/>
       <c r="J33" s="94"/>
       <c r="K33" s="95"/>
       <c r="L33" s="95"/>
@@ -4969,6 +4969,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="J27:P27"/>
+    <mergeCell ref="Q27:AE27"/>
+    <mergeCell ref="AF27:AI27"/>
+    <mergeCell ref="J28:P28"/>
+    <mergeCell ref="Q28:AE28"/>
+    <mergeCell ref="AF28:AI28"/>
+    <mergeCell ref="Q33:AE33"/>
+    <mergeCell ref="AF33:AI33"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="J33:P33"/>
+    <mergeCell ref="J31:P31"/>
+    <mergeCell ref="Q31:AE31"/>
+    <mergeCell ref="AF31:AI31"/>
+    <mergeCell ref="J32:P32"/>
+    <mergeCell ref="Q32:AE32"/>
+    <mergeCell ref="AF32:AI32"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
     <mergeCell ref="J30:P30"/>
     <mergeCell ref="Q30:AE30"/>
     <mergeCell ref="AF30:AI30"/>
@@ -4993,161 +5148,6 @@
     <mergeCell ref="Q29:AE29"/>
     <mergeCell ref="AF29:AI29"/>
     <mergeCell ref="AF26:AI26"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="J27:P27"/>
-    <mergeCell ref="Q27:AE27"/>
-    <mergeCell ref="AF27:AI27"/>
-    <mergeCell ref="J28:P28"/>
-    <mergeCell ref="Q28:AE28"/>
-    <mergeCell ref="AF28:AI28"/>
-    <mergeCell ref="Q33:AE33"/>
-    <mergeCell ref="AF33:AI33"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="J33:P33"/>
-    <mergeCell ref="J31:P31"/>
-    <mergeCell ref="Q31:AE31"/>
-    <mergeCell ref="AF31:AI31"/>
-    <mergeCell ref="J32:P32"/>
-    <mergeCell ref="Q32:AE32"/>
-    <mergeCell ref="AF32:AI32"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5304,31 +5304,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="130" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="121" t="s">
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="133" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="123"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
       <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -5340,48 +5340,48 @@
       <c r="X1" s="155"/>
       <c r="Y1" s="155"/>
       <c r="Z1" s="156"/>
-      <c r="AA1" s="118" t="s">
+      <c r="AA1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="109" t="str">
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="139" t="str">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="140"/>
-      <c r="AI1" s="141"/>
+      <c r="AH1" s="101"/>
+      <c r="AI1" s="102"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="126"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
       <c r="S2" s="157"/>
       <c r="T2" s="158"/>
       <c r="U2" s="158"/>
@@ -5390,48 +5390,48 @@
       <c r="X2" s="158"/>
       <c r="Y2" s="158"/>
       <c r="Z2" s="159"/>
-      <c r="AA2" s="118" t="s">
+      <c r="AA2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="109" t="str">
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="139" t="str">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="140"/>
-      <c r="AI2" s="141"/>
+      <c r="AH2" s="101"/>
+      <c r="AI2" s="102"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="129"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
       <c r="S3" s="160"/>
       <c r="T3" s="161"/>
       <c r="U3" s="161"/>
@@ -5440,21 +5440,21 @@
       <c r="X3" s="161"/>
       <c r="Y3" s="161"/>
       <c r="Z3" s="162"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="109" t="str">
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="139" t="str">
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="100" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="140"/>
-      <c r="AI3" s="141"/>
+      <c r="AH3" s="101"/>
+      <c r="AI3" s="102"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -6914,6 +6914,12 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6925,12 +6931,6 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6961,31 +6961,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="118" t="s">
+      <c r="A1" s="130" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="119"/>
-      <c r="C1" s="119"/>
-      <c r="D1" s="120"/>
-      <c r="E1" s="151" t="str">
+      <c r="B1" s="131"/>
+      <c r="C1" s="131"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="152"/>
-      <c r="G1" s="152"/>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="152"/>
-      <c r="K1" s="152"/>
-      <c r="L1" s="152"/>
-      <c r="M1" s="152"/>
-      <c r="N1" s="153"/>
-      <c r="O1" s="121" t="s">
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="116"/>
+      <c r="I1" s="116"/>
+      <c r="J1" s="116"/>
+      <c r="K1" s="116"/>
+      <c r="L1" s="116"/>
+      <c r="M1" s="116"/>
+      <c r="N1" s="117"/>
+      <c r="O1" s="133" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="122"/>
-      <c r="Q1" s="122"/>
-      <c r="R1" s="123"/>
+      <c r="P1" s="134"/>
+      <c r="Q1" s="134"/>
+      <c r="R1" s="135"/>
       <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -6997,51 +6997,51 @@
       <c r="X1" s="155"/>
       <c r="Y1" s="155"/>
       <c r="Z1" s="156"/>
-      <c r="AA1" s="118" t="s">
+      <c r="AA1" s="130" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="120"/>
-      <c r="AC1" s="109" t="str">
+      <c r="AB1" s="132"/>
+      <c r="AC1" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="110"/>
-      <c r="AE1" s="110"/>
-      <c r="AF1" s="111"/>
-      <c r="AG1" s="204" t="str">
+      <c r="AD1" s="107"/>
+      <c r="AE1" s="107"/>
+      <c r="AF1" s="108"/>
+      <c r="AG1" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="205"/>
-      <c r="AI1" s="206"/>
+      <c r="AH1" s="191"/>
+      <c r="AI1" s="192"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="130" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="120"/>
-      <c r="E2" s="151" t="str">
+      <c r="B2" s="131"/>
+      <c r="C2" s="131"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="152"/>
-      <c r="G2" s="152"/>
-      <c r="H2" s="152"/>
-      <c r="I2" s="152"/>
-      <c r="J2" s="152"/>
-      <c r="K2" s="152"/>
-      <c r="L2" s="152"/>
-      <c r="M2" s="152"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="124"/>
-      <c r="P2" s="125"/>
-      <c r="Q2" s="125"/>
-      <c r="R2" s="126"/>
+      <c r="F2" s="116"/>
+      <c r="G2" s="116"/>
+      <c r="H2" s="116"/>
+      <c r="I2" s="116"/>
+      <c r="J2" s="116"/>
+      <c r="K2" s="116"/>
+      <c r="L2" s="116"/>
+      <c r="M2" s="116"/>
+      <c r="N2" s="117"/>
+      <c r="O2" s="136"/>
+      <c r="P2" s="137"/>
+      <c r="Q2" s="137"/>
+      <c r="R2" s="138"/>
       <c r="S2" s="157"/>
       <c r="T2" s="158"/>
       <c r="U2" s="158"/>
@@ -7050,51 +7050,51 @@
       <c r="X2" s="158"/>
       <c r="Y2" s="158"/>
       <c r="Z2" s="159"/>
-      <c r="AA2" s="118" t="s">
+      <c r="AA2" s="130" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="109" t="str">
+      <c r="AB2" s="132"/>
+      <c r="AC2" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="110"/>
-      <c r="AE2" s="110"/>
-      <c r="AF2" s="111"/>
-      <c r="AG2" s="204" t="str">
+      <c r="AD2" s="107"/>
+      <c r="AE2" s="107"/>
+      <c r="AF2" s="108"/>
+      <c r="AG2" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="205"/>
-      <c r="AI2" s="206"/>
+      <c r="AH2" s="191"/>
+      <c r="AI2" s="192"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
     </row>
     <row r="3" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="118" t="s">
+      <c r="A3" s="130" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="151" t="str">
+      <c r="B3" s="131"/>
+      <c r="C3" s="131"/>
+      <c r="D3" s="132"/>
+      <c r="E3" s="115" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="152"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="153"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="129"/>
+      <c r="F3" s="116"/>
+      <c r="G3" s="116"/>
+      <c r="H3" s="116"/>
+      <c r="I3" s="116"/>
+      <c r="J3" s="116"/>
+      <c r="K3" s="116"/>
+      <c r="L3" s="116"/>
+      <c r="M3" s="116"/>
+      <c r="N3" s="117"/>
+      <c r="O3" s="139"/>
+      <c r="P3" s="140"/>
+      <c r="Q3" s="140"/>
+      <c r="R3" s="141"/>
       <c r="S3" s="160"/>
       <c r="T3" s="161"/>
       <c r="U3" s="161"/>
@@ -7103,21 +7103,21 @@
       <c r="X3" s="161"/>
       <c r="Y3" s="161"/>
       <c r="Z3" s="162"/>
-      <c r="AA3" s="118"/>
-      <c r="AB3" s="120"/>
-      <c r="AC3" s="109" t="str">
+      <c r="AA3" s="130"/>
+      <c r="AB3" s="132"/>
+      <c r="AC3" s="106" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="110"/>
-      <c r="AE3" s="110"/>
-      <c r="AF3" s="111"/>
-      <c r="AG3" s="204" t="str">
+      <c r="AD3" s="107"/>
+      <c r="AE3" s="107"/>
+      <c r="AF3" s="108"/>
+      <c r="AG3" s="190" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="205"/>
-      <c r="AI3" s="206"/>
+      <c r="AH3" s="191"/>
+      <c r="AI3" s="192"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -7146,758 +7146,908 @@
       <c r="BI6" s="25"/>
     </row>
     <row r="7" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B7" s="167" t="s">
+      <c r="B7" s="216" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="166" t="s">
+      <c r="C7" s="176" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="166"/>
-      <c r="E7" s="166"/>
-      <c r="F7" s="208" t="s">
+      <c r="D7" s="176"/>
+      <c r="E7" s="176"/>
+      <c r="F7" s="196" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="208"/>
-      <c r="H7" s="208"/>
-      <c r="I7" s="208"/>
-      <c r="J7" s="208"/>
-      <c r="K7" s="208"/>
-      <c r="L7" s="208"/>
-      <c r="M7" s="212" t="s">
+      <c r="G7" s="196"/>
+      <c r="H7" s="196"/>
+      <c r="I7" s="196"/>
+      <c r="J7" s="196"/>
+      <c r="K7" s="196"/>
+      <c r="L7" s="196"/>
+      <c r="M7" s="183" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="213"/>
-      <c r="O7" s="176" t="s">
+      <c r="N7" s="184"/>
+      <c r="O7" s="177" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="177"/>
-      <c r="Q7" s="177"/>
-      <c r="R7" s="177"/>
-      <c r="S7" s="178"/>
-      <c r="T7" s="166" t="s">
+      <c r="P7" s="178"/>
+      <c r="Q7" s="178"/>
+      <c r="R7" s="178"/>
+      <c r="S7" s="179"/>
+      <c r="T7" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="166"/>
-      <c r="V7" s="212" t="s">
+      <c r="U7" s="176"/>
+      <c r="V7" s="183" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="216"/>
-      <c r="X7" s="216"/>
-      <c r="Y7" s="213"/>
-      <c r="Z7" s="166" t="s">
+      <c r="W7" s="187"/>
+      <c r="X7" s="187"/>
+      <c r="Y7" s="184"/>
+      <c r="Z7" s="176" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="166"/>
-      <c r="AB7" s="176" t="s">
+      <c r="AA7" s="176"/>
+      <c r="AB7" s="177" t="s">
         <v>1</v>
       </c>
-      <c r="AC7" s="177"/>
-      <c r="AD7" s="178"/>
-      <c r="AE7" s="163" t="s">
+      <c r="AC7" s="178"/>
+      <c r="AD7" s="179"/>
+      <c r="AE7" s="209" t="s">
         <v>19</v>
       </c>
-      <c r="AF7" s="164"/>
-      <c r="AG7" s="164"/>
-      <c r="AH7" s="164"/>
-      <c r="AI7" s="164"/>
-      <c r="AJ7" s="164"/>
-      <c r="AK7" s="164"/>
-      <c r="AL7" s="164"/>
-      <c r="AM7" s="165"/>
-      <c r="AN7" s="166" t="s">
+      <c r="AF7" s="211"/>
+      <c r="AG7" s="211"/>
+      <c r="AH7" s="211"/>
+      <c r="AI7" s="211"/>
+      <c r="AJ7" s="211"/>
+      <c r="AK7" s="211"/>
+      <c r="AL7" s="211"/>
+      <c r="AM7" s="210"/>
+      <c r="AN7" s="176" t="s">
         <v>0</v>
       </c>
-      <c r="AO7" s="166"/>
-      <c r="AP7" s="166"/>
-      <c r="AQ7" s="166"/>
-      <c r="AR7" s="166"/>
-      <c r="AS7" s="166"/>
-      <c r="AT7" s="166" t="s">
+      <c r="AO7" s="176"/>
+      <c r="AP7" s="176"/>
+      <c r="AQ7" s="176"/>
+      <c r="AR7" s="176"/>
+      <c r="AS7" s="176"/>
+      <c r="AT7" s="176" t="s">
         <v>30</v>
       </c>
-      <c r="AU7" s="166"/>
-      <c r="AV7" s="166"/>
-      <c r="AW7" s="166"/>
-      <c r="AX7" s="166" t="s">
+      <c r="AU7" s="176"/>
+      <c r="AV7" s="176"/>
+      <c r="AW7" s="176"/>
+      <c r="AX7" s="176" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="166"/>
-      <c r="AZ7" s="166"/>
-      <c r="BA7" s="166"/>
-      <c r="BB7" s="166"/>
-      <c r="BC7" s="166"/>
-      <c r="BD7" s="166"/>
-      <c r="BE7" s="166"/>
-      <c r="BF7" s="166"/>
+      <c r="AY7" s="176"/>
+      <c r="AZ7" s="176"/>
+      <c r="BA7" s="176"/>
+      <c r="BB7" s="176"/>
+      <c r="BC7" s="176"/>
+      <c r="BD7" s="176"/>
+      <c r="BE7" s="176"/>
+      <c r="BF7" s="176"/>
       <c r="BG7" s="26"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
     </row>
     <row r="8" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B8" s="168"/>
-      <c r="C8" s="166"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="166"/>
-      <c r="F8" s="208"/>
-      <c r="G8" s="208"/>
-      <c r="H8" s="208"/>
-      <c r="I8" s="208"/>
-      <c r="J8" s="208"/>
-      <c r="K8" s="208"/>
-      <c r="L8" s="208"/>
-      <c r="M8" s="214"/>
-      <c r="N8" s="215"/>
-      <c r="O8" s="179"/>
-      <c r="P8" s="180"/>
-      <c r="Q8" s="180"/>
-      <c r="R8" s="180"/>
-      <c r="S8" s="181"/>
-      <c r="T8" s="166"/>
-      <c r="U8" s="166"/>
-      <c r="V8" s="214"/>
-      <c r="W8" s="217"/>
-      <c r="X8" s="217"/>
-      <c r="Y8" s="215"/>
-      <c r="Z8" s="166"/>
-      <c r="AA8" s="166"/>
-      <c r="AB8" s="179"/>
-      <c r="AC8" s="180"/>
-      <c r="AD8" s="181"/>
-      <c r="AE8" s="163" t="s">
+      <c r="B8" s="217"/>
+      <c r="C8" s="176"/>
+      <c r="D8" s="176"/>
+      <c r="E8" s="176"/>
+      <c r="F8" s="196"/>
+      <c r="G8" s="196"/>
+      <c r="H8" s="196"/>
+      <c r="I8" s="196"/>
+      <c r="J8" s="196"/>
+      <c r="K8" s="196"/>
+      <c r="L8" s="196"/>
+      <c r="M8" s="185"/>
+      <c r="N8" s="186"/>
+      <c r="O8" s="180"/>
+      <c r="P8" s="181"/>
+      <c r="Q8" s="181"/>
+      <c r="R8" s="181"/>
+      <c r="S8" s="182"/>
+      <c r="T8" s="176"/>
+      <c r="U8" s="176"/>
+      <c r="V8" s="185"/>
+      <c r="W8" s="188"/>
+      <c r="X8" s="188"/>
+      <c r="Y8" s="186"/>
+      <c r="Z8" s="176"/>
+      <c r="AA8" s="176"/>
+      <c r="AB8" s="180"/>
+      <c r="AC8" s="181"/>
+      <c r="AD8" s="182"/>
+      <c r="AE8" s="209" t="s">
         <v>41</v>
       </c>
-      <c r="AF8" s="164"/>
-      <c r="AG8" s="165"/>
-      <c r="AH8" s="166" t="s">
+      <c r="AF8" s="211"/>
+      <c r="AG8" s="210"/>
+      <c r="AH8" s="176" t="s">
         <v>34</v>
       </c>
-      <c r="AI8" s="166"/>
-      <c r="AJ8" s="166"/>
-      <c r="AK8" s="166"/>
-      <c r="AL8" s="166"/>
-      <c r="AM8" s="166"/>
-      <c r="AN8" s="163" t="s">
+      <c r="AI8" s="176"/>
+      <c r="AJ8" s="176"/>
+      <c r="AK8" s="176"/>
+      <c r="AL8" s="176"/>
+      <c r="AM8" s="176"/>
+      <c r="AN8" s="209" t="s">
         <v>29</v>
       </c>
-      <c r="AO8" s="165"/>
-      <c r="AP8" s="166" t="s">
+      <c r="AO8" s="210"/>
+      <c r="AP8" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="AQ8" s="166"/>
-      <c r="AR8" s="166"/>
-      <c r="AS8" s="166"/>
-      <c r="AT8" s="166"/>
-      <c r="AU8" s="166"/>
-      <c r="AV8" s="166"/>
-      <c r="AW8" s="166"/>
-      <c r="AX8" s="166"/>
-      <c r="AY8" s="166"/>
-      <c r="AZ8" s="166"/>
-      <c r="BA8" s="166"/>
-      <c r="BB8" s="166"/>
-      <c r="BC8" s="166"/>
-      <c r="BD8" s="166"/>
-      <c r="BE8" s="166"/>
-      <c r="BF8" s="166"/>
+      <c r="AQ8" s="176"/>
+      <c r="AR8" s="176"/>
+      <c r="AS8" s="176"/>
+      <c r="AT8" s="176"/>
+      <c r="AU8" s="176"/>
+      <c r="AV8" s="176"/>
+      <c r="AW8" s="176"/>
+      <c r="AX8" s="176"/>
+      <c r="AY8" s="176"/>
+      <c r="AZ8" s="176"/>
+      <c r="BA8" s="176"/>
+      <c r="BB8" s="176"/>
+      <c r="BC8" s="176"/>
+      <c r="BD8" s="176"/>
+      <c r="BE8" s="176"/>
+      <c r="BF8" s="176"/>
       <c r="BG8" s="26"/>
       <c r="BH8" s="26"/>
       <c r="BI8" s="26"/>
     </row>
     <row r="9" spans="1:61" ht="13.5" customHeight="1">
       <c r="B9" s="87"/>
-      <c r="C9" s="172"/>
-      <c r="D9" s="172"/>
-      <c r="E9" s="172"/>
-      <c r="F9" s="172"/>
-      <c r="G9" s="172"/>
-      <c r="H9" s="172"/>
-      <c r="I9" s="172"/>
-      <c r="J9" s="172"/>
-      <c r="K9" s="172"/>
-      <c r="L9" s="172"/>
+      <c r="C9" s="193"/>
+      <c r="D9" s="193"/>
+      <c r="E9" s="193"/>
+      <c r="F9" s="193"/>
+      <c r="G9" s="193"/>
+      <c r="H9" s="193"/>
+      <c r="I9" s="193"/>
+      <c r="J9" s="193"/>
+      <c r="K9" s="193"/>
+      <c r="L9" s="193"/>
       <c r="M9" s="97"/>
       <c r="N9" s="99"/>
-      <c r="O9" s="173"/>
-      <c r="P9" s="174"/>
-      <c r="Q9" s="174"/>
-      <c r="R9" s="174"/>
-      <c r="S9" s="175"/>
-      <c r="T9" s="203"/>
-      <c r="U9" s="203"/>
-      <c r="V9" s="173"/>
-      <c r="W9" s="174"/>
-      <c r="X9" s="174"/>
-      <c r="Y9" s="175"/>
-      <c r="Z9" s="172"/>
-      <c r="AA9" s="172"/>
-      <c r="AB9" s="173"/>
-      <c r="AC9" s="174"/>
-      <c r="AD9" s="175"/>
-      <c r="AE9" s="169"/>
-      <c r="AF9" s="170"/>
-      <c r="AG9" s="171"/>
-      <c r="AH9" s="173"/>
-      <c r="AI9" s="174"/>
-      <c r="AJ9" s="174"/>
-      <c r="AK9" s="174"/>
-      <c r="AL9" s="174"/>
-      <c r="AM9" s="175"/>
-      <c r="AN9" s="184"/>
-      <c r="AO9" s="185"/>
-      <c r="AP9" s="183"/>
-      <c r="AQ9" s="183"/>
-      <c r="AR9" s="183"/>
-      <c r="AS9" s="183"/>
-      <c r="AT9" s="186"/>
-      <c r="AU9" s="186"/>
-      <c r="AV9" s="186"/>
-      <c r="AW9" s="186"/>
-      <c r="AX9" s="172"/>
-      <c r="AY9" s="172"/>
-      <c r="AZ9" s="172"/>
-      <c r="BA9" s="172"/>
-      <c r="BB9" s="172"/>
-      <c r="BC9" s="172"/>
-      <c r="BD9" s="172"/>
-      <c r="BE9" s="172"/>
-      <c r="BF9" s="172"/>
+      <c r="O9" s="168"/>
+      <c r="P9" s="169"/>
+      <c r="Q9" s="169"/>
+      <c r="R9" s="169"/>
+      <c r="S9" s="170"/>
+      <c r="T9" s="167"/>
+      <c r="U9" s="167"/>
+      <c r="V9" s="168"/>
+      <c r="W9" s="169"/>
+      <c r="X9" s="169"/>
+      <c r="Y9" s="170"/>
+      <c r="Z9" s="193"/>
+      <c r="AA9" s="193"/>
+      <c r="AB9" s="168"/>
+      <c r="AC9" s="169"/>
+      <c r="AD9" s="170"/>
+      <c r="AE9" s="197"/>
+      <c r="AF9" s="198"/>
+      <c r="AG9" s="199"/>
+      <c r="AH9" s="168"/>
+      <c r="AI9" s="169"/>
+      <c r="AJ9" s="169"/>
+      <c r="AK9" s="169"/>
+      <c r="AL9" s="169"/>
+      <c r="AM9" s="170"/>
+      <c r="AN9" s="200"/>
+      <c r="AO9" s="201"/>
+      <c r="AP9" s="202"/>
+      <c r="AQ9" s="202"/>
+      <c r="AR9" s="202"/>
+      <c r="AS9" s="202"/>
+      <c r="AT9" s="205"/>
+      <c r="AU9" s="205"/>
+      <c r="AV9" s="205"/>
+      <c r="AW9" s="205"/>
+      <c r="AX9" s="193"/>
+      <c r="AY9" s="193"/>
+      <c r="AZ9" s="193"/>
+      <c r="BA9" s="193"/>
+      <c r="BB9" s="193"/>
+      <c r="BC9" s="193"/>
+      <c r="BD9" s="193"/>
+      <c r="BE9" s="193"/>
+      <c r="BF9" s="193"/>
       <c r="BG9" s="27"/>
       <c r="BH9" s="27"/>
       <c r="BI9" s="27"/>
     </row>
     <row r="10" spans="1:61" ht="11.25" customHeight="1">
       <c r="B10" s="87"/>
-      <c r="C10" s="191"/>
-      <c r="D10" s="191"/>
-      <c r="E10" s="191"/>
-      <c r="F10" s="182"/>
-      <c r="G10" s="182"/>
-      <c r="H10" s="182"/>
-      <c r="I10" s="182"/>
-      <c r="J10" s="182"/>
-      <c r="K10" s="182"/>
-      <c r="L10" s="182"/>
+      <c r="C10" s="194"/>
+      <c r="D10" s="194"/>
+      <c r="E10" s="194"/>
+      <c r="F10" s="189"/>
+      <c r="G10" s="189"/>
+      <c r="H10" s="189"/>
+      <c r="I10" s="189"/>
+      <c r="J10" s="189"/>
+      <c r="K10" s="189"/>
+      <c r="L10" s="189"/>
       <c r="M10" s="97"/>
       <c r="N10" s="99"/>
-      <c r="O10" s="193"/>
-      <c r="P10" s="194"/>
-      <c r="Q10" s="194"/>
-      <c r="R10" s="194"/>
-      <c r="S10" s="195"/>
-      <c r="T10" s="207"/>
-      <c r="U10" s="207"/>
-      <c r="V10" s="193"/>
-      <c r="W10" s="194"/>
-      <c r="X10" s="194"/>
-      <c r="Y10" s="195"/>
-      <c r="Z10" s="191"/>
-      <c r="AA10" s="191"/>
-      <c r="AB10" s="193"/>
-      <c r="AC10" s="194"/>
-      <c r="AD10" s="195"/>
-      <c r="AE10" s="188"/>
-      <c r="AF10" s="189"/>
-      <c r="AG10" s="190"/>
-      <c r="AH10" s="191"/>
-      <c r="AI10" s="191"/>
-      <c r="AJ10" s="191"/>
-      <c r="AK10" s="191"/>
-      <c r="AL10" s="191"/>
-      <c r="AM10" s="191"/>
-      <c r="AN10" s="184"/>
-      <c r="AO10" s="185"/>
-      <c r="AP10" s="192"/>
-      <c r="AQ10" s="192"/>
-      <c r="AR10" s="192"/>
-      <c r="AS10" s="192"/>
-      <c r="AT10" s="186"/>
-      <c r="AU10" s="186"/>
-      <c r="AV10" s="186"/>
-      <c r="AW10" s="186"/>
-      <c r="AX10" s="191"/>
-      <c r="AY10" s="191"/>
-      <c r="AZ10" s="191"/>
-      <c r="BA10" s="191"/>
-      <c r="BB10" s="191"/>
-      <c r="BC10" s="191"/>
-      <c r="BD10" s="191"/>
-      <c r="BE10" s="191"/>
-      <c r="BF10" s="191"/>
+      <c r="O10" s="164"/>
+      <c r="P10" s="165"/>
+      <c r="Q10" s="165"/>
+      <c r="R10" s="165"/>
+      <c r="S10" s="166"/>
+      <c r="T10" s="195"/>
+      <c r="U10" s="195"/>
+      <c r="V10" s="164"/>
+      <c r="W10" s="165"/>
+      <c r="X10" s="165"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="194"/>
+      <c r="AA10" s="194"/>
+      <c r="AB10" s="164"/>
+      <c r="AC10" s="165"/>
+      <c r="AD10" s="166"/>
+      <c r="AE10" s="213"/>
+      <c r="AF10" s="214"/>
+      <c r="AG10" s="215"/>
+      <c r="AH10" s="194"/>
+      <c r="AI10" s="194"/>
+      <c r="AJ10" s="194"/>
+      <c r="AK10" s="194"/>
+      <c r="AL10" s="194"/>
+      <c r="AM10" s="194"/>
+      <c r="AN10" s="200"/>
+      <c r="AO10" s="201"/>
+      <c r="AP10" s="203"/>
+      <c r="AQ10" s="203"/>
+      <c r="AR10" s="203"/>
+      <c r="AS10" s="203"/>
+      <c r="AT10" s="205"/>
+      <c r="AU10" s="205"/>
+      <c r="AV10" s="205"/>
+      <c r="AW10" s="205"/>
+      <c r="AX10" s="194"/>
+      <c r="AY10" s="194"/>
+      <c r="AZ10" s="194"/>
+      <c r="BA10" s="194"/>
+      <c r="BB10" s="194"/>
+      <c r="BC10" s="194"/>
+      <c r="BD10" s="194"/>
+      <c r="BE10" s="194"/>
+      <c r="BF10" s="194"/>
     </row>
     <row r="11" spans="1:61" ht="11.25" customHeight="1">
       <c r="B11" s="87"/>
-      <c r="C11" s="182"/>
-      <c r="D11" s="182"/>
-      <c r="E11" s="182"/>
-      <c r="F11" s="182"/>
-      <c r="G11" s="182"/>
-      <c r="H11" s="182"/>
-      <c r="I11" s="182"/>
-      <c r="J11" s="182"/>
-      <c r="K11" s="182"/>
-      <c r="L11" s="182"/>
+      <c r="C11" s="189"/>
+      <c r="D11" s="189"/>
+      <c r="E11" s="189"/>
+      <c r="F11" s="189"/>
+      <c r="G11" s="189"/>
+      <c r="H11" s="189"/>
+      <c r="I11" s="189"/>
+      <c r="J11" s="189"/>
+      <c r="K11" s="189"/>
+      <c r="L11" s="189"/>
       <c r="M11" s="97"/>
       <c r="N11" s="99"/>
-      <c r="O11" s="197"/>
-      <c r="P11" s="198"/>
-      <c r="Q11" s="198"/>
-      <c r="R11" s="198"/>
-      <c r="S11" s="199"/>
-      <c r="T11" s="209"/>
-      <c r="U11" s="209"/>
-      <c r="V11" s="197"/>
-      <c r="W11" s="198"/>
-      <c r="X11" s="198"/>
-      <c r="Y11" s="199"/>
-      <c r="Z11" s="182"/>
-      <c r="AA11" s="182"/>
-      <c r="AB11" s="197"/>
-      <c r="AC11" s="198"/>
-      <c r="AD11" s="199"/>
-      <c r="AE11" s="200"/>
-      <c r="AF11" s="201"/>
-      <c r="AG11" s="202"/>
-      <c r="AH11" s="182"/>
-      <c r="AI11" s="182"/>
-      <c r="AJ11" s="182"/>
-      <c r="AK11" s="182"/>
-      <c r="AL11" s="182"/>
-      <c r="AM11" s="182"/>
-      <c r="AN11" s="184"/>
-      <c r="AO11" s="185"/>
-      <c r="AP11" s="196"/>
-      <c r="AQ11" s="196"/>
-      <c r="AR11" s="196"/>
-      <c r="AS11" s="196"/>
-      <c r="AT11" s="186"/>
-      <c r="AU11" s="186"/>
-      <c r="AV11" s="186"/>
-      <c r="AW11" s="186"/>
-      <c r="AX11" s="182"/>
-      <c r="AY11" s="182"/>
-      <c r="AZ11" s="182"/>
-      <c r="BA11" s="182"/>
-      <c r="BB11" s="182"/>
-      <c r="BC11" s="182"/>
-      <c r="BD11" s="182"/>
-      <c r="BE11" s="182"/>
-      <c r="BF11" s="182"/>
+      <c r="O11" s="171"/>
+      <c r="P11" s="172"/>
+      <c r="Q11" s="172"/>
+      <c r="R11" s="172"/>
+      <c r="S11" s="173"/>
+      <c r="T11" s="163"/>
+      <c r="U11" s="163"/>
+      <c r="V11" s="171"/>
+      <c r="W11" s="172"/>
+      <c r="X11" s="172"/>
+      <c r="Y11" s="173"/>
+      <c r="Z11" s="189"/>
+      <c r="AA11" s="189"/>
+      <c r="AB11" s="171"/>
+      <c r="AC11" s="172"/>
+      <c r="AD11" s="173"/>
+      <c r="AE11" s="206"/>
+      <c r="AF11" s="207"/>
+      <c r="AG11" s="208"/>
+      <c r="AH11" s="189"/>
+      <c r="AI11" s="189"/>
+      <c r="AJ11" s="189"/>
+      <c r="AK11" s="189"/>
+      <c r="AL11" s="189"/>
+      <c r="AM11" s="189"/>
+      <c r="AN11" s="200"/>
+      <c r="AO11" s="201"/>
+      <c r="AP11" s="204"/>
+      <c r="AQ11" s="204"/>
+      <c r="AR11" s="204"/>
+      <c r="AS11" s="204"/>
+      <c r="AT11" s="205"/>
+      <c r="AU11" s="205"/>
+      <c r="AV11" s="205"/>
+      <c r="AW11" s="205"/>
+      <c r="AX11" s="189"/>
+      <c r="AY11" s="189"/>
+      <c r="AZ11" s="189"/>
+      <c r="BA11" s="189"/>
+      <c r="BB11" s="189"/>
+      <c r="BC11" s="189"/>
+      <c r="BD11" s="189"/>
+      <c r="BE11" s="189"/>
+      <c r="BF11" s="189"/>
     </row>
     <row r="12" spans="1:61">
       <c r="B12" s="87"/>
-      <c r="C12" s="172"/>
-      <c r="D12" s="172"/>
-      <c r="E12" s="172"/>
-      <c r="F12" s="172"/>
-      <c r="G12" s="172"/>
-      <c r="H12" s="172"/>
-      <c r="I12" s="172"/>
-      <c r="J12" s="172"/>
-      <c r="K12" s="172"/>
-      <c r="L12" s="172"/>
+      <c r="C12" s="193"/>
+      <c r="D12" s="193"/>
+      <c r="E12" s="193"/>
+      <c r="F12" s="193"/>
+      <c r="G12" s="193"/>
+      <c r="H12" s="193"/>
+      <c r="I12" s="193"/>
+      <c r="J12" s="193"/>
+      <c r="K12" s="193"/>
+      <c r="L12" s="193"/>
       <c r="M12" s="97"/>
       <c r="N12" s="99"/>
-      <c r="O12" s="173"/>
-      <c r="P12" s="174"/>
-      <c r="Q12" s="174"/>
-      <c r="R12" s="174"/>
-      <c r="S12" s="175"/>
-      <c r="T12" s="203"/>
-      <c r="U12" s="203"/>
-      <c r="V12" s="197"/>
-      <c r="W12" s="198"/>
-      <c r="X12" s="198"/>
-      <c r="Y12" s="199"/>
-      <c r="Z12" s="172"/>
-      <c r="AA12" s="172"/>
-      <c r="AB12" s="173"/>
-      <c r="AC12" s="174"/>
-      <c r="AD12" s="175"/>
-      <c r="AE12" s="169"/>
-      <c r="AF12" s="170"/>
-      <c r="AG12" s="171"/>
-      <c r="AH12" s="173"/>
-      <c r="AI12" s="174"/>
-      <c r="AJ12" s="174"/>
-      <c r="AK12" s="174"/>
-      <c r="AL12" s="174"/>
-      <c r="AM12" s="175"/>
-      <c r="AN12" s="184"/>
-      <c r="AO12" s="185"/>
-      <c r="AP12" s="183"/>
-      <c r="AQ12" s="183"/>
-      <c r="AR12" s="183"/>
-      <c r="AS12" s="183"/>
-      <c r="AT12" s="186"/>
-      <c r="AU12" s="186"/>
-      <c r="AV12" s="186"/>
-      <c r="AW12" s="186"/>
-      <c r="AX12" s="172"/>
-      <c r="AY12" s="172"/>
-      <c r="AZ12" s="172"/>
-      <c r="BA12" s="172"/>
-      <c r="BB12" s="172"/>
-      <c r="BC12" s="172"/>
-      <c r="BD12" s="172"/>
-      <c r="BE12" s="172"/>
-      <c r="BF12" s="172"/>
+      <c r="O12" s="168"/>
+      <c r="P12" s="169"/>
+      <c r="Q12" s="169"/>
+      <c r="R12" s="169"/>
+      <c r="S12" s="170"/>
+      <c r="T12" s="167"/>
+      <c r="U12" s="167"/>
+      <c r="V12" s="171"/>
+      <c r="W12" s="172"/>
+      <c r="X12" s="172"/>
+      <c r="Y12" s="173"/>
+      <c r="Z12" s="193"/>
+      <c r="AA12" s="193"/>
+      <c r="AB12" s="168"/>
+      <c r="AC12" s="169"/>
+      <c r="AD12" s="170"/>
+      <c r="AE12" s="197"/>
+      <c r="AF12" s="198"/>
+      <c r="AG12" s="199"/>
+      <c r="AH12" s="168"/>
+      <c r="AI12" s="169"/>
+      <c r="AJ12" s="169"/>
+      <c r="AK12" s="169"/>
+      <c r="AL12" s="169"/>
+      <c r="AM12" s="170"/>
+      <c r="AN12" s="200"/>
+      <c r="AO12" s="201"/>
+      <c r="AP12" s="202"/>
+      <c r="AQ12" s="202"/>
+      <c r="AR12" s="202"/>
+      <c r="AS12" s="202"/>
+      <c r="AT12" s="205"/>
+      <c r="AU12" s="205"/>
+      <c r="AV12" s="205"/>
+      <c r="AW12" s="205"/>
+      <c r="AX12" s="193"/>
+      <c r="AY12" s="193"/>
+      <c r="AZ12" s="193"/>
+      <c r="BA12" s="193"/>
+      <c r="BB12" s="193"/>
+      <c r="BC12" s="193"/>
+      <c r="BD12" s="193"/>
+      <c r="BE12" s="193"/>
+      <c r="BF12" s="193"/>
     </row>
     <row r="13" spans="1:61">
       <c r="B13" s="87"/>
-      <c r="C13" s="172"/>
-      <c r="D13" s="172"/>
-      <c r="E13" s="172"/>
-      <c r="F13" s="172"/>
-      <c r="G13" s="172"/>
-      <c r="H13" s="172"/>
-      <c r="I13" s="172"/>
-      <c r="J13" s="172"/>
-      <c r="K13" s="172"/>
-      <c r="L13" s="172"/>
+      <c r="C13" s="193"/>
+      <c r="D13" s="193"/>
+      <c r="E13" s="193"/>
+      <c r="F13" s="193"/>
+      <c r="G13" s="193"/>
+      <c r="H13" s="193"/>
+      <c r="I13" s="193"/>
+      <c r="J13" s="193"/>
+      <c r="K13" s="193"/>
+      <c r="L13" s="193"/>
       <c r="M13" s="97"/>
       <c r="N13" s="99"/>
-      <c r="O13" s="173"/>
-      <c r="P13" s="174"/>
-      <c r="Q13" s="174"/>
-      <c r="R13" s="174"/>
-      <c r="S13" s="175"/>
-      <c r="T13" s="203"/>
-      <c r="U13" s="203"/>
-      <c r="V13" s="173"/>
-      <c r="W13" s="174"/>
-      <c r="X13" s="174"/>
-      <c r="Y13" s="175"/>
-      <c r="Z13" s="172"/>
-      <c r="AA13" s="172"/>
-      <c r="AB13" s="173"/>
-      <c r="AC13" s="174"/>
-      <c r="AD13" s="175"/>
-      <c r="AE13" s="169"/>
-      <c r="AF13" s="170"/>
-      <c r="AG13" s="171"/>
-      <c r="AH13" s="172"/>
-      <c r="AI13" s="172"/>
-      <c r="AJ13" s="172"/>
-      <c r="AK13" s="172"/>
-      <c r="AL13" s="172"/>
-      <c r="AM13" s="172"/>
-      <c r="AN13" s="184"/>
-      <c r="AO13" s="185"/>
-      <c r="AP13" s="183"/>
-      <c r="AQ13" s="183"/>
-      <c r="AR13" s="183"/>
-      <c r="AS13" s="183"/>
-      <c r="AT13" s="186"/>
-      <c r="AU13" s="186"/>
-      <c r="AV13" s="186"/>
-      <c r="AW13" s="186"/>
-      <c r="AX13" s="172"/>
-      <c r="AY13" s="172"/>
-      <c r="AZ13" s="172"/>
-      <c r="BA13" s="172"/>
-      <c r="BB13" s="172"/>
-      <c r="BC13" s="172"/>
-      <c r="BD13" s="172"/>
-      <c r="BE13" s="172"/>
-      <c r="BF13" s="172"/>
+      <c r="O13" s="168"/>
+      <c r="P13" s="169"/>
+      <c r="Q13" s="169"/>
+      <c r="R13" s="169"/>
+      <c r="S13" s="170"/>
+      <c r="T13" s="167"/>
+      <c r="U13" s="167"/>
+      <c r="V13" s="168"/>
+      <c r="W13" s="169"/>
+      <c r="X13" s="169"/>
+      <c r="Y13" s="170"/>
+      <c r="Z13" s="193"/>
+      <c r="AA13" s="193"/>
+      <c r="AB13" s="168"/>
+      <c r="AC13" s="169"/>
+      <c r="AD13" s="170"/>
+      <c r="AE13" s="197"/>
+      <c r="AF13" s="198"/>
+      <c r="AG13" s="199"/>
+      <c r="AH13" s="193"/>
+      <c r="AI13" s="193"/>
+      <c r="AJ13" s="193"/>
+      <c r="AK13" s="193"/>
+      <c r="AL13" s="193"/>
+      <c r="AM13" s="193"/>
+      <c r="AN13" s="200"/>
+      <c r="AO13" s="201"/>
+      <c r="AP13" s="202"/>
+      <c r="AQ13" s="202"/>
+      <c r="AR13" s="202"/>
+      <c r="AS13" s="202"/>
+      <c r="AT13" s="205"/>
+      <c r="AU13" s="205"/>
+      <c r="AV13" s="205"/>
+      <c r="AW13" s="205"/>
+      <c r="AX13" s="193"/>
+      <c r="AY13" s="193"/>
+      <c r="AZ13" s="193"/>
+      <c r="BA13" s="193"/>
+      <c r="BB13" s="193"/>
+      <c r="BC13" s="193"/>
+      <c r="BD13" s="193"/>
+      <c r="BE13" s="193"/>
+      <c r="BF13" s="193"/>
     </row>
     <row r="14" spans="1:61" ht="11.25" customHeight="1">
       <c r="B14" s="87"/>
-      <c r="C14" s="172"/>
-      <c r="D14" s="172"/>
-      <c r="E14" s="172"/>
-      <c r="F14" s="172"/>
-      <c r="G14" s="172"/>
-      <c r="H14" s="172"/>
-      <c r="I14" s="172"/>
-      <c r="J14" s="172"/>
-      <c r="K14" s="172"/>
-      <c r="L14" s="172"/>
+      <c r="C14" s="193"/>
+      <c r="D14" s="193"/>
+      <c r="E14" s="193"/>
+      <c r="F14" s="193"/>
+      <c r="G14" s="193"/>
+      <c r="H14" s="193"/>
+      <c r="I14" s="193"/>
+      <c r="J14" s="193"/>
+      <c r="K14" s="193"/>
+      <c r="L14" s="193"/>
       <c r="M14" s="97"/>
       <c r="N14" s="99"/>
-      <c r="O14" s="173"/>
-      <c r="P14" s="174"/>
-      <c r="Q14" s="174"/>
-      <c r="R14" s="174"/>
-      <c r="S14" s="175"/>
-      <c r="T14" s="203"/>
-      <c r="U14" s="203"/>
-      <c r="V14" s="173"/>
-      <c r="W14" s="174"/>
-      <c r="X14" s="174"/>
-      <c r="Y14" s="175"/>
-      <c r="Z14" s="172"/>
-      <c r="AA14" s="172"/>
-      <c r="AB14" s="173"/>
-      <c r="AC14" s="174"/>
-      <c r="AD14" s="175"/>
-      <c r="AE14" s="169"/>
-      <c r="AF14" s="170"/>
-      <c r="AG14" s="171"/>
-      <c r="AH14" s="172"/>
-      <c r="AI14" s="172"/>
-      <c r="AJ14" s="172"/>
-      <c r="AK14" s="172"/>
-      <c r="AL14" s="172"/>
-      <c r="AM14" s="172"/>
-      <c r="AN14" s="184"/>
-      <c r="AO14" s="185"/>
-      <c r="AP14" s="183"/>
-      <c r="AQ14" s="183"/>
-      <c r="AR14" s="183"/>
-      <c r="AS14" s="183"/>
-      <c r="AT14" s="186"/>
-      <c r="AU14" s="186"/>
-      <c r="AV14" s="186"/>
-      <c r="AW14" s="186"/>
-      <c r="AX14" s="172"/>
-      <c r="AY14" s="172"/>
-      <c r="AZ14" s="172"/>
-      <c r="BA14" s="172"/>
-      <c r="BB14" s="172"/>
-      <c r="BC14" s="172"/>
-      <c r="BD14" s="172"/>
-      <c r="BE14" s="172"/>
-      <c r="BF14" s="172"/>
+      <c r="O14" s="168"/>
+      <c r="P14" s="169"/>
+      <c r="Q14" s="169"/>
+      <c r="R14" s="169"/>
+      <c r="S14" s="170"/>
+      <c r="T14" s="167"/>
+      <c r="U14" s="167"/>
+      <c r="V14" s="168"/>
+      <c r="W14" s="169"/>
+      <c r="X14" s="169"/>
+      <c r="Y14" s="170"/>
+      <c r="Z14" s="193"/>
+      <c r="AA14" s="193"/>
+      <c r="AB14" s="168"/>
+      <c r="AC14" s="169"/>
+      <c r="AD14" s="170"/>
+      <c r="AE14" s="197"/>
+      <c r="AF14" s="198"/>
+      <c r="AG14" s="199"/>
+      <c r="AH14" s="193"/>
+      <c r="AI14" s="193"/>
+      <c r="AJ14" s="193"/>
+      <c r="AK14" s="193"/>
+      <c r="AL14" s="193"/>
+      <c r="AM14" s="193"/>
+      <c r="AN14" s="200"/>
+      <c r="AO14" s="201"/>
+      <c r="AP14" s="202"/>
+      <c r="AQ14" s="202"/>
+      <c r="AR14" s="202"/>
+      <c r="AS14" s="202"/>
+      <c r="AT14" s="205"/>
+      <c r="AU14" s="205"/>
+      <c r="AV14" s="205"/>
+      <c r="AW14" s="205"/>
+      <c r="AX14" s="193"/>
+      <c r="AY14" s="193"/>
+      <c r="AZ14" s="193"/>
+      <c r="BA14" s="193"/>
+      <c r="BB14" s="193"/>
+      <c r="BC14" s="193"/>
+      <c r="BD14" s="193"/>
+      <c r="BE14" s="193"/>
+      <c r="BF14" s="193"/>
     </row>
     <row r="15" spans="1:61" ht="11.25" customHeight="1">
       <c r="B15" s="87"/>
-      <c r="C15" s="172"/>
-      <c r="D15" s="172"/>
-      <c r="E15" s="172"/>
-      <c r="F15" s="172"/>
-      <c r="G15" s="172"/>
-      <c r="H15" s="172"/>
-      <c r="I15" s="172"/>
-      <c r="J15" s="172"/>
-      <c r="K15" s="172"/>
-      <c r="L15" s="172"/>
+      <c r="C15" s="193"/>
+      <c r="D15" s="193"/>
+      <c r="E15" s="193"/>
+      <c r="F15" s="193"/>
+      <c r="G15" s="193"/>
+      <c r="H15" s="193"/>
+      <c r="I15" s="193"/>
+      <c r="J15" s="193"/>
+      <c r="K15" s="193"/>
+      <c r="L15" s="193"/>
       <c r="M15" s="97"/>
       <c r="N15" s="99"/>
-      <c r="O15" s="173"/>
-      <c r="P15" s="174"/>
-      <c r="Q15" s="174"/>
-      <c r="R15" s="174"/>
-      <c r="S15" s="175"/>
-      <c r="T15" s="203"/>
-      <c r="U15" s="203"/>
-      <c r="V15" s="173"/>
-      <c r="W15" s="174"/>
-      <c r="X15" s="174"/>
-      <c r="Y15" s="175"/>
-      <c r="Z15" s="172"/>
-      <c r="AA15" s="172"/>
-      <c r="AB15" s="173"/>
-      <c r="AC15" s="174"/>
-      <c r="AD15" s="175"/>
-      <c r="AE15" s="169"/>
-      <c r="AF15" s="170"/>
-      <c r="AG15" s="171"/>
-      <c r="AH15" s="172"/>
-      <c r="AI15" s="172"/>
-      <c r="AJ15" s="172"/>
-      <c r="AK15" s="172"/>
-      <c r="AL15" s="172"/>
-      <c r="AM15" s="172"/>
-      <c r="AN15" s="184"/>
-      <c r="AO15" s="185"/>
-      <c r="AP15" s="183"/>
-      <c r="AQ15" s="183"/>
-      <c r="AR15" s="183"/>
-      <c r="AS15" s="183"/>
-      <c r="AT15" s="186"/>
-      <c r="AU15" s="186"/>
-      <c r="AV15" s="186"/>
-      <c r="AW15" s="186"/>
-      <c r="AX15" s="172"/>
-      <c r="AY15" s="172"/>
-      <c r="AZ15" s="172"/>
-      <c r="BA15" s="172"/>
-      <c r="BB15" s="172"/>
-      <c r="BC15" s="172"/>
-      <c r="BD15" s="172"/>
-      <c r="BE15" s="172"/>
-      <c r="BF15" s="172"/>
+      <c r="O15" s="168"/>
+      <c r="P15" s="169"/>
+      <c r="Q15" s="169"/>
+      <c r="R15" s="169"/>
+      <c r="S15" s="170"/>
+      <c r="T15" s="167"/>
+      <c r="U15" s="167"/>
+      <c r="V15" s="168"/>
+      <c r="W15" s="169"/>
+      <c r="X15" s="169"/>
+      <c r="Y15" s="170"/>
+      <c r="Z15" s="193"/>
+      <c r="AA15" s="193"/>
+      <c r="AB15" s="168"/>
+      <c r="AC15" s="169"/>
+      <c r="AD15" s="170"/>
+      <c r="AE15" s="197"/>
+      <c r="AF15" s="198"/>
+      <c r="AG15" s="199"/>
+      <c r="AH15" s="193"/>
+      <c r="AI15" s="193"/>
+      <c r="AJ15" s="193"/>
+      <c r="AK15" s="193"/>
+      <c r="AL15" s="193"/>
+      <c r="AM15" s="193"/>
+      <c r="AN15" s="200"/>
+      <c r="AO15" s="201"/>
+      <c r="AP15" s="202"/>
+      <c r="AQ15" s="202"/>
+      <c r="AR15" s="202"/>
+      <c r="AS15" s="202"/>
+      <c r="AT15" s="205"/>
+      <c r="AU15" s="205"/>
+      <c r="AV15" s="205"/>
+      <c r="AW15" s="205"/>
+      <c r="AX15" s="193"/>
+      <c r="AY15" s="193"/>
+      <c r="AZ15" s="193"/>
+      <c r="BA15" s="193"/>
+      <c r="BB15" s="193"/>
+      <c r="BC15" s="193"/>
+      <c r="BD15" s="193"/>
+      <c r="BE15" s="193"/>
+      <c r="BF15" s="193"/>
     </row>
     <row r="16" spans="1:61" s="29" customFormat="1">
       <c r="B16" s="87"/>
-      <c r="C16" s="172"/>
-      <c r="D16" s="172"/>
-      <c r="E16" s="172"/>
-      <c r="F16" s="182"/>
-      <c r="G16" s="182"/>
-      <c r="H16" s="182"/>
-      <c r="I16" s="182"/>
-      <c r="J16" s="182"/>
-      <c r="K16" s="182"/>
-      <c r="L16" s="182"/>
+      <c r="C16" s="193"/>
+      <c r="D16" s="193"/>
+      <c r="E16" s="193"/>
+      <c r="F16" s="189"/>
+      <c r="G16" s="189"/>
+      <c r="H16" s="189"/>
+      <c r="I16" s="189"/>
+      <c r="J16" s="189"/>
+      <c r="K16" s="189"/>
+      <c r="L16" s="189"/>
       <c r="M16" s="97"/>
       <c r="N16" s="99"/>
-      <c r="O16" s="197"/>
-      <c r="P16" s="198"/>
-      <c r="Q16" s="198"/>
-      <c r="R16" s="198"/>
-      <c r="S16" s="199"/>
-      <c r="T16" s="209"/>
-      <c r="U16" s="209"/>
-      <c r="V16" s="197"/>
-      <c r="W16" s="198"/>
-      <c r="X16" s="198"/>
-      <c r="Y16" s="199"/>
-      <c r="Z16" s="182"/>
-      <c r="AA16" s="182"/>
-      <c r="AB16" s="197"/>
-      <c r="AC16" s="198"/>
-      <c r="AD16" s="199"/>
-      <c r="AE16" s="169"/>
-      <c r="AF16" s="170"/>
-      <c r="AG16" s="171"/>
-      <c r="AH16" s="182"/>
-      <c r="AI16" s="182"/>
-      <c r="AJ16" s="182"/>
-      <c r="AK16" s="182"/>
-      <c r="AL16" s="182"/>
-      <c r="AM16" s="182"/>
-      <c r="AN16" s="184"/>
-      <c r="AO16" s="185"/>
-      <c r="AP16" s="183"/>
-      <c r="AQ16" s="183"/>
-      <c r="AR16" s="183"/>
-      <c r="AS16" s="183"/>
-      <c r="AT16" s="186"/>
-      <c r="AU16" s="186"/>
-      <c r="AV16" s="186"/>
-      <c r="AW16" s="186"/>
-      <c r="AX16" s="182"/>
-      <c r="AY16" s="182"/>
-      <c r="AZ16" s="182"/>
-      <c r="BA16" s="182"/>
-      <c r="BB16" s="182"/>
-      <c r="BC16" s="182"/>
-      <c r="BD16" s="182"/>
-      <c r="BE16" s="182"/>
-      <c r="BF16" s="182"/>
+      <c r="O16" s="171"/>
+      <c r="P16" s="172"/>
+      <c r="Q16" s="172"/>
+      <c r="R16" s="172"/>
+      <c r="S16" s="173"/>
+      <c r="T16" s="163"/>
+      <c r="U16" s="163"/>
+      <c r="V16" s="171"/>
+      <c r="W16" s="172"/>
+      <c r="X16" s="172"/>
+      <c r="Y16" s="173"/>
+      <c r="Z16" s="189"/>
+      <c r="AA16" s="189"/>
+      <c r="AB16" s="171"/>
+      <c r="AC16" s="172"/>
+      <c r="AD16" s="173"/>
+      <c r="AE16" s="197"/>
+      <c r="AF16" s="198"/>
+      <c r="AG16" s="199"/>
+      <c r="AH16" s="189"/>
+      <c r="AI16" s="189"/>
+      <c r="AJ16" s="189"/>
+      <c r="AK16" s="189"/>
+      <c r="AL16" s="189"/>
+      <c r="AM16" s="189"/>
+      <c r="AN16" s="200"/>
+      <c r="AO16" s="201"/>
+      <c r="AP16" s="202"/>
+      <c r="AQ16" s="202"/>
+      <c r="AR16" s="202"/>
+      <c r="AS16" s="202"/>
+      <c r="AT16" s="205"/>
+      <c r="AU16" s="205"/>
+      <c r="AV16" s="205"/>
+      <c r="AW16" s="205"/>
+      <c r="AX16" s="189"/>
+      <c r="AY16" s="189"/>
+      <c r="AZ16" s="189"/>
+      <c r="BA16" s="189"/>
+      <c r="BB16" s="189"/>
+      <c r="BC16" s="189"/>
+      <c r="BD16" s="189"/>
+      <c r="BE16" s="189"/>
+      <c r="BF16" s="189"/>
     </row>
     <row r="17" spans="2:58" ht="11.25" customHeight="1">
       <c r="B17" s="87"/>
-      <c r="C17" s="173"/>
-      <c r="D17" s="174"/>
-      <c r="E17" s="175"/>
-      <c r="F17" s="173"/>
-      <c r="G17" s="174"/>
-      <c r="H17" s="174"/>
-      <c r="I17" s="174"/>
-      <c r="J17" s="174"/>
-      <c r="K17" s="174"/>
-      <c r="L17" s="175"/>
+      <c r="C17" s="168"/>
+      <c r="D17" s="169"/>
+      <c r="E17" s="170"/>
+      <c r="F17" s="168"/>
+      <c r="G17" s="169"/>
+      <c r="H17" s="169"/>
+      <c r="I17" s="169"/>
+      <c r="J17" s="169"/>
+      <c r="K17" s="169"/>
+      <c r="L17" s="170"/>
       <c r="M17" s="97"/>
       <c r="N17" s="99"/>
-      <c r="O17" s="173"/>
-      <c r="P17" s="174"/>
-      <c r="Q17" s="174"/>
-      <c r="R17" s="174"/>
-      <c r="S17" s="175"/>
-      <c r="T17" s="210"/>
-      <c r="U17" s="211"/>
-      <c r="V17" s="173"/>
-      <c r="W17" s="174"/>
-      <c r="X17" s="174"/>
-      <c r="Y17" s="175"/>
-      <c r="Z17" s="173"/>
-      <c r="AA17" s="175"/>
-      <c r="AB17" s="173"/>
-      <c r="AC17" s="174"/>
-      <c r="AD17" s="175"/>
-      <c r="AE17" s="169"/>
-      <c r="AF17" s="170"/>
-      <c r="AG17" s="171"/>
-      <c r="AH17" s="173"/>
-      <c r="AI17" s="174"/>
-      <c r="AJ17" s="174"/>
-      <c r="AK17" s="174"/>
-      <c r="AL17" s="174"/>
-      <c r="AM17" s="175"/>
-      <c r="AN17" s="184"/>
-      <c r="AO17" s="185"/>
-      <c r="AP17" s="184"/>
-      <c r="AQ17" s="187"/>
-      <c r="AR17" s="187"/>
-      <c r="AS17" s="185"/>
-      <c r="AT17" s="186"/>
-      <c r="AU17" s="186"/>
-      <c r="AV17" s="186"/>
-      <c r="AW17" s="186"/>
-      <c r="AX17" s="173"/>
-      <c r="AY17" s="174"/>
-      <c r="AZ17" s="174"/>
-      <c r="BA17" s="174"/>
-      <c r="BB17" s="174"/>
-      <c r="BC17" s="174"/>
-      <c r="BD17" s="174"/>
-      <c r="BE17" s="174"/>
-      <c r="BF17" s="175"/>
+      <c r="O17" s="168"/>
+      <c r="P17" s="169"/>
+      <c r="Q17" s="169"/>
+      <c r="R17" s="169"/>
+      <c r="S17" s="170"/>
+      <c r="T17" s="174"/>
+      <c r="U17" s="175"/>
+      <c r="V17" s="168"/>
+      <c r="W17" s="169"/>
+      <c r="X17" s="169"/>
+      <c r="Y17" s="170"/>
+      <c r="Z17" s="168"/>
+      <c r="AA17" s="170"/>
+      <c r="AB17" s="168"/>
+      <c r="AC17" s="169"/>
+      <c r="AD17" s="170"/>
+      <c r="AE17" s="197"/>
+      <c r="AF17" s="198"/>
+      <c r="AG17" s="199"/>
+      <c r="AH17" s="168"/>
+      <c r="AI17" s="169"/>
+      <c r="AJ17" s="169"/>
+      <c r="AK17" s="169"/>
+      <c r="AL17" s="169"/>
+      <c r="AM17" s="170"/>
+      <c r="AN17" s="200"/>
+      <c r="AO17" s="201"/>
+      <c r="AP17" s="200"/>
+      <c r="AQ17" s="212"/>
+      <c r="AR17" s="212"/>
+      <c r="AS17" s="201"/>
+      <c r="AT17" s="205"/>
+      <c r="AU17" s="205"/>
+      <c r="AV17" s="205"/>
+      <c r="AW17" s="205"/>
+      <c r="AX17" s="168"/>
+      <c r="AY17" s="169"/>
+      <c r="AZ17" s="169"/>
+      <c r="BA17" s="169"/>
+      <c r="BB17" s="169"/>
+      <c r="BC17" s="169"/>
+      <c r="BD17" s="169"/>
+      <c r="BE17" s="169"/>
+      <c r="BF17" s="170"/>
     </row>
     <row r="18" spans="2:58">
       <c r="B18" s="87"/>
-      <c r="C18" s="172"/>
-      <c r="D18" s="172"/>
-      <c r="E18" s="172"/>
-      <c r="F18" s="172"/>
-      <c r="G18" s="172"/>
-      <c r="H18" s="172"/>
-      <c r="I18" s="172"/>
-      <c r="J18" s="172"/>
-      <c r="K18" s="172"/>
-      <c r="L18" s="172"/>
+      <c r="C18" s="193"/>
+      <c r="D18" s="193"/>
+      <c r="E18" s="193"/>
+      <c r="F18" s="193"/>
+      <c r="G18" s="193"/>
+      <c r="H18" s="193"/>
+      <c r="I18" s="193"/>
+      <c r="J18" s="193"/>
+      <c r="K18" s="193"/>
+      <c r="L18" s="193"/>
       <c r="M18" s="97"/>
       <c r="N18" s="99"/>
-      <c r="O18" s="173"/>
-      <c r="P18" s="174"/>
-      <c r="Q18" s="174"/>
-      <c r="R18" s="174"/>
-      <c r="S18" s="175"/>
-      <c r="T18" s="203"/>
-      <c r="U18" s="203"/>
-      <c r="V18" s="173"/>
-      <c r="W18" s="174"/>
-      <c r="X18" s="174"/>
-      <c r="Y18" s="175"/>
-      <c r="Z18" s="172"/>
-      <c r="AA18" s="172"/>
-      <c r="AB18" s="173"/>
-      <c r="AC18" s="174"/>
-      <c r="AD18" s="175"/>
-      <c r="AE18" s="169"/>
-      <c r="AF18" s="170"/>
-      <c r="AG18" s="171"/>
-      <c r="AH18" s="172"/>
-      <c r="AI18" s="172"/>
-      <c r="AJ18" s="172"/>
-      <c r="AK18" s="172"/>
-      <c r="AL18" s="172"/>
-      <c r="AM18" s="172"/>
-      <c r="AN18" s="184"/>
-      <c r="AO18" s="185"/>
-      <c r="AP18" s="183"/>
-      <c r="AQ18" s="183"/>
-      <c r="AR18" s="183"/>
-      <c r="AS18" s="183"/>
-      <c r="AT18" s="186"/>
-      <c r="AU18" s="186"/>
-      <c r="AV18" s="186"/>
-      <c r="AW18" s="186"/>
-      <c r="AX18" s="172"/>
-      <c r="AY18" s="172"/>
-      <c r="AZ18" s="172"/>
-      <c r="BA18" s="172"/>
-      <c r="BB18" s="172"/>
-      <c r="BC18" s="172"/>
-      <c r="BD18" s="172"/>
-      <c r="BE18" s="172"/>
-      <c r="BF18" s="172"/>
+      <c r="O18" s="168"/>
+      <c r="P18" s="169"/>
+      <c r="Q18" s="169"/>
+      <c r="R18" s="169"/>
+      <c r="S18" s="170"/>
+      <c r="T18" s="167"/>
+      <c r="U18" s="167"/>
+      <c r="V18" s="168"/>
+      <c r="W18" s="169"/>
+      <c r="X18" s="169"/>
+      <c r="Y18" s="170"/>
+      <c r="Z18" s="193"/>
+      <c r="AA18" s="193"/>
+      <c r="AB18" s="168"/>
+      <c r="AC18" s="169"/>
+      <c r="AD18" s="170"/>
+      <c r="AE18" s="197"/>
+      <c r="AF18" s="198"/>
+      <c r="AG18" s="199"/>
+      <c r="AH18" s="193"/>
+      <c r="AI18" s="193"/>
+      <c r="AJ18" s="193"/>
+      <c r="AK18" s="193"/>
+      <c r="AL18" s="193"/>
+      <c r="AM18" s="193"/>
+      <c r="AN18" s="200"/>
+      <c r="AO18" s="201"/>
+      <c r="AP18" s="202"/>
+      <c r="AQ18" s="202"/>
+      <c r="AR18" s="202"/>
+      <c r="AS18" s="202"/>
+      <c r="AT18" s="205"/>
+      <c r="AU18" s="205"/>
+      <c r="AV18" s="205"/>
+      <c r="AW18" s="205"/>
+      <c r="AX18" s="193"/>
+      <c r="AY18" s="193"/>
+      <c r="AZ18" s="193"/>
+      <c r="BA18" s="193"/>
+      <c r="BB18" s="193"/>
+      <c r="BC18" s="193"/>
+      <c r="BD18" s="193"/>
+      <c r="BE18" s="193"/>
+      <c r="BF18" s="193"/>
     </row>
   </sheetData>
   <mergeCells count="174">
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="AE14:AG14"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AB7:AD8"/>
+    <mergeCell ref="AB9:AD9"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AX18:BF18"/>
+    <mergeCell ref="AX16:BF16"/>
+    <mergeCell ref="AX17:BF17"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AX14:BF14"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AX15:BF15"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AP18:AS18"/>
+    <mergeCell ref="AT14:AW14"/>
+    <mergeCell ref="AT15:AW15"/>
+    <mergeCell ref="AT16:AW16"/>
+    <mergeCell ref="AT17:AW17"/>
+    <mergeCell ref="AT18:AW18"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AX7:BF8"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX9:BF9"/>
+    <mergeCell ref="AN7:AS7"/>
+    <mergeCell ref="AT7:AW8"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX12:BF12"/>
+    <mergeCell ref="AX13:BF13"/>
+    <mergeCell ref="AX10:BF10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AX11:BF11"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AT10:AW10"/>
+    <mergeCell ref="AT11:AW11"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AT13:AW13"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="F7:L8"/>
+    <mergeCell ref="O11:S11"/>
     <mergeCell ref="T11:U11"/>
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="O10:S10"/>
@@ -7922,156 +8072,6 @@
     <mergeCell ref="F11:L11"/>
     <mergeCell ref="S1:Z3"/>
     <mergeCell ref="Z11:AA11"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="F7:L8"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="AX13:BF13"/>
-    <mergeCell ref="AX10:BF10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AX11:BF11"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AT10:AW10"/>
-    <mergeCell ref="AT11:AW11"/>
-    <mergeCell ref="AT12:AW12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="AT13:AW13"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX9:BF9"/>
-    <mergeCell ref="AN7:AS7"/>
-    <mergeCell ref="AT7:AW8"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX12:BF12"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AX18:BF18"/>
-    <mergeCell ref="AX16:BF16"/>
-    <mergeCell ref="AX17:BF17"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AX14:BF14"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AX15:BF15"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AP18:AS18"/>
-    <mergeCell ref="AT14:AW14"/>
-    <mergeCell ref="AT15:AW15"/>
-    <mergeCell ref="AT16:AW16"/>
-    <mergeCell ref="AT17:AW17"/>
-    <mergeCell ref="AT18:AW18"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AX7:BF8"/>
-    <mergeCell ref="AE8:AG8"/>
-    <mergeCell ref="AH8:AM8"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="AE14:AG14"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="C13:E13"/>
-    <mergeCell ref="F13:L13"/>
-    <mergeCell ref="M13:N13"/>
-    <mergeCell ref="M14:N14"/>
-    <mergeCell ref="Z12:AA12"/>
-    <mergeCell ref="Z13:AA13"/>
-    <mergeCell ref="Z7:AA8"/>
-    <mergeCell ref="O9:S9"/>
-    <mergeCell ref="M9:N9"/>
-    <mergeCell ref="V9:Y9"/>
-    <mergeCell ref="AB7:AD8"/>
-    <mergeCell ref="AB9:AD9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="2">

--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
@@ -12,16 +12,12 @@
     <sheet name="目次" sheetId="31" r:id="rId3"/>
     <sheet name="1" sheetId="28" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1'!$B$8:$U$8</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$BG$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
-    <definedName name="データ型">[1]データ!$A$2:$A$22</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -1611,6 +1607,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1629,15 +1742,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1665,114 +1769,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1800,66 +1796,153 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1877,93 +1960,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2368,161 +2364,6 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="外部インターフェース仕様"/>
-      <sheetName val="レコード構成"/>
-      <sheetName val="ヘッダレコード"/>
-      <sheetName val="ユーザ情報レコード"/>
-      <sheetName val="別紙 データ型について"/>
-      <sheetName val="外部インターフェース仕様 (MQサンプル)"/>
-      <sheetName val="レコード構成 (MQサンプル)"/>
-      <sheetName val="MQ共通"/>
-      <sheetName val="共通ヘッダ"/>
-      <sheetName val="外部インターフェース仕様 (階層構造サンプル(XML))"/>
-      <sheetName val="レコード構成(階層構造サンプル(XML))"/>
-      <sheetName val="データレイアウト(階層構造サンプル(XML))"/>
-      <sheetName val="外部インターフェース仕様 (階層構造サンプル(JSON))"/>
-      <sheetName val="レコード構成(階層構造サンプル(JSON))"/>
-      <sheetName val="データレイアウト(階層構造サンプル(JSON))"/>
-      <sheetName val="データ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>半角英字</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>半角数字</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>半角カナ</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>半角英数字</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>半角英数字記号</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>半角</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>全角ひらがな</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>全角カタカナ</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>全角</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>全角(外字含む)</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>全半角</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>全半角(外字含む)</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>符号無ゾーン10進数</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>符号付ゾーン10進数</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>符号無パック10進数</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>符号付パック10進数</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>符号無数値</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>符号付数値</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>バイナリ</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>オブジェクト</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>真偽値</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3585,53 +3426,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="115"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="133" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
-      <c r="S1" s="142"/>
-      <c r="T1" s="143"/>
-      <c r="U1" s="143"/>
-      <c r="V1" s="143"/>
-      <c r="W1" s="143"/>
-      <c r="X1" s="143"/>
-      <c r="Y1" s="143"/>
-      <c r="Z1" s="144"/>
-      <c r="AA1" s="130" t="s">
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="106" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="109" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="100" t="str">
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="139" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="102"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="141"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
@@ -3639,51 +3480,51 @@
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="115"/>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="145"/>
-      <c r="T2" s="146"/>
-      <c r="U2" s="146"/>
-      <c r="V2" s="146"/>
-      <c r="W2" s="146"/>
-      <c r="X2" s="146"/>
-      <c r="Y2" s="146"/>
-      <c r="Z2" s="147"/>
-      <c r="AA2" s="130" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="103" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="142" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="104"/>
-      <c r="AE2" s="104"/>
-      <c r="AF2" s="105"/>
-      <c r="AG2" s="100" t="str">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="139" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="141"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
@@ -3691,43 +3532,43 @@
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="115"/>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="148"/>
-      <c r="T3" s="149"/>
-      <c r="U3" s="149"/>
-      <c r="V3" s="149"/>
-      <c r="W3" s="149"/>
-      <c r="X3" s="149"/>
-      <c r="Y3" s="149"/>
-      <c r="Z3" s="150"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="106"/>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="100"/>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="102"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141"/>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -3764,100 +3605,100 @@
       <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="121" t="s">
+      <c r="B7" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="122"/>
-      <c r="D7" s="121" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="123"/>
-      <c r="F7" s="122"/>
-      <c r="G7" s="121" t="s">
+      <c r="E7" s="108"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="123"/>
-      <c r="I7" s="122"/>
-      <c r="J7" s="121" t="s">
+      <c r="H7" s="108"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="106" t="s">
         <v>33</v>
       </c>
-      <c r="K7" s="123"/>
-      <c r="L7" s="123"/>
-      <c r="M7" s="123"/>
-      <c r="N7" s="123"/>
-      <c r="O7" s="123"/>
-      <c r="P7" s="122"/>
-      <c r="Q7" s="121" t="s">
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="123"/>
-      <c r="S7" s="123"/>
-      <c r="T7" s="123"/>
-      <c r="U7" s="123"/>
-      <c r="V7" s="123"/>
-      <c r="W7" s="123"/>
-      <c r="X7" s="123"/>
-      <c r="Y7" s="123"/>
-      <c r="Z7" s="123"/>
-      <c r="AA7" s="123"/>
-      <c r="AB7" s="123"/>
-      <c r="AC7" s="123"/>
-      <c r="AD7" s="123"/>
-      <c r="AE7" s="122"/>
-      <c r="AF7" s="121" t="s">
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="123"/>
-      <c r="AH7" s="123"/>
-      <c r="AI7" s="122"/>
+      <c r="AG7" s="108"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="107"/>
     </row>
     <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="85"/>
-      <c r="B8" s="124"/>
-      <c r="C8" s="125"/>
-      <c r="D8" s="126"/>
-      <c r="E8" s="127"/>
-      <c r="F8" s="128"/>
-      <c r="G8" s="124"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="125"/>
-      <c r="J8" s="109"/>
-      <c r="K8" s="110"/>
-      <c r="L8" s="110"/>
-      <c r="M8" s="110"/>
-      <c r="N8" s="110"/>
-      <c r="O8" s="110"/>
-      <c r="P8" s="111"/>
-      <c r="Q8" s="112"/>
-      <c r="R8" s="113"/>
-      <c r="S8" s="113"/>
-      <c r="T8" s="113"/>
-      <c r="U8" s="113"/>
-      <c r="V8" s="113"/>
-      <c r="W8" s="113"/>
-      <c r="X8" s="113"/>
-      <c r="Y8" s="113"/>
-      <c r="Z8" s="113"/>
-      <c r="AA8" s="113"/>
-      <c r="AB8" s="113"/>
-      <c r="AC8" s="113"/>
-      <c r="AD8" s="113"/>
-      <c r="AE8" s="114"/>
-      <c r="AF8" s="109"/>
-      <c r="AG8" s="110"/>
-      <c r="AH8" s="110"/>
-      <c r="AI8" s="111"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="147"/>
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="86"/>
-      <c r="B9" s="118"/>
-      <c r="C9" s="120"/>
-      <c r="D9" s="151"/>
-      <c r="E9" s="152"/>
-      <c r="F9" s="153"/>
-      <c r="G9" s="118"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="120"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="101"/>
       <c r="J9" s="94"/>
       <c r="K9" s="95"/>
       <c r="L9" s="95"/>
@@ -3888,14 +3729,14 @@
     </row>
     <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="86"/>
-      <c r="B10" s="118"/>
-      <c r="C10" s="120"/>
-      <c r="D10" s="151"/>
-      <c r="E10" s="152"/>
-      <c r="F10" s="153"/>
-      <c r="G10" s="118"/>
-      <c r="H10" s="119"/>
-      <c r="I10" s="120"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="101"/>
       <c r="J10" s="94"/>
       <c r="K10" s="95"/>
       <c r="L10" s="95"/>
@@ -3925,14 +3766,14 @@
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="86"/>
-      <c r="B11" s="118"/>
-      <c r="C11" s="120"/>
-      <c r="D11" s="151"/>
-      <c r="E11" s="152"/>
-      <c r="F11" s="153"/>
-      <c r="G11" s="118"/>
-      <c r="H11" s="119"/>
-      <c r="I11" s="120"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="101"/>
       <c r="J11" s="94"/>
       <c r="K11" s="95"/>
       <c r="L11" s="95"/>
@@ -3962,14 +3803,14 @@
     </row>
     <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="86"/>
-      <c r="B12" s="118"/>
-      <c r="C12" s="120"/>
-      <c r="D12" s="151"/>
-      <c r="E12" s="152"/>
-      <c r="F12" s="153"/>
-      <c r="G12" s="118"/>
-      <c r="H12" s="119"/>
-      <c r="I12" s="120"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="101"/>
       <c r="J12" s="94"/>
       <c r="K12" s="95"/>
       <c r="L12" s="95"/>
@@ -3999,14 +3840,14 @@
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="86"/>
-      <c r="B13" s="118"/>
-      <c r="C13" s="120"/>
-      <c r="D13" s="151"/>
-      <c r="E13" s="152"/>
-      <c r="F13" s="153"/>
-      <c r="G13" s="118"/>
-      <c r="H13" s="119"/>
-      <c r="I13" s="120"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="101"/>
       <c r="J13" s="94"/>
       <c r="K13" s="95"/>
       <c r="L13" s="95"/>
@@ -4036,14 +3877,14 @@
     </row>
     <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="86"/>
-      <c r="B14" s="118"/>
-      <c r="C14" s="120"/>
-      <c r="D14" s="151"/>
-      <c r="E14" s="152"/>
-      <c r="F14" s="153"/>
-      <c r="G14" s="118"/>
-      <c r="H14" s="119"/>
-      <c r="I14" s="120"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="101"/>
       <c r="J14" s="94"/>
       <c r="K14" s="95"/>
       <c r="L14" s="95"/>
@@ -4073,14 +3914,14 @@
     </row>
     <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="86"/>
-      <c r="B15" s="118"/>
-      <c r="C15" s="120"/>
-      <c r="D15" s="151"/>
-      <c r="E15" s="152"/>
-      <c r="F15" s="153"/>
-      <c r="G15" s="118"/>
-      <c r="H15" s="119"/>
-      <c r="I15" s="120"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="101"/>
       <c r="J15" s="94"/>
       <c r="K15" s="95"/>
       <c r="L15" s="95"/>
@@ -4110,14 +3951,14 @@
     </row>
     <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="86"/>
-      <c r="B16" s="118"/>
-      <c r="C16" s="120"/>
-      <c r="D16" s="151"/>
-      <c r="E16" s="152"/>
-      <c r="F16" s="153"/>
-      <c r="G16" s="118"/>
-      <c r="H16" s="119"/>
-      <c r="I16" s="120"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="101"/>
       <c r="J16" s="94"/>
       <c r="K16" s="95"/>
       <c r="L16" s="95"/>
@@ -4147,14 +3988,14 @@
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="86"/>
-      <c r="B17" s="118"/>
-      <c r="C17" s="120"/>
-      <c r="D17" s="151"/>
-      <c r="E17" s="152"/>
-      <c r="F17" s="153"/>
-      <c r="G17" s="118"/>
-      <c r="H17" s="119"/>
-      <c r="I17" s="120"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="101"/>
       <c r="J17" s="94"/>
       <c r="K17" s="95"/>
       <c r="L17" s="95"/>
@@ -4184,14 +4025,14 @@
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="86"/>
-      <c r="B18" s="118"/>
-      <c r="C18" s="120"/>
-      <c r="D18" s="151"/>
-      <c r="E18" s="152"/>
-      <c r="F18" s="153"/>
-      <c r="G18" s="118"/>
-      <c r="H18" s="119"/>
-      <c r="I18" s="120"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="101"/>
       <c r="J18" s="94"/>
       <c r="K18" s="95"/>
       <c r="L18" s="95"/>
@@ -4221,14 +4062,14 @@
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="86"/>
-      <c r="B19" s="118"/>
-      <c r="C19" s="120"/>
-      <c r="D19" s="151"/>
-      <c r="E19" s="152"/>
-      <c r="F19" s="153"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="119"/>
-      <c r="I19" s="120"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="101"/>
       <c r="J19" s="94"/>
       <c r="K19" s="95"/>
       <c r="L19" s="95"/>
@@ -4258,14 +4099,14 @@
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="86"/>
-      <c r="B20" s="118"/>
-      <c r="C20" s="120"/>
-      <c r="D20" s="151"/>
-      <c r="E20" s="152"/>
-      <c r="F20" s="153"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="119"/>
-      <c r="I20" s="120"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="101"/>
       <c r="J20" s="94"/>
       <c r="K20" s="95"/>
       <c r="L20" s="95"/>
@@ -4295,14 +4136,14 @@
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="86"/>
-      <c r="B21" s="118"/>
-      <c r="C21" s="120"/>
-      <c r="D21" s="151"/>
-      <c r="E21" s="152"/>
-      <c r="F21" s="153"/>
-      <c r="G21" s="118"/>
-      <c r="H21" s="119"/>
-      <c r="I21" s="120"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="101"/>
       <c r="J21" s="94"/>
       <c r="K21" s="95"/>
       <c r="L21" s="95"/>
@@ -4332,14 +4173,14 @@
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="86"/>
-      <c r="B22" s="118"/>
-      <c r="C22" s="120"/>
-      <c r="D22" s="151"/>
-      <c r="E22" s="152"/>
-      <c r="F22" s="153"/>
-      <c r="G22" s="118"/>
-      <c r="H22" s="119"/>
-      <c r="I22" s="120"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="101"/>
       <c r="J22" s="94"/>
       <c r="K22" s="95"/>
       <c r="L22" s="95"/>
@@ -4369,14 +4210,14 @@
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="86"/>
-      <c r="B23" s="118"/>
-      <c r="C23" s="120"/>
-      <c r="D23" s="151"/>
-      <c r="E23" s="152"/>
-      <c r="F23" s="153"/>
-      <c r="G23" s="118"/>
-      <c r="H23" s="119"/>
-      <c r="I23" s="120"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="101"/>
       <c r="J23" s="94"/>
       <c r="K23" s="95"/>
       <c r="L23" s="95"/>
@@ -4406,14 +4247,14 @@
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="86"/>
-      <c r="B24" s="118"/>
-      <c r="C24" s="120"/>
-      <c r="D24" s="151"/>
-      <c r="E24" s="152"/>
-      <c r="F24" s="153"/>
-      <c r="G24" s="118"/>
-      <c r="H24" s="119"/>
-      <c r="I24" s="120"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="101"/>
       <c r="J24" s="94"/>
       <c r="K24" s="95"/>
       <c r="L24" s="95"/>
@@ -4443,14 +4284,14 @@
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="86"/>
-      <c r="B25" s="118"/>
-      <c r="C25" s="120"/>
-      <c r="D25" s="151"/>
-      <c r="E25" s="152"/>
-      <c r="F25" s="153"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="119"/>
-      <c r="I25" s="120"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="101"/>
       <c r="J25" s="94"/>
       <c r="K25" s="95"/>
       <c r="L25" s="95"/>
@@ -4480,14 +4321,14 @@
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="86"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="151"/>
-      <c r="E26" s="152"/>
-      <c r="F26" s="153"/>
-      <c r="G26" s="118"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="120"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="101"/>
       <c r="J26" s="94"/>
       <c r="K26" s="95"/>
       <c r="L26" s="95"/>
@@ -4517,14 +4358,14 @@
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="86"/>
-      <c r="B27" s="118"/>
-      <c r="C27" s="120"/>
-      <c r="D27" s="151"/>
-      <c r="E27" s="152"/>
-      <c r="F27" s="153"/>
-      <c r="G27" s="118"/>
-      <c r="H27" s="119"/>
-      <c r="I27" s="120"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="101"/>
       <c r="J27" s="94"/>
       <c r="K27" s="95"/>
       <c r="L27" s="95"/>
@@ -4554,14 +4395,14 @@
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="86"/>
-      <c r="B28" s="118"/>
-      <c r="C28" s="120"/>
-      <c r="D28" s="151"/>
-      <c r="E28" s="152"/>
-      <c r="F28" s="153"/>
-      <c r="G28" s="118"/>
-      <c r="H28" s="119"/>
-      <c r="I28" s="120"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="101"/>
       <c r="J28" s="94"/>
       <c r="K28" s="95"/>
       <c r="L28" s="95"/>
@@ -4591,14 +4432,14 @@
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="86"/>
-      <c r="B29" s="118"/>
-      <c r="C29" s="120"/>
-      <c r="D29" s="151"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="153"/>
-      <c r="G29" s="118"/>
-      <c r="H29" s="119"/>
-      <c r="I29" s="120"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="101"/>
       <c r="J29" s="94"/>
       <c r="K29" s="95"/>
       <c r="L29" s="95"/>
@@ -4628,14 +4469,14 @@
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="86"/>
-      <c r="B30" s="118"/>
-      <c r="C30" s="120"/>
-      <c r="D30" s="151"/>
-      <c r="E30" s="152"/>
-      <c r="F30" s="153"/>
-      <c r="G30" s="118"/>
-      <c r="H30" s="119"/>
-      <c r="I30" s="120"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="101"/>
       <c r="J30" s="94"/>
       <c r="K30" s="95"/>
       <c r="L30" s="95"/>
@@ -4665,14 +4506,14 @@
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="86"/>
-      <c r="B31" s="118"/>
-      <c r="C31" s="120"/>
-      <c r="D31" s="151"/>
-      <c r="E31" s="152"/>
-      <c r="F31" s="153"/>
-      <c r="G31" s="118"/>
-      <c r="H31" s="119"/>
-      <c r="I31" s="120"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="101"/>
       <c r="J31" s="94"/>
       <c r="K31" s="95"/>
       <c r="L31" s="95"/>
@@ -4703,14 +4544,14 @@
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="86"/>
-      <c r="B32" s="118"/>
-      <c r="C32" s="120"/>
-      <c r="D32" s="151"/>
-      <c r="E32" s="152"/>
-      <c r="F32" s="153"/>
-      <c r="G32" s="118"/>
-      <c r="H32" s="119"/>
-      <c r="I32" s="120"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="101"/>
       <c r="J32" s="94"/>
       <c r="K32" s="95"/>
       <c r="L32" s="95"/>
@@ -4741,14 +4582,14 @@
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="86"/>
-      <c r="B33" s="118"/>
-      <c r="C33" s="120"/>
-      <c r="D33" s="151"/>
-      <c r="E33" s="152"/>
-      <c r="F33" s="153"/>
-      <c r="G33" s="118"/>
-      <c r="H33" s="119"/>
-      <c r="I33" s="120"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="101"/>
       <c r="J33" s="94"/>
       <c r="K33" s="95"/>
       <c r="L33" s="95"/>
@@ -4969,6 +4810,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="J27:P27"/>
     <mergeCell ref="Q27:AE27"/>
     <mergeCell ref="AF27:AI27"/>
@@ -4993,161 +4989,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF26:AI26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5304,31 +5145,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="115" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="133" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="121" t="s">
         <v>31</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123"/>
       <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -5340,48 +5181,48 @@
       <c r="X1" s="155"/>
       <c r="Y1" s="155"/>
       <c r="Z1" s="156"/>
-      <c r="AA1" s="130" t="s">
+      <c r="AA1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="106" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="100" t="str">
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="139" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="101"/>
-      <c r="AI1" s="102"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="141"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="115" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="126"/>
       <c r="S2" s="157"/>
       <c r="T2" s="158"/>
       <c r="U2" s="158"/>
@@ -5390,48 +5231,48 @@
       <c r="X2" s="158"/>
       <c r="Y2" s="158"/>
       <c r="Z2" s="159"/>
-      <c r="AA2" s="130" t="s">
+      <c r="AA2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="106" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="100" t="str">
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="139" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="101"/>
-      <c r="AI2" s="102"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="141"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="115" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="141"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="129"/>
       <c r="S3" s="160"/>
       <c r="T3" s="161"/>
       <c r="U3" s="161"/>
@@ -5440,21 +5281,21 @@
       <c r="X3" s="161"/>
       <c r="Y3" s="161"/>
       <c r="Z3" s="162"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="106" t="str">
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="100" t="str">
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="139" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="101"/>
-      <c r="AI3" s="102"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -6914,12 +6755,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6931,6 +6766,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6961,31 +6802,31 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="130" t="s">
+      <c r="A1" s="118" t="s">
         <v>38</v>
       </c>
-      <c r="B1" s="131"/>
-      <c r="C1" s="131"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="115" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117"/>
-      <c r="O1" s="133" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="134"/>
-      <c r="Q1" s="134"/>
-      <c r="R1" s="135"/>
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123"/>
       <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
@@ -6997,51 +6838,51 @@
       <c r="X1" s="155"/>
       <c r="Y1" s="155"/>
       <c r="Z1" s="156"/>
-      <c r="AA1" s="130" t="s">
+      <c r="AA1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="132"/>
-      <c r="AC1" s="106" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="107"/>
-      <c r="AE1" s="107"/>
-      <c r="AF1" s="108"/>
-      <c r="AG1" s="190" t="str">
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="192"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="206"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="130" t="s">
+      <c r="A2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="131"/>
-      <c r="C2" s="131"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="115" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="116"/>
-      <c r="G2" s="116"/>
-      <c r="H2" s="116"/>
-      <c r="I2" s="116"/>
-      <c r="J2" s="116"/>
-      <c r="K2" s="116"/>
-      <c r="L2" s="116"/>
-      <c r="M2" s="116"/>
-      <c r="N2" s="117"/>
-      <c r="O2" s="136"/>
-      <c r="P2" s="137"/>
-      <c r="Q2" s="137"/>
-      <c r="R2" s="138"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="126"/>
       <c r="S2" s="157"/>
       <c r="T2" s="158"/>
       <c r="U2" s="158"/>
@@ -7050,51 +6891,51 @@
       <c r="X2" s="158"/>
       <c r="Y2" s="158"/>
       <c r="Z2" s="159"/>
-      <c r="AA2" s="130" t="s">
+      <c r="AA2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="132"/>
-      <c r="AC2" s="106" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="107"/>
-      <c r="AE2" s="107"/>
-      <c r="AF2" s="108"/>
-      <c r="AG2" s="190" t="str">
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="192"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
     </row>
     <row r="3" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="130" t="s">
+      <c r="A3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="131"/>
-      <c r="C3" s="131"/>
-      <c r="D3" s="132"/>
-      <c r="E3" s="115" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="116"/>
-      <c r="G3" s="116"/>
-      <c r="H3" s="116"/>
-      <c r="I3" s="116"/>
-      <c r="J3" s="116"/>
-      <c r="K3" s="116"/>
-      <c r="L3" s="116"/>
-      <c r="M3" s="116"/>
-      <c r="N3" s="117"/>
-      <c r="O3" s="139"/>
-      <c r="P3" s="140"/>
-      <c r="Q3" s="140"/>
-      <c r="R3" s="141"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="129"/>
       <c r="S3" s="160"/>
       <c r="T3" s="161"/>
       <c r="U3" s="161"/>
@@ -7103,21 +6944,21 @@
       <c r="X3" s="161"/>
       <c r="Y3" s="161"/>
       <c r="Z3" s="162"/>
-      <c r="AA3" s="130"/>
-      <c r="AB3" s="132"/>
-      <c r="AC3" s="106" t="str">
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="107"/>
-      <c r="AE3" s="107"/>
-      <c r="AF3" s="108"/>
-      <c r="AG3" s="190" t="str">
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="191"/>
-      <c r="AI3" s="192"/>
+      <c r="AH3" s="205"/>
+      <c r="AI3" s="206"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -7146,758 +6987,908 @@
       <c r="BI6" s="25"/>
     </row>
     <row r="7" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B7" s="216" t="s">
+      <c r="B7" s="167" t="s">
         <v>40</v>
       </c>
-      <c r="C7" s="176" t="s">
+      <c r="C7" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="D7" s="176"/>
-      <c r="E7" s="176"/>
-      <c r="F7" s="196" t="s">
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="208" t="s">
         <v>36</v>
       </c>
-      <c r="G7" s="196"/>
-      <c r="H7" s="196"/>
-      <c r="I7" s="196"/>
-      <c r="J7" s="196"/>
-      <c r="K7" s="196"/>
-      <c r="L7" s="196"/>
-      <c r="M7" s="183" t="s">
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="N7" s="184"/>
-      <c r="O7" s="177" t="s">
+      <c r="N7" s="213"/>
+      <c r="O7" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="P7" s="178"/>
-      <c r="Q7" s="178"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="179"/>
-      <c r="T7" s="176" t="s">
+      <c r="P7" s="177"/>
+      <c r="Q7" s="177"/>
+      <c r="R7" s="177"/>
+      <c r="S7" s="178"/>
+      <c r="T7" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="U7" s="176"/>
-      <c r="V7" s="183" t="s">
+      <c r="U7" s="166"/>
+      <c r="V7" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="W7" s="187"/>
-      <c r="X7" s="187"/>
-      <c r="Y7" s="184"/>
-      <c r="Z7" s="176" t="s">
+      <c r="W7" s="216"/>
+      <c r="X7" s="216"/>
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="166" t="s">
         <v>39</v>
       </c>
-      <c r="AA7" s="176"/>
-      <c r="AB7" s="177" t="s">
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="AC7" s="178"/>
-      <c r="AD7" s="179"/>
-      <c r="AE7" s="209" t="s">
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="178"/>
+      <c r="AE7" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="AF7" s="211"/>
-      <c r="AG7" s="211"/>
-      <c r="AH7" s="211"/>
-      <c r="AI7" s="211"/>
-      <c r="AJ7" s="211"/>
-      <c r="AK7" s="211"/>
-      <c r="AL7" s="211"/>
-      <c r="AM7" s="210"/>
-      <c r="AN7" s="176" t="s">
+      <c r="AF7" s="164"/>
+      <c r="AG7" s="164"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="164"/>
+      <c r="AJ7" s="164"/>
+      <c r="AK7" s="164"/>
+      <c r="AL7" s="164"/>
+      <c r="AM7" s="165"/>
+      <c r="AN7" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="AO7" s="176"/>
-      <c r="AP7" s="176"/>
-      <c r="AQ7" s="176"/>
-      <c r="AR7" s="176"/>
-      <c r="AS7" s="176"/>
-      <c r="AT7" s="176" t="s">
+      <c r="AO7" s="166"/>
+      <c r="AP7" s="166"/>
+      <c r="AQ7" s="166"/>
+      <c r="AR7" s="166"/>
+      <c r="AS7" s="166"/>
+      <c r="AT7" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="AU7" s="176"/>
-      <c r="AV7" s="176"/>
-      <c r="AW7" s="176"/>
-      <c r="AX7" s="176" t="s">
+      <c r="AU7" s="166"/>
+      <c r="AV7" s="166"/>
+      <c r="AW7" s="166"/>
+      <c r="AX7" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="AY7" s="176"/>
-      <c r="AZ7" s="176"/>
-      <c r="BA7" s="176"/>
-      <c r="BB7" s="176"/>
-      <c r="BC7" s="176"/>
-      <c r="BD7" s="176"/>
-      <c r="BE7" s="176"/>
-      <c r="BF7" s="176"/>
+      <c r="AY7" s="166"/>
+      <c r="AZ7" s="166"/>
+      <c r="BA7" s="166"/>
+      <c r="BB7" s="166"/>
+      <c r="BC7" s="166"/>
+      <c r="BD7" s="166"/>
+      <c r="BE7" s="166"/>
+      <c r="BF7" s="166"/>
       <c r="BG7" s="26"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
     </row>
     <row r="8" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B8" s="217"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
-      <c r="E8" s="176"/>
-      <c r="F8" s="196"/>
-      <c r="G8" s="196"/>
-      <c r="H8" s="196"/>
-      <c r="I8" s="196"/>
-      <c r="J8" s="196"/>
-      <c r="K8" s="196"/>
-      <c r="L8" s="196"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="186"/>
-      <c r="O8" s="180"/>
-      <c r="P8" s="181"/>
-      <c r="Q8" s="181"/>
-      <c r="R8" s="181"/>
-      <c r="S8" s="182"/>
-      <c r="T8" s="176"/>
-      <c r="U8" s="176"/>
-      <c r="V8" s="185"/>
-      <c r="W8" s="188"/>
-      <c r="X8" s="188"/>
-      <c r="Y8" s="186"/>
-      <c r="Z8" s="176"/>
-      <c r="AA8" s="176"/>
-      <c r="AB8" s="180"/>
-      <c r="AC8" s="181"/>
-      <c r="AD8" s="182"/>
-      <c r="AE8" s="209" t="s">
+      <c r="B8" s="168"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="179"/>
+      <c r="P8" s="180"/>
+      <c r="Q8" s="180"/>
+      <c r="R8" s="180"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="166"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="214"/>
+      <c r="W8" s="217"/>
+      <c r="X8" s="217"/>
+      <c r="Y8" s="215"/>
+      <c r="Z8" s="166"/>
+      <c r="AA8" s="166"/>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="180"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="163" t="s">
         <v>41</v>
       </c>
-      <c r="AF8" s="211"/>
-      <c r="AG8" s="210"/>
-      <c r="AH8" s="176" t="s">
+      <c r="AF8" s="164"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="166" t="s">
         <v>34</v>
       </c>
-      <c r="AI8" s="176"/>
-      <c r="AJ8" s="176"/>
-      <c r="AK8" s="176"/>
-      <c r="AL8" s="176"/>
-      <c r="AM8" s="176"/>
-      <c r="AN8" s="209" t="s">
+      <c r="AI8" s="166"/>
+      <c r="AJ8" s="166"/>
+      <c r="AK8" s="166"/>
+      <c r="AL8" s="166"/>
+      <c r="AM8" s="166"/>
+      <c r="AN8" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="AO8" s="210"/>
-      <c r="AP8" s="176" t="s">
+      <c r="AO8" s="165"/>
+      <c r="AP8" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AQ8" s="176"/>
-      <c r="AR8" s="176"/>
-      <c r="AS8" s="176"/>
-      <c r="AT8" s="176"/>
-      <c r="AU8" s="176"/>
-      <c r="AV8" s="176"/>
-      <c r="AW8" s="176"/>
-      <c r="AX8" s="176"/>
-      <c r="AY8" s="176"/>
-      <c r="AZ8" s="176"/>
-      <c r="BA8" s="176"/>
-      <c r="BB8" s="176"/>
-      <c r="BC8" s="176"/>
-      <c r="BD8" s="176"/>
-      <c r="BE8" s="176"/>
-      <c r="BF8" s="176"/>
+      <c r="AQ8" s="166"/>
+      <c r="AR8" s="166"/>
+      <c r="AS8" s="166"/>
+      <c r="AT8" s="166"/>
+      <c r="AU8" s="166"/>
+      <c r="AV8" s="166"/>
+      <c r="AW8" s="166"/>
+      <c r="AX8" s="166"/>
+      <c r="AY8" s="166"/>
+      <c r="AZ8" s="166"/>
+      <c r="BA8" s="166"/>
+      <c r="BB8" s="166"/>
+      <c r="BC8" s="166"/>
+      <c r="BD8" s="166"/>
+      <c r="BE8" s="166"/>
+      <c r="BF8" s="166"/>
       <c r="BG8" s="26"/>
       <c r="BH8" s="26"/>
       <c r="BI8" s="26"/>
     </row>
     <row r="9" spans="1:61" ht="13.5" customHeight="1">
       <c r="B9" s="87"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="193"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
       <c r="M9" s="97"/>
       <c r="N9" s="99"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="169"/>
-      <c r="Q9" s="169"/>
-      <c r="R9" s="169"/>
-      <c r="S9" s="170"/>
-      <c r="T9" s="167"/>
-      <c r="U9" s="167"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="169"/>
-      <c r="X9" s="169"/>
-      <c r="Y9" s="170"/>
-      <c r="Z9" s="193"/>
-      <c r="AA9" s="193"/>
-      <c r="AB9" s="168"/>
-      <c r="AC9" s="169"/>
-      <c r="AD9" s="170"/>
-      <c r="AE9" s="197"/>
-      <c r="AF9" s="198"/>
-      <c r="AG9" s="199"/>
-      <c r="AH9" s="168"/>
-      <c r="AI9" s="169"/>
-      <c r="AJ9" s="169"/>
-      <c r="AK9" s="169"/>
-      <c r="AL9" s="169"/>
-      <c r="AM9" s="170"/>
-      <c r="AN9" s="200"/>
-      <c r="AO9" s="201"/>
-      <c r="AP9" s="202"/>
-      <c r="AQ9" s="202"/>
-      <c r="AR9" s="202"/>
-      <c r="AS9" s="202"/>
-      <c r="AT9" s="205"/>
-      <c r="AU9" s="205"/>
-      <c r="AV9" s="205"/>
-      <c r="AW9" s="205"/>
-      <c r="AX9" s="193"/>
-      <c r="AY9" s="193"/>
-      <c r="AZ9" s="193"/>
-      <c r="BA9" s="193"/>
-      <c r="BB9" s="193"/>
-      <c r="BC9" s="193"/>
-      <c r="BD9" s="193"/>
-      <c r="BE9" s="193"/>
-      <c r="BF9" s="193"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="174"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="203"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="172"/>
+      <c r="AA9" s="172"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="174"/>
+      <c r="AJ9" s="174"/>
+      <c r="AK9" s="174"/>
+      <c r="AL9" s="174"/>
+      <c r="AM9" s="175"/>
+      <c r="AN9" s="184"/>
+      <c r="AO9" s="185"/>
+      <c r="AP9" s="183"/>
+      <c r="AQ9" s="183"/>
+      <c r="AR9" s="183"/>
+      <c r="AS9" s="183"/>
+      <c r="AT9" s="186"/>
+      <c r="AU9" s="186"/>
+      <c r="AV9" s="186"/>
+      <c r="AW9" s="186"/>
+      <c r="AX9" s="172"/>
+      <c r="AY9" s="172"/>
+      <c r="AZ9" s="172"/>
+      <c r="BA9" s="172"/>
+      <c r="BB9" s="172"/>
+      <c r="BC9" s="172"/>
+      <c r="BD9" s="172"/>
+      <c r="BE9" s="172"/>
+      <c r="BF9" s="172"/>
       <c r="BG9" s="27"/>
       <c r="BH9" s="27"/>
       <c r="BI9" s="27"/>
     </row>
     <row r="10" spans="1:61" ht="11.25" customHeight="1">
       <c r="B10" s="87"/>
-      <c r="C10" s="194"/>
-      <c r="D10" s="194"/>
-      <c r="E10" s="194"/>
-      <c r="F10" s="189"/>
-      <c r="G10" s="189"/>
-      <c r="H10" s="189"/>
-      <c r="I10" s="189"/>
-      <c r="J10" s="189"/>
-      <c r="K10" s="189"/>
-      <c r="L10" s="189"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
       <c r="M10" s="97"/>
       <c r="N10" s="99"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="165"/>
-      <c r="Q10" s="165"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="166"/>
-      <c r="T10" s="195"/>
-      <c r="U10" s="195"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="165"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="194"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="165"/>
-      <c r="AD10" s="166"/>
-      <c r="AE10" s="213"/>
-      <c r="AF10" s="214"/>
-      <c r="AG10" s="215"/>
-      <c r="AH10" s="194"/>
-      <c r="AI10" s="194"/>
-      <c r="AJ10" s="194"/>
-      <c r="AK10" s="194"/>
-      <c r="AL10" s="194"/>
-      <c r="AM10" s="194"/>
-      <c r="AN10" s="200"/>
-      <c r="AO10" s="201"/>
-      <c r="AP10" s="203"/>
-      <c r="AQ10" s="203"/>
-      <c r="AR10" s="203"/>
-      <c r="AS10" s="203"/>
-      <c r="AT10" s="205"/>
-      <c r="AU10" s="205"/>
-      <c r="AV10" s="205"/>
-      <c r="AW10" s="205"/>
-      <c r="AX10" s="194"/>
-      <c r="AY10" s="194"/>
-      <c r="AZ10" s="194"/>
-      <c r="BA10" s="194"/>
-      <c r="BB10" s="194"/>
-      <c r="BC10" s="194"/>
-      <c r="BD10" s="194"/>
-      <c r="BE10" s="194"/>
-      <c r="BF10" s="194"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="207"/>
+      <c r="U10" s="207"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="195"/>
+      <c r="Z10" s="191"/>
+      <c r="AA10" s="191"/>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="194"/>
+      <c r="AD10" s="195"/>
+      <c r="AE10" s="188"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="191"/>
+      <c r="AI10" s="191"/>
+      <c r="AJ10" s="191"/>
+      <c r="AK10" s="191"/>
+      <c r="AL10" s="191"/>
+      <c r="AM10" s="191"/>
+      <c r="AN10" s="184"/>
+      <c r="AO10" s="185"/>
+      <c r="AP10" s="192"/>
+      <c r="AQ10" s="192"/>
+      <c r="AR10" s="192"/>
+      <c r="AS10" s="192"/>
+      <c r="AT10" s="186"/>
+      <c r="AU10" s="186"/>
+      <c r="AV10" s="186"/>
+      <c r="AW10" s="186"/>
+      <c r="AX10" s="191"/>
+      <c r="AY10" s="191"/>
+      <c r="AZ10" s="191"/>
+      <c r="BA10" s="191"/>
+      <c r="BB10" s="191"/>
+      <c r="BC10" s="191"/>
+      <c r="BD10" s="191"/>
+      <c r="BE10" s="191"/>
+      <c r="BF10" s="191"/>
     </row>
     <row r="11" spans="1:61" ht="11.25" customHeight="1">
       <c r="B11" s="87"/>
-      <c r="C11" s="189"/>
-      <c r="D11" s="189"/>
-      <c r="E11" s="189"/>
-      <c r="F11" s="189"/>
-      <c r="G11" s="189"/>
-      <c r="H11" s="189"/>
-      <c r="I11" s="189"/>
-      <c r="J11" s="189"/>
-      <c r="K11" s="189"/>
-      <c r="L11" s="189"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
       <c r="M11" s="97"/>
       <c r="N11" s="99"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="172"/>
-      <c r="Q11" s="172"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="173"/>
-      <c r="T11" s="163"/>
-      <c r="U11" s="163"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="172"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="173"/>
-      <c r="Z11" s="189"/>
-      <c r="AA11" s="189"/>
-      <c r="AB11" s="171"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="173"/>
-      <c r="AE11" s="206"/>
-      <c r="AF11" s="207"/>
-      <c r="AG11" s="208"/>
-      <c r="AH11" s="189"/>
-      <c r="AI11" s="189"/>
-      <c r="AJ11" s="189"/>
-      <c r="AK11" s="189"/>
-      <c r="AL11" s="189"/>
-      <c r="AM11" s="189"/>
-      <c r="AN11" s="200"/>
-      <c r="AO11" s="201"/>
-      <c r="AP11" s="204"/>
-      <c r="AQ11" s="204"/>
-      <c r="AR11" s="204"/>
-      <c r="AS11" s="204"/>
-      <c r="AT11" s="205"/>
-      <c r="AU11" s="205"/>
-      <c r="AV11" s="205"/>
-      <c r="AW11" s="205"/>
-      <c r="AX11" s="189"/>
-      <c r="AY11" s="189"/>
-      <c r="AZ11" s="189"/>
-      <c r="BA11" s="189"/>
-      <c r="BB11" s="189"/>
-      <c r="BC11" s="189"/>
-      <c r="BD11" s="189"/>
-      <c r="BE11" s="189"/>
-      <c r="BF11" s="189"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="198"/>
+      <c r="Q11" s="198"/>
+      <c r="R11" s="198"/>
+      <c r="S11" s="199"/>
+      <c r="T11" s="209"/>
+      <c r="U11" s="209"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="198"/>
+      <c r="X11" s="198"/>
+      <c r="Y11" s="199"/>
+      <c r="Z11" s="182"/>
+      <c r="AA11" s="182"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="198"/>
+      <c r="AD11" s="199"/>
+      <c r="AE11" s="200"/>
+      <c r="AF11" s="201"/>
+      <c r="AG11" s="202"/>
+      <c r="AH11" s="182"/>
+      <c r="AI11" s="182"/>
+      <c r="AJ11" s="182"/>
+      <c r="AK11" s="182"/>
+      <c r="AL11" s="182"/>
+      <c r="AM11" s="182"/>
+      <c r="AN11" s="184"/>
+      <c r="AO11" s="185"/>
+      <c r="AP11" s="196"/>
+      <c r="AQ11" s="196"/>
+      <c r="AR11" s="196"/>
+      <c r="AS11" s="196"/>
+      <c r="AT11" s="186"/>
+      <c r="AU11" s="186"/>
+      <c r="AV11" s="186"/>
+      <c r="AW11" s="186"/>
+      <c r="AX11" s="182"/>
+      <c r="AY11" s="182"/>
+      <c r="AZ11" s="182"/>
+      <c r="BA11" s="182"/>
+      <c r="BB11" s="182"/>
+      <c r="BC11" s="182"/>
+      <c r="BD11" s="182"/>
+      <c r="BE11" s="182"/>
+      <c r="BF11" s="182"/>
     </row>
     <row r="12" spans="1:61">
       <c r="B12" s="87"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="193"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
       <c r="M12" s="97"/>
       <c r="N12" s="99"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="169"/>
-      <c r="Q12" s="169"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="170"/>
-      <c r="T12" s="167"/>
-      <c r="U12" s="167"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="172"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="173"/>
-      <c r="Z12" s="193"/>
-      <c r="AA12" s="193"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="169"/>
-      <c r="AD12" s="170"/>
-      <c r="AE12" s="197"/>
-      <c r="AF12" s="198"/>
-      <c r="AG12" s="199"/>
-      <c r="AH12" s="168"/>
-      <c r="AI12" s="169"/>
-      <c r="AJ12" s="169"/>
-      <c r="AK12" s="169"/>
-      <c r="AL12" s="169"/>
-      <c r="AM12" s="170"/>
-      <c r="AN12" s="200"/>
-      <c r="AO12" s="201"/>
-      <c r="AP12" s="202"/>
-      <c r="AQ12" s="202"/>
-      <c r="AR12" s="202"/>
-      <c r="AS12" s="202"/>
-      <c r="AT12" s="205"/>
-      <c r="AU12" s="205"/>
-      <c r="AV12" s="205"/>
-      <c r="AW12" s="205"/>
-      <c r="AX12" s="193"/>
-      <c r="AY12" s="193"/>
-      <c r="AZ12" s="193"/>
-      <c r="BA12" s="193"/>
-      <c r="BB12" s="193"/>
-      <c r="BC12" s="193"/>
-      <c r="BD12" s="193"/>
-      <c r="BE12" s="193"/>
-      <c r="BF12" s="193"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="174"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="203"/>
+      <c r="U12" s="203"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="198"/>
+      <c r="X12" s="198"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="172"/>
+      <c r="AA12" s="172"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="174"/>
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="171"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="174"/>
+      <c r="AJ12" s="174"/>
+      <c r="AK12" s="174"/>
+      <c r="AL12" s="174"/>
+      <c r="AM12" s="175"/>
+      <c r="AN12" s="184"/>
+      <c r="AO12" s="185"/>
+      <c r="AP12" s="183"/>
+      <c r="AQ12" s="183"/>
+      <c r="AR12" s="183"/>
+      <c r="AS12" s="183"/>
+      <c r="AT12" s="186"/>
+      <c r="AU12" s="186"/>
+      <c r="AV12" s="186"/>
+      <c r="AW12" s="186"/>
+      <c r="AX12" s="172"/>
+      <c r="AY12" s="172"/>
+      <c r="AZ12" s="172"/>
+      <c r="BA12" s="172"/>
+      <c r="BB12" s="172"/>
+      <c r="BC12" s="172"/>
+      <c r="BD12" s="172"/>
+      <c r="BE12" s="172"/>
+      <c r="BF12" s="172"/>
     </row>
     <row r="13" spans="1:61">
       <c r="B13" s="87"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="193"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
       <c r="M13" s="97"/>
       <c r="N13" s="99"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="169"/>
-      <c r="Q13" s="169"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="170"/>
-      <c r="T13" s="167"/>
-      <c r="U13" s="167"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="169"/>
-      <c r="X13" s="169"/>
-      <c r="Y13" s="170"/>
-      <c r="Z13" s="193"/>
-      <c r="AA13" s="193"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="169"/>
-      <c r="AD13" s="170"/>
-      <c r="AE13" s="197"/>
-      <c r="AF13" s="198"/>
-      <c r="AG13" s="199"/>
-      <c r="AH13" s="193"/>
-      <c r="AI13" s="193"/>
-      <c r="AJ13" s="193"/>
-      <c r="AK13" s="193"/>
-      <c r="AL13" s="193"/>
-      <c r="AM13" s="193"/>
-      <c r="AN13" s="200"/>
-      <c r="AO13" s="201"/>
-      <c r="AP13" s="202"/>
-      <c r="AQ13" s="202"/>
-      <c r="AR13" s="202"/>
-      <c r="AS13" s="202"/>
-      <c r="AT13" s="205"/>
-      <c r="AU13" s="205"/>
-      <c r="AV13" s="205"/>
-      <c r="AW13" s="205"/>
-      <c r="AX13" s="193"/>
-      <c r="AY13" s="193"/>
-      <c r="AZ13" s="193"/>
-      <c r="BA13" s="193"/>
-      <c r="BB13" s="193"/>
-      <c r="BC13" s="193"/>
-      <c r="BD13" s="193"/>
-      <c r="BE13" s="193"/>
-      <c r="BF13" s="193"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="203"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="175"/>
+      <c r="Z13" s="172"/>
+      <c r="AA13" s="172"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="175"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="171"/>
+      <c r="AH13" s="172"/>
+      <c r="AI13" s="172"/>
+      <c r="AJ13" s="172"/>
+      <c r="AK13" s="172"/>
+      <c r="AL13" s="172"/>
+      <c r="AM13" s="172"/>
+      <c r="AN13" s="184"/>
+      <c r="AO13" s="185"/>
+      <c r="AP13" s="183"/>
+      <c r="AQ13" s="183"/>
+      <c r="AR13" s="183"/>
+      <c r="AS13" s="183"/>
+      <c r="AT13" s="186"/>
+      <c r="AU13" s="186"/>
+      <c r="AV13" s="186"/>
+      <c r="AW13" s="186"/>
+      <c r="AX13" s="172"/>
+      <c r="AY13" s="172"/>
+      <c r="AZ13" s="172"/>
+      <c r="BA13" s="172"/>
+      <c r="BB13" s="172"/>
+      <c r="BC13" s="172"/>
+      <c r="BD13" s="172"/>
+      <c r="BE13" s="172"/>
+      <c r="BF13" s="172"/>
     </row>
     <row r="14" spans="1:61" ht="11.25" customHeight="1">
       <c r="B14" s="87"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="193"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
       <c r="M14" s="97"/>
       <c r="N14" s="99"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="169"/>
-      <c r="Q14" s="169"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="170"/>
-      <c r="T14" s="167"/>
-      <c r="U14" s="167"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="169"/>
-      <c r="X14" s="169"/>
-      <c r="Y14" s="170"/>
-      <c r="Z14" s="193"/>
-      <c r="AA14" s="193"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="169"/>
-      <c r="AD14" s="170"/>
-      <c r="AE14" s="197"/>
-      <c r="AF14" s="198"/>
-      <c r="AG14" s="199"/>
-      <c r="AH14" s="193"/>
-      <c r="AI14" s="193"/>
-      <c r="AJ14" s="193"/>
-      <c r="AK14" s="193"/>
-      <c r="AL14" s="193"/>
-      <c r="AM14" s="193"/>
-      <c r="AN14" s="200"/>
-      <c r="AO14" s="201"/>
-      <c r="AP14" s="202"/>
-      <c r="AQ14" s="202"/>
-      <c r="AR14" s="202"/>
-      <c r="AS14" s="202"/>
-      <c r="AT14" s="205"/>
-      <c r="AU14" s="205"/>
-      <c r="AV14" s="205"/>
-      <c r="AW14" s="205"/>
-      <c r="AX14" s="193"/>
-      <c r="AY14" s="193"/>
-      <c r="AZ14" s="193"/>
-      <c r="BA14" s="193"/>
-      <c r="BB14" s="193"/>
-      <c r="BC14" s="193"/>
-      <c r="BD14" s="193"/>
-      <c r="BE14" s="193"/>
-      <c r="BF14" s="193"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="174"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="203"/>
+      <c r="U14" s="203"/>
+      <c r="V14" s="173"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="175"/>
+      <c r="Z14" s="172"/>
+      <c r="AA14" s="172"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="175"/>
+      <c r="AE14" s="169"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="172"/>
+      <c r="AI14" s="172"/>
+      <c r="AJ14" s="172"/>
+      <c r="AK14" s="172"/>
+      <c r="AL14" s="172"/>
+      <c r="AM14" s="172"/>
+      <c r="AN14" s="184"/>
+      <c r="AO14" s="185"/>
+      <c r="AP14" s="183"/>
+      <c r="AQ14" s="183"/>
+      <c r="AR14" s="183"/>
+      <c r="AS14" s="183"/>
+      <c r="AT14" s="186"/>
+      <c r="AU14" s="186"/>
+      <c r="AV14" s="186"/>
+      <c r="AW14" s="186"/>
+      <c r="AX14" s="172"/>
+      <c r="AY14" s="172"/>
+      <c r="AZ14" s="172"/>
+      <c r="BA14" s="172"/>
+      <c r="BB14" s="172"/>
+      <c r="BC14" s="172"/>
+      <c r="BD14" s="172"/>
+      <c r="BE14" s="172"/>
+      <c r="BF14" s="172"/>
     </row>
     <row r="15" spans="1:61" ht="11.25" customHeight="1">
       <c r="B15" s="87"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
-      <c r="L15" s="193"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
       <c r="M15" s="97"/>
       <c r="N15" s="99"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="169"/>
-      <c r="Q15" s="169"/>
-      <c r="R15" s="169"/>
-      <c r="S15" s="170"/>
-      <c r="T15" s="167"/>
-      <c r="U15" s="167"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="169"/>
-      <c r="X15" s="169"/>
-      <c r="Y15" s="170"/>
-      <c r="Z15" s="193"/>
-      <c r="AA15" s="193"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="169"/>
-      <c r="AD15" s="170"/>
-      <c r="AE15" s="197"/>
-      <c r="AF15" s="198"/>
-      <c r="AG15" s="199"/>
-      <c r="AH15" s="193"/>
-      <c r="AI15" s="193"/>
-      <c r="AJ15" s="193"/>
-      <c r="AK15" s="193"/>
-      <c r="AL15" s="193"/>
-      <c r="AM15" s="193"/>
-      <c r="AN15" s="200"/>
-      <c r="AO15" s="201"/>
-      <c r="AP15" s="202"/>
-      <c r="AQ15" s="202"/>
-      <c r="AR15" s="202"/>
-      <c r="AS15" s="202"/>
-      <c r="AT15" s="205"/>
-      <c r="AU15" s="205"/>
-      <c r="AV15" s="205"/>
-      <c r="AW15" s="205"/>
-      <c r="AX15" s="193"/>
-      <c r="AY15" s="193"/>
-      <c r="AZ15" s="193"/>
-      <c r="BA15" s="193"/>
-      <c r="BB15" s="193"/>
-      <c r="BC15" s="193"/>
-      <c r="BD15" s="193"/>
-      <c r="BE15" s="193"/>
-      <c r="BF15" s="193"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="203"/>
+      <c r="U15" s="203"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="172"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="174"/>
+      <c r="AD15" s="175"/>
+      <c r="AE15" s="169"/>
+      <c r="AF15" s="170"/>
+      <c r="AG15" s="171"/>
+      <c r="AH15" s="172"/>
+      <c r="AI15" s="172"/>
+      <c r="AJ15" s="172"/>
+      <c r="AK15" s="172"/>
+      <c r="AL15" s="172"/>
+      <c r="AM15" s="172"/>
+      <c r="AN15" s="184"/>
+      <c r="AO15" s="185"/>
+      <c r="AP15" s="183"/>
+      <c r="AQ15" s="183"/>
+      <c r="AR15" s="183"/>
+      <c r="AS15" s="183"/>
+      <c r="AT15" s="186"/>
+      <c r="AU15" s="186"/>
+      <c r="AV15" s="186"/>
+      <c r="AW15" s="186"/>
+      <c r="AX15" s="172"/>
+      <c r="AY15" s="172"/>
+      <c r="AZ15" s="172"/>
+      <c r="BA15" s="172"/>
+      <c r="BB15" s="172"/>
+      <c r="BC15" s="172"/>
+      <c r="BD15" s="172"/>
+      <c r="BE15" s="172"/>
+      <c r="BF15" s="172"/>
     </row>
     <row r="16" spans="1:61" s="29" customFormat="1">
       <c r="B16" s="87"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="193"/>
-      <c r="F16" s="189"/>
-      <c r="G16" s="189"/>
-      <c r="H16" s="189"/>
-      <c r="I16" s="189"/>
-      <c r="J16" s="189"/>
-      <c r="K16" s="189"/>
-      <c r="L16" s="189"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
       <c r="M16" s="97"/>
       <c r="N16" s="99"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="172"/>
-      <c r="Q16" s="172"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="173"/>
-      <c r="T16" s="163"/>
-      <c r="U16" s="163"/>
-      <c r="V16" s="171"/>
-      <c r="W16" s="172"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="173"/>
-      <c r="Z16" s="189"/>
-      <c r="AA16" s="189"/>
-      <c r="AB16" s="171"/>
-      <c r="AC16" s="172"/>
-      <c r="AD16" s="173"/>
-      <c r="AE16" s="197"/>
-      <c r="AF16" s="198"/>
-      <c r="AG16" s="199"/>
-      <c r="AH16" s="189"/>
-      <c r="AI16" s="189"/>
-      <c r="AJ16" s="189"/>
-      <c r="AK16" s="189"/>
-      <c r="AL16" s="189"/>
-      <c r="AM16" s="189"/>
-      <c r="AN16" s="200"/>
-      <c r="AO16" s="201"/>
-      <c r="AP16" s="202"/>
-      <c r="AQ16" s="202"/>
-      <c r="AR16" s="202"/>
-      <c r="AS16" s="202"/>
-      <c r="AT16" s="205"/>
-      <c r="AU16" s="205"/>
-      <c r="AV16" s="205"/>
-      <c r="AW16" s="205"/>
-      <c r="AX16" s="189"/>
-      <c r="AY16" s="189"/>
-      <c r="AZ16" s="189"/>
-      <c r="BA16" s="189"/>
-      <c r="BB16" s="189"/>
-      <c r="BC16" s="189"/>
-      <c r="BD16" s="189"/>
-      <c r="BE16" s="189"/>
-      <c r="BF16" s="189"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="198"/>
+      <c r="Q16" s="198"/>
+      <c r="R16" s="198"/>
+      <c r="S16" s="199"/>
+      <c r="T16" s="209"/>
+      <c r="U16" s="209"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="198"/>
+      <c r="X16" s="198"/>
+      <c r="Y16" s="199"/>
+      <c r="Z16" s="182"/>
+      <c r="AA16" s="182"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="198"/>
+      <c r="AD16" s="199"/>
+      <c r="AE16" s="169"/>
+      <c r="AF16" s="170"/>
+      <c r="AG16" s="171"/>
+      <c r="AH16" s="182"/>
+      <c r="AI16" s="182"/>
+      <c r="AJ16" s="182"/>
+      <c r="AK16" s="182"/>
+      <c r="AL16" s="182"/>
+      <c r="AM16" s="182"/>
+      <c r="AN16" s="184"/>
+      <c r="AO16" s="185"/>
+      <c r="AP16" s="183"/>
+      <c r="AQ16" s="183"/>
+      <c r="AR16" s="183"/>
+      <c r="AS16" s="183"/>
+      <c r="AT16" s="186"/>
+      <c r="AU16" s="186"/>
+      <c r="AV16" s="186"/>
+      <c r="AW16" s="186"/>
+      <c r="AX16" s="182"/>
+      <c r="AY16" s="182"/>
+      <c r="AZ16" s="182"/>
+      <c r="BA16" s="182"/>
+      <c r="BB16" s="182"/>
+      <c r="BC16" s="182"/>
+      <c r="BD16" s="182"/>
+      <c r="BE16" s="182"/>
+      <c r="BF16" s="182"/>
     </row>
     <row r="17" spans="2:58" ht="11.25" customHeight="1">
       <c r="B17" s="87"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="170"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="169"/>
-      <c r="H17" s="169"/>
-      <c r="I17" s="169"/>
-      <c r="J17" s="169"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="170"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="175"/>
       <c r="M17" s="97"/>
       <c r="N17" s="99"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="169"/>
-      <c r="Q17" s="169"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="170"/>
-      <c r="T17" s="174"/>
-      <c r="U17" s="175"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="169"/>
-      <c r="X17" s="169"/>
-      <c r="Y17" s="170"/>
-      <c r="Z17" s="168"/>
-      <c r="AA17" s="170"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="169"/>
-      <c r="AD17" s="170"/>
-      <c r="AE17" s="197"/>
-      <c r="AF17" s="198"/>
-      <c r="AG17" s="199"/>
-      <c r="AH17" s="168"/>
-      <c r="AI17" s="169"/>
-      <c r="AJ17" s="169"/>
-      <c r="AK17" s="169"/>
-      <c r="AL17" s="169"/>
-      <c r="AM17" s="170"/>
-      <c r="AN17" s="200"/>
-      <c r="AO17" s="201"/>
-      <c r="AP17" s="200"/>
-      <c r="AQ17" s="212"/>
-      <c r="AR17" s="212"/>
-      <c r="AS17" s="201"/>
-      <c r="AT17" s="205"/>
-      <c r="AU17" s="205"/>
-      <c r="AV17" s="205"/>
-      <c r="AW17" s="205"/>
-      <c r="AX17" s="168"/>
-      <c r="AY17" s="169"/>
-      <c r="AZ17" s="169"/>
-      <c r="BA17" s="169"/>
-      <c r="BB17" s="169"/>
-      <c r="BC17" s="169"/>
-      <c r="BD17" s="169"/>
-      <c r="BE17" s="169"/>
-      <c r="BF17" s="170"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="210"/>
+      <c r="U17" s="211"/>
+      <c r="V17" s="173"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="175"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="175"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="174"/>
+      <c r="AD17" s="175"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="170"/>
+      <c r="AG17" s="171"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="174"/>
+      <c r="AJ17" s="174"/>
+      <c r="AK17" s="174"/>
+      <c r="AL17" s="174"/>
+      <c r="AM17" s="175"/>
+      <c r="AN17" s="184"/>
+      <c r="AO17" s="185"/>
+      <c r="AP17" s="184"/>
+      <c r="AQ17" s="187"/>
+      <c r="AR17" s="187"/>
+      <c r="AS17" s="185"/>
+      <c r="AT17" s="186"/>
+      <c r="AU17" s="186"/>
+      <c r="AV17" s="186"/>
+      <c r="AW17" s="186"/>
+      <c r="AX17" s="173"/>
+      <c r="AY17" s="174"/>
+      <c r="AZ17" s="174"/>
+      <c r="BA17" s="174"/>
+      <c r="BB17" s="174"/>
+      <c r="BC17" s="174"/>
+      <c r="BD17" s="174"/>
+      <c r="BE17" s="174"/>
+      <c r="BF17" s="175"/>
     </row>
     <row r="18" spans="2:58">
       <c r="B18" s="87"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="193"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
       <c r="M18" s="97"/>
       <c r="N18" s="99"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="169"/>
-      <c r="Q18" s="169"/>
-      <c r="R18" s="169"/>
-      <c r="S18" s="170"/>
-      <c r="T18" s="167"/>
-      <c r="U18" s="167"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="169"/>
-      <c r="X18" s="169"/>
-      <c r="Y18" s="170"/>
-      <c r="Z18" s="193"/>
-      <c r="AA18" s="193"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="169"/>
-      <c r="AD18" s="170"/>
-      <c r="AE18" s="197"/>
-      <c r="AF18" s="198"/>
-      <c r="AG18" s="199"/>
-      <c r="AH18" s="193"/>
-      <c r="AI18" s="193"/>
-      <c r="AJ18" s="193"/>
-      <c r="AK18" s="193"/>
-      <c r="AL18" s="193"/>
-      <c r="AM18" s="193"/>
-      <c r="AN18" s="200"/>
-      <c r="AO18" s="201"/>
-      <c r="AP18" s="202"/>
-      <c r="AQ18" s="202"/>
-      <c r="AR18" s="202"/>
-      <c r="AS18" s="202"/>
-      <c r="AT18" s="205"/>
-      <c r="AU18" s="205"/>
-      <c r="AV18" s="205"/>
-      <c r="AW18" s="205"/>
-      <c r="AX18" s="193"/>
-      <c r="AY18" s="193"/>
-      <c r="AZ18" s="193"/>
-      <c r="BA18" s="193"/>
-      <c r="BB18" s="193"/>
-      <c r="BC18" s="193"/>
-      <c r="BD18" s="193"/>
-      <c r="BE18" s="193"/>
-      <c r="BF18" s="193"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="203"/>
+      <c r="U18" s="203"/>
+      <c r="V18" s="173"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="175"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="175"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="171"/>
+      <c r="AH18" s="172"/>
+      <c r="AI18" s="172"/>
+      <c r="AJ18" s="172"/>
+      <c r="AK18" s="172"/>
+      <c r="AL18" s="172"/>
+      <c r="AM18" s="172"/>
+      <c r="AN18" s="184"/>
+      <c r="AO18" s="185"/>
+      <c r="AP18" s="183"/>
+      <c r="AQ18" s="183"/>
+      <c r="AR18" s="183"/>
+      <c r="AS18" s="183"/>
+      <c r="AT18" s="186"/>
+      <c r="AU18" s="186"/>
+      <c r="AV18" s="186"/>
+      <c r="AW18" s="186"/>
+      <c r="AX18" s="172"/>
+      <c r="AY18" s="172"/>
+      <c r="AZ18" s="172"/>
+      <c r="BA18" s="172"/>
+      <c r="BB18" s="172"/>
+      <c r="BC18" s="172"/>
+      <c r="BD18" s="172"/>
+      <c r="BE18" s="172"/>
+      <c r="BF18" s="172"/>
     </row>
   </sheetData>
   <mergeCells count="174">
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="O7:S8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="V7:Y8"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="F7:L8"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AX13:BF13"/>
+    <mergeCell ref="AX10:BF10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AX11:BF11"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AT10:AW10"/>
+    <mergeCell ref="AT11:AW11"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AT13:AW13"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX9:BF9"/>
+    <mergeCell ref="AN7:AS7"/>
+    <mergeCell ref="AT7:AW8"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX12:BF12"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AX18:BF18"/>
+    <mergeCell ref="AX16:BF16"/>
+    <mergeCell ref="AX17:BF17"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AX14:BF14"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AX15:BF15"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AP18:AS18"/>
+    <mergeCell ref="AT14:AW14"/>
+    <mergeCell ref="AT15:AW15"/>
+    <mergeCell ref="AT16:AW16"/>
+    <mergeCell ref="AT17:AW17"/>
+    <mergeCell ref="AT18:AW18"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AX7:BF8"/>
     <mergeCell ref="AE8:AG8"/>
     <mergeCell ref="AH8:AM8"/>
     <mergeCell ref="B7:B8"/>
@@ -7922,156 +7913,6 @@
     <mergeCell ref="V9:Y9"/>
     <mergeCell ref="AB7:AD8"/>
     <mergeCell ref="AB9:AD9"/>
-    <mergeCell ref="AH9:AM9"/>
-    <mergeCell ref="AE7:AM7"/>
-    <mergeCell ref="AE9:AG9"/>
-    <mergeCell ref="AX18:BF18"/>
-    <mergeCell ref="AX16:BF16"/>
-    <mergeCell ref="AX17:BF17"/>
-    <mergeCell ref="AP16:AS16"/>
-    <mergeCell ref="AX14:BF14"/>
-    <mergeCell ref="AN15:AO15"/>
-    <mergeCell ref="AP15:AS15"/>
-    <mergeCell ref="AX15:BF15"/>
-    <mergeCell ref="AN14:AO14"/>
-    <mergeCell ref="AP14:AS14"/>
-    <mergeCell ref="AN18:AO18"/>
-    <mergeCell ref="AP18:AS18"/>
-    <mergeCell ref="AT14:AW14"/>
-    <mergeCell ref="AT15:AW15"/>
-    <mergeCell ref="AT16:AW16"/>
-    <mergeCell ref="AT17:AW17"/>
-    <mergeCell ref="AT18:AW18"/>
-    <mergeCell ref="AN17:AO17"/>
-    <mergeCell ref="AP17:AS17"/>
-    <mergeCell ref="AE10:AG10"/>
-    <mergeCell ref="AX7:BF8"/>
-    <mergeCell ref="AN8:AO8"/>
-    <mergeCell ref="AP8:AS8"/>
-    <mergeCell ref="AN9:AO9"/>
-    <mergeCell ref="AP9:AS9"/>
-    <mergeCell ref="AX9:BF9"/>
-    <mergeCell ref="AN7:AS7"/>
-    <mergeCell ref="AT7:AW8"/>
-    <mergeCell ref="AT9:AW9"/>
-    <mergeCell ref="AX12:BF12"/>
-    <mergeCell ref="AX13:BF13"/>
-    <mergeCell ref="AX10:BF10"/>
-    <mergeCell ref="AP10:AS10"/>
-    <mergeCell ref="AB10:AD10"/>
-    <mergeCell ref="AH10:AM10"/>
-    <mergeCell ref="AB13:AD13"/>
-    <mergeCell ref="AX11:BF11"/>
-    <mergeCell ref="AE12:AG12"/>
-    <mergeCell ref="AH13:AM13"/>
-    <mergeCell ref="AE13:AG13"/>
-    <mergeCell ref="AN11:AO11"/>
-    <mergeCell ref="AP11:AS11"/>
-    <mergeCell ref="AB11:AD11"/>
-    <mergeCell ref="AH11:AM11"/>
-    <mergeCell ref="AT10:AW10"/>
-    <mergeCell ref="AT11:AW11"/>
-    <mergeCell ref="AT12:AW12"/>
-    <mergeCell ref="AP12:AS12"/>
-    <mergeCell ref="AT13:AW13"/>
-    <mergeCell ref="AN10:AO10"/>
-    <mergeCell ref="AE11:AG11"/>
-    <mergeCell ref="AE18:AG18"/>
-    <mergeCell ref="AB12:AD12"/>
-    <mergeCell ref="AH12:AM12"/>
-    <mergeCell ref="V12:Y12"/>
-    <mergeCell ref="AB16:AD16"/>
-    <mergeCell ref="Z17:AA17"/>
-    <mergeCell ref="AN13:AO13"/>
-    <mergeCell ref="AP13:AS13"/>
-    <mergeCell ref="AN12:AO12"/>
-    <mergeCell ref="AH15:AM15"/>
-    <mergeCell ref="AB14:AD14"/>
-    <mergeCell ref="V17:Y17"/>
-    <mergeCell ref="Z15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="AH14:AM14"/>
-    <mergeCell ref="AH18:AM18"/>
-    <mergeCell ref="AH17:AM17"/>
-    <mergeCell ref="AH16:AM16"/>
-    <mergeCell ref="AE16:AG16"/>
-    <mergeCell ref="AN16:AO16"/>
-    <mergeCell ref="Z14:AA14"/>
-    <mergeCell ref="Z16:AA16"/>
-    <mergeCell ref="AE17:AG17"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="T18:U18"/>
-    <mergeCell ref="V18:Y18"/>
-    <mergeCell ref="Z18:AA18"/>
-    <mergeCell ref="AB18:AD18"/>
-    <mergeCell ref="M11:N11"/>
-    <mergeCell ref="C18:E18"/>
-    <mergeCell ref="F18:L18"/>
-    <mergeCell ref="M18:N18"/>
-    <mergeCell ref="O18:S18"/>
-    <mergeCell ref="C17:E17"/>
-    <mergeCell ref="F17:L17"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:L15"/>
-    <mergeCell ref="M15:N15"/>
-    <mergeCell ref="O15:S15"/>
-    <mergeCell ref="C12:E12"/>
-    <mergeCell ref="F12:L12"/>
-    <mergeCell ref="O12:S12"/>
-    <mergeCell ref="T12:U12"/>
-    <mergeCell ref="M12:N12"/>
-    <mergeCell ref="C11:E11"/>
-    <mergeCell ref="C16:E16"/>
-    <mergeCell ref="F16:L16"/>
-    <mergeCell ref="M16:N16"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AB17:AD17"/>
-    <mergeCell ref="C14:E14"/>
-    <mergeCell ref="F14:L14"/>
-    <mergeCell ref="V14:Y14"/>
-    <mergeCell ref="M17:N17"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="C7:E8"/>
-    <mergeCell ref="Z10:AA10"/>
-    <mergeCell ref="C10:E10"/>
-    <mergeCell ref="F10:L10"/>
-    <mergeCell ref="T10:U10"/>
-    <mergeCell ref="M10:N10"/>
-    <mergeCell ref="C9:E9"/>
-    <mergeCell ref="F9:L9"/>
-    <mergeCell ref="T9:U9"/>
-    <mergeCell ref="Z9:AA9"/>
-    <mergeCell ref="F7:L8"/>
-    <mergeCell ref="O11:S11"/>
-    <mergeCell ref="T11:U11"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="O10:S10"/>
-    <mergeCell ref="T13:U13"/>
-    <mergeCell ref="V13:Y13"/>
-    <mergeCell ref="T15:U15"/>
-    <mergeCell ref="V15:Y15"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="T16:U16"/>
-    <mergeCell ref="V16:Y16"/>
-    <mergeCell ref="T17:U17"/>
-    <mergeCell ref="O13:S13"/>
-    <mergeCell ref="O14:S14"/>
-    <mergeCell ref="V11:Y11"/>
-    <mergeCell ref="T7:U8"/>
-    <mergeCell ref="O16:S16"/>
-    <mergeCell ref="T14:U14"/>
-    <mergeCell ref="O7:S8"/>
-    <mergeCell ref="M7:N8"/>
-    <mergeCell ref="V7:Y8"/>
-    <mergeCell ref="V10:Y10"/>
-    <mergeCell ref="F11:L11"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="Z11:AA11"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <dataValidations disablePrompts="1" count="2">

--- a/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
+++ b/030_設計ドキュメント/010_フォーマット/030_インタフェース設計/外部インタフェース一覧_(サブシステムID)_(サブシステム名).xlsx
@@ -12,16 +12,12 @@
     <sheet name="目次" sheetId="31" r:id="rId3"/>
     <sheet name="1" sheetId="28" r:id="rId4"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId5"/>
-  </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1'!$A$8:$T$8</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$BF$19</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'1'!$B$8:$U$8</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">'1'!$A$1:$BG$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">目次!$A$1:$AI$36</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="3">'1'!$1:$8</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="2">目次!$1:$4</definedName>
-    <definedName name="データ型">[1]データ!$A$2:$A$22</definedName>
   </definedNames>
   <calcPr calcId="145621"/>
 </workbook>
@@ -33,7 +29,7 @@
     <author>作成者</author>
   </authors>
   <commentList>
-    <comment ref="B7" authorId="0">
+    <comment ref="O7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -43,12 +39,26 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>プロジェクトで定めた採番ルールに準じたファイルID/電文IDを記入する。
-IDを意識し、検索しやすい位置を考えて追加すること。（むやみに最終行に追加しない）</t>
+          <t>インタフェースの授受相手先を記載する(外部機関名称、部署名、システム名など)。</t>
         </r>
       </text>
     </comment>
-    <comment ref="N7" authorId="0">
+    <comment ref="T7" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="ＭＳ 明朝"/>
+            <family val="1"/>
+            <charset val="128"/>
+          </rPr>
+          <t>インタフェースを授受媒体を記載する。
+※「JSON、XML」の場合、「-」と記載する。</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V7" authorId="0">
       <text>
         <r>
           <rPr>
@@ -58,13 +68,13 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>外部インターフェースの送受信先を記入する。
-システム名が分かる場合は、「会社名/システム名」の形式で記入する。システム名が分からない場合は会社名のみ記入する。
-自社内の他システムの場合はシステム名のみ記入する。</t>
+          <t>伝送の場合は伝送方式、その他の場合は媒体送付方法を記載する。
+例1)伝送の場合、「FTP」または「HULFT」
+例2)MT/FD/MOの場合、「オフラインMTサーバ」</t>
         </r>
       </text>
     </comment>
-    <comment ref="AD8" authorId="0">
+    <comment ref="AE8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -74,11 +84,14 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>「日次」、「月次」など、外部インターフェースに関する処理が行われる処理のサイクルを記載する。</t>
+          <t>インタフェースを入出力する処理サイクルを記載する。
+  ・ 「日次」  ・ 「週次」
+  ・ 「月次」  ・ 「年次」
+  ・ 「随時」  ・ 「その他」</t>
         </r>
       </text>
     </comment>
-    <comment ref="AJ8" authorId="0">
+    <comment ref="AH8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -88,11 +101,12 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>「夜間」、「15:00」など、左項目記載のサイクル中どのタイミングで処理が実行されるのかを記載する。</t>
+          <t>【処理サイクル：サイクル】に記載されたタイミングの内、どのタイミングで処理を実行するのか記載する。
+例)毎週月曜10:00</t>
         </r>
       </text>
     </comment>
-    <comment ref="AM8" authorId="0">
+    <comment ref="AN8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -102,13 +116,14 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>外部インターフェースのレコード長を記入する。
-可変長ファイルの場合は、想定される最長のレコード長を記入する。
-XML形式の場合は記入しなくてよい。</t>
+          <t>インタフェースのレコード長を記載する。
+  ・「固定長」の場合、バイト数
+  ・「可変長」の場合、最大バイト数
+ ※ 「JSON、XML」の場合、「-」と記載する。</t>
         </r>
       </text>
     </comment>
-    <comment ref="AO8" authorId="0">
+    <comment ref="AP8" authorId="0">
       <text>
         <r>
           <rPr>
@@ -118,10 +133,10 @@
             <family val="3"/>
             <charset val="128"/>
           </rPr>
-          <t>外部インターフェースのピーク時件数を記入する。 
-データレコードの行数を記入する。 
- ※固定長ファイル等改行のないインターフェースの場合は、レコード長で区切った場合の件数を記入する。
- ※XMLファイルの場合は行数ではなく、論理的なデータ件数を記入する。</t>
+          <t>インタフェースのピーク時件数を記載する。
+データレコードの行数を記載する。
+　※「固定長」など改行のないインタフェースの場合、レコード長で区切った場合の件数を記載する。
+　※「JSON、XML」の場合、行数ではなく論理的なデータ件数を記載する。</t>
         </r>
       </text>
     </comment>
@@ -130,7 +145,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="42">
   <si>
     <t>データ量</t>
     <rPh sb="3" eb="4">
@@ -336,17 +351,6 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>暗号化
-要否</t>
-    <rPh sb="0" eb="3">
-      <t>アンゴウカ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ヨウヒ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>成果物名</t>
     <phoneticPr fontId="16"/>
   </si>
@@ -375,10 +379,6 @@
     <rPh sb="0" eb="2">
       <t>ショウサイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サイクル</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -418,6 +418,25 @@
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
+  <si>
+    <t>暗号化
+有無</t>
+    <rPh sb="0" eb="3">
+      <t>アンゴウカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ウム</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>No.</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>サイクル</t>
+    <phoneticPr fontId="2"/>
+  </si>
 </sst>
 </file>
 
@@ -427,7 +446,7 @@
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
     <numFmt numFmtId="177" formatCode="&quot;第&quot;0.00&quot;版&quot;"/>
   </numFmts>
-  <fonts count="42">
+  <fonts count="43">
     <font>
       <sz val="9"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -717,8 +736,15 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="ＭＳ 明朝"/>
+      <family val="1"/>
+      <charset val="128"/>
+    </font>
   </fonts>
-  <fills count="29">
+  <fills count="30">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -865,8 +891,14 @@
         <bgColor indexed="23"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.24994659260841701"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="27">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -1178,6 +1210,19 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -1317,7 +1362,7 @@
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="220">
+  <cellXfs count="218">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1523,6 +1568,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="31" fontId="6" fillId="0" borderId="0" xfId="46" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1559,6 +1607,123 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="46" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1577,15 +1742,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="43" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1613,114 +1769,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="44" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="21" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="23" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="22" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="24" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="14" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1748,66 +1796,153 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="43" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="29" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
+    </xf>
     <xf numFmtId="176" fontId="4" fillId="27" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="26" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="176" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="176" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1825,102 +1960,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="24" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="176" fontId="4" fillId="28" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="26" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="10" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="12" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="28" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="27" borderId="20" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="42" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="27" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="28" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="38" fontId="4" fillId="26" borderId="11" xfId="33" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="51">
@@ -2327,161 +2366,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="表紙"/>
-      <sheetName val="変更履歴"/>
-      <sheetName val="目次"/>
-      <sheetName val="外部インターフェース仕様"/>
-      <sheetName val="レコード構成"/>
-      <sheetName val="ヘッダレコード"/>
-      <sheetName val="ユーザ情報レコード"/>
-      <sheetName val="別紙 データ型について"/>
-      <sheetName val="外部インターフェース仕様 (MQサンプル)"/>
-      <sheetName val="レコード構成 (MQサンプル)"/>
-      <sheetName val="MQ共通"/>
-      <sheetName val="共通ヘッダ"/>
-      <sheetName val="外部インターフェース仕様 (階層構造サンプル(XML))"/>
-      <sheetName val="レコード構成(階層構造サンプル(XML))"/>
-      <sheetName val="データレイアウト(階層構造サンプル(XML))"/>
-      <sheetName val="外部インターフェース仕様 (階層構造サンプル(JSON))"/>
-      <sheetName val="レコード構成(階層構造サンプル(JSON))"/>
-      <sheetName val="データレイアウト(階層構造サンプル(JSON))"/>
-      <sheetName val="データ"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16" refreshError="1"/>
-      <sheetData sheetId="17" refreshError="1"/>
-      <sheetData sheetId="18">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>半角英字</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>半角数字</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>半角カナ</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>半角英数字</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>半角英数字記号</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>半角</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>全角ひらがな</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>全角カタカナ</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>全角</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>全角(外字含む)</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>全半角</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>全半角(外字含む)</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>符号無ゾーン10進数</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>符号付ゾーン10進数</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>符号無パック10進数</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>符号付パック10進数</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>符号無数値</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>符号付数値</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>バイナリ</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>オブジェクト</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>真偽値</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -2896,12 +2780,12 @@
       <c r="F25" s="14"/>
       <c r="G25" s="14"/>
       <c r="H25" s="14"/>
-      <c r="I25" s="87" t="str">
+      <c r="I25" s="88" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!D8")="","",MAX(INDIRECT("変更履歴!D8"):INDIRECT("変更履歴!F33")))</f>
         <v/>
       </c>
-      <c r="J25" s="87"/>
-      <c r="K25" s="87"/>
+      <c r="J25" s="88"/>
+      <c r="K25" s="88"/>
       <c r="L25" s="37"/>
     </row>
     <row r="26" spans="6:12" ht="13.5" customHeight="1">
@@ -2993,44 +2877,44 @@
       <c r="N34" s="18"/>
       <c r="O34" s="18"/>
       <c r="P34" s="18"/>
-      <c r="Q34" s="90"/>
-      <c r="R34" s="91"/>
-      <c r="S34" s="91"/>
+      <c r="Q34" s="91"/>
+      <c r="R34" s="92"/>
+      <c r="S34" s="92"/>
     </row>
     <row r="35" spans="6:19" ht="13.5" customHeight="1">
       <c r="O35" s="18"/>
       <c r="P35" s="18"/>
-      <c r="Q35" s="91"/>
-      <c r="R35" s="91"/>
-      <c r="S35" s="91"/>
+      <c r="Q35" s="92"/>
+      <c r="R35" s="92"/>
+      <c r="S35" s="92"/>
     </row>
     <row r="36" spans="6:19" ht="13.5" customHeight="1">
-      <c r="O36" s="92"/>
-      <c r="P36" s="91"/>
-      <c r="Q36" s="92"/>
-      <c r="R36" s="91"/>
+      <c r="O36" s="93"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="93"/>
+      <c r="R36" s="92"/>
       <c r="S36" s="36"/>
     </row>
     <row r="37" spans="6:19" ht="13.5" customHeight="1">
-      <c r="O37" s="88"/>
-      <c r="P37" s="89"/>
-      <c r="Q37" s="88"/>
-      <c r="R37" s="89"/>
-      <c r="S37" s="88"/>
+      <c r="O37" s="89"/>
+      <c r="P37" s="90"/>
+      <c r="Q37" s="89"/>
+      <c r="R37" s="90"/>
+      <c r="S37" s="89"/>
     </row>
     <row r="38" spans="6:19" ht="13.5" customHeight="1">
-      <c r="O38" s="89"/>
-      <c r="P38" s="89"/>
-      <c r="Q38" s="89"/>
-      <c r="R38" s="89"/>
-      <c r="S38" s="89"/>
+      <c r="O38" s="90"/>
+      <c r="P38" s="90"/>
+      <c r="Q38" s="90"/>
+      <c r="R38" s="90"/>
+      <c r="S38" s="90"/>
     </row>
     <row r="39" spans="6:19" ht="13.5" customHeight="1">
-      <c r="O39" s="89"/>
-      <c r="P39" s="89"/>
-      <c r="Q39" s="89"/>
-      <c r="R39" s="89"/>
-      <c r="S39" s="89"/>
+      <c r="O39" s="90"/>
+      <c r="P39" s="90"/>
+      <c r="Q39" s="90"/>
+      <c r="R39" s="90"/>
+      <c r="S39" s="90"/>
     </row>
     <row r="40" spans="6:19" ht="13.5" customHeight="1"/>
     <row r="41" spans="6:19" ht="13.5" customHeight="1"/>
@@ -3542,53 +3426,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114"/>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="121" t="s">
         <v>25</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="141"/>
-      <c r="T1" s="142"/>
-      <c r="U1" s="142"/>
-      <c r="V1" s="142"/>
-      <c r="W1" s="142"/>
-      <c r="X1" s="142"/>
-      <c r="Y1" s="142"/>
-      <c r="Z1" s="143"/>
-      <c r="AA1" s="129" t="s">
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="130"/>
+      <c r="T1" s="131"/>
+      <c r="U1" s="131"/>
+      <c r="V1" s="131"/>
+      <c r="W1" s="131"/>
+      <c r="X1" s="131"/>
+      <c r="Y1" s="131"/>
+      <c r="Z1" s="132"/>
+      <c r="AA1" s="118" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="109" t="str">
         <f>IF(AF8="","",AF8)</f>
         <v/>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="99" t="str">
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="139" t="str">
         <f>IF(D8="","",D8)</f>
         <v/>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="101"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="141"/>
       <c r="AJ1" s="20"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="20"/>
@@ -3596,51 +3480,51 @@
       <c r="AN1" s="21"/>
     </row>
     <row r="2" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114"/>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="144"/>
-      <c r="T2" s="145"/>
-      <c r="U2" s="145"/>
-      <c r="V2" s="145"/>
-      <c r="W2" s="145"/>
-      <c r="X2" s="145"/>
-      <c r="Y2" s="145"/>
-      <c r="Z2" s="146"/>
-      <c r="AA2" s="129" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="133"/>
+      <c r="T2" s="134"/>
+      <c r="U2" s="134"/>
+      <c r="V2" s="134"/>
+      <c r="W2" s="134"/>
+      <c r="X2" s="134"/>
+      <c r="Y2" s="134"/>
+      <c r="Z2" s="135"/>
+      <c r="AA2" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="102" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="142" t="str">
         <f ca="1">IF(COUNTA(AF9:AF33)&lt;&gt;0,INDIRECT("AF"&amp;(COUNTA(AF9:AF33)+8)),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="103"/>
-      <c r="AE2" s="103"/>
-      <c r="AF2" s="104"/>
-      <c r="AG2" s="99" t="str">
+      <c r="AD2" s="143"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="139" t="str">
         <f>IF(D9="","",MAX(D9:F33))</f>
         <v/>
       </c>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="101"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="141"/>
       <c r="AJ2" s="20"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
@@ -3648,43 +3532,43 @@
       <c r="AN2" s="20"/>
     </row>
     <row r="3" spans="1:40" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114"/>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="147"/>
-      <c r="T3" s="148"/>
-      <c r="U3" s="148"/>
-      <c r="V3" s="148"/>
-      <c r="W3" s="148"/>
-      <c r="X3" s="148"/>
-      <c r="Y3" s="148"/>
-      <c r="Z3" s="149"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105"/>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="99"/>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="101"/>
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="151"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="136"/>
+      <c r="T3" s="137"/>
+      <c r="U3" s="137"/>
+      <c r="V3" s="137"/>
+      <c r="W3" s="137"/>
+      <c r="X3" s="137"/>
+      <c r="Y3" s="137"/>
+      <c r="Z3" s="138"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="109"/>
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="139"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141"/>
       <c r="AJ3" s="20"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
@@ -3721,1017 +3605,1017 @@
       <c r="A7" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="B7" s="120" t="s">
+      <c r="B7" s="106" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="121"/>
-      <c r="D7" s="120" t="s">
+      <c r="C7" s="107"/>
+      <c r="D7" s="106" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="122"/>
-      <c r="F7" s="121"/>
-      <c r="G7" s="120" t="s">
+      <c r="E7" s="108"/>
+      <c r="F7" s="107"/>
+      <c r="G7" s="106" t="s">
         <v>4</v>
       </c>
-      <c r="H7" s="122"/>
-      <c r="I7" s="121"/>
-      <c r="J7" s="120" t="s">
-        <v>34</v>
+      <c r="H7" s="108"/>
+      <c r="I7" s="107"/>
+      <c r="J7" s="106" t="s">
+        <v>33</v>
       </c>
-      <c r="K7" s="122"/>
-      <c r="L7" s="122"/>
-      <c r="M7" s="122"/>
-      <c r="N7" s="122"/>
-      <c r="O7" s="122"/>
-      <c r="P7" s="121"/>
-      <c r="Q7" s="120" t="s">
+      <c r="K7" s="108"/>
+      <c r="L7" s="108"/>
+      <c r="M7" s="108"/>
+      <c r="N7" s="108"/>
+      <c r="O7" s="108"/>
+      <c r="P7" s="107"/>
+      <c r="Q7" s="106" t="s">
         <v>13</v>
       </c>
-      <c r="R7" s="122"/>
-      <c r="S7" s="122"/>
-      <c r="T7" s="122"/>
-      <c r="U7" s="122"/>
-      <c r="V7" s="122"/>
-      <c r="W7" s="122"/>
-      <c r="X7" s="122"/>
-      <c r="Y7" s="122"/>
-      <c r="Z7" s="122"/>
-      <c r="AA7" s="122"/>
-      <c r="AB7" s="122"/>
-      <c r="AC7" s="122"/>
-      <c r="AD7" s="122"/>
-      <c r="AE7" s="121"/>
-      <c r="AF7" s="120" t="s">
+      <c r="R7" s="108"/>
+      <c r="S7" s="108"/>
+      <c r="T7" s="108"/>
+      <c r="U7" s="108"/>
+      <c r="V7" s="108"/>
+      <c r="W7" s="108"/>
+      <c r="X7" s="108"/>
+      <c r="Y7" s="108"/>
+      <c r="Z7" s="108"/>
+      <c r="AA7" s="108"/>
+      <c r="AB7" s="108"/>
+      <c r="AC7" s="108"/>
+      <c r="AD7" s="108"/>
+      <c r="AE7" s="107"/>
+      <c r="AF7" s="106" t="s">
         <v>5</v>
       </c>
-      <c r="AG7" s="122"/>
-      <c r="AH7" s="122"/>
-      <c r="AI7" s="121"/>
+      <c r="AG7" s="108"/>
+      <c r="AH7" s="108"/>
+      <c r="AI7" s="107"/>
     </row>
     <row r="8" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1" thickTop="1">
       <c r="A8" s="85"/>
-      <c r="B8" s="123"/>
-      <c r="C8" s="124"/>
-      <c r="D8" s="125"/>
-      <c r="E8" s="126"/>
-      <c r="F8" s="127"/>
-      <c r="G8" s="123"/>
-      <c r="H8" s="128"/>
-      <c r="I8" s="124"/>
-      <c r="J8" s="108"/>
-      <c r="K8" s="109"/>
-      <c r="L8" s="109"/>
-      <c r="M8" s="109"/>
-      <c r="N8" s="109"/>
-      <c r="O8" s="109"/>
-      <c r="P8" s="110"/>
-      <c r="Q8" s="111"/>
-      <c r="R8" s="112"/>
-      <c r="S8" s="112"/>
-      <c r="T8" s="112"/>
-      <c r="U8" s="112"/>
-      <c r="V8" s="112"/>
-      <c r="W8" s="112"/>
-      <c r="X8" s="112"/>
-      <c r="Y8" s="112"/>
-      <c r="Z8" s="112"/>
-      <c r="AA8" s="112"/>
-      <c r="AB8" s="112"/>
-      <c r="AC8" s="112"/>
-      <c r="AD8" s="112"/>
-      <c r="AE8" s="113"/>
-      <c r="AF8" s="108"/>
-      <c r="AG8" s="109"/>
-      <c r="AH8" s="109"/>
-      <c r="AI8" s="110"/>
+      <c r="B8" s="112"/>
+      <c r="C8" s="113"/>
+      <c r="D8" s="114"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="116"/>
+      <c r="G8" s="112"/>
+      <c r="H8" s="117"/>
+      <c r="I8" s="113"/>
+      <c r="J8" s="145"/>
+      <c r="K8" s="146"/>
+      <c r="L8" s="146"/>
+      <c r="M8" s="146"/>
+      <c r="N8" s="146"/>
+      <c r="O8" s="146"/>
+      <c r="P8" s="147"/>
+      <c r="Q8" s="148"/>
+      <c r="R8" s="149"/>
+      <c r="S8" s="149"/>
+      <c r="T8" s="149"/>
+      <c r="U8" s="149"/>
+      <c r="V8" s="149"/>
+      <c r="W8" s="149"/>
+      <c r="X8" s="149"/>
+      <c r="Y8" s="149"/>
+      <c r="Z8" s="149"/>
+      <c r="AA8" s="149"/>
+      <c r="AB8" s="149"/>
+      <c r="AC8" s="149"/>
+      <c r="AD8" s="149"/>
+      <c r="AE8" s="150"/>
+      <c r="AF8" s="145"/>
+      <c r="AG8" s="146"/>
+      <c r="AH8" s="146"/>
+      <c r="AI8" s="147"/>
     </row>
     <row r="9" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A9" s="86"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="119"/>
-      <c r="D9" s="150"/>
-      <c r="E9" s="151"/>
-      <c r="F9" s="152"/>
-      <c r="G9" s="117"/>
-      <c r="H9" s="118"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="93"/>
-      <c r="K9" s="94"/>
-      <c r="L9" s="94"/>
-      <c r="M9" s="94"/>
-      <c r="N9" s="94"/>
-      <c r="O9" s="94"/>
-      <c r="P9" s="95"/>
-      <c r="Q9" s="96"/>
-      <c r="R9" s="97"/>
-      <c r="S9" s="97"/>
-      <c r="T9" s="97"/>
-      <c r="U9" s="97"/>
-      <c r="V9" s="97"/>
-      <c r="W9" s="97"/>
-      <c r="X9" s="97"/>
-      <c r="Y9" s="97"/>
-      <c r="Z9" s="97"/>
-      <c r="AA9" s="97"/>
-      <c r="AB9" s="97"/>
-      <c r="AC9" s="97"/>
-      <c r="AD9" s="97"/>
-      <c r="AE9" s="98"/>
-      <c r="AF9" s="93"/>
-      <c r="AG9" s="94"/>
-      <c r="AH9" s="94"/>
-      <c r="AI9" s="95"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="101"/>
+      <c r="D9" s="102"/>
+      <c r="E9" s="103"/>
+      <c r="F9" s="104"/>
+      <c r="G9" s="100"/>
+      <c r="H9" s="105"/>
+      <c r="I9" s="101"/>
+      <c r="J9" s="94"/>
+      <c r="K9" s="95"/>
+      <c r="L9" s="95"/>
+      <c r="M9" s="95"/>
+      <c r="N9" s="95"/>
+      <c r="O9" s="95"/>
+      <c r="P9" s="96"/>
+      <c r="Q9" s="97"/>
+      <c r="R9" s="98"/>
+      <c r="S9" s="98"/>
+      <c r="T9" s="98"/>
+      <c r="U9" s="98"/>
+      <c r="V9" s="98"/>
+      <c r="W9" s="98"/>
+      <c r="X9" s="98"/>
+      <c r="Y9" s="98"/>
+      <c r="Z9" s="98"/>
+      <c r="AA9" s="98"/>
+      <c r="AB9" s="98"/>
+      <c r="AC9" s="98"/>
+      <c r="AD9" s="98"/>
+      <c r="AE9" s="99"/>
+      <c r="AF9" s="94"/>
+      <c r="AG9" s="95"/>
+      <c r="AH9" s="95"/>
+      <c r="AI9" s="96"/>
       <c r="AJ9" s="32"/>
     </row>
     <row r="10" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A10" s="86"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="119"/>
-      <c r="D10" s="150"/>
-      <c r="E10" s="151"/>
-      <c r="F10" s="152"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="118"/>
-      <c r="I10" s="119"/>
-      <c r="J10" s="93"/>
-      <c r="K10" s="94"/>
-      <c r="L10" s="94"/>
-      <c r="M10" s="94"/>
-      <c r="N10" s="94"/>
-      <c r="O10" s="94"/>
-      <c r="P10" s="95"/>
-      <c r="Q10" s="96"/>
-      <c r="R10" s="97"/>
-      <c r="S10" s="97"/>
-      <c r="T10" s="97"/>
-      <c r="U10" s="97"/>
-      <c r="V10" s="97"/>
-      <c r="W10" s="97"/>
-      <c r="X10" s="97"/>
-      <c r="Y10" s="97"/>
-      <c r="Z10" s="97"/>
-      <c r="AA10" s="97"/>
-      <c r="AB10" s="97"/>
-      <c r="AC10" s="97"/>
-      <c r="AD10" s="97"/>
-      <c r="AE10" s="98"/>
-      <c r="AF10" s="93"/>
-      <c r="AG10" s="94"/>
-      <c r="AH10" s="94"/>
-      <c r="AI10" s="95"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="101"/>
+      <c r="D10" s="102"/>
+      <c r="E10" s="103"/>
+      <c r="F10" s="104"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="105"/>
+      <c r="I10" s="101"/>
+      <c r="J10" s="94"/>
+      <c r="K10" s="95"/>
+      <c r="L10" s="95"/>
+      <c r="M10" s="95"/>
+      <c r="N10" s="95"/>
+      <c r="O10" s="95"/>
+      <c r="P10" s="96"/>
+      <c r="Q10" s="97"/>
+      <c r="R10" s="98"/>
+      <c r="S10" s="98"/>
+      <c r="T10" s="98"/>
+      <c r="U10" s="98"/>
+      <c r="V10" s="98"/>
+      <c r="W10" s="98"/>
+      <c r="X10" s="98"/>
+      <c r="Y10" s="98"/>
+      <c r="Z10" s="98"/>
+      <c r="AA10" s="98"/>
+      <c r="AB10" s="98"/>
+      <c r="AC10" s="98"/>
+      <c r="AD10" s="98"/>
+      <c r="AE10" s="99"/>
+      <c r="AF10" s="94"/>
+      <c r="AG10" s="95"/>
+      <c r="AH10" s="95"/>
+      <c r="AI10" s="96"/>
     </row>
     <row r="11" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A11" s="86"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="119"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="151"/>
-      <c r="F11" s="152"/>
-      <c r="G11" s="117"/>
-      <c r="H11" s="118"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="93"/>
-      <c r="K11" s="94"/>
-      <c r="L11" s="94"/>
-      <c r="M11" s="94"/>
-      <c r="N11" s="94"/>
-      <c r="O11" s="94"/>
-      <c r="P11" s="95"/>
-      <c r="Q11" s="96"/>
-      <c r="R11" s="97"/>
-      <c r="S11" s="97"/>
-      <c r="T11" s="97"/>
-      <c r="U11" s="97"/>
-      <c r="V11" s="97"/>
-      <c r="W11" s="97"/>
-      <c r="X11" s="97"/>
-      <c r="Y11" s="97"/>
-      <c r="Z11" s="97"/>
-      <c r="AA11" s="97"/>
-      <c r="AB11" s="97"/>
-      <c r="AC11" s="97"/>
-      <c r="AD11" s="97"/>
-      <c r="AE11" s="98"/>
-      <c r="AF11" s="93"/>
-      <c r="AG11" s="94"/>
-      <c r="AH11" s="94"/>
-      <c r="AI11" s="95"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="101"/>
+      <c r="D11" s="102"/>
+      <c r="E11" s="103"/>
+      <c r="F11" s="104"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="105"/>
+      <c r="I11" s="101"/>
+      <c r="J11" s="94"/>
+      <c r="K11" s="95"/>
+      <c r="L11" s="95"/>
+      <c r="M11" s="95"/>
+      <c r="N11" s="95"/>
+      <c r="O11" s="95"/>
+      <c r="P11" s="96"/>
+      <c r="Q11" s="97"/>
+      <c r="R11" s="98"/>
+      <c r="S11" s="98"/>
+      <c r="T11" s="98"/>
+      <c r="U11" s="98"/>
+      <c r="V11" s="98"/>
+      <c r="W11" s="98"/>
+      <c r="X11" s="98"/>
+      <c r="Y11" s="98"/>
+      <c r="Z11" s="98"/>
+      <c r="AA11" s="98"/>
+      <c r="AB11" s="98"/>
+      <c r="AC11" s="98"/>
+      <c r="AD11" s="98"/>
+      <c r="AE11" s="99"/>
+      <c r="AF11" s="94"/>
+      <c r="AG11" s="95"/>
+      <c r="AH11" s="95"/>
+      <c r="AI11" s="96"/>
     </row>
     <row r="12" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A12" s="86"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="119"/>
-      <c r="D12" s="150"/>
-      <c r="E12" s="151"/>
-      <c r="F12" s="152"/>
-      <c r="G12" s="117"/>
-      <c r="H12" s="118"/>
-      <c r="I12" s="119"/>
-      <c r="J12" s="93"/>
-      <c r="K12" s="94"/>
-      <c r="L12" s="94"/>
-      <c r="M12" s="94"/>
-      <c r="N12" s="94"/>
-      <c r="O12" s="94"/>
-      <c r="P12" s="95"/>
-      <c r="Q12" s="96"/>
-      <c r="R12" s="97"/>
-      <c r="S12" s="97"/>
-      <c r="T12" s="97"/>
-      <c r="U12" s="97"/>
-      <c r="V12" s="97"/>
-      <c r="W12" s="97"/>
-      <c r="X12" s="97"/>
-      <c r="Y12" s="97"/>
-      <c r="Z12" s="97"/>
-      <c r="AA12" s="97"/>
-      <c r="AB12" s="97"/>
-      <c r="AC12" s="97"/>
-      <c r="AD12" s="97"/>
-      <c r="AE12" s="98"/>
-      <c r="AF12" s="93"/>
-      <c r="AG12" s="94"/>
-      <c r="AH12" s="94"/>
-      <c r="AI12" s="95"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="101"/>
+      <c r="D12" s="102"/>
+      <c r="E12" s="103"/>
+      <c r="F12" s="104"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="105"/>
+      <c r="I12" s="101"/>
+      <c r="J12" s="94"/>
+      <c r="K12" s="95"/>
+      <c r="L12" s="95"/>
+      <c r="M12" s="95"/>
+      <c r="N12" s="95"/>
+      <c r="O12" s="95"/>
+      <c r="P12" s="96"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="98"/>
+      <c r="S12" s="98"/>
+      <c r="T12" s="98"/>
+      <c r="U12" s="98"/>
+      <c r="V12" s="98"/>
+      <c r="W12" s="98"/>
+      <c r="X12" s="98"/>
+      <c r="Y12" s="98"/>
+      <c r="Z12" s="98"/>
+      <c r="AA12" s="98"/>
+      <c r="AB12" s="98"/>
+      <c r="AC12" s="98"/>
+      <c r="AD12" s="98"/>
+      <c r="AE12" s="99"/>
+      <c r="AF12" s="94"/>
+      <c r="AG12" s="95"/>
+      <c r="AH12" s="95"/>
+      <c r="AI12" s="96"/>
     </row>
     <row r="13" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A13" s="86"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="119"/>
-      <c r="D13" s="150"/>
-      <c r="E13" s="151"/>
-      <c r="F13" s="152"/>
-      <c r="G13" s="117"/>
-      <c r="H13" s="118"/>
-      <c r="I13" s="119"/>
-      <c r="J13" s="93"/>
-      <c r="K13" s="94"/>
-      <c r="L13" s="94"/>
-      <c r="M13" s="94"/>
-      <c r="N13" s="94"/>
-      <c r="O13" s="94"/>
-      <c r="P13" s="95"/>
-      <c r="Q13" s="96"/>
-      <c r="R13" s="97"/>
-      <c r="S13" s="97"/>
-      <c r="T13" s="97"/>
-      <c r="U13" s="97"/>
-      <c r="V13" s="97"/>
-      <c r="W13" s="97"/>
-      <c r="X13" s="97"/>
-      <c r="Y13" s="97"/>
-      <c r="Z13" s="97"/>
-      <c r="AA13" s="97"/>
-      <c r="AB13" s="97"/>
-      <c r="AC13" s="97"/>
-      <c r="AD13" s="97"/>
-      <c r="AE13" s="98"/>
-      <c r="AF13" s="93"/>
-      <c r="AG13" s="94"/>
-      <c r="AH13" s="94"/>
-      <c r="AI13" s="95"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="101"/>
+      <c r="D13" s="102"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="104"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="105"/>
+      <c r="I13" s="101"/>
+      <c r="J13" s="94"/>
+      <c r="K13" s="95"/>
+      <c r="L13" s="95"/>
+      <c r="M13" s="95"/>
+      <c r="N13" s="95"/>
+      <c r="O13" s="95"/>
+      <c r="P13" s="96"/>
+      <c r="Q13" s="97"/>
+      <c r="R13" s="98"/>
+      <c r="S13" s="98"/>
+      <c r="T13" s="98"/>
+      <c r="U13" s="98"/>
+      <c r="V13" s="98"/>
+      <c r="W13" s="98"/>
+      <c r="X13" s="98"/>
+      <c r="Y13" s="98"/>
+      <c r="Z13" s="98"/>
+      <c r="AA13" s="98"/>
+      <c r="AB13" s="98"/>
+      <c r="AC13" s="98"/>
+      <c r="AD13" s="98"/>
+      <c r="AE13" s="99"/>
+      <c r="AF13" s="94"/>
+      <c r="AG13" s="95"/>
+      <c r="AH13" s="95"/>
+      <c r="AI13" s="96"/>
     </row>
     <row r="14" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A14" s="86"/>
-      <c r="B14" s="117"/>
-      <c r="C14" s="119"/>
-      <c r="D14" s="150"/>
-      <c r="E14" s="151"/>
-      <c r="F14" s="152"/>
-      <c r="G14" s="117"/>
-      <c r="H14" s="118"/>
-      <c r="I14" s="119"/>
-      <c r="J14" s="93"/>
-      <c r="K14" s="94"/>
-      <c r="L14" s="94"/>
-      <c r="M14" s="94"/>
-      <c r="N14" s="94"/>
-      <c r="O14" s="94"/>
-      <c r="P14" s="95"/>
-      <c r="Q14" s="96"/>
-      <c r="R14" s="97"/>
-      <c r="S14" s="97"/>
-      <c r="T14" s="97"/>
-      <c r="U14" s="97"/>
-      <c r="V14" s="97"/>
-      <c r="W14" s="97"/>
-      <c r="X14" s="97"/>
-      <c r="Y14" s="97"/>
-      <c r="Z14" s="97"/>
-      <c r="AA14" s="97"/>
-      <c r="AB14" s="97"/>
-      <c r="AC14" s="97"/>
-      <c r="AD14" s="97"/>
-      <c r="AE14" s="98"/>
-      <c r="AF14" s="93"/>
-      <c r="AG14" s="94"/>
-      <c r="AH14" s="94"/>
-      <c r="AI14" s="95"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="101"/>
+      <c r="D14" s="102"/>
+      <c r="E14" s="103"/>
+      <c r="F14" s="104"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="105"/>
+      <c r="I14" s="101"/>
+      <c r="J14" s="94"/>
+      <c r="K14" s="95"/>
+      <c r="L14" s="95"/>
+      <c r="M14" s="95"/>
+      <c r="N14" s="95"/>
+      <c r="O14" s="95"/>
+      <c r="P14" s="96"/>
+      <c r="Q14" s="97"/>
+      <c r="R14" s="98"/>
+      <c r="S14" s="98"/>
+      <c r="T14" s="98"/>
+      <c r="U14" s="98"/>
+      <c r="V14" s="98"/>
+      <c r="W14" s="98"/>
+      <c r="X14" s="98"/>
+      <c r="Y14" s="98"/>
+      <c r="Z14" s="98"/>
+      <c r="AA14" s="98"/>
+      <c r="AB14" s="98"/>
+      <c r="AC14" s="98"/>
+      <c r="AD14" s="98"/>
+      <c r="AE14" s="99"/>
+      <c r="AF14" s="94"/>
+      <c r="AG14" s="95"/>
+      <c r="AH14" s="95"/>
+      <c r="AI14" s="96"/>
     </row>
     <row r="15" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A15" s="86"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="119"/>
-      <c r="D15" s="150"/>
-      <c r="E15" s="151"/>
-      <c r="F15" s="152"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="118"/>
-      <c r="I15" s="119"/>
-      <c r="J15" s="93"/>
-      <c r="K15" s="94"/>
-      <c r="L15" s="94"/>
-      <c r="M15" s="94"/>
-      <c r="N15" s="94"/>
-      <c r="O15" s="94"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="97"/>
-      <c r="S15" s="97"/>
-      <c r="T15" s="97"/>
-      <c r="U15" s="97"/>
-      <c r="V15" s="97"/>
-      <c r="W15" s="97"/>
-      <c r="X15" s="97"/>
-      <c r="Y15" s="97"/>
-      <c r="Z15" s="97"/>
-      <c r="AA15" s="97"/>
-      <c r="AB15" s="97"/>
-      <c r="AC15" s="97"/>
-      <c r="AD15" s="97"/>
-      <c r="AE15" s="98"/>
-      <c r="AF15" s="93"/>
-      <c r="AG15" s="94"/>
-      <c r="AH15" s="94"/>
-      <c r="AI15" s="95"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="101"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="105"/>
+      <c r="I15" s="101"/>
+      <c r="J15" s="94"/>
+      <c r="K15" s="95"/>
+      <c r="L15" s="95"/>
+      <c r="M15" s="95"/>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="97"/>
+      <c r="R15" s="98"/>
+      <c r="S15" s="98"/>
+      <c r="T15" s="98"/>
+      <c r="U15" s="98"/>
+      <c r="V15" s="98"/>
+      <c r="W15" s="98"/>
+      <c r="X15" s="98"/>
+      <c r="Y15" s="98"/>
+      <c r="Z15" s="98"/>
+      <c r="AA15" s="98"/>
+      <c r="AB15" s="98"/>
+      <c r="AC15" s="98"/>
+      <c r="AD15" s="98"/>
+      <c r="AE15" s="99"/>
+      <c r="AF15" s="94"/>
+      <c r="AG15" s="95"/>
+      <c r="AH15" s="95"/>
+      <c r="AI15" s="96"/>
     </row>
     <row r="16" spans="1:40" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A16" s="86"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="119"/>
-      <c r="D16" s="150"/>
-      <c r="E16" s="151"/>
-      <c r="F16" s="152"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="118"/>
-      <c r="I16" s="119"/>
-      <c r="J16" s="93"/>
-      <c r="K16" s="94"/>
-      <c r="L16" s="94"/>
-      <c r="M16" s="94"/>
-      <c r="N16" s="94"/>
-      <c r="O16" s="94"/>
-      <c r="P16" s="95"/>
-      <c r="Q16" s="96"/>
-      <c r="R16" s="97"/>
-      <c r="S16" s="97"/>
-      <c r="T16" s="97"/>
-      <c r="U16" s="97"/>
-      <c r="V16" s="97"/>
-      <c r="W16" s="97"/>
-      <c r="X16" s="97"/>
-      <c r="Y16" s="97"/>
-      <c r="Z16" s="97"/>
-      <c r="AA16" s="97"/>
-      <c r="AB16" s="97"/>
-      <c r="AC16" s="97"/>
-      <c r="AD16" s="97"/>
-      <c r="AE16" s="98"/>
-      <c r="AF16" s="93"/>
-      <c r="AG16" s="94"/>
-      <c r="AH16" s="94"/>
-      <c r="AI16" s="95"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="101"/>
+      <c r="D16" s="102"/>
+      <c r="E16" s="103"/>
+      <c r="F16" s="104"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="105"/>
+      <c r="I16" s="101"/>
+      <c r="J16" s="94"/>
+      <c r="K16" s="95"/>
+      <c r="L16" s="95"/>
+      <c r="M16" s="95"/>
+      <c r="N16" s="95"/>
+      <c r="O16" s="95"/>
+      <c r="P16" s="96"/>
+      <c r="Q16" s="97"/>
+      <c r="R16" s="98"/>
+      <c r="S16" s="98"/>
+      <c r="T16" s="98"/>
+      <c r="U16" s="98"/>
+      <c r="V16" s="98"/>
+      <c r="W16" s="98"/>
+      <c r="X16" s="98"/>
+      <c r="Y16" s="98"/>
+      <c r="Z16" s="98"/>
+      <c r="AA16" s="98"/>
+      <c r="AB16" s="98"/>
+      <c r="AC16" s="98"/>
+      <c r="AD16" s="98"/>
+      <c r="AE16" s="99"/>
+      <c r="AF16" s="94"/>
+      <c r="AG16" s="95"/>
+      <c r="AH16" s="95"/>
+      <c r="AI16" s="96"/>
     </row>
     <row r="17" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A17" s="86"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="119"/>
-      <c r="D17" s="150"/>
-      <c r="E17" s="151"/>
-      <c r="F17" s="152"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="118"/>
-      <c r="I17" s="119"/>
-      <c r="J17" s="93"/>
-      <c r="K17" s="94"/>
-      <c r="L17" s="94"/>
-      <c r="M17" s="94"/>
-      <c r="N17" s="94"/>
-      <c r="O17" s="94"/>
-      <c r="P17" s="95"/>
-      <c r="Q17" s="96"/>
-      <c r="R17" s="97"/>
-      <c r="S17" s="97"/>
-      <c r="T17" s="97"/>
-      <c r="U17" s="97"/>
-      <c r="V17" s="97"/>
-      <c r="W17" s="97"/>
-      <c r="X17" s="97"/>
-      <c r="Y17" s="97"/>
-      <c r="Z17" s="97"/>
-      <c r="AA17" s="97"/>
-      <c r="AB17" s="97"/>
-      <c r="AC17" s="97"/>
-      <c r="AD17" s="97"/>
-      <c r="AE17" s="98"/>
-      <c r="AF17" s="93"/>
-      <c r="AG17" s="94"/>
-      <c r="AH17" s="94"/>
-      <c r="AI17" s="95"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="101"/>
+      <c r="D17" s="102"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="101"/>
+      <c r="J17" s="94"/>
+      <c r="K17" s="95"/>
+      <c r="L17" s="95"/>
+      <c r="M17" s="95"/>
+      <c r="N17" s="95"/>
+      <c r="O17" s="95"/>
+      <c r="P17" s="96"/>
+      <c r="Q17" s="97"/>
+      <c r="R17" s="98"/>
+      <c r="S17" s="98"/>
+      <c r="T17" s="98"/>
+      <c r="U17" s="98"/>
+      <c r="V17" s="98"/>
+      <c r="W17" s="98"/>
+      <c r="X17" s="98"/>
+      <c r="Y17" s="98"/>
+      <c r="Z17" s="98"/>
+      <c r="AA17" s="98"/>
+      <c r="AB17" s="98"/>
+      <c r="AC17" s="98"/>
+      <c r="AD17" s="98"/>
+      <c r="AE17" s="99"/>
+      <c r="AF17" s="94"/>
+      <c r="AG17" s="95"/>
+      <c r="AH17" s="95"/>
+      <c r="AI17" s="96"/>
     </row>
     <row r="18" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A18" s="86"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="119"/>
-      <c r="D18" s="150"/>
-      <c r="E18" s="151"/>
-      <c r="F18" s="152"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="118"/>
-      <c r="I18" s="119"/>
-      <c r="J18" s="93"/>
-      <c r="K18" s="94"/>
-      <c r="L18" s="94"/>
-      <c r="M18" s="94"/>
-      <c r="N18" s="94"/>
-      <c r="O18" s="94"/>
-      <c r="P18" s="95"/>
-      <c r="Q18" s="96"/>
-      <c r="R18" s="97"/>
-      <c r="S18" s="97"/>
-      <c r="T18" s="97"/>
-      <c r="U18" s="97"/>
-      <c r="V18" s="97"/>
-      <c r="W18" s="97"/>
-      <c r="X18" s="97"/>
-      <c r="Y18" s="97"/>
-      <c r="Z18" s="97"/>
-      <c r="AA18" s="97"/>
-      <c r="AB18" s="97"/>
-      <c r="AC18" s="97"/>
-      <c r="AD18" s="97"/>
-      <c r="AE18" s="98"/>
-      <c r="AF18" s="93"/>
-      <c r="AG18" s="94"/>
-      <c r="AH18" s="94"/>
-      <c r="AI18" s="95"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="101"/>
+      <c r="D18" s="102"/>
+      <c r="E18" s="103"/>
+      <c r="F18" s="104"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="105"/>
+      <c r="I18" s="101"/>
+      <c r="J18" s="94"/>
+      <c r="K18" s="95"/>
+      <c r="L18" s="95"/>
+      <c r="M18" s="95"/>
+      <c r="N18" s="95"/>
+      <c r="O18" s="95"/>
+      <c r="P18" s="96"/>
+      <c r="Q18" s="97"/>
+      <c r="R18" s="98"/>
+      <c r="S18" s="98"/>
+      <c r="T18" s="98"/>
+      <c r="U18" s="98"/>
+      <c r="V18" s="98"/>
+      <c r="W18" s="98"/>
+      <c r="X18" s="98"/>
+      <c r="Y18" s="98"/>
+      <c r="Z18" s="98"/>
+      <c r="AA18" s="98"/>
+      <c r="AB18" s="98"/>
+      <c r="AC18" s="98"/>
+      <c r="AD18" s="98"/>
+      <c r="AE18" s="99"/>
+      <c r="AF18" s="94"/>
+      <c r="AG18" s="95"/>
+      <c r="AH18" s="95"/>
+      <c r="AI18" s="96"/>
     </row>
     <row r="19" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A19" s="86"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="119"/>
-      <c r="D19" s="150"/>
-      <c r="E19" s="151"/>
-      <c r="F19" s="152"/>
-      <c r="G19" s="117"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="119"/>
-      <c r="J19" s="93"/>
-      <c r="K19" s="94"/>
-      <c r="L19" s="94"/>
-      <c r="M19" s="94"/>
-      <c r="N19" s="94"/>
-      <c r="O19" s="94"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="97"/>
-      <c r="S19" s="97"/>
-      <c r="T19" s="97"/>
-      <c r="U19" s="97"/>
-      <c r="V19" s="97"/>
-      <c r="W19" s="97"/>
-      <c r="X19" s="97"/>
-      <c r="Y19" s="97"/>
-      <c r="Z19" s="97"/>
-      <c r="AA19" s="97"/>
-      <c r="AB19" s="97"/>
-      <c r="AC19" s="97"/>
-      <c r="AD19" s="97"/>
-      <c r="AE19" s="98"/>
-      <c r="AF19" s="93"/>
-      <c r="AG19" s="94"/>
-      <c r="AH19" s="94"/>
-      <c r="AI19" s="95"/>
+      <c r="B19" s="100"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="104"/>
+      <c r="G19" s="100"/>
+      <c r="H19" s="105"/>
+      <c r="I19" s="101"/>
+      <c r="J19" s="94"/>
+      <c r="K19" s="95"/>
+      <c r="L19" s="95"/>
+      <c r="M19" s="95"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="97"/>
+      <c r="R19" s="98"/>
+      <c r="S19" s="98"/>
+      <c r="T19" s="98"/>
+      <c r="U19" s="98"/>
+      <c r="V19" s="98"/>
+      <c r="W19" s="98"/>
+      <c r="X19" s="98"/>
+      <c r="Y19" s="98"/>
+      <c r="Z19" s="98"/>
+      <c r="AA19" s="98"/>
+      <c r="AB19" s="98"/>
+      <c r="AC19" s="98"/>
+      <c r="AD19" s="98"/>
+      <c r="AE19" s="99"/>
+      <c r="AF19" s="94"/>
+      <c r="AG19" s="95"/>
+      <c r="AH19" s="95"/>
+      <c r="AI19" s="96"/>
     </row>
     <row r="20" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A20" s="86"/>
-      <c r="B20" s="117"/>
-      <c r="C20" s="119"/>
-      <c r="D20" s="150"/>
-      <c r="E20" s="151"/>
-      <c r="F20" s="152"/>
-      <c r="G20" s="117"/>
-      <c r="H20" s="118"/>
-      <c r="I20" s="119"/>
-      <c r="J20" s="93"/>
-      <c r="K20" s="94"/>
-      <c r="L20" s="94"/>
-      <c r="M20" s="94"/>
-      <c r="N20" s="94"/>
-      <c r="O20" s="94"/>
-      <c r="P20" s="95"/>
-      <c r="Q20" s="96"/>
-      <c r="R20" s="97"/>
-      <c r="S20" s="97"/>
-      <c r="T20" s="97"/>
-      <c r="U20" s="97"/>
-      <c r="V20" s="97"/>
-      <c r="W20" s="97"/>
-      <c r="X20" s="97"/>
-      <c r="Y20" s="97"/>
-      <c r="Z20" s="97"/>
-      <c r="AA20" s="97"/>
-      <c r="AB20" s="97"/>
-      <c r="AC20" s="97"/>
-      <c r="AD20" s="97"/>
-      <c r="AE20" s="98"/>
-      <c r="AF20" s="93"/>
-      <c r="AG20" s="94"/>
-      <c r="AH20" s="94"/>
-      <c r="AI20" s="95"/>
+      <c r="B20" s="100"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="102"/>
+      <c r="E20" s="103"/>
+      <c r="F20" s="104"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="105"/>
+      <c r="I20" s="101"/>
+      <c r="J20" s="94"/>
+      <c r="K20" s="95"/>
+      <c r="L20" s="95"/>
+      <c r="M20" s="95"/>
+      <c r="N20" s="95"/>
+      <c r="O20" s="95"/>
+      <c r="P20" s="96"/>
+      <c r="Q20" s="97"/>
+      <c r="R20" s="98"/>
+      <c r="S20" s="98"/>
+      <c r="T20" s="98"/>
+      <c r="U20" s="98"/>
+      <c r="V20" s="98"/>
+      <c r="W20" s="98"/>
+      <c r="X20" s="98"/>
+      <c r="Y20" s="98"/>
+      <c r="Z20" s="98"/>
+      <c r="AA20" s="98"/>
+      <c r="AB20" s="98"/>
+      <c r="AC20" s="98"/>
+      <c r="AD20" s="98"/>
+      <c r="AE20" s="99"/>
+      <c r="AF20" s="94"/>
+      <c r="AG20" s="95"/>
+      <c r="AH20" s="95"/>
+      <c r="AI20" s="96"/>
     </row>
     <row r="21" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A21" s="86"/>
-      <c r="B21" s="117"/>
-      <c r="C21" s="119"/>
-      <c r="D21" s="150"/>
-      <c r="E21" s="151"/>
-      <c r="F21" s="152"/>
-      <c r="G21" s="117"/>
-      <c r="H21" s="118"/>
-      <c r="I21" s="119"/>
-      <c r="J21" s="93"/>
-      <c r="K21" s="94"/>
-      <c r="L21" s="94"/>
-      <c r="M21" s="94"/>
-      <c r="N21" s="94"/>
-      <c r="O21" s="94"/>
-      <c r="P21" s="95"/>
-      <c r="Q21" s="96"/>
-      <c r="R21" s="97"/>
-      <c r="S21" s="97"/>
-      <c r="T21" s="97"/>
-      <c r="U21" s="97"/>
-      <c r="V21" s="97"/>
-      <c r="W21" s="97"/>
-      <c r="X21" s="97"/>
-      <c r="Y21" s="97"/>
-      <c r="Z21" s="97"/>
-      <c r="AA21" s="97"/>
-      <c r="AB21" s="97"/>
-      <c r="AC21" s="97"/>
-      <c r="AD21" s="97"/>
-      <c r="AE21" s="98"/>
-      <c r="AF21" s="93"/>
-      <c r="AG21" s="94"/>
-      <c r="AH21" s="94"/>
-      <c r="AI21" s="95"/>
+      <c r="B21" s="100"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="102"/>
+      <c r="E21" s="103"/>
+      <c r="F21" s="104"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="105"/>
+      <c r="I21" s="101"/>
+      <c r="J21" s="94"/>
+      <c r="K21" s="95"/>
+      <c r="L21" s="95"/>
+      <c r="M21" s="95"/>
+      <c r="N21" s="95"/>
+      <c r="O21" s="95"/>
+      <c r="P21" s="96"/>
+      <c r="Q21" s="97"/>
+      <c r="R21" s="98"/>
+      <c r="S21" s="98"/>
+      <c r="T21" s="98"/>
+      <c r="U21" s="98"/>
+      <c r="V21" s="98"/>
+      <c r="W21" s="98"/>
+      <c r="X21" s="98"/>
+      <c r="Y21" s="98"/>
+      <c r="Z21" s="98"/>
+      <c r="AA21" s="98"/>
+      <c r="AB21" s="98"/>
+      <c r="AC21" s="98"/>
+      <c r="AD21" s="98"/>
+      <c r="AE21" s="99"/>
+      <c r="AF21" s="94"/>
+      <c r="AG21" s="95"/>
+      <c r="AH21" s="95"/>
+      <c r="AI21" s="96"/>
     </row>
     <row r="22" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A22" s="86"/>
-      <c r="B22" s="117"/>
-      <c r="C22" s="119"/>
-      <c r="D22" s="150"/>
-      <c r="E22" s="151"/>
-      <c r="F22" s="152"/>
-      <c r="G22" s="117"/>
-      <c r="H22" s="118"/>
-      <c r="I22" s="119"/>
-      <c r="J22" s="93"/>
-      <c r="K22" s="94"/>
-      <c r="L22" s="94"/>
-      <c r="M22" s="94"/>
-      <c r="N22" s="94"/>
-      <c r="O22" s="94"/>
-      <c r="P22" s="95"/>
-      <c r="Q22" s="96"/>
-      <c r="R22" s="97"/>
-      <c r="S22" s="97"/>
-      <c r="T22" s="97"/>
-      <c r="U22" s="97"/>
-      <c r="V22" s="97"/>
-      <c r="W22" s="97"/>
-      <c r="X22" s="97"/>
-      <c r="Y22" s="97"/>
-      <c r="Z22" s="97"/>
-      <c r="AA22" s="97"/>
-      <c r="AB22" s="97"/>
-      <c r="AC22" s="97"/>
-      <c r="AD22" s="97"/>
-      <c r="AE22" s="98"/>
-      <c r="AF22" s="93"/>
-      <c r="AG22" s="94"/>
-      <c r="AH22" s="94"/>
-      <c r="AI22" s="95"/>
+      <c r="B22" s="100"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="102"/>
+      <c r="E22" s="103"/>
+      <c r="F22" s="104"/>
+      <c r="G22" s="100"/>
+      <c r="H22" s="105"/>
+      <c r="I22" s="101"/>
+      <c r="J22" s="94"/>
+      <c r="K22" s="95"/>
+      <c r="L22" s="95"/>
+      <c r="M22" s="95"/>
+      <c r="N22" s="95"/>
+      <c r="O22" s="95"/>
+      <c r="P22" s="96"/>
+      <c r="Q22" s="97"/>
+      <c r="R22" s="98"/>
+      <c r="S22" s="98"/>
+      <c r="T22" s="98"/>
+      <c r="U22" s="98"/>
+      <c r="V22" s="98"/>
+      <c r="W22" s="98"/>
+      <c r="X22" s="98"/>
+      <c r="Y22" s="98"/>
+      <c r="Z22" s="98"/>
+      <c r="AA22" s="98"/>
+      <c r="AB22" s="98"/>
+      <c r="AC22" s="98"/>
+      <c r="AD22" s="98"/>
+      <c r="AE22" s="99"/>
+      <c r="AF22" s="94"/>
+      <c r="AG22" s="95"/>
+      <c r="AH22" s="95"/>
+      <c r="AI22" s="96"/>
     </row>
     <row r="23" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A23" s="86"/>
-      <c r="B23" s="117"/>
-      <c r="C23" s="119"/>
-      <c r="D23" s="150"/>
-      <c r="E23" s="151"/>
-      <c r="F23" s="152"/>
-      <c r="G23" s="117"/>
-      <c r="H23" s="118"/>
-      <c r="I23" s="119"/>
-      <c r="J23" s="93"/>
-      <c r="K23" s="94"/>
-      <c r="L23" s="94"/>
-      <c r="M23" s="94"/>
-      <c r="N23" s="94"/>
-      <c r="O23" s="94"/>
-      <c r="P23" s="95"/>
-      <c r="Q23" s="96"/>
-      <c r="R23" s="97"/>
-      <c r="S23" s="97"/>
-      <c r="T23" s="97"/>
-      <c r="U23" s="97"/>
-      <c r="V23" s="97"/>
-      <c r="W23" s="97"/>
-      <c r="X23" s="97"/>
-      <c r="Y23" s="97"/>
-      <c r="Z23" s="97"/>
-      <c r="AA23" s="97"/>
-      <c r="AB23" s="97"/>
-      <c r="AC23" s="97"/>
-      <c r="AD23" s="97"/>
-      <c r="AE23" s="98"/>
-      <c r="AF23" s="93"/>
-      <c r="AG23" s="94"/>
-      <c r="AH23" s="94"/>
-      <c r="AI23" s="95"/>
+      <c r="B23" s="100"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="102"/>
+      <c r="E23" s="103"/>
+      <c r="F23" s="104"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="105"/>
+      <c r="I23" s="101"/>
+      <c r="J23" s="94"/>
+      <c r="K23" s="95"/>
+      <c r="L23" s="95"/>
+      <c r="M23" s="95"/>
+      <c r="N23" s="95"/>
+      <c r="O23" s="95"/>
+      <c r="P23" s="96"/>
+      <c r="Q23" s="97"/>
+      <c r="R23" s="98"/>
+      <c r="S23" s="98"/>
+      <c r="T23" s="98"/>
+      <c r="U23" s="98"/>
+      <c r="V23" s="98"/>
+      <c r="W23" s="98"/>
+      <c r="X23" s="98"/>
+      <c r="Y23" s="98"/>
+      <c r="Z23" s="98"/>
+      <c r="AA23" s="98"/>
+      <c r="AB23" s="98"/>
+      <c r="AC23" s="98"/>
+      <c r="AD23" s="98"/>
+      <c r="AE23" s="99"/>
+      <c r="AF23" s="94"/>
+      <c r="AG23" s="95"/>
+      <c r="AH23" s="95"/>
+      <c r="AI23" s="96"/>
     </row>
     <row r="24" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A24" s="86"/>
-      <c r="B24" s="117"/>
-      <c r="C24" s="119"/>
-      <c r="D24" s="150"/>
-      <c r="E24" s="151"/>
-      <c r="F24" s="152"/>
-      <c r="G24" s="117"/>
-      <c r="H24" s="118"/>
-      <c r="I24" s="119"/>
-      <c r="J24" s="93"/>
-      <c r="K24" s="94"/>
-      <c r="L24" s="94"/>
-      <c r="M24" s="94"/>
-      <c r="N24" s="94"/>
-      <c r="O24" s="94"/>
-      <c r="P24" s="95"/>
-      <c r="Q24" s="96"/>
-      <c r="R24" s="97"/>
-      <c r="S24" s="97"/>
-      <c r="T24" s="97"/>
-      <c r="U24" s="97"/>
-      <c r="V24" s="97"/>
-      <c r="W24" s="97"/>
-      <c r="X24" s="97"/>
-      <c r="Y24" s="97"/>
-      <c r="Z24" s="97"/>
-      <c r="AA24" s="97"/>
-      <c r="AB24" s="97"/>
-      <c r="AC24" s="97"/>
-      <c r="AD24" s="97"/>
-      <c r="AE24" s="98"/>
-      <c r="AF24" s="93"/>
-      <c r="AG24" s="94"/>
-      <c r="AH24" s="94"/>
-      <c r="AI24" s="95"/>
+      <c r="B24" s="100"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="102"/>
+      <c r="E24" s="103"/>
+      <c r="F24" s="104"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="105"/>
+      <c r="I24" s="101"/>
+      <c r="J24" s="94"/>
+      <c r="K24" s="95"/>
+      <c r="L24" s="95"/>
+      <c r="M24" s="95"/>
+      <c r="N24" s="95"/>
+      <c r="O24" s="95"/>
+      <c r="P24" s="96"/>
+      <c r="Q24" s="97"/>
+      <c r="R24" s="98"/>
+      <c r="S24" s="98"/>
+      <c r="T24" s="98"/>
+      <c r="U24" s="98"/>
+      <c r="V24" s="98"/>
+      <c r="W24" s="98"/>
+      <c r="X24" s="98"/>
+      <c r="Y24" s="98"/>
+      <c r="Z24" s="98"/>
+      <c r="AA24" s="98"/>
+      <c r="AB24" s="98"/>
+      <c r="AC24" s="98"/>
+      <c r="AD24" s="98"/>
+      <c r="AE24" s="99"/>
+      <c r="AF24" s="94"/>
+      <c r="AG24" s="95"/>
+      <c r="AH24" s="95"/>
+      <c r="AI24" s="96"/>
     </row>
     <row r="25" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A25" s="86"/>
-      <c r="B25" s="117"/>
-      <c r="C25" s="119"/>
-      <c r="D25" s="150"/>
-      <c r="E25" s="151"/>
-      <c r="F25" s="152"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="119"/>
-      <c r="J25" s="93"/>
-      <c r="K25" s="94"/>
-      <c r="L25" s="94"/>
-      <c r="M25" s="94"/>
-      <c r="N25" s="94"/>
-      <c r="O25" s="94"/>
-      <c r="P25" s="95"/>
-      <c r="Q25" s="96"/>
-      <c r="R25" s="97"/>
-      <c r="S25" s="97"/>
-      <c r="T25" s="97"/>
-      <c r="U25" s="97"/>
-      <c r="V25" s="97"/>
-      <c r="W25" s="97"/>
-      <c r="X25" s="97"/>
-      <c r="Y25" s="97"/>
-      <c r="Z25" s="97"/>
-      <c r="AA25" s="97"/>
-      <c r="AB25" s="97"/>
-      <c r="AC25" s="97"/>
-      <c r="AD25" s="97"/>
-      <c r="AE25" s="98"/>
-      <c r="AF25" s="93"/>
-      <c r="AG25" s="94"/>
-      <c r="AH25" s="94"/>
-      <c r="AI25" s="95"/>
+      <c r="B25" s="100"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="102"/>
+      <c r="E25" s="103"/>
+      <c r="F25" s="104"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="105"/>
+      <c r="I25" s="101"/>
+      <c r="J25" s="94"/>
+      <c r="K25" s="95"/>
+      <c r="L25" s="95"/>
+      <c r="M25" s="95"/>
+      <c r="N25" s="95"/>
+      <c r="O25" s="95"/>
+      <c r="P25" s="96"/>
+      <c r="Q25" s="97"/>
+      <c r="R25" s="98"/>
+      <c r="S25" s="98"/>
+      <c r="T25" s="98"/>
+      <c r="U25" s="98"/>
+      <c r="V25" s="98"/>
+      <c r="W25" s="98"/>
+      <c r="X25" s="98"/>
+      <c r="Y25" s="98"/>
+      <c r="Z25" s="98"/>
+      <c r="AA25" s="98"/>
+      <c r="AB25" s="98"/>
+      <c r="AC25" s="98"/>
+      <c r="AD25" s="98"/>
+      <c r="AE25" s="99"/>
+      <c r="AF25" s="94"/>
+      <c r="AG25" s="95"/>
+      <c r="AH25" s="95"/>
+      <c r="AI25" s="96"/>
     </row>
     <row r="26" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A26" s="86"/>
-      <c r="B26" s="117"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="150"/>
-      <c r="E26" s="151"/>
-      <c r="F26" s="152"/>
-      <c r="G26" s="117"/>
-      <c r="H26" s="118"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="93"/>
-      <c r="K26" s="94"/>
-      <c r="L26" s="94"/>
-      <c r="M26" s="94"/>
-      <c r="N26" s="94"/>
-      <c r="O26" s="94"/>
-      <c r="P26" s="95"/>
-      <c r="Q26" s="96"/>
-      <c r="R26" s="97"/>
-      <c r="S26" s="97"/>
-      <c r="T26" s="97"/>
-      <c r="U26" s="97"/>
-      <c r="V26" s="97"/>
-      <c r="W26" s="97"/>
-      <c r="X26" s="97"/>
-      <c r="Y26" s="97"/>
-      <c r="Z26" s="97"/>
-      <c r="AA26" s="97"/>
-      <c r="AB26" s="97"/>
-      <c r="AC26" s="97"/>
-      <c r="AD26" s="97"/>
-      <c r="AE26" s="98"/>
-      <c r="AF26" s="93"/>
-      <c r="AG26" s="94"/>
-      <c r="AH26" s="94"/>
-      <c r="AI26" s="95"/>
+      <c r="B26" s="100"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="103"/>
+      <c r="F26" s="104"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="105"/>
+      <c r="I26" s="101"/>
+      <c r="J26" s="94"/>
+      <c r="K26" s="95"/>
+      <c r="L26" s="95"/>
+      <c r="M26" s="95"/>
+      <c r="N26" s="95"/>
+      <c r="O26" s="95"/>
+      <c r="P26" s="96"/>
+      <c r="Q26" s="97"/>
+      <c r="R26" s="98"/>
+      <c r="S26" s="98"/>
+      <c r="T26" s="98"/>
+      <c r="U26" s="98"/>
+      <c r="V26" s="98"/>
+      <c r="W26" s="98"/>
+      <c r="X26" s="98"/>
+      <c r="Y26" s="98"/>
+      <c r="Z26" s="98"/>
+      <c r="AA26" s="98"/>
+      <c r="AB26" s="98"/>
+      <c r="AC26" s="98"/>
+      <c r="AD26" s="98"/>
+      <c r="AE26" s="99"/>
+      <c r="AF26" s="94"/>
+      <c r="AG26" s="95"/>
+      <c r="AH26" s="95"/>
+      <c r="AI26" s="96"/>
     </row>
     <row r="27" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A27" s="86"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="119"/>
-      <c r="D27" s="150"/>
-      <c r="E27" s="151"/>
-      <c r="F27" s="152"/>
-      <c r="G27" s="117"/>
-      <c r="H27" s="118"/>
-      <c r="I27" s="119"/>
-      <c r="J27" s="93"/>
-      <c r="K27" s="94"/>
-      <c r="L27" s="94"/>
-      <c r="M27" s="94"/>
-      <c r="N27" s="94"/>
-      <c r="O27" s="94"/>
-      <c r="P27" s="95"/>
-      <c r="Q27" s="96"/>
-      <c r="R27" s="97"/>
-      <c r="S27" s="97"/>
-      <c r="T27" s="97"/>
-      <c r="U27" s="97"/>
-      <c r="V27" s="97"/>
-      <c r="W27" s="97"/>
-      <c r="X27" s="97"/>
-      <c r="Y27" s="97"/>
-      <c r="Z27" s="97"/>
-      <c r="AA27" s="97"/>
-      <c r="AB27" s="97"/>
-      <c r="AC27" s="97"/>
-      <c r="AD27" s="97"/>
-      <c r="AE27" s="98"/>
-      <c r="AF27" s="93"/>
-      <c r="AG27" s="94"/>
-      <c r="AH27" s="94"/>
-      <c r="AI27" s="95"/>
+      <c r="B27" s="100"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="102"/>
+      <c r="E27" s="103"/>
+      <c r="F27" s="104"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="105"/>
+      <c r="I27" s="101"/>
+      <c r="J27" s="94"/>
+      <c r="K27" s="95"/>
+      <c r="L27" s="95"/>
+      <c r="M27" s="95"/>
+      <c r="N27" s="95"/>
+      <c r="O27" s="95"/>
+      <c r="P27" s="96"/>
+      <c r="Q27" s="97"/>
+      <c r="R27" s="98"/>
+      <c r="S27" s="98"/>
+      <c r="T27" s="98"/>
+      <c r="U27" s="98"/>
+      <c r="V27" s="98"/>
+      <c r="W27" s="98"/>
+      <c r="X27" s="98"/>
+      <c r="Y27" s="98"/>
+      <c r="Z27" s="98"/>
+      <c r="AA27" s="98"/>
+      <c r="AB27" s="98"/>
+      <c r="AC27" s="98"/>
+      <c r="AD27" s="98"/>
+      <c r="AE27" s="99"/>
+      <c r="AF27" s="94"/>
+      <c r="AG27" s="95"/>
+      <c r="AH27" s="95"/>
+      <c r="AI27" s="96"/>
     </row>
     <row r="28" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A28" s="86"/>
-      <c r="B28" s="117"/>
-      <c r="C28" s="119"/>
-      <c r="D28" s="150"/>
-      <c r="E28" s="151"/>
-      <c r="F28" s="152"/>
-      <c r="G28" s="117"/>
-      <c r="H28" s="118"/>
-      <c r="I28" s="119"/>
-      <c r="J28" s="93"/>
-      <c r="K28" s="94"/>
-      <c r="L28" s="94"/>
-      <c r="M28" s="94"/>
-      <c r="N28" s="94"/>
-      <c r="O28" s="94"/>
-      <c r="P28" s="95"/>
-      <c r="Q28" s="96"/>
-      <c r="R28" s="97"/>
-      <c r="S28" s="97"/>
-      <c r="T28" s="97"/>
-      <c r="U28" s="97"/>
-      <c r="V28" s="97"/>
-      <c r="W28" s="97"/>
-      <c r="X28" s="97"/>
-      <c r="Y28" s="97"/>
-      <c r="Z28" s="97"/>
-      <c r="AA28" s="97"/>
-      <c r="AB28" s="97"/>
-      <c r="AC28" s="97"/>
-      <c r="AD28" s="97"/>
-      <c r="AE28" s="98"/>
-      <c r="AF28" s="93"/>
-      <c r="AG28" s="94"/>
-      <c r="AH28" s="94"/>
-      <c r="AI28" s="95"/>
+      <c r="B28" s="100"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="102"/>
+      <c r="E28" s="103"/>
+      <c r="F28" s="104"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="105"/>
+      <c r="I28" s="101"/>
+      <c r="J28" s="94"/>
+      <c r="K28" s="95"/>
+      <c r="L28" s="95"/>
+      <c r="M28" s="95"/>
+      <c r="N28" s="95"/>
+      <c r="O28" s="95"/>
+      <c r="P28" s="96"/>
+      <c r="Q28" s="97"/>
+      <c r="R28" s="98"/>
+      <c r="S28" s="98"/>
+      <c r="T28" s="98"/>
+      <c r="U28" s="98"/>
+      <c r="V28" s="98"/>
+      <c r="W28" s="98"/>
+      <c r="X28" s="98"/>
+      <c r="Y28" s="98"/>
+      <c r="Z28" s="98"/>
+      <c r="AA28" s="98"/>
+      <c r="AB28" s="98"/>
+      <c r="AC28" s="98"/>
+      <c r="AD28" s="98"/>
+      <c r="AE28" s="99"/>
+      <c r="AF28" s="94"/>
+      <c r="AG28" s="95"/>
+      <c r="AH28" s="95"/>
+      <c r="AI28" s="96"/>
     </row>
     <row r="29" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A29" s="86"/>
-      <c r="B29" s="117"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="150"/>
-      <c r="E29" s="151"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="117"/>
-      <c r="H29" s="118"/>
-      <c r="I29" s="119"/>
-      <c r="J29" s="93"/>
-      <c r="K29" s="94"/>
-      <c r="L29" s="94"/>
-      <c r="M29" s="94"/>
-      <c r="N29" s="94"/>
-      <c r="O29" s="94"/>
-      <c r="P29" s="95"/>
-      <c r="Q29" s="96"/>
-      <c r="R29" s="97"/>
-      <c r="S29" s="97"/>
-      <c r="T29" s="97"/>
-      <c r="U29" s="97"/>
-      <c r="V29" s="97"/>
-      <c r="W29" s="97"/>
-      <c r="X29" s="97"/>
-      <c r="Y29" s="97"/>
-      <c r="Z29" s="97"/>
-      <c r="AA29" s="97"/>
-      <c r="AB29" s="97"/>
-      <c r="AC29" s="97"/>
-      <c r="AD29" s="97"/>
-      <c r="AE29" s="98"/>
-      <c r="AF29" s="93"/>
-      <c r="AG29" s="94"/>
-      <c r="AH29" s="94"/>
-      <c r="AI29" s="95"/>
+      <c r="B29" s="100"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="102"/>
+      <c r="E29" s="103"/>
+      <c r="F29" s="104"/>
+      <c r="G29" s="100"/>
+      <c r="H29" s="105"/>
+      <c r="I29" s="101"/>
+      <c r="J29" s="94"/>
+      <c r="K29" s="95"/>
+      <c r="L29" s="95"/>
+      <c r="M29" s="95"/>
+      <c r="N29" s="95"/>
+      <c r="O29" s="95"/>
+      <c r="P29" s="96"/>
+      <c r="Q29" s="97"/>
+      <c r="R29" s="98"/>
+      <c r="S29" s="98"/>
+      <c r="T29" s="98"/>
+      <c r="U29" s="98"/>
+      <c r="V29" s="98"/>
+      <c r="W29" s="98"/>
+      <c r="X29" s="98"/>
+      <c r="Y29" s="98"/>
+      <c r="Z29" s="98"/>
+      <c r="AA29" s="98"/>
+      <c r="AB29" s="98"/>
+      <c r="AC29" s="98"/>
+      <c r="AD29" s="98"/>
+      <c r="AE29" s="99"/>
+      <c r="AF29" s="94"/>
+      <c r="AG29" s="95"/>
+      <c r="AH29" s="95"/>
+      <c r="AI29" s="96"/>
     </row>
     <row r="30" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A30" s="86"/>
-      <c r="B30" s="117"/>
-      <c r="C30" s="119"/>
-      <c r="D30" s="150"/>
-      <c r="E30" s="151"/>
-      <c r="F30" s="152"/>
-      <c r="G30" s="117"/>
-      <c r="H30" s="118"/>
-      <c r="I30" s="119"/>
-      <c r="J30" s="93"/>
-      <c r="K30" s="94"/>
-      <c r="L30" s="94"/>
-      <c r="M30" s="94"/>
-      <c r="N30" s="94"/>
-      <c r="O30" s="94"/>
-      <c r="P30" s="95"/>
-      <c r="Q30" s="96"/>
-      <c r="R30" s="97"/>
-      <c r="S30" s="97"/>
-      <c r="T30" s="97"/>
-      <c r="U30" s="97"/>
-      <c r="V30" s="97"/>
-      <c r="W30" s="97"/>
-      <c r="X30" s="97"/>
-      <c r="Y30" s="97"/>
-      <c r="Z30" s="97"/>
-      <c r="AA30" s="97"/>
-      <c r="AB30" s="97"/>
-      <c r="AC30" s="97"/>
-      <c r="AD30" s="97"/>
-      <c r="AE30" s="98"/>
-      <c r="AF30" s="93"/>
-      <c r="AG30" s="94"/>
-      <c r="AH30" s="94"/>
-      <c r="AI30" s="95"/>
+      <c r="B30" s="100"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="102"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="104"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="105"/>
+      <c r="I30" s="101"/>
+      <c r="J30" s="94"/>
+      <c r="K30" s="95"/>
+      <c r="L30" s="95"/>
+      <c r="M30" s="95"/>
+      <c r="N30" s="95"/>
+      <c r="O30" s="95"/>
+      <c r="P30" s="96"/>
+      <c r="Q30" s="97"/>
+      <c r="R30" s="98"/>
+      <c r="S30" s="98"/>
+      <c r="T30" s="98"/>
+      <c r="U30" s="98"/>
+      <c r="V30" s="98"/>
+      <c r="W30" s="98"/>
+      <c r="X30" s="98"/>
+      <c r="Y30" s="98"/>
+      <c r="Z30" s="98"/>
+      <c r="AA30" s="98"/>
+      <c r="AB30" s="98"/>
+      <c r="AC30" s="98"/>
+      <c r="AD30" s="98"/>
+      <c r="AE30" s="99"/>
+      <c r="AF30" s="94"/>
+      <c r="AG30" s="95"/>
+      <c r="AH30" s="95"/>
+      <c r="AI30" s="96"/>
     </row>
     <row r="31" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A31" s="86"/>
-      <c r="B31" s="117"/>
-      <c r="C31" s="119"/>
-      <c r="D31" s="150"/>
-      <c r="E31" s="151"/>
-      <c r="F31" s="152"/>
-      <c r="G31" s="117"/>
-      <c r="H31" s="118"/>
-      <c r="I31" s="119"/>
-      <c r="J31" s="93"/>
-      <c r="K31" s="94"/>
-      <c r="L31" s="94"/>
-      <c r="M31" s="94"/>
-      <c r="N31" s="94"/>
-      <c r="O31" s="94"/>
-      <c r="P31" s="95"/>
-      <c r="Q31" s="96"/>
-      <c r="R31" s="97"/>
-      <c r="S31" s="97"/>
-      <c r="T31" s="97"/>
-      <c r="U31" s="97"/>
-      <c r="V31" s="97"/>
-      <c r="W31" s="97"/>
-      <c r="X31" s="97"/>
-      <c r="Y31" s="97"/>
-      <c r="Z31" s="97"/>
-      <c r="AA31" s="97"/>
-      <c r="AB31" s="97"/>
-      <c r="AC31" s="97"/>
-      <c r="AD31" s="97"/>
-      <c r="AE31" s="98"/>
-      <c r="AF31" s="93"/>
-      <c r="AG31" s="94"/>
-      <c r="AH31" s="94"/>
-      <c r="AI31" s="95"/>
+      <c r="B31" s="100"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="102"/>
+      <c r="E31" s="103"/>
+      <c r="F31" s="104"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="105"/>
+      <c r="I31" s="101"/>
+      <c r="J31" s="94"/>
+      <c r="K31" s="95"/>
+      <c r="L31" s="95"/>
+      <c r="M31" s="95"/>
+      <c r="N31" s="95"/>
+      <c r="O31" s="95"/>
+      <c r="P31" s="96"/>
+      <c r="Q31" s="97"/>
+      <c r="R31" s="98"/>
+      <c r="S31" s="98"/>
+      <c r="T31" s="98"/>
+      <c r="U31" s="98"/>
+      <c r="V31" s="98"/>
+      <c r="W31" s="98"/>
+      <c r="X31" s="98"/>
+      <c r="Y31" s="98"/>
+      <c r="Z31" s="98"/>
+      <c r="AA31" s="98"/>
+      <c r="AB31" s="98"/>
+      <c r="AC31" s="98"/>
+      <c r="AD31" s="98"/>
+      <c r="AE31" s="99"/>
+      <c r="AF31" s="94"/>
+      <c r="AG31" s="95"/>
+      <c r="AH31" s="95"/>
+      <c r="AI31" s="96"/>
       <c r="AJ31" s="32"/>
     </row>
     <row r="32" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A32" s="86"/>
-      <c r="B32" s="117"/>
-      <c r="C32" s="119"/>
-      <c r="D32" s="150"/>
-      <c r="E32" s="151"/>
-      <c r="F32" s="152"/>
-      <c r="G32" s="117"/>
-      <c r="H32" s="118"/>
-      <c r="I32" s="119"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="94"/>
-      <c r="L32" s="94"/>
-      <c r="M32" s="94"/>
-      <c r="N32" s="94"/>
-      <c r="O32" s="94"/>
-      <c r="P32" s="95"/>
-      <c r="Q32" s="96"/>
-      <c r="R32" s="97"/>
-      <c r="S32" s="97"/>
-      <c r="T32" s="97"/>
-      <c r="U32" s="97"/>
-      <c r="V32" s="97"/>
-      <c r="W32" s="97"/>
-      <c r="X32" s="97"/>
-      <c r="Y32" s="97"/>
-      <c r="Z32" s="97"/>
-      <c r="AA32" s="97"/>
-      <c r="AB32" s="97"/>
-      <c r="AC32" s="97"/>
-      <c r="AD32" s="97"/>
-      <c r="AE32" s="98"/>
-      <c r="AF32" s="93"/>
-      <c r="AG32" s="94"/>
-      <c r="AH32" s="94"/>
-      <c r="AI32" s="95"/>
+      <c r="B32" s="100"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="102"/>
+      <c r="E32" s="103"/>
+      <c r="F32" s="104"/>
+      <c r="G32" s="100"/>
+      <c r="H32" s="105"/>
+      <c r="I32" s="101"/>
+      <c r="J32" s="94"/>
+      <c r="K32" s="95"/>
+      <c r="L32" s="95"/>
+      <c r="M32" s="95"/>
+      <c r="N32" s="95"/>
+      <c r="O32" s="95"/>
+      <c r="P32" s="96"/>
+      <c r="Q32" s="97"/>
+      <c r="R32" s="98"/>
+      <c r="S32" s="98"/>
+      <c r="T32" s="98"/>
+      <c r="U32" s="98"/>
+      <c r="V32" s="98"/>
+      <c r="W32" s="98"/>
+      <c r="X32" s="98"/>
+      <c r="Y32" s="98"/>
+      <c r="Z32" s="98"/>
+      <c r="AA32" s="98"/>
+      <c r="AB32" s="98"/>
+      <c r="AC32" s="98"/>
+      <c r="AD32" s="98"/>
+      <c r="AE32" s="99"/>
+      <c r="AF32" s="94"/>
+      <c r="AG32" s="95"/>
+      <c r="AH32" s="95"/>
+      <c r="AI32" s="96"/>
       <c r="AJ32" s="32"/>
     </row>
     <row r="33" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
       <c r="A33" s="86"/>
-      <c r="B33" s="117"/>
-      <c r="C33" s="119"/>
-      <c r="D33" s="150"/>
-      <c r="E33" s="151"/>
-      <c r="F33" s="152"/>
-      <c r="G33" s="117"/>
-      <c r="H33" s="118"/>
-      <c r="I33" s="119"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="94"/>
-      <c r="O33" s="94"/>
-      <c r="P33" s="95"/>
-      <c r="Q33" s="96"/>
-      <c r="R33" s="97"/>
-      <c r="S33" s="97"/>
-      <c r="T33" s="97"/>
-      <c r="U33" s="97"/>
-      <c r="V33" s="97"/>
-      <c r="W33" s="97"/>
-      <c r="X33" s="97"/>
-      <c r="Y33" s="97"/>
-      <c r="Z33" s="97"/>
-      <c r="AA33" s="97"/>
-      <c r="AB33" s="97"/>
-      <c r="AC33" s="97"/>
-      <c r="AD33" s="97"/>
-      <c r="AE33" s="98"/>
-      <c r="AF33" s="93"/>
-      <c r="AG33" s="94"/>
-      <c r="AH33" s="94"/>
-      <c r="AI33" s="95"/>
+      <c r="B33" s="100"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="102"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="104"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="101"/>
+      <c r="J33" s="94"/>
+      <c r="K33" s="95"/>
+      <c r="L33" s="95"/>
+      <c r="M33" s="95"/>
+      <c r="N33" s="95"/>
+      <c r="O33" s="95"/>
+      <c r="P33" s="96"/>
+      <c r="Q33" s="97"/>
+      <c r="R33" s="98"/>
+      <c r="S33" s="98"/>
+      <c r="T33" s="98"/>
+      <c r="U33" s="98"/>
+      <c r="V33" s="98"/>
+      <c r="W33" s="98"/>
+      <c r="X33" s="98"/>
+      <c r="Y33" s="98"/>
+      <c r="Z33" s="98"/>
+      <c r="AA33" s="98"/>
+      <c r="AB33" s="98"/>
+      <c r="AC33" s="98"/>
+      <c r="AD33" s="98"/>
+      <c r="AE33" s="99"/>
+      <c r="AF33" s="94"/>
+      <c r="AG33" s="95"/>
+      <c r="AH33" s="95"/>
+      <c r="AI33" s="96"/>
       <c r="AJ33" s="32"/>
     </row>
     <row r="34" spans="1:36" s="5" customFormat="1" ht="15" customHeight="1">
@@ -4926,6 +4810,161 @@
     </row>
   </sheetData>
   <mergeCells count="179">
+    <mergeCell ref="J30:P30"/>
+    <mergeCell ref="Q30:AE30"/>
+    <mergeCell ref="AF30:AI30"/>
+    <mergeCell ref="J12:P12"/>
+    <mergeCell ref="Q12:AE12"/>
+    <mergeCell ref="AF12:AI12"/>
+    <mergeCell ref="J13:P13"/>
+    <mergeCell ref="Q13:AE13"/>
+    <mergeCell ref="AF13:AI13"/>
+    <mergeCell ref="J14:P14"/>
+    <mergeCell ref="Q14:AE14"/>
+    <mergeCell ref="AF14:AI14"/>
+    <mergeCell ref="J26:P26"/>
+    <mergeCell ref="Q26:AE26"/>
+    <mergeCell ref="J23:P23"/>
+    <mergeCell ref="Q23:AE23"/>
+    <mergeCell ref="AF23:AI23"/>
+    <mergeCell ref="J24:P24"/>
+    <mergeCell ref="Q24:AE24"/>
+    <mergeCell ref="AF24:AI24"/>
+    <mergeCell ref="J29:P29"/>
+    <mergeCell ref="Q29:AE29"/>
+    <mergeCell ref="AF29:AI29"/>
+    <mergeCell ref="AF26:AI26"/>
+    <mergeCell ref="AF9:AI9"/>
+    <mergeCell ref="J10:P10"/>
+    <mergeCell ref="Q10:AE10"/>
+    <mergeCell ref="AF10:AI10"/>
+    <mergeCell ref="J25:P25"/>
+    <mergeCell ref="Q25:AE25"/>
+    <mergeCell ref="AF25:AI25"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="J8:P8"/>
+    <mergeCell ref="Q8:AE8"/>
+    <mergeCell ref="AF8:AI8"/>
+    <mergeCell ref="J9:P9"/>
+    <mergeCell ref="Q9:AE9"/>
+    <mergeCell ref="E1:N1"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J11:P11"/>
+    <mergeCell ref="Q11:AE11"/>
+    <mergeCell ref="AF11:AI11"/>
+    <mergeCell ref="B7:C7"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:P7"/>
+    <mergeCell ref="Q7:AE7"/>
+    <mergeCell ref="AF7:AI7"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="B8:C8"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="O1:R3"/>
+    <mergeCell ref="AA1:AB1"/>
+    <mergeCell ref="AA2:AB2"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="B9:C9"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="B10:C10"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="B12:C12"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="B13:C13"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="B14:C14"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J15:P15"/>
+    <mergeCell ref="Q15:AE15"/>
+    <mergeCell ref="AF15:AI15"/>
+    <mergeCell ref="J16:P16"/>
+    <mergeCell ref="Q16:AE16"/>
+    <mergeCell ref="AF16:AI16"/>
+    <mergeCell ref="B17:C17"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="B18:C18"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="J17:P17"/>
+    <mergeCell ref="Q17:AE17"/>
+    <mergeCell ref="AF17:AI17"/>
+    <mergeCell ref="J18:P18"/>
+    <mergeCell ref="Q18:AE18"/>
+    <mergeCell ref="AF18:AI18"/>
+    <mergeCell ref="B19:C19"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J19:P19"/>
+    <mergeCell ref="Q19:AE19"/>
+    <mergeCell ref="AF19:AI19"/>
+    <mergeCell ref="J20:P20"/>
+    <mergeCell ref="Q20:AE20"/>
+    <mergeCell ref="AF20:AI20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J21:P21"/>
+    <mergeCell ref="Q21:AE21"/>
+    <mergeCell ref="AF21:AI21"/>
+    <mergeCell ref="J22:P22"/>
+    <mergeCell ref="Q22:AE22"/>
+    <mergeCell ref="AF22:AI22"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G28:I28"/>
     <mergeCell ref="J27:P27"/>
     <mergeCell ref="Q27:AE27"/>
     <mergeCell ref="AF27:AI27"/>
@@ -4950,161 +4989,6 @@
     <mergeCell ref="J32:P32"/>
     <mergeCell ref="Q32:AE32"/>
     <mergeCell ref="AF32:AI32"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J21:P21"/>
-    <mergeCell ref="Q21:AE21"/>
-    <mergeCell ref="AF21:AI21"/>
-    <mergeCell ref="J22:P22"/>
-    <mergeCell ref="Q22:AE22"/>
-    <mergeCell ref="AF22:AI22"/>
-    <mergeCell ref="B19:C19"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J19:P19"/>
-    <mergeCell ref="Q19:AE19"/>
-    <mergeCell ref="AF19:AI19"/>
-    <mergeCell ref="J20:P20"/>
-    <mergeCell ref="Q20:AE20"/>
-    <mergeCell ref="AF20:AI20"/>
-    <mergeCell ref="B17:C17"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="B18:C18"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="J17:P17"/>
-    <mergeCell ref="Q17:AE17"/>
-    <mergeCell ref="AF17:AI17"/>
-    <mergeCell ref="J18:P18"/>
-    <mergeCell ref="Q18:AE18"/>
-    <mergeCell ref="AF18:AI18"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J15:P15"/>
-    <mergeCell ref="Q15:AE15"/>
-    <mergeCell ref="AF15:AI15"/>
-    <mergeCell ref="J16:P16"/>
-    <mergeCell ref="Q16:AE16"/>
-    <mergeCell ref="AF16:AI16"/>
-    <mergeCell ref="B13:C13"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="B14:C14"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="B9:C9"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="B10:C10"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="B12:C12"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="B7:C7"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:P7"/>
-    <mergeCell ref="Q7:AE7"/>
-    <mergeCell ref="AF7:AI7"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="B8:C8"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:D2"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="O1:R3"/>
-    <mergeCell ref="AA1:AB1"/>
-    <mergeCell ref="AA2:AB2"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="AF9:AI9"/>
-    <mergeCell ref="J10:P10"/>
-    <mergeCell ref="Q10:AE10"/>
-    <mergeCell ref="AF10:AI10"/>
-    <mergeCell ref="J25:P25"/>
-    <mergeCell ref="Q25:AE25"/>
-    <mergeCell ref="AF25:AI25"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="J8:P8"/>
-    <mergeCell ref="Q8:AE8"/>
-    <mergeCell ref="AF8:AI8"/>
-    <mergeCell ref="J9:P9"/>
-    <mergeCell ref="Q9:AE9"/>
-    <mergeCell ref="E1:N1"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J11:P11"/>
-    <mergeCell ref="Q11:AE11"/>
-    <mergeCell ref="AF11:AI11"/>
-    <mergeCell ref="J30:P30"/>
-    <mergeCell ref="Q30:AE30"/>
-    <mergeCell ref="AF30:AI30"/>
-    <mergeCell ref="J12:P12"/>
-    <mergeCell ref="Q12:AE12"/>
-    <mergeCell ref="AF12:AI12"/>
-    <mergeCell ref="J13:P13"/>
-    <mergeCell ref="Q13:AE13"/>
-    <mergeCell ref="AF13:AI13"/>
-    <mergeCell ref="J14:P14"/>
-    <mergeCell ref="Q14:AE14"/>
-    <mergeCell ref="AF14:AI14"/>
-    <mergeCell ref="J26:P26"/>
-    <mergeCell ref="Q26:AE26"/>
-    <mergeCell ref="J23:P23"/>
-    <mergeCell ref="Q23:AE23"/>
-    <mergeCell ref="AF23:AI23"/>
-    <mergeCell ref="J24:P24"/>
-    <mergeCell ref="Q24:AE24"/>
-    <mergeCell ref="AF24:AI24"/>
-    <mergeCell ref="J29:P29"/>
-    <mergeCell ref="Q29:AE29"/>
-    <mergeCell ref="AF29:AI29"/>
-    <mergeCell ref="AF26:AI26"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -5261,157 +5145,157 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="129" t="s">
+      <c r="A1" s="118" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
-        <v>32</v>
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="121" t="s">
+        <v>31</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="153" t="str">
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="129" t="s">
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="99" t="str">
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="139" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="100"/>
-      <c r="AI1" s="101"/>
+      <c r="AH1" s="140"/>
+      <c r="AI1" s="141"/>
     </row>
     <row r="2" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="129" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="99" t="str">
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="139" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="100"/>
-      <c r="AI2" s="101"/>
+      <c r="AH2" s="140"/>
+      <c r="AI2" s="141"/>
     </row>
     <row r="3" spans="1:35" s="41" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105" t="str">
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="99" t="str">
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="139" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="100"/>
-      <c r="AI3" s="101"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="141"/>
     </row>
     <row r="4" spans="1:35" s="44" customFormat="1" ht="19.5" customHeight="1">
       <c r="A4" s="42"/>
@@ -5468,7 +5352,7 @@
       <c r="O5" s="42"/>
       <c r="P5" s="42"/>
       <c r="Q5" s="45" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="R5" s="42"/>
       <c r="S5" s="42"/>
@@ -5529,7 +5413,7 @@
     <row r="7" spans="1:35" ht="15" customHeight="1">
       <c r="A7" s="46"/>
       <c r="B7" s="47" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C7" s="48"/>
       <c r="D7" s="48"/>
@@ -6871,12 +6755,6 @@
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="AA3:AB3"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="E1:N1"/>
     <mergeCell ref="O1:R3"/>
@@ -6888,6 +6766,12 @@
     <mergeCell ref="E2:N2"/>
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="AA3:AB3"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <printOptions horizontalCentered="1"/>
@@ -6918,170 +6802,170 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A1" s="129" t="s">
-        <v>40</v>
+      <c r="A1" s="118" t="s">
+        <v>38</v>
       </c>
-      <c r="B1" s="130"/>
-      <c r="C1" s="130"/>
-      <c r="D1" s="131"/>
-      <c r="E1" s="114" t="str">
+      <c r="B1" s="119"/>
+      <c r="C1" s="119"/>
+      <c r="D1" s="120"/>
+      <c r="E1" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E1")&lt;&gt;"",INDIRECT("変更履歴!E1"),"")</f>
         <v/>
       </c>
-      <c r="F1" s="115"/>
-      <c r="G1" s="115"/>
-      <c r="H1" s="115"/>
-      <c r="I1" s="115"/>
-      <c r="J1" s="115"/>
-      <c r="K1" s="115"/>
-      <c r="L1" s="115"/>
-      <c r="M1" s="115"/>
-      <c r="N1" s="116"/>
-      <c r="O1" s="132" t="s">
+      <c r="F1" s="152"/>
+      <c r="G1" s="152"/>
+      <c r="H1" s="152"/>
+      <c r="I1" s="152"/>
+      <c r="J1" s="152"/>
+      <c r="K1" s="152"/>
+      <c r="L1" s="152"/>
+      <c r="M1" s="152"/>
+      <c r="N1" s="153"/>
+      <c r="O1" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="133"/>
-      <c r="Q1" s="133"/>
-      <c r="R1" s="134"/>
-      <c r="S1" s="153" t="str">
+      <c r="P1" s="122"/>
+      <c r="Q1" s="122"/>
+      <c r="R1" s="123"/>
+      <c r="S1" s="154" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!S1")&lt;&gt;"",INDIRECT("変更履歴!S1"),"")</f>
         <v/>
       </c>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
-      <c r="Z1" s="155"/>
-      <c r="AA1" s="129" t="s">
+      <c r="T1" s="155"/>
+      <c r="U1" s="155"/>
+      <c r="V1" s="155"/>
+      <c r="W1" s="155"/>
+      <c r="X1" s="155"/>
+      <c r="Y1" s="155"/>
+      <c r="Z1" s="156"/>
+      <c r="AA1" s="118" t="s">
         <v>10</v>
       </c>
-      <c r="AB1" s="131"/>
-      <c r="AC1" s="105" t="str">
+      <c r="AB1" s="120"/>
+      <c r="AC1" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC1")&lt;&gt;"",INDIRECT("変更履歴!AC1"),"")</f>
         <v/>
       </c>
-      <c r="AD1" s="106"/>
-      <c r="AE1" s="106"/>
-      <c r="AF1" s="107"/>
-      <c r="AG1" s="190" t="str">
+      <c r="AD1" s="110"/>
+      <c r="AE1" s="110"/>
+      <c r="AF1" s="111"/>
+      <c r="AG1" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG1")&lt;&gt;"",INDIRECT("変更履歴!AG1"),"")</f>
         <v/>
       </c>
-      <c r="AH1" s="191"/>
-      <c r="AI1" s="192"/>
+      <c r="AH1" s="205"/>
+      <c r="AI1" s="206"/>
       <c r="AJ1" s="34"/>
       <c r="AK1" s="20"/>
       <c r="AL1" s="21"/>
     </row>
     <row r="2" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A2" s="129" t="s">
+      <c r="A2" s="118" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="130"/>
-      <c r="C2" s="130"/>
-      <c r="D2" s="131"/>
-      <c r="E2" s="114" t="str">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="120"/>
+      <c r="E2" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E2")&lt;&gt;"",INDIRECT("変更履歴!E2"),"")</f>
         <v/>
       </c>
-      <c r="F2" s="115"/>
-      <c r="G2" s="115"/>
-      <c r="H2" s="115"/>
-      <c r="I2" s="115"/>
-      <c r="J2" s="115"/>
-      <c r="K2" s="115"/>
-      <c r="L2" s="115"/>
-      <c r="M2" s="115"/>
-      <c r="N2" s="116"/>
-      <c r="O2" s="135"/>
-      <c r="P2" s="136"/>
-      <c r="Q2" s="136"/>
-      <c r="R2" s="137"/>
-      <c r="S2" s="156"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="158"/>
-      <c r="AA2" s="129" t="s">
+      <c r="F2" s="152"/>
+      <c r="G2" s="152"/>
+      <c r="H2" s="152"/>
+      <c r="I2" s="152"/>
+      <c r="J2" s="152"/>
+      <c r="K2" s="152"/>
+      <c r="L2" s="152"/>
+      <c r="M2" s="152"/>
+      <c r="N2" s="153"/>
+      <c r="O2" s="124"/>
+      <c r="P2" s="125"/>
+      <c r="Q2" s="125"/>
+      <c r="R2" s="126"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="158"/>
+      <c r="U2" s="158"/>
+      <c r="V2" s="158"/>
+      <c r="W2" s="158"/>
+      <c r="X2" s="158"/>
+      <c r="Y2" s="158"/>
+      <c r="Z2" s="159"/>
+      <c r="AA2" s="118" t="s">
         <v>11</v>
       </c>
-      <c r="AB2" s="131"/>
-      <c r="AC2" s="105" t="str">
+      <c r="AB2" s="120"/>
+      <c r="AC2" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC2")&lt;&gt;"",INDIRECT("変更履歴!AC2"),"")</f>
         <v/>
       </c>
-      <c r="AD2" s="106"/>
-      <c r="AE2" s="106"/>
-      <c r="AF2" s="107"/>
-      <c r="AG2" s="190" t="str">
+      <c r="AD2" s="110"/>
+      <c r="AE2" s="110"/>
+      <c r="AF2" s="111"/>
+      <c r="AG2" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG2")&lt;&gt;"",INDIRECT("変更履歴!AG2"),"")</f>
         <v/>
       </c>
-      <c r="AH2" s="191"/>
-      <c r="AI2" s="192"/>
+      <c r="AH2" s="205"/>
+      <c r="AI2" s="206"/>
       <c r="AJ2" s="34"/>
       <c r="AK2" s="20"/>
       <c r="AL2" s="20"/>
     </row>
     <row r="3" spans="1:61" s="22" customFormat="1" ht="12" customHeight="1">
-      <c r="A3" s="129" t="s">
+      <c r="A3" s="118" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="130"/>
-      <c r="C3" s="130"/>
-      <c r="D3" s="131"/>
-      <c r="E3" s="114" t="str">
+      <c r="B3" s="119"/>
+      <c r="C3" s="119"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="151" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!E3")&lt;&gt;"",INDIRECT("変更履歴!E3"),"")</f>
         <v/>
       </c>
-      <c r="F3" s="115"/>
-      <c r="G3" s="115"/>
-      <c r="H3" s="115"/>
-      <c r="I3" s="115"/>
-      <c r="J3" s="115"/>
-      <c r="K3" s="115"/>
-      <c r="L3" s="115"/>
-      <c r="M3" s="115"/>
-      <c r="N3" s="116"/>
-      <c r="O3" s="138"/>
-      <c r="P3" s="139"/>
-      <c r="Q3" s="139"/>
-      <c r="R3" s="140"/>
-      <c r="S3" s="159"/>
-      <c r="T3" s="160"/>
-      <c r="U3" s="160"/>
-      <c r="V3" s="160"/>
-      <c r="W3" s="160"/>
-      <c r="X3" s="160"/>
-      <c r="Y3" s="160"/>
-      <c r="Z3" s="161"/>
-      <c r="AA3" s="129"/>
-      <c r="AB3" s="131"/>
-      <c r="AC3" s="105" t="str">
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="152"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="153"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="129"/>
+      <c r="S3" s="160"/>
+      <c r="T3" s="161"/>
+      <c r="U3" s="161"/>
+      <c r="V3" s="161"/>
+      <c r="W3" s="161"/>
+      <c r="X3" s="161"/>
+      <c r="Y3" s="161"/>
+      <c r="Z3" s="162"/>
+      <c r="AA3" s="118"/>
+      <c r="AB3" s="120"/>
+      <c r="AC3" s="109" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AC3")&lt;&gt;"",INDIRECT("変更履歴!AC3"),"")</f>
         <v/>
       </c>
-      <c r="AD3" s="106"/>
-      <c r="AE3" s="106"/>
-      <c r="AF3" s="107"/>
-      <c r="AG3" s="190" t="str">
+      <c r="AD3" s="110"/>
+      <c r="AE3" s="110"/>
+      <c r="AF3" s="111"/>
+      <c r="AG3" s="204" t="str">
         <f ca="1">IF(INDIRECT("変更履歴!AG3")&lt;&gt;"",INDIRECT("変更履歴!AG3"),"")</f>
         <v/>
       </c>
-      <c r="AH3" s="191"/>
-      <c r="AI3" s="192"/>
+      <c r="AH3" s="205"/>
+      <c r="AI3" s="206"/>
       <c r="AJ3" s="34"/>
       <c r="AK3" s="20"/>
       <c r="AL3" s="20"/>
     </row>
     <row r="5" spans="1:61" s="23" customFormat="1">
       <c r="B5" s="23" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="24"/>
       <c r="R5" s="24"/>
@@ -7103,748 +6987,912 @@
       <c r="BI6" s="25"/>
     </row>
     <row r="7" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="167" t="s">
+        <v>40</v>
+      </c>
+      <c r="C7" s="166" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="175"/>
-      <c r="D7" s="175"/>
-      <c r="E7" s="198" t="s">
-        <v>38</v>
+      <c r="D7" s="166"/>
+      <c r="E7" s="166"/>
+      <c r="F7" s="208" t="s">
+        <v>36</v>
       </c>
-      <c r="F7" s="198"/>
-      <c r="G7" s="198"/>
-      <c r="H7" s="198"/>
-      <c r="I7" s="198"/>
-      <c r="J7" s="198"/>
-      <c r="K7" s="198"/>
-      <c r="L7" s="182" t="s">
+      <c r="G7" s="208"/>
+      <c r="H7" s="208"/>
+      <c r="I7" s="208"/>
+      <c r="J7" s="208"/>
+      <c r="K7" s="208"/>
+      <c r="L7" s="208"/>
+      <c r="M7" s="212" t="s">
         <v>17</v>
       </c>
-      <c r="M7" s="183"/>
-      <c r="N7" s="176" t="s">
+      <c r="N7" s="213"/>
+      <c r="O7" s="176" t="s">
         <v>15</v>
       </c>
-      <c r="O7" s="177"/>
       <c r="P7" s="177"/>
       <c r="Q7" s="177"/>
-      <c r="R7" s="178"/>
-      <c r="S7" s="175" t="s">
+      <c r="R7" s="177"/>
+      <c r="S7" s="178"/>
+      <c r="T7" s="166" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="175"/>
-      <c r="U7" s="182" t="s">
+      <c r="U7" s="166"/>
+      <c r="V7" s="212" t="s">
         <v>18</v>
       </c>
-      <c r="V7" s="186"/>
-      <c r="W7" s="186"/>
-      <c r="X7" s="183"/>
-      <c r="Y7" s="175" t="s">
-        <v>31</v>
+      <c r="W7" s="216"/>
+      <c r="X7" s="216"/>
+      <c r="Y7" s="213"/>
+      <c r="Z7" s="166" t="s">
+        <v>39</v>
       </c>
-      <c r="Z7" s="175"/>
-      <c r="AA7" s="176" t="s">
+      <c r="AA7" s="166"/>
+      <c r="AB7" s="176" t="s">
         <v>1</v>
       </c>
-      <c r="AB7" s="177"/>
-      <c r="AC7" s="178"/>
-      <c r="AD7" s="210" t="s">
+      <c r="AC7" s="177"/>
+      <c r="AD7" s="178"/>
+      <c r="AE7" s="163" t="s">
         <v>19</v>
       </c>
-      <c r="AE7" s="211"/>
-      <c r="AF7" s="211"/>
-      <c r="AG7" s="211"/>
-      <c r="AH7" s="211"/>
-      <c r="AI7" s="211"/>
-      <c r="AJ7" s="211"/>
-      <c r="AK7" s="211"/>
-      <c r="AL7" s="212"/>
-      <c r="AM7" s="175" t="s">
+      <c r="AF7" s="164"/>
+      <c r="AG7" s="164"/>
+      <c r="AH7" s="164"/>
+      <c r="AI7" s="164"/>
+      <c r="AJ7" s="164"/>
+      <c r="AK7" s="164"/>
+      <c r="AL7" s="164"/>
+      <c r="AM7" s="165"/>
+      <c r="AN7" s="166" t="s">
         <v>0</v>
       </c>
-      <c r="AN7" s="175"/>
-      <c r="AO7" s="175"/>
-      <c r="AP7" s="175"/>
-      <c r="AQ7" s="175"/>
-      <c r="AR7" s="175"/>
-      <c r="AS7" s="175" t="s">
+      <c r="AO7" s="166"/>
+      <c r="AP7" s="166"/>
+      <c r="AQ7" s="166"/>
+      <c r="AR7" s="166"/>
+      <c r="AS7" s="166"/>
+      <c r="AT7" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="AT7" s="175"/>
-      <c r="AU7" s="175"/>
-      <c r="AV7" s="175"/>
-      <c r="AW7" s="175" t="s">
+      <c r="AU7" s="166"/>
+      <c r="AV7" s="166"/>
+      <c r="AW7" s="166"/>
+      <c r="AX7" s="166" t="s">
         <v>2</v>
       </c>
-      <c r="AX7" s="175"/>
-      <c r="AY7" s="175"/>
-      <c r="AZ7" s="175"/>
-      <c r="BA7" s="175"/>
-      <c r="BB7" s="175"/>
-      <c r="BC7" s="175"/>
-      <c r="BD7" s="175"/>
-      <c r="BE7" s="175"/>
-      <c r="BF7" s="26"/>
+      <c r="AY7" s="166"/>
+      <c r="AZ7" s="166"/>
+      <c r="BA7" s="166"/>
+      <c r="BB7" s="166"/>
+      <c r="BC7" s="166"/>
+      <c r="BD7" s="166"/>
+      <c r="BE7" s="166"/>
+      <c r="BF7" s="166"/>
       <c r="BG7" s="26"/>
       <c r="BH7" s="25"/>
       <c r="BI7" s="26"/>
     </row>
     <row r="8" spans="1:61" s="8" customFormat="1" ht="13.5" customHeight="1">
-      <c r="B8" s="175"/>
-      <c r="C8" s="175"/>
-      <c r="D8" s="175"/>
-      <c r="E8" s="198"/>
-      <c r="F8" s="198"/>
-      <c r="G8" s="198"/>
-      <c r="H8" s="198"/>
-      <c r="I8" s="198"/>
-      <c r="J8" s="198"/>
-      <c r="K8" s="198"/>
-      <c r="L8" s="184"/>
-      <c r="M8" s="185"/>
-      <c r="N8" s="179"/>
-      <c r="O8" s="180"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="166"/>
+      <c r="D8" s="166"/>
+      <c r="E8" s="166"/>
+      <c r="F8" s="208"/>
+      <c r="G8" s="208"/>
+      <c r="H8" s="208"/>
+      <c r="I8" s="208"/>
+      <c r="J8" s="208"/>
+      <c r="K8" s="208"/>
+      <c r="L8" s="208"/>
+      <c r="M8" s="214"/>
+      <c r="N8" s="215"/>
+      <c r="O8" s="179"/>
       <c r="P8" s="180"/>
       <c r="Q8" s="180"/>
-      <c r="R8" s="181"/>
-      <c r="S8" s="175"/>
-      <c r="T8" s="175"/>
-      <c r="U8" s="184"/>
-      <c r="V8" s="187"/>
-      <c r="W8" s="187"/>
-      <c r="X8" s="185"/>
-      <c r="Y8" s="175"/>
-      <c r="Z8" s="175"/>
-      <c r="AA8" s="179"/>
-      <c r="AB8" s="180"/>
-      <c r="AC8" s="181"/>
-      <c r="AD8" s="175" t="s">
-        <v>36</v>
+      <c r="R8" s="180"/>
+      <c r="S8" s="181"/>
+      <c r="T8" s="166"/>
+      <c r="U8" s="166"/>
+      <c r="V8" s="214"/>
+      <c r="W8" s="217"/>
+      <c r="X8" s="217"/>
+      <c r="Y8" s="215"/>
+      <c r="Z8" s="166"/>
+      <c r="AA8" s="166"/>
+      <c r="AB8" s="179"/>
+      <c r="AC8" s="180"/>
+      <c r="AD8" s="181"/>
+      <c r="AE8" s="163" t="s">
+        <v>41</v>
       </c>
-      <c r="AE8" s="175"/>
-      <c r="AF8" s="175"/>
-      <c r="AG8" s="175"/>
-      <c r="AH8" s="175"/>
-      <c r="AI8" s="175"/>
-      <c r="AJ8" s="210" t="s">
-        <v>35</v>
+      <c r="AF8" s="164"/>
+      <c r="AG8" s="165"/>
+      <c r="AH8" s="166" t="s">
+        <v>34</v>
       </c>
-      <c r="AK8" s="211"/>
-      <c r="AL8" s="212"/>
-      <c r="AM8" s="210" t="s">
+      <c r="AI8" s="166"/>
+      <c r="AJ8" s="166"/>
+      <c r="AK8" s="166"/>
+      <c r="AL8" s="166"/>
+      <c r="AM8" s="166"/>
+      <c r="AN8" s="163" t="s">
         <v>29</v>
       </c>
-      <c r="AN8" s="212"/>
-      <c r="AO8" s="175" t="s">
+      <c r="AO8" s="165"/>
+      <c r="AP8" s="166" t="s">
         <v>14</v>
       </c>
-      <c r="AP8" s="175"/>
-      <c r="AQ8" s="175"/>
-      <c r="AR8" s="175"/>
-      <c r="AS8" s="175"/>
-      <c r="AT8" s="175"/>
-      <c r="AU8" s="175"/>
-      <c r="AV8" s="175"/>
-      <c r="AW8" s="175"/>
-      <c r="AX8" s="175"/>
-      <c r="AY8" s="175"/>
-      <c r="AZ8" s="175"/>
-      <c r="BA8" s="175"/>
-      <c r="BB8" s="175"/>
-      <c r="BC8" s="175"/>
-      <c r="BD8" s="175"/>
-      <c r="BE8" s="175"/>
-      <c r="BF8" s="26"/>
+      <c r="AQ8" s="166"/>
+      <c r="AR8" s="166"/>
+      <c r="AS8" s="166"/>
+      <c r="AT8" s="166"/>
+      <c r="AU8" s="166"/>
+      <c r="AV8" s="166"/>
+      <c r="AW8" s="166"/>
+      <c r="AX8" s="166"/>
+      <c r="AY8" s="166"/>
+      <c r="AZ8" s="166"/>
+      <c r="BA8" s="166"/>
+      <c r="BB8" s="166"/>
+      <c r="BC8" s="166"/>
+      <c r="BD8" s="166"/>
+      <c r="BE8" s="166"/>
+      <c r="BF8" s="166"/>
       <c r="BG8" s="26"/>
       <c r="BH8" s="26"/>
       <c r="BI8" s="26"/>
     </row>
     <row r="9" spans="1:61" ht="13.5" customHeight="1">
-      <c r="B9" s="193"/>
-      <c r="C9" s="193"/>
-      <c r="D9" s="193"/>
-      <c r="E9" s="193"/>
-      <c r="F9" s="193"/>
-      <c r="G9" s="193"/>
-      <c r="H9" s="193"/>
-      <c r="I9" s="193"/>
-      <c r="J9" s="193"/>
-      <c r="K9" s="193"/>
-      <c r="L9" s="96"/>
-      <c r="M9" s="98"/>
-      <c r="N9" s="167"/>
-      <c r="O9" s="168"/>
-      <c r="P9" s="168"/>
-      <c r="Q9" s="168"/>
-      <c r="R9" s="169"/>
-      <c r="S9" s="166"/>
-      <c r="T9" s="166"/>
-      <c r="U9" s="167"/>
-      <c r="V9" s="168"/>
-      <c r="W9" s="168"/>
-      <c r="X9" s="169"/>
-      <c r="Y9" s="197"/>
-      <c r="Z9" s="197"/>
-      <c r="AA9" s="167"/>
-      <c r="AB9" s="168"/>
-      <c r="AC9" s="169"/>
-      <c r="AD9" s="167"/>
-      <c r="AE9" s="168"/>
-      <c r="AF9" s="168"/>
-      <c r="AG9" s="168"/>
-      <c r="AH9" s="168"/>
-      <c r="AI9" s="169"/>
-      <c r="AJ9" s="199"/>
-      <c r="AK9" s="200"/>
-      <c r="AL9" s="201"/>
-      <c r="AM9" s="204"/>
-      <c r="AN9" s="205"/>
-      <c r="AO9" s="206"/>
-      <c r="AP9" s="206"/>
-      <c r="AQ9" s="206"/>
-      <c r="AR9" s="206"/>
-      <c r="AS9" s="209"/>
-      <c r="AT9" s="209"/>
-      <c r="AU9" s="209"/>
-      <c r="AV9" s="209"/>
-      <c r="AW9" s="193"/>
-      <c r="AX9" s="193"/>
-      <c r="AY9" s="193"/>
-      <c r="AZ9" s="193"/>
-      <c r="BA9" s="193"/>
-      <c r="BB9" s="193"/>
-      <c r="BC9" s="193"/>
-      <c r="BD9" s="193"/>
-      <c r="BE9" s="193"/>
-      <c r="BF9" s="27"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="172"/>
+      <c r="D9" s="172"/>
+      <c r="E9" s="172"/>
+      <c r="F9" s="172"/>
+      <c r="G9" s="172"/>
+      <c r="H9" s="172"/>
+      <c r="I9" s="172"/>
+      <c r="J9" s="172"/>
+      <c r="K9" s="172"/>
+      <c r="L9" s="172"/>
+      <c r="M9" s="97"/>
+      <c r="N9" s="99"/>
+      <c r="O9" s="173"/>
+      <c r="P9" s="174"/>
+      <c r="Q9" s="174"/>
+      <c r="R9" s="174"/>
+      <c r="S9" s="175"/>
+      <c r="T9" s="203"/>
+      <c r="U9" s="203"/>
+      <c r="V9" s="173"/>
+      <c r="W9" s="174"/>
+      <c r="X9" s="174"/>
+      <c r="Y9" s="175"/>
+      <c r="Z9" s="172"/>
+      <c r="AA9" s="172"/>
+      <c r="AB9" s="173"/>
+      <c r="AC9" s="174"/>
+      <c r="AD9" s="175"/>
+      <c r="AE9" s="169"/>
+      <c r="AF9" s="170"/>
+      <c r="AG9" s="171"/>
+      <c r="AH9" s="173"/>
+      <c r="AI9" s="174"/>
+      <c r="AJ9" s="174"/>
+      <c r="AK9" s="174"/>
+      <c r="AL9" s="174"/>
+      <c r="AM9" s="175"/>
+      <c r="AN9" s="184"/>
+      <c r="AO9" s="185"/>
+      <c r="AP9" s="183"/>
+      <c r="AQ9" s="183"/>
+      <c r="AR9" s="183"/>
+      <c r="AS9" s="183"/>
+      <c r="AT9" s="186"/>
+      <c r="AU9" s="186"/>
+      <c r="AV9" s="186"/>
+      <c r="AW9" s="186"/>
+      <c r="AX9" s="172"/>
+      <c r="AY9" s="172"/>
+      <c r="AZ9" s="172"/>
+      <c r="BA9" s="172"/>
+      <c r="BB9" s="172"/>
+      <c r="BC9" s="172"/>
+      <c r="BD9" s="172"/>
+      <c r="BE9" s="172"/>
+      <c r="BF9" s="172"/>
       <c r="BG9" s="27"/>
       <c r="BH9" s="27"/>
       <c r="BI9" s="27"/>
     </row>
     <row r="10" spans="1:61" ht="11.25" customHeight="1">
-      <c r="B10" s="195"/>
-      <c r="C10" s="195"/>
-      <c r="D10" s="195"/>
-      <c r="E10" s="188"/>
-      <c r="F10" s="188"/>
-      <c r="G10" s="188"/>
-      <c r="H10" s="188"/>
-      <c r="I10" s="188"/>
-      <c r="J10" s="188"/>
-      <c r="K10" s="188"/>
-      <c r="L10" s="96"/>
-      <c r="M10" s="98"/>
-      <c r="N10" s="163"/>
-      <c r="O10" s="164"/>
-      <c r="P10" s="164"/>
-      <c r="Q10" s="164"/>
-      <c r="R10" s="165"/>
-      <c r="S10" s="196"/>
-      <c r="T10" s="196"/>
-      <c r="U10" s="163"/>
-      <c r="V10" s="164"/>
-      <c r="W10" s="164"/>
-      <c r="X10" s="165"/>
-      <c r="Y10" s="194"/>
-      <c r="Z10" s="194"/>
-      <c r="AA10" s="163"/>
-      <c r="AB10" s="164"/>
-      <c r="AC10" s="165"/>
+      <c r="B10" s="87"/>
+      <c r="C10" s="191"/>
+      <c r="D10" s="191"/>
+      <c r="E10" s="191"/>
+      <c r="F10" s="182"/>
+      <c r="G10" s="182"/>
+      <c r="H10" s="182"/>
+      <c r="I10" s="182"/>
+      <c r="J10" s="182"/>
+      <c r="K10" s="182"/>
+      <c r="L10" s="182"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="99"/>
+      <c r="O10" s="193"/>
+      <c r="P10" s="194"/>
+      <c r="Q10" s="194"/>
+      <c r="R10" s="194"/>
+      <c r="S10" s="195"/>
+      <c r="T10" s="207"/>
+      <c r="U10" s="207"/>
+      <c r="V10" s="193"/>
+      <c r="W10" s="194"/>
+      <c r="X10" s="194"/>
+      <c r="Y10" s="195"/>
+      <c r="Z10" s="191"/>
+      <c r="AA10" s="191"/>
+      <c r="AB10" s="193"/>
+      <c r="AC10" s="194"/>
       <c r="AD10" s="195"/>
-      <c r="AE10" s="195"/>
-      <c r="AF10" s="195"/>
-      <c r="AG10" s="195"/>
-      <c r="AH10" s="195"/>
-      <c r="AI10" s="195"/>
-      <c r="AJ10" s="216"/>
-      <c r="AK10" s="217"/>
-      <c r="AL10" s="218"/>
-      <c r="AM10" s="204"/>
-      <c r="AN10" s="205"/>
-      <c r="AO10" s="207"/>
-      <c r="AP10" s="207"/>
-      <c r="AQ10" s="207"/>
-      <c r="AR10" s="207"/>
-      <c r="AS10" s="209"/>
-      <c r="AT10" s="209"/>
-      <c r="AU10" s="209"/>
-      <c r="AV10" s="209"/>
-      <c r="AW10" s="195"/>
-      <c r="AX10" s="195"/>
-      <c r="AY10" s="195"/>
-      <c r="AZ10" s="195"/>
-      <c r="BA10" s="195"/>
-      <c r="BB10" s="195"/>
-      <c r="BC10" s="195"/>
-      <c r="BD10" s="195"/>
-      <c r="BE10" s="195"/>
+      <c r="AE10" s="188"/>
+      <c r="AF10" s="189"/>
+      <c r="AG10" s="190"/>
+      <c r="AH10" s="191"/>
+      <c r="AI10" s="191"/>
+      <c r="AJ10" s="191"/>
+      <c r="AK10" s="191"/>
+      <c r="AL10" s="191"/>
+      <c r="AM10" s="191"/>
+      <c r="AN10" s="184"/>
+      <c r="AO10" s="185"/>
+      <c r="AP10" s="192"/>
+      <c r="AQ10" s="192"/>
+      <c r="AR10" s="192"/>
+      <c r="AS10" s="192"/>
+      <c r="AT10" s="186"/>
+      <c r="AU10" s="186"/>
+      <c r="AV10" s="186"/>
+      <c r="AW10" s="186"/>
+      <c r="AX10" s="191"/>
+      <c r="AY10" s="191"/>
+      <c r="AZ10" s="191"/>
+      <c r="BA10" s="191"/>
+      <c r="BB10" s="191"/>
+      <c r="BC10" s="191"/>
+      <c r="BD10" s="191"/>
+      <c r="BE10" s="191"/>
+      <c r="BF10" s="191"/>
     </row>
     <row r="11" spans="1:61" ht="11.25" customHeight="1">
-      <c r="B11" s="188"/>
-      <c r="C11" s="188"/>
-      <c r="D11" s="188"/>
-      <c r="E11" s="188"/>
-      <c r="F11" s="188"/>
-      <c r="G11" s="188"/>
-      <c r="H11" s="188"/>
-      <c r="I11" s="188"/>
-      <c r="J11" s="188"/>
-      <c r="K11" s="188"/>
-      <c r="L11" s="96"/>
-      <c r="M11" s="98"/>
-      <c r="N11" s="170"/>
-      <c r="O11" s="171"/>
-      <c r="P11" s="171"/>
-      <c r="Q11" s="171"/>
-      <c r="R11" s="172"/>
-      <c r="S11" s="162"/>
-      <c r="T11" s="162"/>
-      <c r="U11" s="170"/>
-      <c r="V11" s="171"/>
-      <c r="W11" s="171"/>
-      <c r="X11" s="172"/>
-      <c r="Y11" s="189"/>
-      <c r="Z11" s="189"/>
-      <c r="AA11" s="170"/>
-      <c r="AB11" s="171"/>
-      <c r="AC11" s="172"/>
-      <c r="AD11" s="188"/>
-      <c r="AE11" s="188"/>
-      <c r="AF11" s="188"/>
-      <c r="AG11" s="188"/>
-      <c r="AH11" s="188"/>
-      <c r="AI11" s="188"/>
-      <c r="AJ11" s="213"/>
-      <c r="AK11" s="214"/>
-      <c r="AL11" s="215"/>
-      <c r="AM11" s="204"/>
-      <c r="AN11" s="205"/>
-      <c r="AO11" s="208"/>
-      <c r="AP11" s="208"/>
-      <c r="AQ11" s="208"/>
-      <c r="AR11" s="208"/>
-      <c r="AS11" s="209"/>
-      <c r="AT11" s="209"/>
-      <c r="AU11" s="209"/>
-      <c r="AV11" s="209"/>
-      <c r="AW11" s="188"/>
-      <c r="AX11" s="188"/>
-      <c r="AY11" s="188"/>
-      <c r="AZ11" s="188"/>
-      <c r="BA11" s="188"/>
-      <c r="BB11" s="188"/>
-      <c r="BC11" s="188"/>
-      <c r="BD11" s="188"/>
-      <c r="BE11" s="188"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="182"/>
+      <c r="D11" s="182"/>
+      <c r="E11" s="182"/>
+      <c r="F11" s="182"/>
+      <c r="G11" s="182"/>
+      <c r="H11" s="182"/>
+      <c r="I11" s="182"/>
+      <c r="J11" s="182"/>
+      <c r="K11" s="182"/>
+      <c r="L11" s="182"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="197"/>
+      <c r="P11" s="198"/>
+      <c r="Q11" s="198"/>
+      <c r="R11" s="198"/>
+      <c r="S11" s="199"/>
+      <c r="T11" s="209"/>
+      <c r="U11" s="209"/>
+      <c r="V11" s="197"/>
+      <c r="W11" s="198"/>
+      <c r="X11" s="198"/>
+      <c r="Y11" s="199"/>
+      <c r="Z11" s="182"/>
+      <c r="AA11" s="182"/>
+      <c r="AB11" s="197"/>
+      <c r="AC11" s="198"/>
+      <c r="AD11" s="199"/>
+      <c r="AE11" s="200"/>
+      <c r="AF11" s="201"/>
+      <c r="AG11" s="202"/>
+      <c r="AH11" s="182"/>
+      <c r="AI11" s="182"/>
+      <c r="AJ11" s="182"/>
+      <c r="AK11" s="182"/>
+      <c r="AL11" s="182"/>
+      <c r="AM11" s="182"/>
+      <c r="AN11" s="184"/>
+      <c r="AO11" s="185"/>
+      <c r="AP11" s="196"/>
+      <c r="AQ11" s="196"/>
+      <c r="AR11" s="196"/>
+      <c r="AS11" s="196"/>
+      <c r="AT11" s="186"/>
+      <c r="AU11" s="186"/>
+      <c r="AV11" s="186"/>
+      <c r="AW11" s="186"/>
+      <c r="AX11" s="182"/>
+      <c r="AY11" s="182"/>
+      <c r="AZ11" s="182"/>
+      <c r="BA11" s="182"/>
+      <c r="BB11" s="182"/>
+      <c r="BC11" s="182"/>
+      <c r="BD11" s="182"/>
+      <c r="BE11" s="182"/>
+      <c r="BF11" s="182"/>
     </row>
     <row r="12" spans="1:61">
-      <c r="B12" s="193"/>
-      <c r="C12" s="193"/>
-      <c r="D12" s="193"/>
-      <c r="E12" s="193"/>
-      <c r="F12" s="193"/>
-      <c r="G12" s="193"/>
-      <c r="H12" s="193"/>
-      <c r="I12" s="193"/>
-      <c r="J12" s="193"/>
-      <c r="K12" s="193"/>
-      <c r="L12" s="96"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="167"/>
-      <c r="O12" s="168"/>
-      <c r="P12" s="168"/>
-      <c r="Q12" s="168"/>
-      <c r="R12" s="169"/>
-      <c r="S12" s="166"/>
-      <c r="T12" s="166"/>
-      <c r="U12" s="170"/>
-      <c r="V12" s="171"/>
-      <c r="W12" s="171"/>
-      <c r="X12" s="172"/>
-      <c r="Y12" s="197"/>
-      <c r="Z12" s="197"/>
-      <c r="AA12" s="167"/>
-      <c r="AB12" s="168"/>
-      <c r="AC12" s="169"/>
-      <c r="AD12" s="167"/>
-      <c r="AE12" s="168"/>
-      <c r="AF12" s="168"/>
-      <c r="AG12" s="168"/>
-      <c r="AH12" s="168"/>
-      <c r="AI12" s="169"/>
-      <c r="AJ12" s="199"/>
-      <c r="AK12" s="200"/>
-      <c r="AL12" s="201"/>
-      <c r="AM12" s="204"/>
-      <c r="AN12" s="205"/>
-      <c r="AO12" s="206"/>
-      <c r="AP12" s="206"/>
-      <c r="AQ12" s="206"/>
-      <c r="AR12" s="206"/>
-      <c r="AS12" s="209"/>
-      <c r="AT12" s="209"/>
-      <c r="AU12" s="209"/>
-      <c r="AV12" s="209"/>
-      <c r="AW12" s="193"/>
-      <c r="AX12" s="193"/>
-      <c r="AY12" s="193"/>
-      <c r="AZ12" s="193"/>
-      <c r="BA12" s="193"/>
-      <c r="BB12" s="193"/>
-      <c r="BC12" s="193"/>
-      <c r="BD12" s="193"/>
-      <c r="BE12" s="193"/>
+      <c r="B12" s="87"/>
+      <c r="C12" s="172"/>
+      <c r="D12" s="172"/>
+      <c r="E12" s="172"/>
+      <c r="F12" s="172"/>
+      <c r="G12" s="172"/>
+      <c r="H12" s="172"/>
+      <c r="I12" s="172"/>
+      <c r="J12" s="172"/>
+      <c r="K12" s="172"/>
+      <c r="L12" s="172"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="99"/>
+      <c r="O12" s="173"/>
+      <c r="P12" s="174"/>
+      <c r="Q12" s="174"/>
+      <c r="R12" s="174"/>
+      <c r="S12" s="175"/>
+      <c r="T12" s="203"/>
+      <c r="U12" s="203"/>
+      <c r="V12" s="197"/>
+      <c r="W12" s="198"/>
+      <c r="X12" s="198"/>
+      <c r="Y12" s="199"/>
+      <c r="Z12" s="172"/>
+      <c r="AA12" s="172"/>
+      <c r="AB12" s="173"/>
+      <c r="AC12" s="174"/>
+      <c r="AD12" s="175"/>
+      <c r="AE12" s="169"/>
+      <c r="AF12" s="170"/>
+      <c r="AG12" s="171"/>
+      <c r="AH12" s="173"/>
+      <c r="AI12" s="174"/>
+      <c r="AJ12" s="174"/>
+      <c r="AK12" s="174"/>
+      <c r="AL12" s="174"/>
+      <c r="AM12" s="175"/>
+      <c r="AN12" s="184"/>
+      <c r="AO12" s="185"/>
+      <c r="AP12" s="183"/>
+      <c r="AQ12" s="183"/>
+      <c r="AR12" s="183"/>
+      <c r="AS12" s="183"/>
+      <c r="AT12" s="186"/>
+      <c r="AU12" s="186"/>
+      <c r="AV12" s="186"/>
+      <c r="AW12" s="186"/>
+      <c r="AX12" s="172"/>
+      <c r="AY12" s="172"/>
+      <c r="AZ12" s="172"/>
+      <c r="BA12" s="172"/>
+      <c r="BB12" s="172"/>
+      <c r="BC12" s="172"/>
+      <c r="BD12" s="172"/>
+      <c r="BE12" s="172"/>
+      <c r="BF12" s="172"/>
     </row>
     <row r="13" spans="1:61">
-      <c r="B13" s="193"/>
-      <c r="C13" s="193"/>
-      <c r="D13" s="193"/>
-      <c r="E13" s="193"/>
-      <c r="F13" s="193"/>
-      <c r="G13" s="193"/>
-      <c r="H13" s="193"/>
-      <c r="I13" s="193"/>
-      <c r="J13" s="193"/>
-      <c r="K13" s="193"/>
-      <c r="L13" s="96"/>
-      <c r="M13" s="98"/>
-      <c r="N13" s="167"/>
-      <c r="O13" s="168"/>
-      <c r="P13" s="168"/>
-      <c r="Q13" s="168"/>
-      <c r="R13" s="169"/>
-      <c r="S13" s="166"/>
-      <c r="T13" s="166"/>
-      <c r="U13" s="167"/>
-      <c r="V13" s="168"/>
-      <c r="W13" s="168"/>
-      <c r="X13" s="169"/>
-      <c r="Y13" s="197"/>
-      <c r="Z13" s="197"/>
-      <c r="AA13" s="167"/>
-      <c r="AB13" s="168"/>
-      <c r="AC13" s="169"/>
-      <c r="AD13" s="193"/>
-      <c r="AE13" s="193"/>
-      <c r="AF13" s="193"/>
-      <c r="AG13" s="193"/>
-      <c r="AH13" s="193"/>
-      <c r="AI13" s="193"/>
-      <c r="AJ13" s="199"/>
-      <c r="AK13" s="200"/>
-      <c r="AL13" s="201"/>
-      <c r="AM13" s="204"/>
-      <c r="AN13" s="205"/>
-      <c r="AO13" s="206"/>
-      <c r="AP13" s="206"/>
-      <c r="AQ13" s="206"/>
-      <c r="AR13" s="206"/>
-      <c r="AS13" s="209"/>
-      <c r="AT13" s="209"/>
-      <c r="AU13" s="209"/>
-      <c r="AV13" s="209"/>
-      <c r="AW13" s="193"/>
-      <c r="AX13" s="193"/>
-      <c r="AY13" s="193"/>
-      <c r="AZ13" s="193"/>
-      <c r="BA13" s="193"/>
-      <c r="BB13" s="193"/>
-      <c r="BC13" s="193"/>
-      <c r="BD13" s="193"/>
-      <c r="BE13" s="193"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="172"/>
+      <c r="D13" s="172"/>
+      <c r="E13" s="172"/>
+      <c r="F13" s="172"/>
+      <c r="G13" s="172"/>
+      <c r="H13" s="172"/>
+      <c r="I13" s="172"/>
+      <c r="J13" s="172"/>
+      <c r="K13" s="172"/>
+      <c r="L13" s="172"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="99"/>
+      <c r="O13" s="173"/>
+      <c r="P13" s="174"/>
+      <c r="Q13" s="174"/>
+      <c r="R13" s="174"/>
+      <c r="S13" s="175"/>
+      <c r="T13" s="203"/>
+      <c r="U13" s="203"/>
+      <c r="V13" s="173"/>
+      <c r="W13" s="174"/>
+      <c r="X13" s="174"/>
+      <c r="Y13" s="175"/>
+      <c r="Z13" s="172"/>
+      <c r="AA13" s="172"/>
+      <c r="AB13" s="173"/>
+      <c r="AC13" s="174"/>
+      <c r="AD13" s="175"/>
+      <c r="AE13" s="169"/>
+      <c r="AF13" s="170"/>
+      <c r="AG13" s="171"/>
+      <c r="AH13" s="172"/>
+      <c r="AI13" s="172"/>
+      <c r="AJ13" s="172"/>
+      <c r="AK13" s="172"/>
+      <c r="AL13" s="172"/>
+      <c r="AM13" s="172"/>
+      <c r="AN13" s="184"/>
+      <c r="AO13" s="185"/>
+      <c r="AP13" s="183"/>
+      <c r="AQ13" s="183"/>
+      <c r="AR13" s="183"/>
+      <c r="AS13" s="183"/>
+      <c r="AT13" s="186"/>
+      <c r="AU13" s="186"/>
+      <c r="AV13" s="186"/>
+      <c r="AW13" s="186"/>
+      <c r="AX13" s="172"/>
+      <c r="AY13" s="172"/>
+      <c r="AZ13" s="172"/>
+      <c r="BA13" s="172"/>
+      <c r="BB13" s="172"/>
+      <c r="BC13" s="172"/>
+      <c r="BD13" s="172"/>
+      <c r="BE13" s="172"/>
+      <c r="BF13" s="172"/>
     </row>
     <row r="14" spans="1:61" ht="11.25" customHeight="1">
-      <c r="B14" s="193"/>
-      <c r="C14" s="193"/>
-      <c r="D14" s="193"/>
-      <c r="E14" s="193"/>
-      <c r="F14" s="193"/>
-      <c r="G14" s="193"/>
-      <c r="H14" s="193"/>
-      <c r="I14" s="193"/>
-      <c r="J14" s="193"/>
-      <c r="K14" s="193"/>
-      <c r="L14" s="96"/>
-      <c r="M14" s="98"/>
-      <c r="N14" s="167"/>
-      <c r="O14" s="168"/>
-      <c r="P14" s="168"/>
-      <c r="Q14" s="168"/>
-      <c r="R14" s="169"/>
-      <c r="S14" s="166"/>
-      <c r="T14" s="166"/>
-      <c r="U14" s="167"/>
-      <c r="V14" s="168"/>
-      <c r="W14" s="168"/>
-      <c r="X14" s="169"/>
-      <c r="Y14" s="197"/>
-      <c r="Z14" s="197"/>
-      <c r="AA14" s="167"/>
-      <c r="AB14" s="168"/>
-      <c r="AC14" s="169"/>
-      <c r="AD14" s="193"/>
-      <c r="AE14" s="193"/>
-      <c r="AF14" s="193"/>
-      <c r="AG14" s="193"/>
-      <c r="AH14" s="193"/>
-      <c r="AI14" s="193"/>
-      <c r="AJ14" s="199"/>
-      <c r="AK14" s="200"/>
-      <c r="AL14" s="201"/>
-      <c r="AM14" s="204"/>
-      <c r="AN14" s="205"/>
-      <c r="AO14" s="206"/>
-      <c r="AP14" s="206"/>
-      <c r="AQ14" s="206"/>
-      <c r="AR14" s="206"/>
-      <c r="AS14" s="209"/>
-      <c r="AT14" s="209"/>
-      <c r="AU14" s="209"/>
-      <c r="AV14" s="209"/>
-      <c r="AW14" s="193"/>
-      <c r="AX14" s="193"/>
-      <c r="AY14" s="193"/>
-      <c r="AZ14" s="193"/>
-      <c r="BA14" s="193"/>
-      <c r="BB14" s="193"/>
-      <c r="BC14" s="193"/>
-      <c r="BD14" s="193"/>
-      <c r="BE14" s="193"/>
+      <c r="B14" s="87"/>
+      <c r="C14" s="172"/>
+      <c r="D14" s="172"/>
+      <c r="E14" s="172"/>
+      <c r="F14" s="172"/>
+      <c r="G14" s="172"/>
+      <c r="H14" s="172"/>
+      <c r="I14" s="172"/>
+      <c r="J14" s="172"/>
+      <c r="K14" s="172"/>
+      <c r="L14" s="172"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="99"/>
+      <c r="O14" s="173"/>
+      <c r="P14" s="174"/>
+      <c r="Q14" s="174"/>
+      <c r="R14" s="174"/>
+      <c r="S14" s="175"/>
+      <c r="T14" s="203"/>
+      <c r="U14" s="203"/>
+      <c r="V14" s="173"/>
+      <c r="W14" s="174"/>
+      <c r="X14" s="174"/>
+      <c r="Y14" s="175"/>
+      <c r="Z14" s="172"/>
+      <c r="AA14" s="172"/>
+      <c r="AB14" s="173"/>
+      <c r="AC14" s="174"/>
+      <c r="AD14" s="175"/>
+      <c r="AE14" s="169"/>
+      <c r="AF14" s="170"/>
+      <c r="AG14" s="171"/>
+      <c r="AH14" s="172"/>
+      <c r="AI14" s="172"/>
+      <c r="AJ14" s="172"/>
+      <c r="AK14" s="172"/>
+      <c r="AL14" s="172"/>
+      <c r="AM14" s="172"/>
+      <c r="AN14" s="184"/>
+      <c r="AO14" s="185"/>
+      <c r="AP14" s="183"/>
+      <c r="AQ14" s="183"/>
+      <c r="AR14" s="183"/>
+      <c r="AS14" s="183"/>
+      <c r="AT14" s="186"/>
+      <c r="AU14" s="186"/>
+      <c r="AV14" s="186"/>
+      <c r="AW14" s="186"/>
+      <c r="AX14" s="172"/>
+      <c r="AY14" s="172"/>
+      <c r="AZ14" s="172"/>
+      <c r="BA14" s="172"/>
+      <c r="BB14" s="172"/>
+      <c r="BC14" s="172"/>
+      <c r="BD14" s="172"/>
+      <c r="BE14" s="172"/>
+      <c r="BF14" s="172"/>
     </row>
     <row r="15" spans="1:61" ht="11.25" customHeight="1">
-      <c r="B15" s="193"/>
-      <c r="C15" s="193"/>
-      <c r="D15" s="193"/>
-      <c r="E15" s="193"/>
-      <c r="F15" s="193"/>
-      <c r="G15" s="193"/>
-      <c r="H15" s="193"/>
-      <c r="I15" s="193"/>
-      <c r="J15" s="193"/>
-      <c r="K15" s="193"/>
-      <c r="L15" s="96"/>
-      <c r="M15" s="98"/>
-      <c r="N15" s="167"/>
-      <c r="O15" s="168"/>
-      <c r="P15" s="168"/>
-      <c r="Q15" s="168"/>
-      <c r="R15" s="169"/>
-      <c r="S15" s="166"/>
-      <c r="T15" s="166"/>
-      <c r="U15" s="167"/>
-      <c r="V15" s="168"/>
-      <c r="W15" s="168"/>
-      <c r="X15" s="169"/>
-      <c r="Y15" s="197"/>
-      <c r="Z15" s="197"/>
-      <c r="AA15" s="167"/>
-      <c r="AB15" s="168"/>
-      <c r="AC15" s="169"/>
-      <c r="AD15" s="193"/>
-      <c r="AE15" s="193"/>
-      <c r="AF15" s="193"/>
-      <c r="AG15" s="193"/>
-      <c r="AH15" s="193"/>
-      <c r="AI15" s="193"/>
-      <c r="AJ15" s="199"/>
-      <c r="AK15" s="200"/>
-      <c r="AL15" s="201"/>
-      <c r="AM15" s="204"/>
-      <c r="AN15" s="205"/>
-      <c r="AO15" s="206"/>
-      <c r="AP15" s="206"/>
-      <c r="AQ15" s="206"/>
-      <c r="AR15" s="206"/>
-      <c r="AS15" s="209"/>
-      <c r="AT15" s="209"/>
-      <c r="AU15" s="209"/>
-      <c r="AV15" s="209"/>
-      <c r="AW15" s="193"/>
-      <c r="AX15" s="193"/>
-      <c r="AY15" s="193"/>
-      <c r="AZ15" s="193"/>
-      <c r="BA15" s="193"/>
-      <c r="BB15" s="193"/>
-      <c r="BC15" s="193"/>
-      <c r="BD15" s="193"/>
-      <c r="BE15" s="193"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="172"/>
+      <c r="D15" s="172"/>
+      <c r="E15" s="172"/>
+      <c r="F15" s="172"/>
+      <c r="G15" s="172"/>
+      <c r="H15" s="172"/>
+      <c r="I15" s="172"/>
+      <c r="J15" s="172"/>
+      <c r="K15" s="172"/>
+      <c r="L15" s="172"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="99"/>
+      <c r="O15" s="173"/>
+      <c r="P15" s="174"/>
+      <c r="Q15" s="174"/>
+      <c r="R15" s="174"/>
+      <c r="S15" s="175"/>
+      <c r="T15" s="203"/>
+      <c r="U15" s="203"/>
+      <c r="V15" s="173"/>
+      <c r="W15" s="174"/>
+      <c r="X15" s="174"/>
+      <c r="Y15" s="175"/>
+      <c r="Z15" s="172"/>
+      <c r="AA15" s="172"/>
+      <c r="AB15" s="173"/>
+      <c r="AC15" s="174"/>
+      <c r="AD15" s="175"/>
+      <c r="AE15" s="169"/>
+      <c r="AF15" s="170"/>
+      <c r="AG15" s="171"/>
+      <c r="AH15" s="172"/>
+      <c r="AI15" s="172"/>
+      <c r="AJ15" s="172"/>
+      <c r="AK15" s="172"/>
+      <c r="AL15" s="172"/>
+      <c r="AM15" s="172"/>
+      <c r="AN15" s="184"/>
+      <c r="AO15" s="185"/>
+      <c r="AP15" s="183"/>
+      <c r="AQ15" s="183"/>
+      <c r="AR15" s="183"/>
+      <c r="AS15" s="183"/>
+      <c r="AT15" s="186"/>
+      <c r="AU15" s="186"/>
+      <c r="AV15" s="186"/>
+      <c r="AW15" s="186"/>
+      <c r="AX15" s="172"/>
+      <c r="AY15" s="172"/>
+      <c r="AZ15" s="172"/>
+      <c r="BA15" s="172"/>
+      <c r="BB15" s="172"/>
+      <c r="BC15" s="172"/>
+      <c r="BD15" s="172"/>
+      <c r="BE15" s="172"/>
+      <c r="BF15" s="172"/>
     </row>
     <row r="16" spans="1:61" s="29" customFormat="1">
-      <c r="B16" s="193"/>
-      <c r="C16" s="193"/>
-      <c r="D16" s="193"/>
-      <c r="E16" s="188"/>
-      <c r="F16" s="188"/>
-      <c r="G16" s="188"/>
-      <c r="H16" s="188"/>
-      <c r="I16" s="188"/>
-      <c r="J16" s="188"/>
-      <c r="K16" s="188"/>
-      <c r="L16" s="96"/>
-      <c r="M16" s="98"/>
-      <c r="N16" s="170"/>
-      <c r="O16" s="171"/>
-      <c r="P16" s="171"/>
-      <c r="Q16" s="171"/>
-      <c r="R16" s="172"/>
-      <c r="S16" s="162"/>
-      <c r="T16" s="162"/>
-      <c r="U16" s="170"/>
-      <c r="V16" s="171"/>
-      <c r="W16" s="171"/>
-      <c r="X16" s="172"/>
-      <c r="Y16" s="189"/>
-      <c r="Z16" s="189"/>
-      <c r="AA16" s="170"/>
-      <c r="AB16" s="171"/>
-      <c r="AC16" s="172"/>
-      <c r="AD16" s="188"/>
-      <c r="AE16" s="188"/>
-      <c r="AF16" s="188"/>
-      <c r="AG16" s="188"/>
-      <c r="AH16" s="188"/>
-      <c r="AI16" s="188"/>
-      <c r="AJ16" s="199"/>
-      <c r="AK16" s="200"/>
-      <c r="AL16" s="201"/>
-      <c r="AM16" s="204"/>
-      <c r="AN16" s="205"/>
-      <c r="AO16" s="206"/>
-      <c r="AP16" s="206"/>
-      <c r="AQ16" s="206"/>
-      <c r="AR16" s="206"/>
-      <c r="AS16" s="209"/>
-      <c r="AT16" s="209"/>
-      <c r="AU16" s="209"/>
-      <c r="AV16" s="209"/>
-      <c r="AW16" s="188"/>
-      <c r="AX16" s="188"/>
-      <c r="AY16" s="188"/>
-      <c r="AZ16" s="188"/>
-      <c r="BA16" s="188"/>
-      <c r="BB16" s="188"/>
-      <c r="BC16" s="188"/>
-      <c r="BD16" s="188"/>
-      <c r="BE16" s="188"/>
-    </row>
-    <row r="17" spans="2:57" ht="11.25" customHeight="1">
-      <c r="B17" s="167"/>
-      <c r="C17" s="168"/>
-      <c r="D17" s="169"/>
-      <c r="E17" s="167"/>
-      <c r="F17" s="168"/>
-      <c r="G17" s="168"/>
-      <c r="H17" s="168"/>
-      <c r="I17" s="168"/>
-      <c r="J17" s="168"/>
-      <c r="K17" s="169"/>
-      <c r="L17" s="96"/>
-      <c r="M17" s="98"/>
-      <c r="N17" s="167"/>
-      <c r="O17" s="168"/>
-      <c r="P17" s="168"/>
-      <c r="Q17" s="168"/>
-      <c r="R17" s="169"/>
-      <c r="S17" s="173"/>
-      <c r="T17" s="174"/>
-      <c r="U17" s="167"/>
-      <c r="V17" s="168"/>
-      <c r="W17" s="168"/>
-      <c r="X17" s="169"/>
-      <c r="Y17" s="202"/>
-      <c r="Z17" s="203"/>
-      <c r="AA17" s="167"/>
-      <c r="AB17" s="168"/>
-      <c r="AC17" s="169"/>
-      <c r="AD17" s="167"/>
-      <c r="AE17" s="168"/>
-      <c r="AF17" s="168"/>
-      <c r="AG17" s="168"/>
-      <c r="AH17" s="168"/>
-      <c r="AI17" s="169"/>
-      <c r="AJ17" s="199"/>
-      <c r="AK17" s="200"/>
-      <c r="AL17" s="201"/>
-      <c r="AM17" s="204"/>
-      <c r="AN17" s="205"/>
-      <c r="AO17" s="204"/>
-      <c r="AP17" s="219"/>
-      <c r="AQ17" s="219"/>
-      <c r="AR17" s="205"/>
-      <c r="AS17" s="209"/>
-      <c r="AT17" s="209"/>
-      <c r="AU17" s="209"/>
-      <c r="AV17" s="209"/>
-      <c r="AW17" s="167"/>
-      <c r="AX17" s="168"/>
-      <c r="AY17" s="168"/>
-      <c r="AZ17" s="168"/>
-      <c r="BA17" s="168"/>
-      <c r="BB17" s="168"/>
-      <c r="BC17" s="168"/>
-      <c r="BD17" s="168"/>
-      <c r="BE17" s="169"/>
-    </row>
-    <row r="18" spans="2:57">
-      <c r="B18" s="193"/>
-      <c r="C18" s="193"/>
-      <c r="D18" s="193"/>
-      <c r="E18" s="193"/>
-      <c r="F18" s="193"/>
-      <c r="G18" s="193"/>
-      <c r="H18" s="193"/>
-      <c r="I18" s="193"/>
-      <c r="J18" s="193"/>
-      <c r="K18" s="193"/>
-      <c r="L18" s="96"/>
-      <c r="M18" s="98"/>
-      <c r="N18" s="167"/>
-      <c r="O18" s="168"/>
-      <c r="P18" s="168"/>
-      <c r="Q18" s="168"/>
-      <c r="R18" s="169"/>
-      <c r="S18" s="166"/>
-      <c r="T18" s="166"/>
-      <c r="U18" s="167"/>
-      <c r="V18" s="168"/>
-      <c r="W18" s="168"/>
-      <c r="X18" s="169"/>
-      <c r="Y18" s="197"/>
-      <c r="Z18" s="197"/>
-      <c r="AA18" s="167"/>
-      <c r="AB18" s="168"/>
-      <c r="AC18" s="169"/>
-      <c r="AD18" s="193"/>
-      <c r="AE18" s="193"/>
-      <c r="AF18" s="193"/>
-      <c r="AG18" s="193"/>
-      <c r="AH18" s="193"/>
-      <c r="AI18" s="193"/>
-      <c r="AJ18" s="199"/>
-      <c r="AK18" s="200"/>
-      <c r="AL18" s="201"/>
-      <c r="AM18" s="204"/>
-      <c r="AN18" s="205"/>
-      <c r="AO18" s="206"/>
-      <c r="AP18" s="206"/>
-      <c r="AQ18" s="206"/>
-      <c r="AR18" s="206"/>
-      <c r="AS18" s="209"/>
-      <c r="AT18" s="209"/>
-      <c r="AU18" s="209"/>
-      <c r="AV18" s="209"/>
-      <c r="AW18" s="193"/>
-      <c r="AX18" s="193"/>
-      <c r="AY18" s="193"/>
-      <c r="AZ18" s="193"/>
-      <c r="BA18" s="193"/>
-      <c r="BB18" s="193"/>
-      <c r="BC18" s="193"/>
-      <c r="BD18" s="193"/>
-      <c r="BE18" s="193"/>
+      <c r="B16" s="87"/>
+      <c r="C16" s="172"/>
+      <c r="D16" s="172"/>
+      <c r="E16" s="172"/>
+      <c r="F16" s="182"/>
+      <c r="G16" s="182"/>
+      <c r="H16" s="182"/>
+      <c r="I16" s="182"/>
+      <c r="J16" s="182"/>
+      <c r="K16" s="182"/>
+      <c r="L16" s="182"/>
+      <c r="M16" s="97"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="197"/>
+      <c r="P16" s="198"/>
+      <c r="Q16" s="198"/>
+      <c r="R16" s="198"/>
+      <c r="S16" s="199"/>
+      <c r="T16" s="209"/>
+      <c r="U16" s="209"/>
+      <c r="V16" s="197"/>
+      <c r="W16" s="198"/>
+      <c r="X16" s="198"/>
+      <c r="Y16" s="199"/>
+      <c r="Z16" s="182"/>
+      <c r="AA16" s="182"/>
+      <c r="AB16" s="197"/>
+      <c r="AC16" s="198"/>
+      <c r="AD16" s="199"/>
+      <c r="AE16" s="169"/>
+      <c r="AF16" s="170"/>
+      <c r="AG16" s="171"/>
+      <c r="AH16" s="182"/>
+      <c r="AI16" s="182"/>
+      <c r="AJ16" s="182"/>
+      <c r="AK16" s="182"/>
+      <c r="AL16" s="182"/>
+      <c r="AM16" s="182"/>
+      <c r="AN16" s="184"/>
+      <c r="AO16" s="185"/>
+      <c r="AP16" s="183"/>
+      <c r="AQ16" s="183"/>
+      <c r="AR16" s="183"/>
+      <c r="AS16" s="183"/>
+      <c r="AT16" s="186"/>
+      <c r="AU16" s="186"/>
+      <c r="AV16" s="186"/>
+      <c r="AW16" s="186"/>
+      <c r="AX16" s="182"/>
+      <c r="AY16" s="182"/>
+      <c r="AZ16" s="182"/>
+      <c r="BA16" s="182"/>
+      <c r="BB16" s="182"/>
+      <c r="BC16" s="182"/>
+      <c r="BD16" s="182"/>
+      <c r="BE16" s="182"/>
+      <c r="BF16" s="182"/>
+    </row>
+    <row r="17" spans="2:58" ht="11.25" customHeight="1">
+      <c r="B17" s="87"/>
+      <c r="C17" s="173"/>
+      <c r="D17" s="174"/>
+      <c r="E17" s="175"/>
+      <c r="F17" s="173"/>
+      <c r="G17" s="174"/>
+      <c r="H17" s="174"/>
+      <c r="I17" s="174"/>
+      <c r="J17" s="174"/>
+      <c r="K17" s="174"/>
+      <c r="L17" s="175"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="99"/>
+      <c r="O17" s="173"/>
+      <c r="P17" s="174"/>
+      <c r="Q17" s="174"/>
+      <c r="R17" s="174"/>
+      <c r="S17" s="175"/>
+      <c r="T17" s="210"/>
+      <c r="U17" s="211"/>
+      <c r="V17" s="173"/>
+      <c r="W17" s="174"/>
+      <c r="X17" s="174"/>
+      <c r="Y17" s="175"/>
+      <c r="Z17" s="173"/>
+      <c r="AA17" s="175"/>
+      <c r="AB17" s="173"/>
+      <c r="AC17" s="174"/>
+      <c r="AD17" s="175"/>
+      <c r="AE17" s="169"/>
+      <c r="AF17" s="170"/>
+      <c r="AG17" s="171"/>
+      <c r="AH17" s="173"/>
+      <c r="AI17" s="174"/>
+      <c r="AJ17" s="174"/>
+      <c r="AK17" s="174"/>
+      <c r="AL17" s="174"/>
+      <c r="AM17" s="175"/>
+      <c r="AN17" s="184"/>
+      <c r="AO17" s="185"/>
+      <c r="AP17" s="184"/>
+      <c r="AQ17" s="187"/>
+      <c r="AR17" s="187"/>
+      <c r="AS17" s="185"/>
+      <c r="AT17" s="186"/>
+      <c r="AU17" s="186"/>
+      <c r="AV17" s="186"/>
+      <c r="AW17" s="186"/>
+      <c r="AX17" s="173"/>
+      <c r="AY17" s="174"/>
+      <c r="AZ17" s="174"/>
+      <c r="BA17" s="174"/>
+      <c r="BB17" s="174"/>
+      <c r="BC17" s="174"/>
+      <c r="BD17" s="174"/>
+      <c r="BE17" s="174"/>
+      <c r="BF17" s="175"/>
+    </row>
+    <row r="18" spans="2:58">
+      <c r="B18" s="87"/>
+      <c r="C18" s="172"/>
+      <c r="D18" s="172"/>
+      <c r="E18" s="172"/>
+      <c r="F18" s="172"/>
+      <c r="G18" s="172"/>
+      <c r="H18" s="172"/>
+      <c r="I18" s="172"/>
+      <c r="J18" s="172"/>
+      <c r="K18" s="172"/>
+      <c r="L18" s="172"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="99"/>
+      <c r="O18" s="173"/>
+      <c r="P18" s="174"/>
+      <c r="Q18" s="174"/>
+      <c r="R18" s="174"/>
+      <c r="S18" s="175"/>
+      <c r="T18" s="203"/>
+      <c r="U18" s="203"/>
+      <c r="V18" s="173"/>
+      <c r="W18" s="174"/>
+      <c r="X18" s="174"/>
+      <c r="Y18" s="175"/>
+      <c r="Z18" s="172"/>
+      <c r="AA18" s="172"/>
+      <c r="AB18" s="173"/>
+      <c r="AC18" s="174"/>
+      <c r="AD18" s="175"/>
+      <c r="AE18" s="169"/>
+      <c r="AF18" s="170"/>
+      <c r="AG18" s="171"/>
+      <c r="AH18" s="172"/>
+      <c r="AI18" s="172"/>
+      <c r="AJ18" s="172"/>
+      <c r="AK18" s="172"/>
+      <c r="AL18" s="172"/>
+      <c r="AM18" s="172"/>
+      <c r="AN18" s="184"/>
+      <c r="AO18" s="185"/>
+      <c r="AP18" s="183"/>
+      <c r="AQ18" s="183"/>
+      <c r="AR18" s="183"/>
+      <c r="AS18" s="183"/>
+      <c r="AT18" s="186"/>
+      <c r="AU18" s="186"/>
+      <c r="AV18" s="186"/>
+      <c r="AW18" s="186"/>
+      <c r="AX18" s="172"/>
+      <c r="AY18" s="172"/>
+      <c r="AZ18" s="172"/>
+      <c r="BA18" s="172"/>
+      <c r="BB18" s="172"/>
+      <c r="BC18" s="172"/>
+      <c r="BD18" s="172"/>
+      <c r="BE18" s="172"/>
+      <c r="BF18" s="172"/>
     </row>
   </sheetData>
-  <mergeCells count="173">
-    <mergeCell ref="AJ14:AL14"/>
+  <mergeCells count="174">
+    <mergeCell ref="T11:U11"/>
+    <mergeCell ref="E2:N2"/>
+    <mergeCell ref="O10:S10"/>
+    <mergeCell ref="T13:U13"/>
+    <mergeCell ref="V13:Y13"/>
+    <mergeCell ref="T15:U15"/>
+    <mergeCell ref="V15:Y15"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="T16:U16"/>
+    <mergeCell ref="V16:Y16"/>
+    <mergeCell ref="T17:U17"/>
+    <mergeCell ref="O13:S13"/>
+    <mergeCell ref="O14:S14"/>
+    <mergeCell ref="V11:Y11"/>
+    <mergeCell ref="T7:U8"/>
+    <mergeCell ref="O16:S16"/>
+    <mergeCell ref="T14:U14"/>
+    <mergeCell ref="O7:S8"/>
+    <mergeCell ref="M7:N8"/>
+    <mergeCell ref="V7:Y8"/>
+    <mergeCell ref="V10:Y10"/>
+    <mergeCell ref="F11:L11"/>
+    <mergeCell ref="S1:Z3"/>
+    <mergeCell ref="Z11:AA11"/>
+    <mergeCell ref="AC1:AF1"/>
+    <mergeCell ref="AG1:AI1"/>
+    <mergeCell ref="AC2:AF2"/>
+    <mergeCell ref="AG2:AI2"/>
+    <mergeCell ref="AC3:AF3"/>
+    <mergeCell ref="AG3:AI3"/>
+    <mergeCell ref="AB17:AD17"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="F14:L14"/>
+    <mergeCell ref="V14:Y14"/>
+    <mergeCell ref="M17:N17"/>
+    <mergeCell ref="E3:N3"/>
+    <mergeCell ref="C7:E8"/>
+    <mergeCell ref="Z10:AA10"/>
+    <mergeCell ref="C10:E10"/>
+    <mergeCell ref="F10:L10"/>
+    <mergeCell ref="T10:U10"/>
+    <mergeCell ref="M10:N10"/>
+    <mergeCell ref="C9:E9"/>
+    <mergeCell ref="F9:L9"/>
+    <mergeCell ref="T9:U9"/>
+    <mergeCell ref="Z9:AA9"/>
+    <mergeCell ref="F7:L8"/>
+    <mergeCell ref="O11:S11"/>
+    <mergeCell ref="T18:U18"/>
+    <mergeCell ref="V18:Y18"/>
+    <mergeCell ref="Z18:AA18"/>
+    <mergeCell ref="AB18:AD18"/>
+    <mergeCell ref="M11:N11"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="F18:L18"/>
+    <mergeCell ref="M18:N18"/>
+    <mergeCell ref="O18:S18"/>
+    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="F17:L17"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:L15"/>
+    <mergeCell ref="M15:N15"/>
+    <mergeCell ref="O15:S15"/>
+    <mergeCell ref="C12:E12"/>
+    <mergeCell ref="F12:L12"/>
+    <mergeCell ref="O12:S12"/>
+    <mergeCell ref="T12:U12"/>
+    <mergeCell ref="M12:N12"/>
+    <mergeCell ref="C11:E11"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="F16:L16"/>
+    <mergeCell ref="M16:N16"/>
+    <mergeCell ref="AE18:AG18"/>
+    <mergeCell ref="AB12:AD12"/>
+    <mergeCell ref="AH12:AM12"/>
+    <mergeCell ref="V12:Y12"/>
+    <mergeCell ref="AB16:AD16"/>
+    <mergeCell ref="Z17:AA17"/>
+    <mergeCell ref="AN13:AO13"/>
+    <mergeCell ref="AP13:AS13"/>
+    <mergeCell ref="AN12:AO12"/>
+    <mergeCell ref="AH15:AM15"/>
+    <mergeCell ref="AB14:AD14"/>
+    <mergeCell ref="V17:Y17"/>
+    <mergeCell ref="Z15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="AH14:AM14"/>
+    <mergeCell ref="AH18:AM18"/>
+    <mergeCell ref="AH17:AM17"/>
+    <mergeCell ref="AH16:AM16"/>
+    <mergeCell ref="AE16:AG16"/>
+    <mergeCell ref="AN16:AO16"/>
+    <mergeCell ref="Z14:AA14"/>
+    <mergeCell ref="Z16:AA16"/>
+    <mergeCell ref="AE17:AG17"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="AX13:BF13"/>
+    <mergeCell ref="AX10:BF10"/>
+    <mergeCell ref="AP10:AS10"/>
+    <mergeCell ref="AB10:AD10"/>
+    <mergeCell ref="AH10:AM10"/>
+    <mergeCell ref="AB13:AD13"/>
+    <mergeCell ref="AX11:BF11"/>
+    <mergeCell ref="AE12:AG12"/>
+    <mergeCell ref="AH13:AM13"/>
+    <mergeCell ref="AE13:AG13"/>
+    <mergeCell ref="AN11:AO11"/>
+    <mergeCell ref="AP11:AS11"/>
+    <mergeCell ref="AB11:AD11"/>
+    <mergeCell ref="AH11:AM11"/>
+    <mergeCell ref="AT10:AW10"/>
+    <mergeCell ref="AT11:AW11"/>
+    <mergeCell ref="AT12:AW12"/>
+    <mergeCell ref="AP12:AS12"/>
+    <mergeCell ref="AT13:AW13"/>
+    <mergeCell ref="AN10:AO10"/>
+    <mergeCell ref="AE11:AG11"/>
+    <mergeCell ref="AN8:AO8"/>
+    <mergeCell ref="AP8:AS8"/>
+    <mergeCell ref="AN9:AO9"/>
+    <mergeCell ref="AP9:AS9"/>
+    <mergeCell ref="AX9:BF9"/>
+    <mergeCell ref="AN7:AS7"/>
+    <mergeCell ref="AT7:AW8"/>
+    <mergeCell ref="AT9:AW9"/>
+    <mergeCell ref="AX12:BF12"/>
+    <mergeCell ref="AH9:AM9"/>
+    <mergeCell ref="AE7:AM7"/>
+    <mergeCell ref="AE9:AG9"/>
+    <mergeCell ref="AX18:BF18"/>
+    <mergeCell ref="AX16:BF16"/>
+    <mergeCell ref="AX17:BF17"/>
+    <mergeCell ref="AP16:AS16"/>
+    <mergeCell ref="AX14:BF14"/>
+    <mergeCell ref="AN15:AO15"/>
+    <mergeCell ref="AP15:AS15"/>
+    <mergeCell ref="AX15:BF15"/>
+    <mergeCell ref="AN14:AO14"/>
+    <mergeCell ref="AP14:AS14"/>
+    <mergeCell ref="AN18:AO18"/>
+    <mergeCell ref="AP18:AS18"/>
+    <mergeCell ref="AT14:AW14"/>
+    <mergeCell ref="AT15:AW15"/>
+    <mergeCell ref="AT16:AW16"/>
+    <mergeCell ref="AT17:AW17"/>
+    <mergeCell ref="AT18:AW18"/>
+    <mergeCell ref="AN17:AO17"/>
+    <mergeCell ref="AP17:AS17"/>
+    <mergeCell ref="AE10:AG10"/>
+    <mergeCell ref="AX7:BF8"/>
+    <mergeCell ref="AE8:AG8"/>
+    <mergeCell ref="AH8:AM8"/>
+    <mergeCell ref="B7:B8"/>
+    <mergeCell ref="AE14:AG14"/>
     <mergeCell ref="A1:D1"/>
     <mergeCell ref="A2:D2"/>
     <mergeCell ref="A3:D3"/>
@@ -7853,182 +7901,33 @@
     <mergeCell ref="AA2:AB2"/>
     <mergeCell ref="AA3:AB3"/>
     <mergeCell ref="E1:N1"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="E13:K13"/>
-    <mergeCell ref="L13:M13"/>
-    <mergeCell ref="L14:M14"/>
-    <mergeCell ref="Y12:Z12"/>
-    <mergeCell ref="Y13:Z13"/>
-    <mergeCell ref="Y7:Z8"/>
-    <mergeCell ref="N9:R9"/>
-    <mergeCell ref="L9:M9"/>
-    <mergeCell ref="U9:X9"/>
-    <mergeCell ref="AA7:AC8"/>
-    <mergeCell ref="AA9:AC9"/>
-    <mergeCell ref="AD9:AI9"/>
-    <mergeCell ref="AD7:AL7"/>
-    <mergeCell ref="AJ9:AL9"/>
-    <mergeCell ref="AW18:BE18"/>
-    <mergeCell ref="AW16:BE16"/>
-    <mergeCell ref="AW17:BE17"/>
-    <mergeCell ref="AO16:AR16"/>
-    <mergeCell ref="AW14:BE14"/>
-    <mergeCell ref="AM15:AN15"/>
-    <mergeCell ref="AO15:AR15"/>
-    <mergeCell ref="AW15:BE15"/>
-    <mergeCell ref="AM14:AN14"/>
-    <mergeCell ref="AO14:AR14"/>
-    <mergeCell ref="AM18:AN18"/>
-    <mergeCell ref="AO18:AR18"/>
-    <mergeCell ref="AS14:AV14"/>
-    <mergeCell ref="AS15:AV15"/>
-    <mergeCell ref="AS16:AV16"/>
-    <mergeCell ref="AS17:AV17"/>
-    <mergeCell ref="AS18:AV18"/>
-    <mergeCell ref="AM17:AN17"/>
-    <mergeCell ref="AO17:AR17"/>
-    <mergeCell ref="AJ10:AL10"/>
-    <mergeCell ref="AW7:BE8"/>
-    <mergeCell ref="AM8:AN8"/>
-    <mergeCell ref="AO8:AR8"/>
-    <mergeCell ref="AM9:AN9"/>
-    <mergeCell ref="AO9:AR9"/>
-    <mergeCell ref="AW9:BE9"/>
-    <mergeCell ref="AM7:AR7"/>
-    <mergeCell ref="AS7:AV8"/>
-    <mergeCell ref="AS9:AV9"/>
-    <mergeCell ref="AD8:AI8"/>
-    <mergeCell ref="AW12:BE12"/>
-    <mergeCell ref="AW13:BE13"/>
-    <mergeCell ref="AW10:BE10"/>
-    <mergeCell ref="AO10:AR10"/>
-    <mergeCell ref="AA10:AC10"/>
-    <mergeCell ref="AD10:AI10"/>
-    <mergeCell ref="AA13:AC13"/>
-    <mergeCell ref="AW11:BE11"/>
-    <mergeCell ref="AJ12:AL12"/>
-    <mergeCell ref="AD13:AI13"/>
-    <mergeCell ref="AJ13:AL13"/>
-    <mergeCell ref="AM11:AN11"/>
-    <mergeCell ref="AO11:AR11"/>
-    <mergeCell ref="AA11:AC11"/>
-    <mergeCell ref="AD11:AI11"/>
-    <mergeCell ref="AS10:AV10"/>
-    <mergeCell ref="AS11:AV11"/>
-    <mergeCell ref="AS12:AV12"/>
-    <mergeCell ref="AO12:AR12"/>
-    <mergeCell ref="AS13:AV13"/>
-    <mergeCell ref="AM10:AN10"/>
-    <mergeCell ref="AJ8:AL8"/>
-    <mergeCell ref="AJ11:AL11"/>
-    <mergeCell ref="AJ18:AL18"/>
-    <mergeCell ref="AA12:AC12"/>
-    <mergeCell ref="AD12:AI12"/>
-    <mergeCell ref="U12:X12"/>
-    <mergeCell ref="AA16:AC16"/>
-    <mergeCell ref="Y17:Z17"/>
-    <mergeCell ref="AM13:AN13"/>
-    <mergeCell ref="AO13:AR13"/>
-    <mergeCell ref="AM12:AN12"/>
-    <mergeCell ref="AD15:AI15"/>
-    <mergeCell ref="AA14:AC14"/>
-    <mergeCell ref="U17:X17"/>
-    <mergeCell ref="Y15:Z15"/>
-    <mergeCell ref="AA15:AC15"/>
-    <mergeCell ref="AD14:AI14"/>
-    <mergeCell ref="AD18:AI18"/>
-    <mergeCell ref="AD17:AI17"/>
-    <mergeCell ref="AD16:AI16"/>
-    <mergeCell ref="AJ16:AL16"/>
-    <mergeCell ref="AM16:AN16"/>
-    <mergeCell ref="Y14:Z14"/>
-    <mergeCell ref="Y16:Z16"/>
-    <mergeCell ref="AJ17:AL17"/>
-    <mergeCell ref="AJ15:AL15"/>
-    <mergeCell ref="S18:T18"/>
-    <mergeCell ref="U18:X18"/>
-    <mergeCell ref="Y18:Z18"/>
-    <mergeCell ref="AA18:AC18"/>
-    <mergeCell ref="L11:M11"/>
-    <mergeCell ref="B18:D18"/>
-    <mergeCell ref="E18:K18"/>
-    <mergeCell ref="L18:M18"/>
-    <mergeCell ref="N18:R18"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="E17:K17"/>
-    <mergeCell ref="B15:D15"/>
-    <mergeCell ref="E15:K15"/>
-    <mergeCell ref="L15:M15"/>
-    <mergeCell ref="N15:R15"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:K12"/>
-    <mergeCell ref="N12:R12"/>
-    <mergeCell ref="S12:T12"/>
-    <mergeCell ref="L12:M12"/>
-    <mergeCell ref="B11:D11"/>
-    <mergeCell ref="B16:D16"/>
-    <mergeCell ref="E16:K16"/>
-    <mergeCell ref="L16:M16"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AI1"/>
-    <mergeCell ref="AC2:AF2"/>
-    <mergeCell ref="AG2:AI2"/>
-    <mergeCell ref="AC3:AF3"/>
-    <mergeCell ref="AG3:AI3"/>
-    <mergeCell ref="AA17:AC17"/>
-    <mergeCell ref="B14:D14"/>
-    <mergeCell ref="E14:K14"/>
-    <mergeCell ref="U14:X14"/>
-    <mergeCell ref="L17:M17"/>
-    <mergeCell ref="E3:N3"/>
-    <mergeCell ref="B7:D8"/>
-    <mergeCell ref="Y10:Z10"/>
-    <mergeCell ref="B10:D10"/>
-    <mergeCell ref="E10:K10"/>
-    <mergeCell ref="S10:T10"/>
-    <mergeCell ref="L10:M10"/>
-    <mergeCell ref="B9:D9"/>
-    <mergeCell ref="E9:K9"/>
-    <mergeCell ref="S9:T9"/>
-    <mergeCell ref="Y9:Z9"/>
-    <mergeCell ref="E7:K8"/>
-    <mergeCell ref="N11:R11"/>
-    <mergeCell ref="S11:T11"/>
-    <mergeCell ref="E2:N2"/>
-    <mergeCell ref="N10:R10"/>
-    <mergeCell ref="S13:T13"/>
-    <mergeCell ref="U13:X13"/>
-    <mergeCell ref="S15:T15"/>
-    <mergeCell ref="U15:X15"/>
-    <mergeCell ref="N17:R17"/>
-    <mergeCell ref="S16:T16"/>
-    <mergeCell ref="U16:X16"/>
-    <mergeCell ref="S17:T17"/>
-    <mergeCell ref="N13:R13"/>
-    <mergeCell ref="N14:R14"/>
-    <mergeCell ref="U11:X11"/>
-    <mergeCell ref="S7:T8"/>
-    <mergeCell ref="N16:R16"/>
-    <mergeCell ref="S14:T14"/>
-    <mergeCell ref="N7:R8"/>
-    <mergeCell ref="L7:M8"/>
-    <mergeCell ref="U7:X8"/>
-    <mergeCell ref="U10:X10"/>
-    <mergeCell ref="E11:K11"/>
-    <mergeCell ref="S1:Z3"/>
-    <mergeCell ref="Y11:Z11"/>
+    <mergeCell ref="C13:E13"/>
+    <mergeCell ref="F13:L13"/>
+    <mergeCell ref="M13:N13"/>
+    <mergeCell ref="M14:N14"/>
+    <mergeCell ref="Z12:AA12"/>
+    <mergeCell ref="Z13:AA13"/>
+    <mergeCell ref="Z7:AA8"/>
+    <mergeCell ref="O9:S9"/>
+    <mergeCell ref="M9:N9"/>
+    <mergeCell ref="V9:Y9"/>
+    <mergeCell ref="AB7:AD8"/>
+    <mergeCell ref="AB9:AD9"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
-  <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="L9:M18">
+  <dataValidations disablePrompts="1" count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M9:N18">
       <formula1>"入力,出力"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Z9:AA18">
+      <formula1>"有り,無し"</formula1>
     </dataValidation>
   </dataValidations>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0.19685039370078741" footer="0.19685039370078741"/>
-  <pageSetup paperSize="9" scale="61" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" useFirstPageNumber="1" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="60" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" useFirstPageNumber="1" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddFooter>&amp;C- &amp;P -</oddFooter>
+    <oddFooter>&amp;C&amp;"ＭＳ 明朝,標準"- &amp;P -</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
